--- a/Listado_de_asistencia.xlsx
+++ b/Listado_de_asistencia.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL DE FIRMAS" sheetId="1" r:id="rId4"/>
-    <sheet name="Cuestionario" sheetId="2" r:id="rId5"/>
+    <sheet name="CONTROL DE FIRMAS 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Cuestionario" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CONTROL DE FIRMAS'!$C$1:$J$57</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>DOCUMENTO CONTROL DE FIRMAS</t>
   </si>
@@ -128,16 +129,16 @@
     </r>
   </si>
   <si>
-    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Procesos Agile – IT Bimodal Nº CONVOCATORIA: 19494</t>
-  </si>
-  <si>
-    <t>Nº: 148 GRUPO: 8 FECHA DE INICIO: 27-11-2017 FECHA FIN: 27-11-2017</t>
+    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: BootCamp Chapter Lead Tribu Jazztel Nº CONVOCATORIA: 19475</t>
+  </si>
+  <si>
+    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 27-11-2017 FECHA FIN: 27-11-2017</t>
   </si>
   <si>
     <t>FORMADOR/RESPONSABLE DE FORMACIÓN:</t>
   </si>
   <si>
-    <t>SESIÓN Nº: 1 de 1 FECHA: 27-11-2017 HORARIO: 04:00 - 06:00</t>
+    <t>SESIÓN Nº: 2 de 2 FECHA: 27-11-2017 HORARIO: 09:00 - 06:00</t>
   </si>
   <si>
     <t>Firmado:</t>
@@ -216,61 +217,181 @@
     <t xml:space="preserve">Tarde </t>
   </si>
   <si>
-    <t>PEREZ CERVANTES, JUAN DIEGO</t>
-  </si>
-  <si>
-    <t>052129989Y</t>
-  </si>
-  <si>
-    <t>EGIDO GONZALEZ, Mª DE LA LUZ</t>
-  </si>
-  <si>
-    <t>005248486R</t>
-  </si>
-  <si>
-    <t>MONDRIA GARCIA, EMILIO</t>
-  </si>
-  <si>
-    <t>079266073T</t>
-  </si>
-  <si>
-    <t>ALFARO ROCA, EDUARDO</t>
-  </si>
-  <si>
-    <t>020436831C</t>
-  </si>
-  <si>
-    <t>GARCIA GARCIA, ANDRES</t>
-  </si>
-  <si>
-    <t>033497798T</t>
-  </si>
-  <si>
-    <t>LOPEZ GADEA, RAMON</t>
-  </si>
-  <si>
-    <t>021483453G</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ CUEVA, PEDRO</t>
-  </si>
-  <si>
-    <t>010602892F</t>
-  </si>
-  <si>
-    <t>VILLAR CHICOTE, LAURA</t>
-  </si>
-  <si>
-    <t>016586367D</t>
-  </si>
-  <si>
-    <t>GARCIA VALIÑO, OSCAR</t>
-  </si>
-  <si>
-    <t>046898915Y</t>
+    <t>ALONSO GARCIA, IGNACIO</t>
+  </si>
+  <si>
+    <t>007223527D</t>
+  </si>
+  <si>
+    <t>MARIN FERNANDEZ, PILAR</t>
+  </si>
+  <si>
+    <t>050094366K</t>
+  </si>
+  <si>
+    <t>ACOSTA SOLER, PATRICIA</t>
+  </si>
+  <si>
+    <t>002898476Q</t>
+  </si>
+  <si>
+    <t>GODOY RUBIO, FRANCISCO</t>
+  </si>
+  <si>
+    <t>051918017W</t>
+  </si>
+  <si>
+    <t>MARTINEZ RUIZ, ANA MARIA</t>
+  </si>
+  <si>
+    <t>050965327H</t>
+  </si>
+  <si>
+    <t>MARZO DE LECEA, MARIA JESUS</t>
+  </si>
+  <si>
+    <t>030640549H</t>
+  </si>
+  <si>
+    <t>BUJALANCE GONZALEZ, GUILLERMO</t>
+  </si>
+  <si>
+    <t>005269437E</t>
+  </si>
+  <si>
+    <t>NUÑEZ BURGOS, LIDIA</t>
+  </si>
+  <si>
+    <t>045422509Q</t>
+  </si>
+  <si>
+    <t>HUERTAS DIAZ, ESTHER</t>
+  </si>
+  <si>
+    <t>033513542N</t>
+  </si>
+  <si>
+    <t>ESCALONA ARQUERO, FRANCISCO BORJA</t>
+  </si>
+  <si>
+    <t>051932614V</t>
+  </si>
+  <si>
+    <t>FUENTES ESTEBAN, MANUEL</t>
+  </si>
+  <si>
+    <t>024271523Z</t>
+  </si>
+  <si>
+    <t>FERNANDEZ CALVO, Mª RAQUEL</t>
+  </si>
+  <si>
+    <t>050442620D</t>
+  </si>
+  <si>
+    <t>VALERDI TORMO, JOSE</t>
+  </si>
+  <si>
+    <t>024363401F</t>
+  </si>
+  <si>
+    <t>SEGOVIA JIMENEZ, FRANCISCO JOSE</t>
+  </si>
+  <si>
+    <t>050075553E</t>
   </si>
   <si>
     <t>OBSERVACIONES GENERALES:</t>
+  </si>
+  <si>
+    <t>CLARET TREMPS, JESUS</t>
+  </si>
+  <si>
+    <t>050093751G</t>
+  </si>
+  <si>
+    <t>HERNANDEZ AMIGO, DAVID</t>
+  </si>
+  <si>
+    <t>053400030X</t>
+  </si>
+  <si>
+    <t>ALVAREZ ESCRIVA, AMPARO</t>
+  </si>
+  <si>
+    <t>009793790E</t>
+  </si>
+  <si>
+    <t>BROX ALARCON, ANA RUS</t>
+  </si>
+  <si>
+    <t>070516809M</t>
+  </si>
+  <si>
+    <t>PEREZ CHANES, EMMA</t>
+  </si>
+  <si>
+    <t>050731189C</t>
+  </si>
+  <si>
+    <t>GARCIA DE LA SERNA, Mª ISABEL</t>
+  </si>
+  <si>
+    <t>011817035A</t>
+  </si>
+  <si>
+    <t>SOBRINO LOZANO, MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>050185579Q</t>
+  </si>
+  <si>
+    <t>DIAZ CORUJO, BEATRIZ</t>
+  </si>
+  <si>
+    <t>009794517J</t>
+  </si>
+  <si>
+    <t>CUADROS PRIETO, CARMEN</t>
+  </si>
+  <si>
+    <t>008935096X</t>
+  </si>
+  <si>
+    <t>MARTINEZ ORTAL, FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>005433916M</t>
+  </si>
+  <si>
+    <t>MARTIN ALBERDI, DAVID</t>
+  </si>
+  <si>
+    <t>052989456D</t>
+  </si>
+  <si>
+    <t>GARCIA GARCIA ABADILLO, JORGE</t>
+  </si>
+  <si>
+    <t>046886010G</t>
+  </si>
+  <si>
+    <t>LASTRA ARAS, ANA ANGELA</t>
+  </si>
+  <si>
+    <t>016046719X</t>
+  </si>
+  <si>
+    <t>REINA GARCIA, CARMEN</t>
+  </si>
+  <si>
+    <t>033515144G</t>
+  </si>
+  <si>
+    <t>LAHOZ SEVILLA, FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>052989138J</t>
   </si>
   <si>
     <t>CUESTIONARIO PARA LA EVALUACIÓN DE LA CALIDAD DE LAS ACCIONES FORMATIVAS 
@@ -997,6 +1118,24 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000080"/>
       <name val="Verdana"/>
@@ -1029,29 +1168,20 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="9"/>
-      <color rgb="FF000080"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
+      <color rgb="FF993300"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF993300"/>
       <name val="Arial"/>
     </font>
@@ -1071,15 +1201,6 @@
       <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="8"/>
-      <color rgb="FF993300"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1720,6 +1841,284 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFCC99"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFCC99"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFCC99"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFCC99"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -1760,27 +2159,6 @@
       <top style="thin">
         <color rgb="FF969696"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1812,268 +2190,11 @@
         <color rgb="FF969696"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFCC99"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFCC99"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFCC99"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFCC99"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="329">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2539,10 +2660,85 @@
     <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -2554,28 +2750,22 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -2584,7 +2774,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="37" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
@@ -2593,65 +2783,80 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="42" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="62" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2662,22 +2867,301 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="77" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="67" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="65" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="66" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="78" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="66" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="37" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="79" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="80" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="67" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="90" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="91" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="92" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="93" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="94" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="95" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2689,371 +3173,14 @@
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="96" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="98" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="92" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="93" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="95" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="92" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="92" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="92" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="92" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="88" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="89" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="96" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="90" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="91" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="92" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="97" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="98" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="68" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="69" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="70" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="92" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="98" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="93" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="95" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="90" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="91" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3064,7 +3191,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3422,8 +3549,8 @@
   </sheetPr>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3451,16 +3578,16 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:15" customHeight="1" ht="33">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="180" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
       <c r="J3" s="151"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -3475,15 +3602,15 @@
       <c r="B5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="164"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="187"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -3491,16 +3618,16 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="166"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="189"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -3508,16 +3635,16 @@
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:15" customHeight="1" ht="12.75">
-      <c r="B7" s="158"/>
-      <c r="C7" s="167" t="s">
+      <c r="B7" s="183"/>
+      <c r="C7" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="192"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -3525,7 +3652,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="158"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3540,16 +3667,16 @@
       <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:15" customHeight="1" ht="13.5">
-      <c r="B9" s="159"/>
-      <c r="C9" s="170" t="s">
+      <c r="B9" s="184"/>
+      <c r="C9" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -3560,14 +3687,14 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:15" customHeight="1" ht="27.75">
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
     </row>
     <row r="12" spans="1:15" customHeight="1" ht="19.5">
       <c r="B12" s="130"/>
@@ -3580,16 +3707,16 @@
       <c r="I12" s="144"/>
     </row>
     <row r="13" spans="1:15" customHeight="1" ht="15">
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="326"/>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" spans="1:15" customHeight="1" ht="15">
       <c r="B14" s="125"/>
@@ -3602,13 +3729,13 @@
       <c r="I14" s="145"/>
     </row>
     <row r="15" spans="1:15" customHeight="1" ht="15">
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="177" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="161"/>
-      <c r="E15" s="161"/>
-      <c r="F15" s="161"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="145"/>
@@ -3624,10 +3751,10 @@
       <c r="I16" s="145"/>
     </row>
     <row r="17" spans="1:15" customHeight="1" ht="15">
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="161"/>
+      <c r="C17" s="178"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
@@ -3646,15 +3773,15 @@
       <c r="I18" s="145"/>
     </row>
     <row r="19" spans="1:15" customHeight="1" ht="15">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
       <c r="I19" s="146"/>
     </row>
     <row r="20" spans="1:15" customHeight="1" ht="15">
@@ -3706,31 +3833,31 @@
     </row>
     <row r="25" spans="1:15" customHeight="1" ht="30.75">
       <c r="C25" s="7"/>
-      <c r="E25" s="182" t="s">
+      <c r="E25" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="183"/>
-      <c r="G25" s="183"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="184"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="168"/>
     </row>
     <row r="26" spans="1:15" customHeight="1" ht="39">
-      <c r="B26" s="191" t="s">
+      <c r="B26" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="191"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="189" t="s">
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="190"/>
-      <c r="G26" s="187" t="s">
+      <c r="F26" s="174"/>
+      <c r="G26" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="187" t="s">
+      <c r="H26" s="171" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="185" t="s">
+      <c r="I26" s="169" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3750,13 +3877,13 @@
       <c r="F27" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="188"/>
-      <c r="H27" s="188"/>
-      <c r="I27" s="186"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="170"/>
     </row>
     <row r="28" spans="1:15" customHeight="1" ht="35.25">
       <c r="B28" s="152">
-        <v>12241</v>
+        <v>10037</v>
       </c>
       <c r="C28" s="152" t="s">
         <v>23</v>
@@ -3772,7 +3899,7 @@
     </row>
     <row r="29" spans="1:15" customHeight="1" ht="35.25">
       <c r="B29" s="152">
-        <v>13250</v>
+        <v>10209</v>
       </c>
       <c r="C29" s="152" t="s">
         <v>25</v>
@@ -3788,13 +3915,13 @@
     </row>
     <row r="30" spans="1:15" customHeight="1" ht="35.25">
       <c r="B30" s="152">
-        <v>600163</v>
+        <v>10209</v>
       </c>
       <c r="C30" s="152" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D30" s="152" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E30" s="137"/>
       <c r="F30" s="137"/>
@@ -3804,13 +3931,13 @@
     </row>
     <row r="31" spans="1:15" customHeight="1" ht="35.25">
       <c r="B31" s="152">
-        <v>600150</v>
+        <v>10982</v>
       </c>
       <c r="C31" s="152" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D31" s="152" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="137"/>
       <c r="F31" s="137"/>
@@ -3820,13 +3947,13 @@
     </row>
     <row r="32" spans="1:15" customHeight="1" ht="35.25">
       <c r="B32" s="152">
-        <v>600156</v>
+        <v>10982</v>
       </c>
       <c r="C32" s="152" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D32" s="152" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E32" s="137"/>
       <c r="F32" s="137"/>
@@ -3836,13 +3963,13 @@
     </row>
     <row r="33" spans="1:15" customHeight="1" ht="35.25">
       <c r="B33" s="152">
-        <v>600136</v>
+        <v>11214</v>
       </c>
       <c r="C33" s="152" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D33" s="152" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E33" s="137"/>
       <c r="F33" s="137"/>
@@ -3852,13 +3979,13 @@
     </row>
     <row r="34" spans="1:15" customHeight="1" ht="35.25">
       <c r="B34" s="152">
-        <v>801011</v>
+        <v>11214</v>
       </c>
       <c r="C34" s="152" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D34" s="152" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E34" s="137"/>
       <c r="F34" s="137"/>
@@ -3868,13 +3995,13 @@
     </row>
     <row r="35" spans="1:15" customHeight="1" ht="35.25">
       <c r="B35" s="152">
-        <v>803380</v>
+        <v>11951</v>
       </c>
       <c r="C35" s="152" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D35" s="152" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E35" s="137"/>
       <c r="F35" s="137"/>
@@ -3884,13 +4011,13 @@
     </row>
     <row r="36" spans="1:15" customHeight="1" ht="35.25">
       <c r="B36" s="152">
-        <v>806509</v>
+        <v>11951</v>
       </c>
       <c r="C36" s="152" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D36" s="152" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E36" s="137"/>
       <c r="F36" s="137"/>
@@ -3899,9 +4026,15 @@
       <c r="I36" s="128"/>
     </row>
     <row r="37" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
+      <c r="B37" s="152">
+        <v>12474</v>
+      </c>
+      <c r="C37" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="152" t="s">
+        <v>34</v>
+      </c>
       <c r="E37" s="137"/>
       <c r="F37" s="137"/>
       <c r="G37" s="137"/>
@@ -3909,9 +4042,15 @@
       <c r="I37" s="128"/>
     </row>
     <row r="38" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B38" s="152"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
+      <c r="B38" s="152">
+        <v>13453</v>
+      </c>
+      <c r="C38" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="152" t="s">
+        <v>36</v>
+      </c>
       <c r="E38" s="137"/>
       <c r="F38" s="137"/>
       <c r="G38" s="137"/>
@@ -3919,9 +4058,15 @@
       <c r="I38" s="128"/>
     </row>
     <row r="39" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
+      <c r="B39" s="152">
+        <v>13453</v>
+      </c>
+      <c r="C39" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="152" t="s">
+        <v>36</v>
+      </c>
       <c r="E39" s="137"/>
       <c r="F39" s="137"/>
       <c r="G39" s="137"/>
@@ -3929,9 +4074,15 @@
       <c r="I39" s="128"/>
     </row>
     <row r="40" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B40" s="152"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
+      <c r="B40" s="152">
+        <v>12474</v>
+      </c>
+      <c r="C40" s="152" t="s">
+        <v>33</v>
+      </c>
+      <c r="D40" s="152" t="s">
+        <v>34</v>
+      </c>
       <c r="E40" s="137"/>
       <c r="F40" s="137"/>
       <c r="G40" s="137"/>
@@ -3939,9 +4090,15 @@
       <c r="I40" s="128"/>
     </row>
     <row r="41" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
+      <c r="B41" s="152">
+        <v>800211</v>
+      </c>
+      <c r="C41" s="152" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="152" t="s">
+        <v>38</v>
+      </c>
       <c r="E41" s="137"/>
       <c r="F41" s="137"/>
       <c r="G41" s="137"/>
@@ -3949,9 +4106,15 @@
       <c r="I41" s="128"/>
     </row>
     <row r="42" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
+      <c r="B42" s="152">
+        <v>600090</v>
+      </c>
+      <c r="C42" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="152" t="s">
+        <v>40</v>
+      </c>
       <c r="E42" s="137"/>
       <c r="F42" s="137"/>
       <c r="G42" s="137"/>
@@ -3959,9 +4122,15 @@
       <c r="I42" s="128"/>
     </row>
     <row r="43" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
+      <c r="B43" s="152">
+        <v>600090</v>
+      </c>
+      <c r="C43" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="152" t="s">
+        <v>40</v>
+      </c>
       <c r="E43" s="137"/>
       <c r="F43" s="137"/>
       <c r="G43" s="137"/>
@@ -3969,9 +4138,15 @@
       <c r="I43" s="128"/>
     </row>
     <row r="44" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
+      <c r="B44" s="152">
+        <v>801071</v>
+      </c>
+      <c r="C44" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="152" t="s">
+        <v>42</v>
+      </c>
       <c r="E44" s="137"/>
       <c r="F44" s="137"/>
       <c r="G44" s="137"/>
@@ -3979,9 +4154,15 @@
       <c r="I44" s="128"/>
     </row>
     <row r="45" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
+      <c r="B45" s="152">
+        <v>800240</v>
+      </c>
+      <c r="C45" s="152" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="152" t="s">
+        <v>44</v>
+      </c>
       <c r="E45" s="137"/>
       <c r="F45" s="137"/>
       <c r="G45" s="137"/>
@@ -3989,9 +4170,15 @@
       <c r="I45" s="128"/>
     </row>
     <row r="46" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
+      <c r="B46" s="152">
+        <v>800240</v>
+      </c>
+      <c r="C46" s="152" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="152" t="s">
+        <v>44</v>
+      </c>
       <c r="E46" s="137"/>
       <c r="F46" s="137"/>
       <c r="G46" s="137"/>
@@ -3999,9 +4186,15 @@
       <c r="I46" s="128"/>
     </row>
     <row r="47" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
+      <c r="B47" s="152">
+        <v>800242</v>
+      </c>
+      <c r="C47" s="152" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="152" t="s">
+        <v>46</v>
+      </c>
       <c r="E47" s="137"/>
       <c r="F47" s="137"/>
       <c r="G47" s="137"/>
@@ -4009,9 +4202,15 @@
       <c r="I47" s="128"/>
     </row>
     <row r="48" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
+      <c r="B48" s="152">
+        <v>800242</v>
+      </c>
+      <c r="C48" s="152" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="152" t="s">
+        <v>46</v>
+      </c>
       <c r="E48" s="137"/>
       <c r="F48" s="137"/>
       <c r="G48" s="137"/>
@@ -4019,9 +4218,15 @@
       <c r="I48" s="128"/>
     </row>
     <row r="49" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
+      <c r="B49" s="152">
+        <v>600148</v>
+      </c>
+      <c r="C49" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="152" t="s">
+        <v>48</v>
+      </c>
       <c r="E49" s="137"/>
       <c r="F49" s="137"/>
       <c r="G49" s="137"/>
@@ -4029,9 +4234,15 @@
       <c r="I49" s="128"/>
     </row>
     <row r="50" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
+      <c r="B50" s="152">
+        <v>800506</v>
+      </c>
+      <c r="C50" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="152" t="s">
+        <v>50</v>
+      </c>
       <c r="E50" s="137"/>
       <c r="F50" s="137"/>
       <c r="G50" s="137"/>
@@ -4039,9 +4250,15 @@
       <c r="I50" s="128"/>
     </row>
     <row r="51" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
+      <c r="B51" s="152">
+        <v>800506</v>
+      </c>
+      <c r="C51" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="152" t="s">
+        <v>50</v>
+      </c>
       <c r="E51" s="137"/>
       <c r="F51" s="137"/>
       <c r="G51" s="137"/>
@@ -4049,9 +4266,15 @@
       <c r="I51" s="128"/>
     </row>
     <row r="52" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B52" s="153"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
+      <c r="B52" s="153">
+        <v>800211</v>
+      </c>
+      <c r="C52" s="153" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="153" t="s">
+        <v>38</v>
+      </c>
       <c r="E52" s="154"/>
       <c r="F52" s="137"/>
       <c r="G52" s="137"/>
@@ -4070,53 +4293,53 @@
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="B54" s="173" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="174"/>
-      <c r="D54" s="174"/>
-      <c r="E54" s="174"/>
-      <c r="F54" s="174"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="175"/>
+      <c r="B54" s="157" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="158"/>
+      <c r="I54" s="159"/>
       <c r="J54" s="140"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="B55" s="176"/>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="178"/>
+      <c r="B55" s="160"/>
+      <c r="C55" s="161"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="162"/>
       <c r="J55" s="140"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="B56" s="176"/>
-      <c r="C56" s="177"/>
-      <c r="D56" s="177"/>
-      <c r="E56" s="177"/>
-      <c r="F56" s="177"/>
-      <c r="G56" s="177"/>
-      <c r="H56" s="177"/>
-      <c r="I56" s="178"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="161"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="162"/>
       <c r="J56" s="140"/>
     </row>
     <row r="57" spans="1:15" customHeight="1" ht="13.5">
-      <c r="B57" s="179"/>
-      <c r="C57" s="180"/>
-      <c r="D57" s="180"/>
-      <c r="E57" s="180"/>
-      <c r="F57" s="180"/>
-      <c r="G57" s="180"/>
-      <c r="H57" s="180"/>
-      <c r="I57" s="181"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="165"/>
       <c r="J57" s="140"/>
     </row>
     <row r="58" spans="1:15">
@@ -4147,13 +4370,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B54:I57"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B19:H19"/>
@@ -4164,6 +4380,13 @@
     <mergeCell ref="C5:I6"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B54:I57"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.75" right="0.16" top="0.39" bottom="1" header="0" footer="0"/>
@@ -4180,6 +4403,904 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:O60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="true" style="2"/>
+    <col min="2" max="2" width="24.5703125" customWidth="true" style="2"/>
+    <col min="3" max="3" width="24.140625" customWidth="true" style="2"/>
+    <col min="4" max="4" width="16" customWidth="true" style="2"/>
+    <col min="5" max="5" width="14.28515625" customWidth="true" style="2"/>
+    <col min="6" max="6" width="15" customWidth="true" style="2"/>
+    <col min="7" max="7" width="19.7109375" customWidth="true" style="2"/>
+    <col min="8" max="8" width="18.7109375" customWidth="true" style="2"/>
+    <col min="9" max="9" width="20" customWidth="true" style="2"/>
+    <col min="10" max="10" width="22.5703125" customWidth="true" style="2"/>
+    <col min="11" max="11" width="11.42578125" customWidth="true" style="2"/>
+    <col min="12" max="12" width="25.85546875" customWidth="true" style="2"/>
+    <col min="13" max="13" width="91.7109375" customWidth="true" style="2"/>
+    <col min="14" max="14" width="11.42578125" customWidth="true" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" customHeight="1" ht="18">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" customHeight="1" ht="18">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" customHeight="1" ht="30">
+      <c r="B3" s="180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" customHeight="1" ht="15">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" customHeight="1" ht="15">
+      <c r="B5" s="129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="183" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="183"/>
+      <c r="C7" s="190" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="191"/>
+      <c r="H7" s="191"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="183"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" customHeight="1" ht="13.5">
+      <c r="B9" s="184"/>
+      <c r="C9" s="193" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:15" customHeight="1" ht="15">
+      <c r="C11" s="181"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+    </row>
+    <row r="12" spans="1:15" customHeight="1" ht="19.5">
+      <c r="B12" s="130"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="144"/>
+    </row>
+    <row r="13" spans="1:15" customHeight="1" ht="15">
+      <c r="B13" s="177" t="str">
+        <f>'CONTROL DE FIRMAS'!B13:I13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="178"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="179"/>
+    </row>
+    <row r="14" spans="1:15" customHeight="1" ht="15">
+      <c r="B14" s="125"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="145"/>
+    </row>
+    <row r="15" spans="1:15" customHeight="1" ht="15">
+      <c r="B15" s="177" t="str">
+        <f>'CONTROL DE FIRMAS'!B15:F15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="145"/>
+    </row>
+    <row r="16" spans="1:15" customHeight="1" ht="15">
+      <c r="B16" s="132"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="145"/>
+    </row>
+    <row r="17" spans="1:15" customHeight="1" ht="15">
+      <c r="B17" s="177" t="str">
+        <f>'CONTROL DE FIRMAS'!B17:C17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="178"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="156"/>
+    </row>
+    <row r="18" spans="1:15" customHeight="1" ht="15">
+      <c r="B18" s="132"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="145"/>
+    </row>
+    <row r="19" spans="1:15" customHeight="1" ht="15">
+      <c r="B19" s="177" t="str">
+        <f>'CONTROL DE FIRMAS'!B19:H19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="178"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="156"/>
+    </row>
+    <row r="20" spans="1:15" customHeight="1" ht="15">
+      <c r="B20" s="132"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="145"/>
+    </row>
+    <row r="21" spans="1:15" customHeight="1" ht="15">
+      <c r="B21" s="124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="145"/>
+    </row>
+    <row r="22" spans="1:15" customHeight="1" ht="15">
+      <c r="B22" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="145"/>
+    </row>
+    <row r="23" spans="1:15" customHeight="1" ht="17.25">
+      <c r="B23" s="126"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="147"/>
+    </row>
+    <row r="24" spans="1:15" customHeight="1" ht="17.25">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" customHeight="1" ht="39">
+      <c r="C25" s="7"/>
+      <c r="E25" s="166" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="168"/>
+    </row>
+    <row r="26" spans="1:15" customHeight="1" ht="25.5">
+      <c r="B26" s="175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="174"/>
+      <c r="G26" s="171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="171" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="169" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" customHeight="1" ht="22.5" s="150" customFormat="1">
+      <c r="B27" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="170"/>
+    </row>
+    <row r="28" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B28" s="152">
+        <v>802825</v>
+      </c>
+      <c r="C28" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="152" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="127"/>
+    </row>
+    <row r="29" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B29" s="152">
+        <v>802863</v>
+      </c>
+      <c r="C29" s="152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="128"/>
+    </row>
+    <row r="30" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B30" s="152">
+        <v>802863</v>
+      </c>
+      <c r="C30" s="152" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="128"/>
+    </row>
+    <row r="31" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B31" s="152">
+        <v>800296</v>
+      </c>
+      <c r="C31" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="128"/>
+    </row>
+    <row r="32" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B32" s="152">
+        <v>801071</v>
+      </c>
+      <c r="C32" s="152" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="152" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="128"/>
+    </row>
+    <row r="33" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B33" s="152">
+        <v>500328</v>
+      </c>
+      <c r="C33" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="152" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="128"/>
+    </row>
+    <row r="34" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B34" s="152">
+        <v>500328</v>
+      </c>
+      <c r="C34" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="152" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="128"/>
+    </row>
+    <row r="35" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B35" s="152">
+        <v>600148</v>
+      </c>
+      <c r="C35" s="152" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="128"/>
+    </row>
+    <row r="36" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B36" s="152">
+        <v>803749</v>
+      </c>
+      <c r="C36" s="152" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="152" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="128"/>
+    </row>
+    <row r="37" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B37" s="152">
+        <v>800235</v>
+      </c>
+      <c r="C37" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="152" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="128"/>
+    </row>
+    <row r="38" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B38" s="152">
+        <v>800235</v>
+      </c>
+      <c r="C38" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="152" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="128"/>
+    </row>
+    <row r="39" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B39" s="152">
+        <v>800296</v>
+      </c>
+      <c r="C39" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="128"/>
+    </row>
+    <row r="40" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B40" s="152">
+        <v>800362</v>
+      </c>
+      <c r="C40" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="128"/>
+    </row>
+    <row r="41" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B41" s="152">
+        <v>800362</v>
+      </c>
+      <c r="C41" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="128"/>
+    </row>
+    <row r="42" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B42" s="152">
+        <v>804280</v>
+      </c>
+      <c r="C42" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="128"/>
+    </row>
+    <row r="43" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B43" s="152">
+        <v>803837</v>
+      </c>
+      <c r="C43" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="128"/>
+    </row>
+    <row r="44" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B44" s="152">
+        <v>803837</v>
+      </c>
+      <c r="C44" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="128"/>
+    </row>
+    <row r="45" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B45" s="152">
+        <v>801568</v>
+      </c>
+      <c r="C45" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="128"/>
+    </row>
+    <row r="46" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B46" s="152">
+        <v>801568</v>
+      </c>
+      <c r="C46" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="128"/>
+    </row>
+    <row r="47" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B47" s="152">
+        <v>804174</v>
+      </c>
+      <c r="C47" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="152" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="128"/>
+    </row>
+    <row r="48" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B48" s="152">
+        <v>804174</v>
+      </c>
+      <c r="C48" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="152" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="128"/>
+    </row>
+    <row r="49" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B49" s="152">
+        <v>804280</v>
+      </c>
+      <c r="C49" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="128"/>
+    </row>
+    <row r="50" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B50" s="152">
+        <v>803149</v>
+      </c>
+      <c r="C50" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="128"/>
+    </row>
+    <row r="51" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B51" s="152">
+        <v>803149</v>
+      </c>
+      <c r="C51" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="128"/>
+    </row>
+    <row r="52" spans="1:15" customHeight="1" ht="23.25">
+      <c r="B52" s="137">
+        <v>803749</v>
+      </c>
+      <c r="C52" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="128"/>
+    </row>
+    <row r="53" spans="1:15" customHeight="1" ht="15.75">
+      <c r="B53" s="141">
+        <v>803905</v>
+      </c>
+      <c r="C53" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="139" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="B54" s="157">
+        <v>803905</v>
+      </c>
+      <c r="C54" s="158" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="158" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="158"/>
+      <c r="F54" s="158"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="158"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="B55" s="160">
+        <v>806491</v>
+      </c>
+      <c r="C55" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="161"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="B56" s="160">
+        <v>806491</v>
+      </c>
+      <c r="C56" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="161" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="140"/>
+    </row>
+    <row r="57" spans="1:15" customHeight="1" ht="13.5">
+      <c r="B57" s="163">
+        <v>806174</v>
+      </c>
+      <c r="C57" s="164" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="165"/>
+      <c r="J57" s="140"/>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="B58" s="141">
+        <v>806174</v>
+      </c>
+      <c r="C58" s="142" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="B59" s="141"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="141"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="141"/>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="C60" s="9"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="B54:I57"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="C5:I6"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4210,75 +5331,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" customHeight="1" ht="48">
-      <c r="A1" s="193"/>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="195"/>
+      <c r="A1" s="314"/>
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
+      <c r="G1" s="315"/>
+      <c r="H1" s="315"/>
+      <c r="I1" s="315"/>
+      <c r="J1" s="315"/>
+      <c r="K1" s="315"/>
+      <c r="L1" s="315"/>
+      <c r="M1" s="315"/>
+      <c r="N1" s="316"/>
     </row>
     <row r="2" spans="1:84" customHeight="1" ht="51">
-      <c r="A2" s="205" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="206"/>
-      <c r="J2" s="206"/>
-      <c r="K2" s="206"/>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="207"/>
+      <c r="A2" s="326" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="328"/>
       <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:84" customHeight="1" ht="39.75">
-      <c r="A3" s="196" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="198"/>
+      <c r="A3" s="317" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="318"/>
+      <c r="C3" s="318"/>
+      <c r="D3" s="318"/>
+      <c r="E3" s="318"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
+      <c r="K3" s="318"/>
+      <c r="L3" s="318"/>
+      <c r="M3" s="318"/>
+      <c r="N3" s="319"/>
     </row>
     <row r="4" spans="1:84" customHeight="1" ht="40.5">
-      <c r="A4" s="199" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="200"/>
-      <c r="H4" s="200"/>
-      <c r="I4" s="200"/>
-      <c r="J4" s="200"/>
-      <c r="K4" s="200"/>
-      <c r="L4" s="200"/>
-      <c r="M4" s="200"/>
-      <c r="N4" s="201"/>
+      <c r="A4" s="320" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="321"/>
+      <c r="C4" s="321"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="321"/>
+      <c r="G4" s="321"/>
+      <c r="H4" s="321"/>
+      <c r="I4" s="321"/>
+      <c r="J4" s="321"/>
+      <c r="K4" s="321"/>
+      <c r="L4" s="321"/>
+      <c r="M4" s="321"/>
+      <c r="N4" s="322"/>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
@@ -4286,20 +5407,20 @@
       <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:84" customHeight="1" ht="3" s="121" customFormat="1">
-      <c r="A5" s="202"/>
-      <c r="B5" s="203"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="203"/>
-      <c r="J5" s="203"/>
-      <c r="K5" s="203"/>
-      <c r="L5" s="203"/>
-      <c r="M5" s="203"/>
-      <c r="N5" s="204"/>
+      <c r="A5" s="323"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="324"/>
+      <c r="D5" s="324"/>
+      <c r="E5" s="324"/>
+      <c r="F5" s="324"/>
+      <c r="G5" s="324"/>
+      <c r="H5" s="324"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="324"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="324"/>
+      <c r="M5" s="324"/>
+      <c r="N5" s="325"/>
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
       <c r="Q5" s="115"/>
@@ -4307,22 +5428,22 @@
       <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A6" s="208" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="209"/>
-      <c r="E6" s="209"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="210"/>
-      <c r="H6" s="210"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="210"/>
-      <c r="K6" s="210"/>
-      <c r="L6" s="210"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="211"/>
+      <c r="A6" s="299" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="300"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
+      <c r="I6" s="301"/>
+      <c r="J6" s="301"/>
+      <c r="K6" s="301"/>
+      <c r="L6" s="301"/>
+      <c r="M6" s="301"/>
+      <c r="N6" s="302"/>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
@@ -4330,24 +5451,24 @@
       <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="214" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="215"/>
+      <c r="A7" s="305" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="306"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="216" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="217"/>
-      <c r="F7" s="218"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="219"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="219"/>
-      <c r="N7" s="220"/>
+      <c r="D7" s="307" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="308"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="214"/>
+      <c r="H7" s="214"/>
+      <c r="I7" s="214"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="214"/>
+      <c r="L7" s="214"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="215"/>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
@@ -4356,25 +5477,25 @@
     </row>
     <row r="8" spans="1:84">
       <c r="A8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="218"/>
-      <c r="C8" s="220"/>
-      <c r="D8" s="221" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="222"/>
+        <v>88</v>
+      </c>
+      <c r="B8" s="213"/>
+      <c r="C8" s="215"/>
+      <c r="D8" s="309" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="310"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="223" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="225"/>
-      <c r="K8" s="218"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="220"/>
+      <c r="G8" s="311" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="312"/>
+      <c r="I8" s="312"/>
+      <c r="J8" s="313"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="215"/>
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
@@ -4382,22 +5503,22 @@
       <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:84">
-      <c r="A9" s="212" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="213"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="219"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="219"/>
-      <c r="N9" s="220"/>
+      <c r="A9" s="303" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="304"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="215"/>
       <c r="O9" s="120"/>
       <c r="P9" s="115"/>
       <c r="Q9" s="120"/>
@@ -4405,22 +5526,22 @@
       <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:84">
-      <c r="A10" s="283" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="284"/>
-      <c r="C10" s="218"/>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="219"/>
-      <c r="K10" s="219"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="219"/>
-      <c r="N10" s="220"/>
+      <c r="A10" s="211" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="212"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="214"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="214"/>
+      <c r="H10" s="214"/>
+      <c r="I10" s="214"/>
+      <c r="J10" s="214"/>
+      <c r="K10" s="214"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="214"/>
+      <c r="N10" s="215"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
@@ -4473,22 +5594,22 @@
       <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:84" customHeight="1" ht="21">
-      <c r="A13" s="285" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="286"/>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="286"/>
-      <c r="I13" s="286"/>
-      <c r="J13" s="286"/>
-      <c r="K13" s="286"/>
-      <c r="L13" s="286"/>
-      <c r="M13" s="286"/>
-      <c r="N13" s="287"/>
+      <c r="A13" s="216" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="217"/>
+      <c r="C13" s="217"/>
+      <c r="D13" s="217"/>
+      <c r="E13" s="217"/>
+      <c r="F13" s="217"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="217"/>
+      <c r="I13" s="217"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="217"/>
+      <c r="L13" s="217"/>
+      <c r="M13" s="217"/>
+      <c r="N13" s="218"/>
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
@@ -4520,16 +5641,16 @@
     </row>
     <row r="15" spans="1:84">
       <c r="A15" s="28" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="288" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="289"/>
+      <c r="C15" s="219" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="220"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -4550,18 +5671,18 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="233" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
+      <c r="F16" s="236" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="236"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="236"/>
+      <c r="K16" s="237"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
       <c r="N16" s="34"/>
@@ -4576,18 +5697,18 @@
       <c r="A17" s="42"/>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="233" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="234"/>
+      <c r="F17" s="236" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" s="236"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="236"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="237"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="34"/>
@@ -4599,21 +5720,21 @@
       <c r="T17" s="120"/>
     </row>
     <row r="18" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A18" s="229" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="230"/>
-      <c r="C18" s="230"/>
-      <c r="D18" s="231"/>
+      <c r="A18" s="238" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="239"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="286"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="300" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="300"/>
-      <c r="H18" s="300"/>
-      <c r="I18" s="300"/>
-      <c r="J18" s="300"/>
-      <c r="K18" s="301"/>
+      <c r="F18" s="288" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="288"/>
+      <c r="H18" s="288"/>
+      <c r="I18" s="288"/>
+      <c r="J18" s="288"/>
+      <c r="K18" s="289"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
       <c r="N18" s="34"/>
@@ -4625,11 +5746,11 @@
       <c r="T18" s="120"/>
     </row>
     <row r="19" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A19" s="232" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="233"/>
-      <c r="C19" s="234"/>
+      <c r="A19" s="240" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="236"/>
+      <c r="C19" s="237"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="32"/>
@@ -4649,21 +5770,21 @@
       <c r="T19" s="120"/>
     </row>
     <row r="20" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A20" s="232" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="234"/>
+      <c r="A20" s="240" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="236"/>
+      <c r="C20" s="237"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="235" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="235"/>
-      <c r="H20" s="235"/>
-      <c r="I20" s="235"/>
-      <c r="J20" s="235"/>
-      <c r="K20" s="235"/>
+      <c r="F20" s="287" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="287"/>
+      <c r="H20" s="287"/>
+      <c r="I20" s="287"/>
+      <c r="J20" s="287"/>
+      <c r="K20" s="287"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="34"/>
@@ -4675,19 +5796,19 @@
       <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A21" s="232" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="233"/>
+      <c r="A21" s="240" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="236"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="235"/>
-      <c r="G21" s="235"/>
-      <c r="H21" s="235"/>
-      <c r="I21" s="235"/>
-      <c r="J21" s="235"/>
-      <c r="K21" s="235"/>
+      <c r="F21" s="287"/>
+      <c r="G21" s="287"/>
+      <c r="H21" s="287"/>
+      <c r="I21" s="287"/>
+      <c r="J21" s="287"/>
+      <c r="K21" s="287"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="34"/>
@@ -4699,11 +5820,11 @@
       <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A22" s="232" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="233"/>
-      <c r="C22" s="234"/>
+      <c r="A22" s="240" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="236"/>
+      <c r="C22" s="237"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="32"/>
@@ -4723,15 +5844,15 @@
       <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:84" customHeight="1" ht="12">
-      <c r="A23" s="232" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="234"/>
+      <c r="A23" s="240" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="236"/>
+      <c r="C23" s="237"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -4749,15 +5870,15 @@
       <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:84" customHeight="1" ht="12">
-      <c r="A24" s="232" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="233"/>
-      <c r="C24" s="234"/>
+      <c r="A24" s="240" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="236"/>
+      <c r="C24" s="237"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -4775,15 +5896,15 @@
       <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:84" customHeight="1" ht="12">
-      <c r="A25" s="232" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="233"/>
-      <c r="C25" s="234"/>
+      <c r="A25" s="240" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="236"/>
+      <c r="C25" s="237"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -4801,11 +5922,11 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:84" customHeight="1" ht="12">
-      <c r="A26" s="232" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="234"/>
+      <c r="A26" s="240" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="236"/>
+      <c r="C26" s="237"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -4825,20 +5946,20 @@
       <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:84" customHeight="1" ht="12">
-      <c r="A27" s="323" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="324"/>
-      <c r="C27" s="325"/>
+      <c r="A27" s="296" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="297"/>
+      <c r="C27" s="298"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="320" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="320"/>
-      <c r="H27" s="320"/>
-      <c r="I27" s="320"/>
-      <c r="J27" s="320"/>
+      <c r="F27" s="293" t="s">
+        <v>116</v>
+      </c>
+      <c r="G27" s="293"/>
+      <c r="H27" s="293"/>
+      <c r="I27" s="293"/>
+      <c r="J27" s="293"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="59"/>
@@ -4851,18 +5972,18 @@
       <c r="T27" s="120"/>
     </row>
     <row r="28" spans="1:84" customHeight="1" ht="12">
-      <c r="A28" s="317" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="318"/>
-      <c r="C28" s="319"/>
+      <c r="A28" s="290" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="291"/>
+      <c r="C28" s="292"/>
       <c r="D28" s="38"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="320"/>
-      <c r="G28" s="320"/>
-      <c r="H28" s="320"/>
-      <c r="I28" s="320"/>
-      <c r="J28" s="320"/>
+      <c r="F28" s="293"/>
+      <c r="G28" s="293"/>
+      <c r="H28" s="293"/>
+      <c r="I28" s="293"/>
+      <c r="J28" s="293"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="59"/>
@@ -4881,7 +6002,7 @@
       <c r="D29" s="47"/>
       <c r="E29" s="63"/>
       <c r="F29" s="46" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
@@ -4899,13 +6020,13 @@
       <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:84" customHeight="1" ht="12">
-      <c r="A30" s="321"/>
-      <c r="B30" s="322"/>
-      <c r="C30" s="322"/>
-      <c r="D30" s="322"/>
+      <c r="A30" s="294"/>
+      <c r="B30" s="295"/>
+      <c r="C30" s="295"/>
+      <c r="D30" s="295"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
@@ -4923,15 +6044,15 @@
       <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:84" customHeight="1" ht="12">
-      <c r="A31" s="229" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="230"/>
-      <c r="C31" s="230"/>
+      <c r="A31" s="238" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="239"/>
+      <c r="C31" s="239"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -4955,7 +6076,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="46" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -4973,15 +6094,15 @@
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:84" customHeight="1" ht="12">
-      <c r="A33" s="232" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="299"/>
+      <c r="A33" s="240" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="237"/>
+      <c r="C33" s="241"/>
+      <c r="D33" s="241"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
@@ -5022,7 +6143,7 @@
     </row>
     <row r="35" spans="1:84" customHeight="1" ht="12">
       <c r="A35" s="74" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="75"/>
@@ -5046,7 +6167,7 @@
     </row>
     <row r="36" spans="1:84" customHeight="1" ht="12">
       <c r="A36" s="16" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="77"/>
@@ -5070,7 +6191,7 @@
     </row>
     <row r="37" spans="1:84" customHeight="1" ht="12">
       <c r="A37" s="16" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="77"/>
@@ -5094,7 +6215,7 @@
     </row>
     <row r="38" spans="1:84" customHeight="1" ht="12">
       <c r="A38" s="16" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="77"/>
@@ -5118,7 +6239,7 @@
     </row>
     <row r="39" spans="1:84" customHeight="1" ht="12">
       <c r="A39" s="16" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="77"/>
@@ -5142,7 +6263,7 @@
     </row>
     <row r="40" spans="1:84" customHeight="1" ht="12">
       <c r="A40" s="16" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="77"/>
@@ -5166,7 +6287,7 @@
     </row>
     <row r="41" spans="1:84" customHeight="1" ht="12">
       <c r="A41" s="15" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="77"/>
@@ -5255,22 +6376,22 @@
       <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A45" s="226" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="227"/>
-      <c r="C45" s="227"/>
-      <c r="D45" s="227"/>
-      <c r="E45" s="227"/>
-      <c r="F45" s="227"/>
-      <c r="G45" s="227"/>
-      <c r="H45" s="227"/>
-      <c r="I45" s="227"/>
-      <c r="J45" s="227"/>
-      <c r="K45" s="227"/>
-      <c r="L45" s="227"/>
-      <c r="M45" s="227"/>
-      <c r="N45" s="228"/>
+      <c r="A45" s="283" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="284"/>
+      <c r="C45" s="284"/>
+      <c r="D45" s="284"/>
+      <c r="E45" s="284"/>
+      <c r="F45" s="284"/>
+      <c r="G45" s="284"/>
+      <c r="H45" s="284"/>
+      <c r="I45" s="284"/>
+      <c r="J45" s="284"/>
+      <c r="K45" s="284"/>
+      <c r="L45" s="284"/>
+      <c r="M45" s="284"/>
+      <c r="N45" s="285"/>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
       <c r="Q45" s="120"/>
@@ -5279,22 +6400,22 @@
       <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:84">
-      <c r="A46" s="303" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="304"/>
-      <c r="C46" s="304"/>
-      <c r="D46" s="304"/>
-      <c r="E46" s="304"/>
-      <c r="F46" s="304"/>
-      <c r="G46" s="304"/>
-      <c r="H46" s="304"/>
-      <c r="I46" s="304"/>
-      <c r="J46" s="304"/>
-      <c r="K46" s="304"/>
-      <c r="L46" s="304"/>
-      <c r="M46" s="304"/>
-      <c r="N46" s="305"/>
+      <c r="A46" s="197" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="198"/>
+      <c r="C46" s="198"/>
+      <c r="D46" s="198"/>
+      <c r="E46" s="198"/>
+      <c r="F46" s="198"/>
+      <c r="G46" s="198"/>
+      <c r="H46" s="198"/>
+      <c r="I46" s="198"/>
+      <c r="J46" s="198"/>
+      <c r="K46" s="198"/>
+      <c r="L46" s="198"/>
+      <c r="M46" s="198"/>
+      <c r="N46" s="199"/>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
       <c r="Q46" s="120"/>
@@ -5303,20 +6424,20 @@
       <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:84" customHeight="1" ht="25.5" s="123" customFormat="1">
-      <c r="A47" s="306"/>
-      <c r="B47" s="307"/>
-      <c r="C47" s="307"/>
-      <c r="D47" s="307"/>
-      <c r="E47" s="307"/>
-      <c r="F47" s="307"/>
-      <c r="G47" s="307"/>
-      <c r="H47" s="307"/>
-      <c r="I47" s="307"/>
-      <c r="J47" s="307"/>
-      <c r="K47" s="308"/>
-      <c r="L47" s="308"/>
-      <c r="M47" s="308"/>
-      <c r="N47" s="309"/>
+      <c r="A47" s="200"/>
+      <c r="B47" s="201"/>
+      <c r="C47" s="201"/>
+      <c r="D47" s="201"/>
+      <c r="E47" s="201"/>
+      <c r="F47" s="201"/>
+      <c r="G47" s="201"/>
+      <c r="H47" s="201"/>
+      <c r="I47" s="201"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="202"/>
+      <c r="L47" s="202"/>
+      <c r="M47" s="202"/>
+      <c r="N47" s="203"/>
       <c r="O47" s="122"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="122"/>
@@ -5325,18 +6446,18 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A48" s="314" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="315"/>
-      <c r="C48" s="315"/>
-      <c r="D48" s="315"/>
-      <c r="E48" s="315"/>
-      <c r="F48" s="315"/>
-      <c r="G48" s="315"/>
-      <c r="H48" s="315"/>
-      <c r="I48" s="315"/>
-      <c r="J48" s="315"/>
+      <c r="A48" s="208" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="209"/>
+      <c r="C48" s="209"/>
+      <c r="D48" s="209"/>
+      <c r="E48" s="209"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="209"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="209"/>
       <c r="K48" s="88">
         <v>1</v>
       </c>
@@ -5357,18 +6478,18 @@
       <c r="T48" s="122"/>
     </row>
     <row r="49" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A49" s="316" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="316"/>
-      <c r="C49" s="316"/>
-      <c r="D49" s="316"/>
-      <c r="E49" s="316"/>
-      <c r="F49" s="316"/>
-      <c r="G49" s="316"/>
-      <c r="H49" s="316"/>
-      <c r="I49" s="316"/>
-      <c r="J49" s="316"/>
+      <c r="A49" s="210" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="210"/>
+      <c r="C49" s="210"/>
+      <c r="D49" s="210"/>
+      <c r="E49" s="210"/>
+      <c r="F49" s="210"/>
+      <c r="G49" s="210"/>
+      <c r="H49" s="210"/>
+      <c r="I49" s="210"/>
+      <c r="J49" s="210"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -5381,18 +6502,18 @@
       <c r="T49" s="122"/>
     </row>
     <row r="50" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A50" s="316" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" s="316"/>
-      <c r="C50" s="316"/>
-      <c r="D50" s="316"/>
-      <c r="E50" s="316"/>
-      <c r="F50" s="316"/>
-      <c r="G50" s="316"/>
-      <c r="H50" s="316"/>
-      <c r="I50" s="316"/>
-      <c r="J50" s="316"/>
+      <c r="A50" s="210" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="210"/>
+      <c r="C50" s="210"/>
+      <c r="D50" s="210"/>
+      <c r="E50" s="210"/>
+      <c r="F50" s="210"/>
+      <c r="G50" s="210"/>
+      <c r="H50" s="210"/>
+      <c r="I50" s="210"/>
+      <c r="J50" s="210"/>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -5405,18 +6526,18 @@
       <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:84" customHeight="1" ht="15">
-      <c r="A51" s="302" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="302"/>
-      <c r="C51" s="302"/>
-      <c r="D51" s="302"/>
-      <c r="E51" s="302"/>
-      <c r="F51" s="302"/>
-      <c r="G51" s="302"/>
-      <c r="H51" s="302"/>
-      <c r="I51" s="302"/>
-      <c r="J51" s="302"/>
+      <c r="A51" s="196" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="196"/>
+      <c r="C51" s="196"/>
+      <c r="D51" s="196"/>
+      <c r="E51" s="196"/>
+      <c r="F51" s="196"/>
+      <c r="G51" s="196"/>
+      <c r="H51" s="196"/>
+      <c r="I51" s="196"/>
+      <c r="J51" s="196"/>
       <c r="K51" s="88">
         <v>1</v>
       </c>
@@ -5437,54 +6558,54 @@
       <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A52" s="313" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="313"/>
-      <c r="C52" s="313"/>
-      <c r="D52" s="313"/>
-      <c r="E52" s="313"/>
-      <c r="F52" s="313"/>
-      <c r="G52" s="313"/>
-      <c r="H52" s="313"/>
-      <c r="I52" s="313"/>
-      <c r="J52" s="313"/>
+      <c r="A52" s="207" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="207"/>
+      <c r="C52" s="207"/>
+      <c r="D52" s="207"/>
+      <c r="E52" s="207"/>
+      <c r="F52" s="207"/>
+      <c r="G52" s="207"/>
+      <c r="H52" s="207"/>
+      <c r="I52" s="207"/>
+      <c r="J52" s="207"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:84" customHeight="1" ht="14.1" s="120" customFormat="1">
-      <c r="A53" s="313" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="313"/>
-      <c r="C53" s="313"/>
-      <c r="D53" s="313"/>
-      <c r="E53" s="313"/>
-      <c r="F53" s="313"/>
-      <c r="G53" s="313"/>
-      <c r="H53" s="313"/>
-      <c r="I53" s="313"/>
-      <c r="J53" s="313"/>
+      <c r="A53" s="207" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="207"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="207"/>
+      <c r="F53" s="207"/>
+      <c r="G53" s="207"/>
+      <c r="H53" s="207"/>
+      <c r="I53" s="207"/>
+      <c r="J53" s="207"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:84" customHeight="1" ht="15">
-      <c r="A54" s="302" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="302"/>
-      <c r="C54" s="302"/>
-      <c r="D54" s="302"/>
-      <c r="E54" s="302"/>
-      <c r="F54" s="302"/>
-      <c r="G54" s="302"/>
-      <c r="H54" s="302"/>
-      <c r="I54" s="302"/>
-      <c r="J54" s="302"/>
+      <c r="A54" s="196" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="196"/>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="196"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
       <c r="K54" s="88">
         <v>1</v>
       </c>
@@ -5505,62 +6626,62 @@
       <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A55" s="313" t="s">
-        <v>101</v>
-      </c>
-      <c r="B55" s="313"/>
-      <c r="C55" s="313"/>
-      <c r="D55" s="313"/>
-      <c r="E55" s="313"/>
-      <c r="F55" s="313"/>
-      <c r="G55" s="313"/>
-      <c r="H55" s="313"/>
-      <c r="I55" s="313"/>
-      <c r="J55" s="313"/>
+      <c r="A55" s="207" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="207"/>
+      <c r="C55" s="207"/>
+      <c r="D55" s="207"/>
+      <c r="E55" s="207"/>
+      <c r="F55" s="207"/>
+      <c r="G55" s="207"/>
+      <c r="H55" s="207"/>
+      <c r="I55" s="207"/>
+      <c r="J55" s="207"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A56" s="239" t="s">
-        <v>102</v>
-      </c>
-      <c r="B56" s="239"/>
-      <c r="C56" s="239"/>
-      <c r="D56" s="239"/>
-      <c r="E56" s="239"/>
-      <c r="F56" s="239"/>
-      <c r="G56" s="239"/>
-      <c r="H56" s="239"/>
-      <c r="I56" s="239"/>
-      <c r="J56" s="239"/>
+      <c r="A56" s="270" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="270"/>
+      <c r="C56" s="270"/>
+      <c r="D56" s="270"/>
+      <c r="E56" s="270"/>
+      <c r="F56" s="270"/>
+      <c r="G56" s="270"/>
+      <c r="H56" s="270"/>
+      <c r="I56" s="270"/>
+      <c r="J56" s="270"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91"/>
       <c r="N56" s="91"/>
     </row>
     <row r="57" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A57" s="240" t="s">
-        <v>103</v>
-      </c>
-      <c r="B57" s="241"/>
-      <c r="C57" s="241"/>
-      <c r="D57" s="241"/>
-      <c r="E57" s="241"/>
-      <c r="F57" s="242"/>
-      <c r="G57" s="246" t="s">
-        <v>104</v>
-      </c>
-      <c r="H57" s="247"/>
-      <c r="I57" s="247"/>
-      <c r="J57" s="248"/>
-      <c r="K57" s="310" t="s">
-        <v>105</v>
-      </c>
-      <c r="L57" s="311"/>
-      <c r="M57" s="311"/>
-      <c r="N57" s="312"/>
+      <c r="A57" s="271" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="272"/>
+      <c r="C57" s="272"/>
+      <c r="D57" s="272"/>
+      <c r="E57" s="272"/>
+      <c r="F57" s="273"/>
+      <c r="G57" s="277" t="s">
+        <v>144</v>
+      </c>
+      <c r="H57" s="278"/>
+      <c r="I57" s="278"/>
+      <c r="J57" s="279"/>
+      <c r="K57" s="204" t="s">
+        <v>145</v>
+      </c>
+      <c r="L57" s="205"/>
+      <c r="M57" s="205"/>
+      <c r="N57" s="206"/>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -5569,12 +6690,12 @@
       <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A58" s="243"/>
-      <c r="B58" s="244"/>
-      <c r="C58" s="244"/>
-      <c r="D58" s="244"/>
-      <c r="E58" s="244"/>
-      <c r="F58" s="245"/>
+      <c r="A58" s="274"/>
+      <c r="B58" s="275"/>
+      <c r="C58" s="275"/>
+      <c r="D58" s="275"/>
+      <c r="E58" s="275"/>
+      <c r="F58" s="276"/>
       <c r="G58" s="88">
         <v>1</v>
       </c>
@@ -5607,14 +6728,14 @@
       <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A59" s="236" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="237"/>
-      <c r="C59" s="237"/>
-      <c r="D59" s="237"/>
-      <c r="E59" s="237"/>
-      <c r="F59" s="238"/>
+      <c r="A59" s="267" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="268"/>
+      <c r="C59" s="268"/>
+      <c r="D59" s="268"/>
+      <c r="E59" s="268"/>
+      <c r="F59" s="269"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
@@ -5625,14 +6746,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A60" s="236" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="237"/>
-      <c r="C60" s="237"/>
-      <c r="D60" s="237"/>
-      <c r="E60" s="237"/>
-      <c r="F60" s="238"/>
+      <c r="A60" s="267" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="268"/>
+      <c r="C60" s="268"/>
+      <c r="D60" s="268"/>
+      <c r="E60" s="268"/>
+      <c r="F60" s="269"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
@@ -5643,18 +6764,18 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A61" s="249" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="250"/>
-      <c r="C61" s="250"/>
-      <c r="D61" s="250"/>
-      <c r="E61" s="250"/>
-      <c r="F61" s="250"/>
-      <c r="G61" s="250"/>
-      <c r="H61" s="250"/>
-      <c r="I61" s="250"/>
-      <c r="J61" s="251"/>
+      <c r="A61" s="280" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="281"/>
+      <c r="C61" s="281"/>
+      <c r="D61" s="281"/>
+      <c r="E61" s="281"/>
+      <c r="F61" s="281"/>
+      <c r="G61" s="281"/>
+      <c r="H61" s="281"/>
+      <c r="I61" s="281"/>
+      <c r="J61" s="282"/>
       <c r="K61" s="88">
         <v>1</v>
       </c>
@@ -5675,54 +6796,54 @@
       <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A62" s="236" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="237"/>
-      <c r="C62" s="237"/>
-      <c r="D62" s="237"/>
-      <c r="E62" s="237"/>
-      <c r="F62" s="237"/>
-      <c r="G62" s="237"/>
-      <c r="H62" s="237"/>
-      <c r="I62" s="237"/>
-      <c r="J62" s="238"/>
+      <c r="A62" s="267" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="268"/>
+      <c r="C62" s="268"/>
+      <c r="D62" s="268"/>
+      <c r="E62" s="268"/>
+      <c r="F62" s="268"/>
+      <c r="G62" s="268"/>
+      <c r="H62" s="268"/>
+      <c r="I62" s="268"/>
+      <c r="J62" s="269"/>
       <c r="K62" s="93"/>
       <c r="L62" s="90"/>
       <c r="M62" s="90"/>
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A63" s="236" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="237"/>
-      <c r="C63" s="237"/>
-      <c r="D63" s="237"/>
-      <c r="E63" s="237"/>
-      <c r="F63" s="237"/>
-      <c r="G63" s="237"/>
-      <c r="H63" s="237"/>
-      <c r="I63" s="237"/>
-      <c r="J63" s="238"/>
+      <c r="A63" s="267" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="268"/>
+      <c r="C63" s="268"/>
+      <c r="D63" s="268"/>
+      <c r="E63" s="268"/>
+      <c r="F63" s="268"/>
+      <c r="G63" s="268"/>
+      <c r="H63" s="268"/>
+      <c r="I63" s="268"/>
+      <c r="J63" s="269"/>
       <c r="K63" s="93"/>
       <c r="L63" s="90"/>
       <c r="M63" s="90"/>
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:84" customHeight="1" ht="27.75">
-      <c r="A64" s="252" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64" s="253"/>
-      <c r="C64" s="253"/>
-      <c r="D64" s="253"/>
-      <c r="E64" s="253"/>
-      <c r="F64" s="253"/>
-      <c r="G64" s="253"/>
-      <c r="H64" s="253"/>
-      <c r="I64" s="253"/>
-      <c r="J64" s="254"/>
+      <c r="A64" s="258" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="259"/>
+      <c r="C64" s="259"/>
+      <c r="D64" s="259"/>
+      <c r="E64" s="259"/>
+      <c r="F64" s="259"/>
+      <c r="G64" s="259"/>
+      <c r="H64" s="259"/>
+      <c r="I64" s="259"/>
+      <c r="J64" s="260"/>
       <c r="K64" s="94">
         <v>1</v>
       </c>
@@ -5743,18 +6864,18 @@
       <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A65" s="236" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="237"/>
-      <c r="C65" s="237"/>
-      <c r="D65" s="237"/>
-      <c r="E65" s="237"/>
-      <c r="F65" s="237"/>
-      <c r="G65" s="237"/>
-      <c r="H65" s="237"/>
-      <c r="I65" s="237"/>
-      <c r="J65" s="238"/>
+      <c r="A65" s="267" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="268"/>
+      <c r="C65" s="268"/>
+      <c r="D65" s="268"/>
+      <c r="E65" s="268"/>
+      <c r="F65" s="268"/>
+      <c r="G65" s="268"/>
+      <c r="H65" s="268"/>
+      <c r="I65" s="268"/>
+      <c r="J65" s="269"/>
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
       <c r="M65" s="90"/>
@@ -5767,18 +6888,18 @@
       <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A66" s="255" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66" s="256"/>
-      <c r="C66" s="256"/>
-      <c r="D66" s="256"/>
-      <c r="E66" s="256"/>
-      <c r="F66" s="256"/>
-      <c r="G66" s="256"/>
-      <c r="H66" s="256"/>
-      <c r="I66" s="256"/>
-      <c r="J66" s="257"/>
+      <c r="A66" s="230" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="231"/>
+      <c r="C66" s="231"/>
+      <c r="D66" s="231"/>
+      <c r="E66" s="231"/>
+      <c r="F66" s="231"/>
+      <c r="G66" s="231"/>
+      <c r="H66" s="231"/>
+      <c r="I66" s="231"/>
+      <c r="J66" s="232"/>
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
       <c r="M66" s="90"/>
@@ -5791,18 +6912,18 @@
       <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:84" customHeight="1" ht="15">
-      <c r="A67" s="252" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="253"/>
-      <c r="C67" s="253"/>
-      <c r="D67" s="253"/>
-      <c r="E67" s="253"/>
-      <c r="F67" s="253"/>
-      <c r="G67" s="253"/>
-      <c r="H67" s="253"/>
-      <c r="I67" s="253"/>
-      <c r="J67" s="254"/>
+      <c r="A67" s="258" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="259"/>
+      <c r="C67" s="259"/>
+      <c r="D67" s="259"/>
+      <c r="E67" s="259"/>
+      <c r="F67" s="259"/>
+      <c r="G67" s="259"/>
+      <c r="H67" s="259"/>
+      <c r="I67" s="259"/>
+      <c r="J67" s="260"/>
       <c r="K67" s="88">
         <v>1</v>
       </c>
@@ -5823,18 +6944,18 @@
       <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A68" s="255" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="256"/>
-      <c r="C68" s="256"/>
-      <c r="D68" s="256"/>
-      <c r="E68" s="256"/>
-      <c r="F68" s="256"/>
-      <c r="G68" s="256"/>
-      <c r="H68" s="256"/>
-      <c r="I68" s="256"/>
-      <c r="J68" s="257"/>
+      <c r="A68" s="230" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="231"/>
+      <c r="C68" s="231"/>
+      <c r="D68" s="231"/>
+      <c r="E68" s="231"/>
+      <c r="F68" s="231"/>
+      <c r="G68" s="231"/>
+      <c r="H68" s="231"/>
+      <c r="I68" s="231"/>
+      <c r="J68" s="232"/>
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
       <c r="M68" s="90"/>
@@ -5847,18 +6968,18 @@
       <c r="T68" s="120"/>
     </row>
     <row r="69" spans="1:84" customHeight="1" ht="26.25">
-      <c r="A69" s="258" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="259"/>
-      <c r="C69" s="259"/>
-      <c r="D69" s="259"/>
-      <c r="E69" s="259"/>
-      <c r="F69" s="259"/>
-      <c r="G69" s="259"/>
-      <c r="H69" s="259"/>
-      <c r="I69" s="259"/>
-      <c r="J69" s="260"/>
+      <c r="A69" s="261" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="262"/>
+      <c r="C69" s="262"/>
+      <c r="D69" s="262"/>
+      <c r="E69" s="262"/>
+      <c r="F69" s="262"/>
+      <c r="G69" s="262"/>
+      <c r="H69" s="262"/>
+      <c r="I69" s="262"/>
+      <c r="J69" s="263"/>
       <c r="K69" s="91"/>
       <c r="L69" s="91"/>
       <c r="M69" s="91"/>
@@ -5871,22 +6992,22 @@
       <c r="T69" s="120"/>
     </row>
     <row r="70" spans="1:84" customHeight="1" ht="15">
-      <c r="A70" s="261" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" s="262"/>
-      <c r="C70" s="262"/>
-      <c r="D70" s="262"/>
-      <c r="E70" s="262"/>
-      <c r="F70" s="262"/>
-      <c r="G70" s="262"/>
-      <c r="H70" s="262"/>
-      <c r="I70" s="262"/>
-      <c r="J70" s="262"/>
-      <c r="K70" s="262"/>
-      <c r="L70" s="262"/>
-      <c r="M70" s="262"/>
-      <c r="N70" s="263"/>
+      <c r="A70" s="264" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="265"/>
+      <c r="C70" s="265"/>
+      <c r="D70" s="265"/>
+      <c r="E70" s="265"/>
+      <c r="F70" s="265"/>
+      <c r="G70" s="265"/>
+      <c r="H70" s="265"/>
+      <c r="I70" s="265"/>
+      <c r="J70" s="265"/>
+      <c r="K70" s="265"/>
+      <c r="L70" s="265"/>
+      <c r="M70" s="265"/>
+      <c r="N70" s="266"/>
       <c r="O70" s="120"/>
       <c r="P70" s="120"/>
       <c r="Q70" s="120"/>
@@ -5917,24 +7038,24 @@
       <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A72" s="255" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" s="256"/>
-      <c r="C72" s="256"/>
-      <c r="D72" s="256"/>
-      <c r="E72" s="256"/>
-      <c r="F72" s="256"/>
-      <c r="G72" s="256"/>
-      <c r="H72" s="256"/>
-      <c r="I72" s="256"/>
-      <c r="J72" s="257"/>
+      <c r="A72" s="230" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="231"/>
+      <c r="C72" s="231"/>
+      <c r="D72" s="231"/>
+      <c r="E72" s="231"/>
+      <c r="F72" s="231"/>
+      <c r="G72" s="231"/>
+      <c r="H72" s="231"/>
+      <c r="I72" s="231"/>
+      <c r="J72" s="232"/>
       <c r="K72" s="101" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="L72" s="102"/>
       <c r="M72" s="101" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N72" s="103"/>
       <c r="O72" s="120"/>
@@ -5945,24 +7066,24 @@
       <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:84" customHeight="1" ht="23.25">
-      <c r="A73" s="255" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="256"/>
-      <c r="C73" s="256"/>
-      <c r="D73" s="256"/>
-      <c r="E73" s="256"/>
-      <c r="F73" s="256"/>
-      <c r="G73" s="256"/>
-      <c r="H73" s="256"/>
-      <c r="I73" s="256"/>
-      <c r="J73" s="257"/>
+      <c r="A73" s="230" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="231"/>
+      <c r="C73" s="231"/>
+      <c r="D73" s="231"/>
+      <c r="E73" s="231"/>
+      <c r="F73" s="231"/>
+      <c r="G73" s="231"/>
+      <c r="H73" s="231"/>
+      <c r="I73" s="231"/>
+      <c r="J73" s="232"/>
       <c r="K73" s="101" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="L73" s="102"/>
       <c r="M73" s="101" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="N73" s="103"/>
       <c r="O73" s="120"/>
@@ -5995,18 +7116,18 @@
       <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:84" customHeight="1" ht="15">
-      <c r="A75" s="277" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="278"/>
-      <c r="C75" s="278"/>
-      <c r="D75" s="278"/>
-      <c r="E75" s="278"/>
-      <c r="F75" s="278"/>
-      <c r="G75" s="278"/>
-      <c r="H75" s="278"/>
-      <c r="I75" s="278"/>
-      <c r="J75" s="279"/>
+      <c r="A75" s="233" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="234"/>
+      <c r="C75" s="234"/>
+      <c r="D75" s="234"/>
+      <c r="E75" s="234"/>
+      <c r="F75" s="234"/>
+      <c r="G75" s="234"/>
+      <c r="H75" s="234"/>
+      <c r="I75" s="234"/>
+      <c r="J75" s="235"/>
       <c r="K75" s="88">
         <v>1</v>
       </c>
@@ -6091,18 +7212,18 @@
       <c r="CF75" s="120"/>
     </row>
     <row r="76" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A76" s="274" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="275"/>
-      <c r="C76" s="275"/>
-      <c r="D76" s="275"/>
-      <c r="E76" s="275"/>
-      <c r="F76" s="275"/>
-      <c r="G76" s="275"/>
-      <c r="H76" s="275"/>
-      <c r="I76" s="275"/>
-      <c r="J76" s="276"/>
+      <c r="A76" s="252" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="253"/>
+      <c r="C76" s="253"/>
+      <c r="D76" s="253"/>
+      <c r="E76" s="253"/>
+      <c r="F76" s="253"/>
+      <c r="G76" s="253"/>
+      <c r="H76" s="253"/>
+      <c r="I76" s="253"/>
+      <c r="J76" s="254"/>
       <c r="K76" s="109"/>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -6179,18 +7300,18 @@
       <c r="CF76" s="120"/>
     </row>
     <row r="77" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A77" s="274" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="275"/>
-      <c r="C77" s="275"/>
-      <c r="D77" s="275"/>
-      <c r="E77" s="275"/>
-      <c r="F77" s="275"/>
-      <c r="G77" s="275"/>
-      <c r="H77" s="275"/>
-      <c r="I77" s="275"/>
-      <c r="J77" s="276"/>
+      <c r="A77" s="252" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="253"/>
+      <c r="C77" s="253"/>
+      <c r="D77" s="253"/>
+      <c r="E77" s="253"/>
+      <c r="F77" s="253"/>
+      <c r="G77" s="253"/>
+      <c r="H77" s="253"/>
+      <c r="I77" s="253"/>
+      <c r="J77" s="254"/>
       <c r="K77" s="109"/>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -6267,18 +7388,18 @@
       <c r="CF77" s="120"/>
     </row>
     <row r="78" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A78" s="274" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="275"/>
-      <c r="C78" s="275"/>
-      <c r="D78" s="275"/>
-      <c r="E78" s="275"/>
-      <c r="F78" s="275"/>
-      <c r="G78" s="275"/>
-      <c r="H78" s="275"/>
-      <c r="I78" s="275"/>
-      <c r="J78" s="276"/>
+      <c r="A78" s="252" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="253"/>
+      <c r="C78" s="253"/>
+      <c r="D78" s="253"/>
+      <c r="E78" s="253"/>
+      <c r="F78" s="253"/>
+      <c r="G78" s="253"/>
+      <c r="H78" s="253"/>
+      <c r="I78" s="253"/>
+      <c r="J78" s="254"/>
       <c r="K78" s="109"/>
       <c r="L78" s="109"/>
       <c r="M78" s="109"/>
@@ -6355,18 +7476,18 @@
       <c r="CF78" s="120"/>
     </row>
     <row r="79" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A79" s="274" t="s">
-        <v>126</v>
-      </c>
-      <c r="B79" s="275"/>
-      <c r="C79" s="275"/>
-      <c r="D79" s="275"/>
-      <c r="E79" s="275"/>
-      <c r="F79" s="275"/>
-      <c r="G79" s="275"/>
-      <c r="H79" s="275"/>
-      <c r="I79" s="275"/>
-      <c r="J79" s="276"/>
+      <c r="A79" s="252" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="253"/>
+      <c r="C79" s="253"/>
+      <c r="D79" s="253"/>
+      <c r="E79" s="253"/>
+      <c r="F79" s="253"/>
+      <c r="G79" s="253"/>
+      <c r="H79" s="253"/>
+      <c r="I79" s="253"/>
+      <c r="J79" s="254"/>
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
       <c r="M79" s="109"/>
@@ -6443,18 +7564,18 @@
       <c r="CF79" s="120"/>
     </row>
     <row r="80" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A80" s="274" t="s">
-        <v>127</v>
-      </c>
-      <c r="B80" s="275"/>
-      <c r="C80" s="275"/>
-      <c r="D80" s="275"/>
-      <c r="E80" s="275"/>
-      <c r="F80" s="275"/>
-      <c r="G80" s="275"/>
-      <c r="H80" s="275"/>
-      <c r="I80" s="275"/>
-      <c r="J80" s="276"/>
+      <c r="A80" s="252" t="s">
+        <v>167</v>
+      </c>
+      <c r="B80" s="253"/>
+      <c r="C80" s="253"/>
+      <c r="D80" s="253"/>
+      <c r="E80" s="253"/>
+      <c r="F80" s="253"/>
+      <c r="G80" s="253"/>
+      <c r="H80" s="253"/>
+      <c r="I80" s="253"/>
+      <c r="J80" s="254"/>
       <c r="K80" s="109"/>
       <c r="L80" s="109"/>
       <c r="M80" s="109"/>
@@ -6531,18 +7652,18 @@
       <c r="CF80" s="120"/>
     </row>
     <row r="81" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A81" s="265" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="266"/>
-      <c r="C81" s="266"/>
-      <c r="D81" s="266"/>
-      <c r="E81" s="266"/>
-      <c r="F81" s="266"/>
-      <c r="G81" s="266"/>
-      <c r="H81" s="266"/>
-      <c r="I81" s="266"/>
-      <c r="J81" s="267"/>
+      <c r="A81" s="243" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="244"/>
+      <c r="C81" s="244"/>
+      <c r="D81" s="244"/>
+      <c r="E81" s="244"/>
+      <c r="F81" s="244"/>
+      <c r="G81" s="244"/>
+      <c r="H81" s="244"/>
+      <c r="I81" s="244"/>
+      <c r="J81" s="245"/>
       <c r="K81" s="88">
         <v>1</v>
       </c>
@@ -6627,16 +7748,16 @@
       <c r="CF81" s="120"/>
     </row>
     <row r="82" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A82" s="268"/>
-      <c r="B82" s="269"/>
-      <c r="C82" s="269"/>
-      <c r="D82" s="269"/>
-      <c r="E82" s="269"/>
-      <c r="F82" s="269"/>
-      <c r="G82" s="269"/>
-      <c r="H82" s="269"/>
-      <c r="I82" s="269"/>
-      <c r="J82" s="270"/>
+      <c r="A82" s="246"/>
+      <c r="B82" s="247"/>
+      <c r="C82" s="247"/>
+      <c r="D82" s="247"/>
+      <c r="E82" s="247"/>
+      <c r="F82" s="247"/>
+      <c r="G82" s="247"/>
+      <c r="H82" s="247"/>
+      <c r="I82" s="247"/>
+      <c r="J82" s="248"/>
       <c r="K82" s="110"/>
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
@@ -6713,22 +7834,22 @@
       <c r="CF82" s="120"/>
     </row>
     <row r="83" spans="1:84" customHeight="1" ht="15">
-      <c r="A83" s="271" t="s">
-        <v>129</v>
-      </c>
-      <c r="B83" s="272"/>
-      <c r="C83" s="272"/>
-      <c r="D83" s="272"/>
-      <c r="E83" s="272"/>
-      <c r="F83" s="272"/>
-      <c r="G83" s="272"/>
-      <c r="H83" s="272"/>
-      <c r="I83" s="272"/>
-      <c r="J83" s="272"/>
-      <c r="K83" s="272"/>
-      <c r="L83" s="272"/>
-      <c r="M83" s="272"/>
-      <c r="N83" s="273"/>
+      <c r="A83" s="249" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="250"/>
+      <c r="C83" s="250"/>
+      <c r="D83" s="250"/>
+      <c r="E83" s="250"/>
+      <c r="F83" s="250"/>
+      <c r="G83" s="250"/>
+      <c r="H83" s="250"/>
+      <c r="I83" s="250"/>
+      <c r="J83" s="250"/>
+      <c r="K83" s="250"/>
+      <c r="L83" s="250"/>
+      <c r="M83" s="250"/>
+      <c r="N83" s="251"/>
       <c r="O83" s="120"/>
       <c r="P83" s="120"/>
       <c r="Q83" s="120"/>
@@ -6801,20 +7922,20 @@
       <c r="CF83" s="120"/>
     </row>
     <row r="84" spans="1:84">
-      <c r="A84" s="290"/>
-      <c r="B84" s="291"/>
-      <c r="C84" s="291"/>
-      <c r="D84" s="291"/>
-      <c r="E84" s="291"/>
-      <c r="F84" s="291"/>
-      <c r="G84" s="291"/>
-      <c r="H84" s="291"/>
-      <c r="I84" s="291"/>
-      <c r="J84" s="291"/>
-      <c r="K84" s="291"/>
-      <c r="L84" s="291"/>
-      <c r="M84" s="291"/>
-      <c r="N84" s="292"/>
+      <c r="A84" s="221"/>
+      <c r="B84" s="222"/>
+      <c r="C84" s="222"/>
+      <c r="D84" s="222"/>
+      <c r="E84" s="222"/>
+      <c r="F84" s="222"/>
+      <c r="G84" s="222"/>
+      <c r="H84" s="222"/>
+      <c r="I84" s="222"/>
+      <c r="J84" s="222"/>
+      <c r="K84" s="222"/>
+      <c r="L84" s="222"/>
+      <c r="M84" s="222"/>
+      <c r="N84" s="223"/>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
       <c r="Q84" s="120"/>
@@ -6887,20 +8008,20 @@
       <c r="CF84" s="120"/>
     </row>
     <row r="85" spans="1:84" customHeight="1" ht="16.5">
-      <c r="A85" s="293"/>
-      <c r="B85" s="294"/>
-      <c r="C85" s="294"/>
-      <c r="D85" s="294"/>
-      <c r="E85" s="294"/>
-      <c r="F85" s="294"/>
-      <c r="G85" s="294"/>
-      <c r="H85" s="294"/>
-      <c r="I85" s="294"/>
-      <c r="J85" s="294"/>
-      <c r="K85" s="294"/>
-      <c r="L85" s="294"/>
-      <c r="M85" s="294"/>
-      <c r="N85" s="295"/>
+      <c r="A85" s="224"/>
+      <c r="B85" s="225"/>
+      <c r="C85" s="225"/>
+      <c r="D85" s="225"/>
+      <c r="E85" s="225"/>
+      <c r="F85" s="225"/>
+      <c r="G85" s="225"/>
+      <c r="H85" s="225"/>
+      <c r="I85" s="225"/>
+      <c r="J85" s="225"/>
+      <c r="K85" s="225"/>
+      <c r="L85" s="225"/>
+      <c r="M85" s="225"/>
+      <c r="N85" s="226"/>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
       <c r="Q85" s="120"/>
@@ -6909,20 +8030,20 @@
       <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:84" customHeight="1" ht="6.75">
-      <c r="A86" s="293"/>
-      <c r="B86" s="294"/>
-      <c r="C86" s="294"/>
-      <c r="D86" s="294"/>
-      <c r="E86" s="294"/>
-      <c r="F86" s="294"/>
-      <c r="G86" s="294"/>
-      <c r="H86" s="294"/>
-      <c r="I86" s="294"/>
-      <c r="J86" s="294"/>
-      <c r="K86" s="294"/>
-      <c r="L86" s="294"/>
-      <c r="M86" s="294"/>
-      <c r="N86" s="295"/>
+      <c r="A86" s="224"/>
+      <c r="B86" s="225"/>
+      <c r="C86" s="225"/>
+      <c r="D86" s="225"/>
+      <c r="E86" s="225"/>
+      <c r="F86" s="225"/>
+      <c r="G86" s="225"/>
+      <c r="H86" s="225"/>
+      <c r="I86" s="225"/>
+      <c r="J86" s="225"/>
+      <c r="K86" s="225"/>
+      <c r="L86" s="225"/>
+      <c r="M86" s="225"/>
+      <c r="N86" s="226"/>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
       <c r="Q86" s="120"/>
@@ -6931,20 +8052,20 @@
       <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:84" customHeight="1" ht="15">
-      <c r="A87" s="293"/>
-      <c r="B87" s="294"/>
-      <c r="C87" s="294"/>
-      <c r="D87" s="294"/>
-      <c r="E87" s="294"/>
-      <c r="F87" s="294"/>
-      <c r="G87" s="294"/>
-      <c r="H87" s="294"/>
-      <c r="I87" s="294"/>
-      <c r="J87" s="294"/>
-      <c r="K87" s="294"/>
-      <c r="L87" s="294"/>
-      <c r="M87" s="294"/>
-      <c r="N87" s="295"/>
+      <c r="A87" s="224"/>
+      <c r="B87" s="225"/>
+      <c r="C87" s="225"/>
+      <c r="D87" s="225"/>
+      <c r="E87" s="225"/>
+      <c r="F87" s="225"/>
+      <c r="G87" s="225"/>
+      <c r="H87" s="225"/>
+      <c r="I87" s="225"/>
+      <c r="J87" s="225"/>
+      <c r="K87" s="225"/>
+      <c r="L87" s="225"/>
+      <c r="M87" s="225"/>
+      <c r="N87" s="226"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -6953,20 +8074,20 @@
       <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:84">
-      <c r="A88" s="293"/>
-      <c r="B88" s="294"/>
-      <c r="C88" s="294"/>
-      <c r="D88" s="294"/>
-      <c r="E88" s="294"/>
-      <c r="F88" s="294"/>
-      <c r="G88" s="294"/>
-      <c r="H88" s="294"/>
-      <c r="I88" s="294"/>
-      <c r="J88" s="294"/>
-      <c r="K88" s="294"/>
-      <c r="L88" s="294"/>
-      <c r="M88" s="294"/>
-      <c r="N88" s="295"/>
+      <c r="A88" s="224"/>
+      <c r="B88" s="225"/>
+      <c r="C88" s="225"/>
+      <c r="D88" s="225"/>
+      <c r="E88" s="225"/>
+      <c r="F88" s="225"/>
+      <c r="G88" s="225"/>
+      <c r="H88" s="225"/>
+      <c r="I88" s="225"/>
+      <c r="J88" s="225"/>
+      <c r="K88" s="225"/>
+      <c r="L88" s="225"/>
+      <c r="M88" s="225"/>
+      <c r="N88" s="226"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -6975,20 +8096,20 @@
       <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:84">
-      <c r="A89" s="296"/>
-      <c r="B89" s="297"/>
-      <c r="C89" s="297"/>
-      <c r="D89" s="297"/>
-      <c r="E89" s="297"/>
-      <c r="F89" s="297"/>
-      <c r="G89" s="297"/>
-      <c r="H89" s="297"/>
-      <c r="I89" s="297"/>
-      <c r="J89" s="297"/>
-      <c r="K89" s="297"/>
-      <c r="L89" s="297"/>
-      <c r="M89" s="297"/>
-      <c r="N89" s="298"/>
+      <c r="A89" s="227"/>
+      <c r="B89" s="228"/>
+      <c r="C89" s="228"/>
+      <c r="D89" s="228"/>
+      <c r="E89" s="228"/>
+      <c r="F89" s="228"/>
+      <c r="G89" s="228"/>
+      <c r="H89" s="228"/>
+      <c r="I89" s="228"/>
+      <c r="J89" s="228"/>
+      <c r="K89" s="228"/>
+      <c r="L89" s="228"/>
+      <c r="M89" s="228"/>
+      <c r="N89" s="229"/>
       <c r="O89" s="120"/>
       <c r="P89" s="120"/>
       <c r="Q89" s="120"/>
@@ -6997,22 +8118,22 @@
       <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:84">
-      <c r="A90" s="277" t="s">
-        <v>130</v>
-      </c>
-      <c r="B90" s="278"/>
-      <c r="C90" s="278"/>
-      <c r="D90" s="279"/>
-      <c r="E90" s="280"/>
-      <c r="F90" s="281"/>
-      <c r="G90" s="281"/>
-      <c r="H90" s="281"/>
-      <c r="I90" s="281"/>
-      <c r="J90" s="281"/>
-      <c r="K90" s="281"/>
-      <c r="L90" s="281"/>
-      <c r="M90" s="281"/>
-      <c r="N90" s="282"/>
+      <c r="A90" s="233" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" s="234"/>
+      <c r="C90" s="234"/>
+      <c r="D90" s="235"/>
+      <c r="E90" s="255"/>
+      <c r="F90" s="256"/>
+      <c r="G90" s="256"/>
+      <c r="H90" s="256"/>
+      <c r="I90" s="256"/>
+      <c r="J90" s="256"/>
+      <c r="K90" s="256"/>
+      <c r="L90" s="256"/>
+      <c r="M90" s="256"/>
+      <c r="N90" s="257"/>
       <c r="O90" s="120"/>
       <c r="P90" s="120"/>
       <c r="Q90" s="120"/>
@@ -7043,22 +8164,22 @@
       <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:84" customHeight="1" ht="15">
-      <c r="A92" s="264" t="s">
-        <v>131</v>
-      </c>
-      <c r="B92" s="264"/>
-      <c r="C92" s="264"/>
-      <c r="D92" s="264"/>
-      <c r="E92" s="264"/>
-      <c r="F92" s="264"/>
-      <c r="G92" s="264"/>
-      <c r="H92" s="264"/>
-      <c r="I92" s="264"/>
-      <c r="J92" s="264"/>
-      <c r="K92" s="264"/>
-      <c r="L92" s="264"/>
-      <c r="M92" s="264"/>
-      <c r="N92" s="264"/>
+      <c r="A92" s="242" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="242"/>
+      <c r="C92" s="242"/>
+      <c r="D92" s="242"/>
+      <c r="E92" s="242"/>
+      <c r="F92" s="242"/>
+      <c r="G92" s="242"/>
+      <c r="H92" s="242"/>
+      <c r="I92" s="242"/>
+      <c r="J92" s="242"/>
+      <c r="K92" s="242"/>
+      <c r="L92" s="242"/>
+      <c r="M92" s="242"/>
+      <c r="N92" s="242"/>
       <c r="O92" s="120"/>
       <c r="P92" s="120"/>
       <c r="Q92" s="120"/>
@@ -7277,16 +8398,59 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="A46:N47"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="C9:N9"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:K21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="F27:J28"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A57:F58"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:J67"/>
+    <mergeCell ref="A68:J68"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A70:N70"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="A92:N92"/>
+    <mergeCell ref="A81:J82"/>
+    <mergeCell ref="A83:N83"/>
+    <mergeCell ref="A76:J76"/>
+    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A80:J80"/>
+    <mergeCell ref="A77:J77"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="E90:N90"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:N10"/>
     <mergeCell ref="A13:N13"/>
@@ -7303,59 +8467,16 @@
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A92:N92"/>
-    <mergeCell ref="A81:J82"/>
-    <mergeCell ref="A83:N83"/>
-    <mergeCell ref="A76:J76"/>
-    <mergeCell ref="A78:J78"/>
-    <mergeCell ref="A79:J79"/>
-    <mergeCell ref="A80:J80"/>
-    <mergeCell ref="A77:J77"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="E90:N90"/>
-    <mergeCell ref="A67:J67"/>
-    <mergeCell ref="A68:J68"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A70:N70"/>
-    <mergeCell ref="A64:J64"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="A56:J56"/>
-    <mergeCell ref="A57:F58"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:K21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="F27:J28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C9:N9"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="A46:N47"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A49:J49"/>
+    <mergeCell ref="A50:J50"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.41" right="0.38" top="0.28" bottom="0.18" header="0" footer="0"/>

--- a/Listado_de_asistencia.xlsx
+++ b/Listado_de_asistencia.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL DE FIRMAS" sheetId="1" r:id="rId4"/>
-    <sheet name="CONTROL DE FIRMAS 2" sheetId="2" r:id="rId5"/>
-    <sheet name="Cuestionario" sheetId="3" r:id="rId6"/>
+    <sheet name="Cuestionario" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CONTROL DE FIRMAS'!$C$1:$J$57</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CONTROL DE FIRMAS'!$C$1:$L$57</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>DOCUMENTO CONTROL DE FIRMAS</t>
   </si>
@@ -129,16 +128,16 @@
     </r>
   </si>
   <si>
-    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: BootCamp Chapter Lead Tribu Jazztel Nº CONVOCATORIA: 19475</t>
-  </si>
-  <si>
-    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 27-11-2017 FECHA FIN: 27-11-2017</t>
+    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Programa de formación nuevo Time to Market Nº CONVOCATORIA: 17720</t>
+  </si>
+  <si>
+    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 16-10-2017 FECHA FIN: 04-12-2017</t>
   </si>
   <si>
     <t>FORMADOR/RESPONSABLE DE FORMACIÓN:</t>
   </si>
   <si>
-    <t>SESIÓN Nº: 2 de 2 FECHA: 27-11-2017 HORARIO: 09:00 - 06:00</t>
+    <t>SESIÓN Nº: ___ de 6 FECHA: 16-10-2017 HORARIO: 10:00 - 02:00</t>
   </si>
   <si>
     <t>Firmado:</t>
@@ -189,7 +188,16 @@
     <t>DATOS DE ASISTENTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Sesión 1 </t>
+    <t>Sesión 1</t>
+  </si>
+  <si>
+    <t>Sesión 2</t>
+  </si>
+  <si>
+    <t>Sesión 3</t>
+  </si>
+  <si>
+    <t>Sesión 4</t>
   </si>
   <si>
     <t>Recibí Material</t>
@@ -211,187 +219,157 @@
     <t xml:space="preserve">N.I.F. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mañana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarde </t>
-  </si>
-  <si>
-    <t>ALONSO GARCIA, IGNACIO</t>
-  </si>
-  <si>
-    <t>007223527D</t>
-  </si>
-  <si>
-    <t>MARIN FERNANDEZ, PILAR</t>
-  </si>
-  <si>
-    <t>050094366K</t>
-  </si>
-  <si>
-    <t>ACOSTA SOLER, PATRICIA</t>
-  </si>
-  <si>
-    <t>002898476Q</t>
-  </si>
-  <si>
-    <t>GODOY RUBIO, FRANCISCO</t>
-  </si>
-  <si>
-    <t>051918017W</t>
-  </si>
-  <si>
-    <t>MARTINEZ RUIZ, ANA MARIA</t>
-  </si>
-  <si>
-    <t>050965327H</t>
-  </si>
-  <si>
-    <t>MARZO DE LECEA, MARIA JESUS</t>
-  </si>
-  <si>
-    <t>030640549H</t>
-  </si>
-  <si>
-    <t>BUJALANCE GONZALEZ, GUILLERMO</t>
-  </si>
-  <si>
-    <t>005269437E</t>
-  </si>
-  <si>
-    <t>NUÑEZ BURGOS, LIDIA</t>
-  </si>
-  <si>
-    <t>045422509Q</t>
-  </si>
-  <si>
-    <t>HUERTAS DIAZ, ESTHER</t>
-  </si>
-  <si>
-    <t>033513542N</t>
-  </si>
-  <si>
-    <t>ESCALONA ARQUERO, FRANCISCO BORJA</t>
-  </si>
-  <si>
-    <t>051932614V</t>
-  </si>
-  <si>
-    <t>FUENTES ESTEBAN, MANUEL</t>
-  </si>
-  <si>
-    <t>024271523Z</t>
-  </si>
-  <si>
-    <t>FERNANDEZ CALVO, Mª RAQUEL</t>
-  </si>
-  <si>
-    <t>050442620D</t>
-  </si>
-  <si>
-    <t>VALERDI TORMO, JOSE</t>
-  </si>
-  <si>
-    <t>024363401F</t>
-  </si>
-  <si>
-    <t>SEGOVIA JIMENEZ, FRANCISCO JOSE</t>
-  </si>
-  <si>
-    <t>050075553E</t>
+    <t>16-10-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>30-10-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>06-11-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>13-11-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>20-11-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>SANCHEZ CANTOS, ESTHER</t>
+  </si>
+  <si>
+    <t>024354634A</t>
+  </si>
+  <si>
+    <t>04-12-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>CASTELLANOS ANDRES, ALVARO</t>
+  </si>
+  <si>
+    <t>009785531C</t>
+  </si>
+  <si>
+    <t>PLAZA MERINO, VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>052865742N</t>
+  </si>
+  <si>
+    <t>DE LUIS CASTAÑO, LAURA</t>
+  </si>
+  <si>
+    <t>050205145D</t>
+  </si>
+  <si>
+    <t>PANTOJA LOPEZ, ELENA</t>
+  </si>
+  <si>
+    <t>002535347B</t>
+  </si>
+  <si>
+    <t>ALFARO ORTIZ, PILAR</t>
+  </si>
+  <si>
+    <t>007563405Q</t>
+  </si>
+  <si>
+    <t>BILBAO ZARRAGA, ITZIAR</t>
+  </si>
+  <si>
+    <t>016043034M</t>
+  </si>
+  <si>
+    <t>MESA MARTIN, MARA</t>
+  </si>
+  <si>
+    <t>002782609T</t>
+  </si>
+  <si>
+    <t>DJAN HERRERO, RUTH</t>
+  </si>
+  <si>
+    <t>050728583J</t>
+  </si>
+  <si>
+    <t>GARCIA AMADOR, ALONSO</t>
+  </si>
+  <si>
+    <t>051061998C</t>
+  </si>
+  <si>
+    <t>GUADALIX AVILES, DAVID</t>
+  </si>
+  <si>
+    <t>050190319H</t>
+  </si>
+  <si>
+    <t>BELMONTE GOMEZ, MARTA</t>
+  </si>
+  <si>
+    <t>006253798Y</t>
+  </si>
+  <si>
+    <t>BALLESTEROS GONZALEZ, RAUL</t>
+  </si>
+  <si>
+    <t>052993834V</t>
+  </si>
+  <si>
+    <t>GARCIA GARCIA, ALEJANDRA MARIA</t>
+  </si>
+  <si>
+    <t>015258434G</t>
+  </si>
+  <si>
+    <t>SERRA MORENO, ANTONIO</t>
+  </si>
+  <si>
+    <t>050083544D</t>
+  </si>
+  <si>
+    <t>DUQUE LUDEÑA, ALBERTO</t>
+  </si>
+  <si>
+    <t>050200229S</t>
+  </si>
+  <si>
+    <t>GARCIA RUIZ, NOEMI</t>
+  </si>
+  <si>
+    <t>051945351N</t>
+  </si>
+  <si>
+    <t>GONZALEZ SANCHEZ, RUTH</t>
+  </si>
+  <si>
+    <t>001186382L</t>
+  </si>
+  <si>
+    <t>MUNARRIZ GOMEZ, MAIDER</t>
+  </si>
+  <si>
+    <t>072471462A</t>
+  </si>
+  <si>
+    <t>BOSCA VISTA, JOAQUIN</t>
+  </si>
+  <si>
+    <t>050452728C</t>
+  </si>
+  <si>
+    <t>BALAGUER DELGADO, CLAUDIA</t>
+  </si>
+  <si>
+    <t>029200964A</t>
+  </si>
+  <si>
+    <t>RUBIO FERNANDEZ, DANIEL</t>
+  </si>
+  <si>
+    <t>007230276L</t>
   </si>
   <si>
     <t>OBSERVACIONES GENERALES:</t>
-  </si>
-  <si>
-    <t>CLARET TREMPS, JESUS</t>
-  </si>
-  <si>
-    <t>050093751G</t>
-  </si>
-  <si>
-    <t>HERNANDEZ AMIGO, DAVID</t>
-  </si>
-  <si>
-    <t>053400030X</t>
-  </si>
-  <si>
-    <t>ALVAREZ ESCRIVA, AMPARO</t>
-  </si>
-  <si>
-    <t>009793790E</t>
-  </si>
-  <si>
-    <t>BROX ALARCON, ANA RUS</t>
-  </si>
-  <si>
-    <t>070516809M</t>
-  </si>
-  <si>
-    <t>PEREZ CHANES, EMMA</t>
-  </si>
-  <si>
-    <t>050731189C</t>
-  </si>
-  <si>
-    <t>GARCIA DE LA SERNA, Mª ISABEL</t>
-  </si>
-  <si>
-    <t>011817035A</t>
-  </si>
-  <si>
-    <t>SOBRINO LOZANO, MIGUEL ANGEL</t>
-  </si>
-  <si>
-    <t>050185579Q</t>
-  </si>
-  <si>
-    <t>DIAZ CORUJO, BEATRIZ</t>
-  </si>
-  <si>
-    <t>009794517J</t>
-  </si>
-  <si>
-    <t>CUADROS PRIETO, CARMEN</t>
-  </si>
-  <si>
-    <t>008935096X</t>
-  </si>
-  <si>
-    <t>MARTINEZ ORTAL, FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>005433916M</t>
-  </si>
-  <si>
-    <t>MARTIN ALBERDI, DAVID</t>
-  </si>
-  <si>
-    <t>052989456D</t>
-  </si>
-  <si>
-    <t>GARCIA GARCIA ABADILLO, JORGE</t>
-  </si>
-  <si>
-    <t>046886010G</t>
-  </si>
-  <si>
-    <t>LASTRA ARAS, ANA ANGELA</t>
-  </si>
-  <si>
-    <t>016046719X</t>
-  </si>
-  <si>
-    <t>REINA GARCIA, CARMEN</t>
-  </si>
-  <si>
-    <t>033515144G</t>
-  </si>
-  <si>
-    <t>LAHOZ SEVILLA, FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>052989138J</t>
   </si>
   <si>
     <t>CUESTIONARIO PARA LA EVALUACIÓN DE LA CALIDAD DE LAS ACCIONES FORMATIVAS 
@@ -1230,7 +1208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="99">
+  <borders count="98">
     <border/>
     <border>
       <left style="thin">
@@ -1622,14 +1600,6 @@
       <left style="medium">
         <color rgb="FF969696"/>
       </left>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF969696"/>
-      </left>
       <top style="medium">
         <color rgb="FF808080"/>
       </top>
@@ -1817,17 +1787,6 @@
       <right style="medium">
         <color rgb="FF969696"/>
       </right>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF969696"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF808080"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF808080"/>
       </bottom>
@@ -2190,11 +2149,19 @@
         <color rgb="FF969696"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF969696"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="327">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2600,178 +2567,169 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="38" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="27" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="27" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2780,13 +2738,19 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="37" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="42" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="41" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2795,34 +2759,28 @@
     <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2834,95 +2792,185 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="60" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="61" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="62" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="75" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="65" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="63" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="76" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="37" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="62" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="63" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="77" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="67" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="65" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="66" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="78" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2933,116 +2981,80 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="79" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="80" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -3050,85 +3062,31 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="89" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3137,31 +3095,31 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="88" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="89" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="90" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="91" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="92" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="93" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="94" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="95" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3173,13 +3131,16 @@
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="95" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="96" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="98" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -3191,7 +3152,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3547,10 +3508,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3562,141 +3523,157 @@
     <col min="5" max="5" width="17.85546875" customWidth="true" style="2"/>
     <col min="6" max="6" width="18.28515625" customWidth="true" style="2"/>
     <col min="7" max="7" width="18.28515625" customWidth="true" style="2"/>
-    <col min="8" max="8" width="19.42578125" customWidth="true" style="2"/>
-    <col min="9" max="9" width="18.140625" customWidth="true" style="2"/>
-    <col min="10" max="10" width="22.5703125" customWidth="true" style="2"/>
-    <col min="11" max="11" width="11.42578125" customWidth="true" style="2"/>
-    <col min="12" max="12" width="25.85546875" customWidth="true" style="2"/>
-    <col min="13" max="13" width="91.7109375" customWidth="true" style="2"/>
-    <col min="14" max="14" width="11.42578125" customWidth="true" style="2"/>
+    <col min="8" max="8" width="18.28515625" customWidth="true" style="2"/>
+    <col min="9" max="9" width="18.28515625" customWidth="true" style="2"/>
+    <col min="10" max="10" width="19.42578125" customWidth="true" style="2"/>
+    <col min="11" max="11" width="18.140625" customWidth="true" style="2"/>
+    <col min="12" max="12" width="22.5703125" customWidth="true" style="2"/>
+    <col min="13" max="13" width="11.42578125" customWidth="true" style="2"/>
+    <col min="14" max="14" width="25.85546875" customWidth="true" style="2"/>
+    <col min="15" max="15" width="91.7109375" customWidth="true" style="2"/>
+    <col min="16" max="16" width="11.42578125" customWidth="true" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" customHeight="1" ht="18">
+    <row r="1" spans="1:17" customHeight="1" ht="18">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:15" customHeight="1" ht="12">
+    <row r="2" spans="1:17" customHeight="1" ht="12">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:15" customHeight="1" ht="33">
-      <c r="B3" s="180" t="s">
+    <row r="3" spans="1:17" customHeight="1" ht="33">
+      <c r="B3" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" customHeight="1" ht="15">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="15">
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:15" customHeight="1" ht="15">
+    <row r="5" spans="1:17" customHeight="1" ht="15">
       <c r="B5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="185" t="s">
+      <c r="C5" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="184"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="183" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="186"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" customHeight="1" ht="12.75">
-      <c r="B7" s="183"/>
-      <c r="C7" s="190" t="s">
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="12.75">
+      <c r="B7" s="180"/>
+      <c r="C7" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="183"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="180"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" customHeight="1" ht="13.5">
-      <c r="B9" s="184"/>
-      <c r="C9" s="193" t="s">
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="13.5">
+      <c r="B9" s="181"/>
+      <c r="C9" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="192"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" customHeight="1" ht="14.25">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="14.25">
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:15" customHeight="1" ht="27.75">
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-    </row>
-    <row r="12" spans="1:15" customHeight="1" ht="19.5">
+    <row r="11" spans="1:17" customHeight="1" ht="27.75">
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
+    </row>
+    <row r="12" spans="1:17" customHeight="1" ht="19.5">
       <c r="B12" s="130"/>
       <c r="C12" s="131"/>
       <c r="D12" s="131"/>
@@ -3704,21 +3681,25 @@
       <c r="F12" s="131"/>
       <c r="G12" s="131"/>
       <c r="H12" s="131"/>
-      <c r="I12" s="144"/>
-    </row>
-    <row r="13" spans="1:15" customHeight="1" ht="15">
-      <c r="B13" s="177" t="s">
+      <c r="I12" s="131"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="143"/>
+    </row>
+    <row r="13" spans="1:17" customHeight="1" ht="15">
+      <c r="B13" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="179"/>
-    </row>
-    <row r="14" spans="1:15" customHeight="1" ht="15">
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="176"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="15">
       <c r="B14" s="125"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -3726,21 +3707,25 @@
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="145"/>
-    </row>
-    <row r="15" spans="1:15" customHeight="1" ht="15">
-      <c r="B15" s="177" t="s">
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="144"/>
+    </row>
+    <row r="15" spans="1:17" customHeight="1" ht="15">
+      <c r="B15" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="145"/>
-    </row>
-    <row r="16" spans="1:15" customHeight="1" ht="15">
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="144"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="15">
       <c r="B16" s="132"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3748,21 +3733,25 @@
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="145"/>
-    </row>
-    <row r="17" spans="1:15" customHeight="1" ht="15">
-      <c r="B17" s="177" t="s">
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="144"/>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="15">
+      <c r="B17" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="178"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="146"/>
-    </row>
-    <row r="18" spans="1:15" customHeight="1" ht="15">
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="145"/>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="15">
       <c r="B18" s="132"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -3770,21 +3759,25 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="145"/>
-    </row>
-    <row r="19" spans="1:15" customHeight="1" ht="15">
-      <c r="B19" s="177" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="144"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="15">
+      <c r="B19" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="146"/>
-    </row>
-    <row r="20" spans="1:15" customHeight="1" ht="15">
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="145"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="15">
       <c r="B20" s="132"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3792,9 +3785,11 @@
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:15" customHeight="1" ht="15">
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="144"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="15">
       <c r="B21" s="124" t="s">
         <v>10</v>
       </c>
@@ -3804,9 +3799,11 @@
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:15" customHeight="1" ht="15">
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="144"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="15">
       <c r="B22" s="124" t="s">
         <v>11</v>
       </c>
@@ -3816,9 +3813,11 @@
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
-      <c r="I22" s="145"/>
-    </row>
-    <row r="23" spans="1:15" customHeight="1" ht="15.75">
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="144"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="15.75">
       <c r="B23" s="126"/>
       <c r="C23" s="133"/>
       <c r="D23" s="133"/>
@@ -3826,566 +3825,635 @@
       <c r="F23" s="133"/>
       <c r="G23" s="133"/>
       <c r="H23" s="133"/>
-      <c r="I23" s="147"/>
-    </row>
-    <row r="24" spans="1:15" customHeight="1" ht="10.5">
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="146"/>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="10.5">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:15" customHeight="1" ht="30.75">
+    <row r="25" spans="1:17" customHeight="1" ht="30.75">
       <c r="C25" s="7"/>
-      <c r="E25" s="166" t="s">
+      <c r="E25" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="168"/>
-    </row>
-    <row r="26" spans="1:15" customHeight="1" ht="39">
-      <c r="B26" s="175" t="s">
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="167"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="39">
+      <c r="B26" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="173" t="s">
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="174"/>
-      <c r="G26" s="171" t="s">
+      <c r="F26" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="171" t="s">
+      <c r="G26" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="169" t="s">
+      <c r="H26" s="155" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" customHeight="1" ht="44.25" s="150" customFormat="1">
-      <c r="B27" s="148" t="s">
+      <c r="I26" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="J26" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="149" t="s">
+      <c r="K26" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="135" t="s">
+    </row>
+    <row r="27" spans="1:17" customHeight="1" ht="44.25" s="149" customFormat="1">
+      <c r="B27" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="135" t="s">
+      <c r="C27" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="170"/>
-    </row>
-    <row r="28" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B28" s="152">
-        <v>10037</v>
-      </c>
-      <c r="C28" s="152" t="s">
+      <c r="D27" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="152" t="s">
+      <c r="E27" s="326" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="127"/>
-    </row>
-    <row r="29" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B29" s="152">
-        <v>10209</v>
-      </c>
-      <c r="C29" s="152" t="s">
+      <c r="F27" s="326" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="152" t="s">
+      <c r="G27" s="326" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="128"/>
-    </row>
-    <row r="30" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B30" s="152">
-        <v>10209</v>
-      </c>
-      <c r="C30" s="152" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="128"/>
-    </row>
-    <row r="31" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B31" s="152">
-        <v>10982</v>
-      </c>
-      <c r="C31" s="152" t="s">
+      <c r="H27" s="326" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="169"/>
+      <c r="M27" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="128"/>
-    </row>
-    <row r="32" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B32" s="152">
-        <v>10982</v>
-      </c>
-      <c r="C32" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="128"/>
-    </row>
-    <row r="33" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B33" s="152">
-        <v>11214</v>
-      </c>
-      <c r="C33" s="152" t="s">
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B28" s="151">
+        <v>10288</v>
+      </c>
+      <c r="C28" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="152" t="s">
+      <c r="D28" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="128"/>
-    </row>
-    <row r="34" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B34" s="152">
-        <v>11214</v>
-      </c>
-      <c r="C34" s="152" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="152" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="128"/>
-    </row>
-    <row r="35" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B35" s="152">
-        <v>11951</v>
-      </c>
-      <c r="C35" s="152" t="s">
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="127"/>
+      <c r="M28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="152" t="s">
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B29" s="151">
+        <v>12261</v>
+      </c>
+      <c r="C29" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="128"/>
-    </row>
-    <row r="36" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B36" s="152">
-        <v>11951</v>
-      </c>
-      <c r="C36" s="152" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="152" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="128"/>
-    </row>
-    <row r="37" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B37" s="152">
-        <v>12474</v>
-      </c>
-      <c r="C37" s="152" t="s">
+      <c r="D29" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="D37" s="152" t="s">
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="128"/>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B30" s="151">
+        <v>12785</v>
+      </c>
+      <c r="C30" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="128"/>
-    </row>
-    <row r="38" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B38" s="152">
-        <v>13453</v>
-      </c>
-      <c r="C38" s="152" t="s">
+      <c r="D30" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="152" t="s">
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="128"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B31" s="151">
+        <v>13237</v>
+      </c>
+      <c r="C31" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="128"/>
-    </row>
-    <row r="39" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B39" s="152">
-        <v>13453</v>
-      </c>
-      <c r="C39" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="128"/>
-    </row>
-    <row r="40" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B40" s="152">
-        <v>12474</v>
-      </c>
-      <c r="C40" s="152" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="128"/>
-    </row>
-    <row r="41" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B41" s="152">
-        <v>800211</v>
-      </c>
-      <c r="C41" s="152" t="s">
+      <c r="D31" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="152" t="s">
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="128"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B32" s="151">
+        <v>13683</v>
+      </c>
+      <c r="C32" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="128"/>
-    </row>
-    <row r="42" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B42" s="152">
-        <v>600090</v>
-      </c>
-      <c r="C42" s="152" t="s">
+      <c r="D32" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="152" t="s">
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="128"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B33" s="151">
+        <v>13736</v>
+      </c>
+      <c r="C33" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="128"/>
-    </row>
-    <row r="43" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B43" s="152">
-        <v>600090</v>
-      </c>
-      <c r="C43" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="152" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="128"/>
-    </row>
-    <row r="44" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B44" s="152">
-        <v>801071</v>
-      </c>
-      <c r="C44" s="152" t="s">
+      <c r="D33" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="D44" s="152" t="s">
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="128"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B34" s="151">
+        <v>270557</v>
+      </c>
+      <c r="C34" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="128"/>
-    </row>
-    <row r="45" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B45" s="152">
-        <v>800240</v>
-      </c>
-      <c r="C45" s="152" t="s">
+      <c r="D34" s="151" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="152" t="s">
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
+      <c r="K34" s="128"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B35" s="151">
+        <v>273113</v>
+      </c>
+      <c r="C35" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="128"/>
-    </row>
-    <row r="46" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B46" s="152">
-        <v>800240</v>
-      </c>
-      <c r="C46" s="152" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="152" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="128"/>
-    </row>
-    <row r="47" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B47" s="152">
-        <v>800242</v>
-      </c>
-      <c r="C47" s="152" t="s">
+      <c r="D35" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="152" t="s">
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
+      <c r="K35" s="128"/>
+    </row>
+    <row r="36" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B36" s="151">
+        <v>273690</v>
+      </c>
+      <c r="C36" s="151" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="128"/>
-    </row>
-    <row r="48" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B48" s="152">
-        <v>800242</v>
-      </c>
-      <c r="C48" s="152" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="152" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="128"/>
-    </row>
-    <row r="49" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B49" s="152">
-        <v>600148</v>
-      </c>
-      <c r="C49" s="152" t="s">
+      <c r="D36" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="152" t="s">
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="128"/>
+    </row>
+    <row r="37" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B37" s="151">
+        <v>300193</v>
+      </c>
+      <c r="C37" s="151" t="s">
         <v>48</v>
       </c>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="128"/>
-    </row>
-    <row r="50" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B50" s="152">
-        <v>800506</v>
-      </c>
-      <c r="C50" s="152" t="s">
+      <c r="D37" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="152" t="s">
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="128"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B38" s="151">
+        <v>800017</v>
+      </c>
+      <c r="C38" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="128"/>
-    </row>
-    <row r="51" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B51" s="152">
-        <v>800506</v>
-      </c>
-      <c r="C51" s="152" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="128"/>
-    </row>
-    <row r="52" spans="1:15" customHeight="1" ht="35.25">
-      <c r="B52" s="153">
-        <v>800211</v>
-      </c>
-      <c r="C52" s="153" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52" s="153" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="154"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="128"/>
-    </row>
-    <row r="53" spans="1:15" customHeight="1" ht="27.75">
-      <c r="B53" s="141"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="139"/>
+      <c r="D38" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="128"/>
+    </row>
+    <row r="39" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B39" s="151">
+        <v>800526</v>
+      </c>
+      <c r="C39" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="128"/>
+    </row>
+    <row r="40" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B40" s="151">
+        <v>800565</v>
+      </c>
+      <c r="C40" s="151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="151" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="128"/>
+    </row>
+    <row r="41" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B41" s="151">
+        <v>800599</v>
+      </c>
+      <c r="C41" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="151" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="128"/>
+    </row>
+    <row r="42" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B42" s="151">
+        <v>800675</v>
+      </c>
+      <c r="C42" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="151" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="128"/>
+    </row>
+    <row r="43" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B43" s="151">
+        <v>801043</v>
+      </c>
+      <c r="C43" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="151" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="128"/>
+    </row>
+    <row r="44" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B44" s="151">
+        <v>803677</v>
+      </c>
+      <c r="C44" s="151" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="128"/>
+    </row>
+    <row r="45" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B45" s="151">
+        <v>802824</v>
+      </c>
+      <c r="C45" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="151" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="128"/>
+    </row>
+    <row r="46" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B46" s="151">
+        <v>803898</v>
+      </c>
+      <c r="C46" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="151" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="128"/>
+    </row>
+    <row r="47" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B47" s="151">
+        <v>804363</v>
+      </c>
+      <c r="C47" s="151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="128"/>
+    </row>
+    <row r="48" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B48" s="151">
+        <v>805064</v>
+      </c>
+      <c r="C48" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="128"/>
+    </row>
+    <row r="49" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B49" s="151">
+        <v>805086</v>
+      </c>
+      <c r="C49" s="151" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="128"/>
+    </row>
+    <row r="50" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="128"/>
+    </row>
+    <row r="51" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="128"/>
+    </row>
+    <row r="52" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B52" s="152"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="128"/>
+    </row>
+    <row r="53" spans="1:17" customHeight="1" ht="27.75">
+      <c r="B53" s="140"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="B54" s="157" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="158"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="B55" s="160"/>
-      <c r="C55" s="161"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="162"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="B56" s="160"/>
-      <c r="C56" s="161"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="140"/>
-    </row>
-    <row r="57" spans="1:15" customHeight="1" ht="13.5">
-      <c r="B57" s="163"/>
-      <c r="C57" s="164"/>
-      <c r="D57" s="164"/>
-      <c r="E57" s="164"/>
-      <c r="F57" s="164"/>
-      <c r="G57" s="164"/>
-      <c r="H57" s="164"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="140"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="B58" s="141"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" s="156" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="158"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="161"/>
+      <c r="L55" s="139"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="139"/>
+    </row>
+    <row r="57" spans="1:17" customHeight="1" ht="13.5">
+      <c r="B57" s="162"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="163"/>
+      <c r="F57" s="163"/>
+      <c r="G57" s="163"/>
+      <c r="H57" s="163"/>
+      <c r="I57" s="163"/>
+      <c r="J57" s="163"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="139"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="B58" s="140"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="C60" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B13:K13"/>
     <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C11:L11"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="C5:I6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B54:I57"/>
-    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="C5:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="B54:K57"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="K26:K27"/>
     <mergeCell ref="I26:I27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:J27"/>
     <mergeCell ref="B26:D26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -4403,904 +4471,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:O60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C52" sqref="C52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="true" style="2"/>
-    <col min="2" max="2" width="24.5703125" customWidth="true" style="2"/>
-    <col min="3" max="3" width="24.140625" customWidth="true" style="2"/>
-    <col min="4" max="4" width="16" customWidth="true" style="2"/>
-    <col min="5" max="5" width="14.28515625" customWidth="true" style="2"/>
-    <col min="6" max="6" width="15" customWidth="true" style="2"/>
-    <col min="7" max="7" width="19.7109375" customWidth="true" style="2"/>
-    <col min="8" max="8" width="18.7109375" customWidth="true" style="2"/>
-    <col min="9" max="9" width="20" customWidth="true" style="2"/>
-    <col min="10" max="10" width="22.5703125" customWidth="true" style="2"/>
-    <col min="11" max="11" width="11.42578125" customWidth="true" style="2"/>
-    <col min="12" max="12" width="25.85546875" customWidth="true" style="2"/>
-    <col min="13" max="13" width="91.7109375" customWidth="true" style="2"/>
-    <col min="14" max="14" width="11.42578125" customWidth="true" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" customHeight="1" ht="18">
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" customHeight="1" ht="18">
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" customHeight="1" ht="30">
-      <c r="B3" s="180" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" customHeight="1" ht="15">
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:15" customHeight="1" ht="15">
-      <c r="B5" s="129" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="185" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="183" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="188"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="B7" s="183"/>
-      <c r="C7" s="190" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="191"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="183"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" customHeight="1" ht="13.5">
-      <c r="B9" s="184"/>
-      <c r="C9" s="193" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:15" customHeight="1" ht="15">
-      <c r="C11" s="181"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-    </row>
-    <row r="12" spans="1:15" customHeight="1" ht="19.5">
-      <c r="B12" s="130"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="144"/>
-    </row>
-    <row r="13" spans="1:15" customHeight="1" ht="15">
-      <c r="B13" s="177" t="str">
-        <f>'CONTROL DE FIRMAS'!B13:I13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="178"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="179"/>
-    </row>
-    <row r="14" spans="1:15" customHeight="1" ht="15">
-      <c r="B14" s="125"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="145"/>
-    </row>
-    <row r="15" spans="1:15" customHeight="1" ht="15">
-      <c r="B15" s="177" t="str">
-        <f>'CONTROL DE FIRMAS'!B15:F15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="145"/>
-    </row>
-    <row r="16" spans="1:15" customHeight="1" ht="15">
-      <c r="B16" s="132"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="145"/>
-    </row>
-    <row r="17" spans="1:15" customHeight="1" ht="15">
-      <c r="B17" s="177" t="str">
-        <f>'CONTROL DE FIRMAS'!B17:C17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="178"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="155"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="156"/>
-    </row>
-    <row r="18" spans="1:15" customHeight="1" ht="15">
-      <c r="B18" s="132"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="145"/>
-    </row>
-    <row r="19" spans="1:15" customHeight="1" ht="15">
-      <c r="B19" s="177" t="str">
-        <f>'CONTROL DE FIRMAS'!B19:H19</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="156"/>
-    </row>
-    <row r="20" spans="1:15" customHeight="1" ht="15">
-      <c r="B20" s="132"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="145"/>
-    </row>
-    <row r="21" spans="1:15" customHeight="1" ht="15">
-      <c r="B21" s="124" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="145"/>
-    </row>
-    <row r="22" spans="1:15" customHeight="1" ht="15">
-      <c r="B22" s="124" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="145"/>
-    </row>
-    <row r="23" spans="1:15" customHeight="1" ht="17.25">
-      <c r="B23" s="126"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="147"/>
-    </row>
-    <row r="24" spans="1:15" customHeight="1" ht="17.25">
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:15" customHeight="1" ht="39">
-      <c r="C25" s="7"/>
-      <c r="E25" s="166" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="168"/>
-    </row>
-    <row r="26" spans="1:15" customHeight="1" ht="25.5">
-      <c r="B26" s="175" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="173" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="174"/>
-      <c r="G26" s="171" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="171" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="169" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" customHeight="1" ht="22.5" s="150" customFormat="1">
-      <c r="B27" s="148" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="149" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="135" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="170"/>
-    </row>
-    <row r="28" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B28" s="152">
-        <v>802825</v>
-      </c>
-      <c r="C28" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="127"/>
-    </row>
-    <row r="29" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B29" s="152">
-        <v>802863</v>
-      </c>
-      <c r="C29" s="152" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="128"/>
-    </row>
-    <row r="30" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B30" s="152">
-        <v>802863</v>
-      </c>
-      <c r="C30" s="152" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="128"/>
-    </row>
-    <row r="31" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B31" s="152">
-        <v>800296</v>
-      </c>
-      <c r="C31" s="152" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="152" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="128"/>
-    </row>
-    <row r="32" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B32" s="152">
-        <v>801071</v>
-      </c>
-      <c r="C32" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="152" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="128"/>
-    </row>
-    <row r="33" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B33" s="152">
-        <v>500328</v>
-      </c>
-      <c r="C33" s="152" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="152" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="128"/>
-    </row>
-    <row r="34" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B34" s="152">
-        <v>500328</v>
-      </c>
-      <c r="C34" s="152" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="152" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="128"/>
-    </row>
-    <row r="35" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B35" s="152">
-        <v>600148</v>
-      </c>
-      <c r="C35" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="152" t="s">
-        <v>48</v>
-      </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="128"/>
-    </row>
-    <row r="36" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B36" s="152">
-        <v>803749</v>
-      </c>
-      <c r="C36" s="152" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="152" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="128"/>
-    </row>
-    <row r="37" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B37" s="152">
-        <v>800235</v>
-      </c>
-      <c r="C37" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="152" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="128"/>
-    </row>
-    <row r="38" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B38" s="152">
-        <v>800235</v>
-      </c>
-      <c r="C38" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="152" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="128"/>
-    </row>
-    <row r="39" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B39" s="152">
-        <v>800296</v>
-      </c>
-      <c r="C39" s="152" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="152" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="128"/>
-    </row>
-    <row r="40" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B40" s="152">
-        <v>800362</v>
-      </c>
-      <c r="C40" s="152" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="152" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="128"/>
-    </row>
-    <row r="41" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B41" s="152">
-        <v>800362</v>
-      </c>
-      <c r="C41" s="152" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="152" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="128"/>
-    </row>
-    <row r="42" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B42" s="152">
-        <v>804280</v>
-      </c>
-      <c r="C42" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="D42" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="128"/>
-    </row>
-    <row r="43" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B43" s="152">
-        <v>803837</v>
-      </c>
-      <c r="C43" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="D43" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="128"/>
-    </row>
-    <row r="44" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B44" s="152">
-        <v>803837</v>
-      </c>
-      <c r="C44" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="D44" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="128"/>
-    </row>
-    <row r="45" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B45" s="152">
-        <v>801568</v>
-      </c>
-      <c r="C45" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="128"/>
-    </row>
-    <row r="46" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B46" s="152">
-        <v>801568</v>
-      </c>
-      <c r="C46" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="128"/>
-    </row>
-    <row r="47" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B47" s="152">
-        <v>804174</v>
-      </c>
-      <c r="C47" s="152" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="152" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="128"/>
-    </row>
-    <row r="48" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B48" s="152">
-        <v>804174</v>
-      </c>
-      <c r="C48" s="152" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="152" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="128"/>
-    </row>
-    <row r="49" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B49" s="152">
-        <v>804280</v>
-      </c>
-      <c r="C49" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="128"/>
-    </row>
-    <row r="50" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B50" s="152">
-        <v>803149</v>
-      </c>
-      <c r="C50" s="152" t="s">
-        <v>74</v>
-      </c>
-      <c r="D50" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="128"/>
-    </row>
-    <row r="51" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B51" s="152">
-        <v>803149</v>
-      </c>
-      <c r="C51" s="152" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="152" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="128"/>
-    </row>
-    <row r="52" spans="1:15" customHeight="1" ht="23.25">
-      <c r="B52" s="137">
-        <v>803749</v>
-      </c>
-      <c r="C52" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="137" t="s">
-        <v>61</v>
-      </c>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="128"/>
-    </row>
-    <row r="53" spans="1:15" customHeight="1" ht="15.75">
-      <c r="B53" s="141">
-        <v>803905</v>
-      </c>
-      <c r="C53" s="138" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="139" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="B54" s="157">
-        <v>803905</v>
-      </c>
-      <c r="C54" s="158" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="158" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="158"/>
-      <c r="F54" s="158"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="158"/>
-      <c r="I54" s="159"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="B55" s="160">
-        <v>806491</v>
-      </c>
-      <c r="C55" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="161" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="162"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="B56" s="160">
-        <v>806491</v>
-      </c>
-      <c r="C56" s="161" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="161" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="162"/>
-      <c r="J56" s="140"/>
-    </row>
-    <row r="57" spans="1:15" customHeight="1" ht="13.5">
-      <c r="B57" s="163">
-        <v>806174</v>
-      </c>
-      <c r="C57" s="164" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" s="164" t="s">
-        <v>81</v>
-      </c>
-      <c r="E57" s="164"/>
-      <c r="F57" s="164"/>
-      <c r="G57" s="164"/>
-      <c r="H57" s="164"/>
-      <c r="I57" s="165"/>
-      <c r="J57" s="140"/>
-    </row>
-    <row r="58" spans="1:15">
-      <c r="B58" s="141">
-        <v>806174</v>
-      </c>
-      <c r="C58" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="140" t="s">
-        <v>81</v>
-      </c>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-    </row>
-    <row r="59" spans="1:15">
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="C60" s="9"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="B54:I57"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="C5:I6"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5331,75 +4501,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" customHeight="1" ht="48">
-      <c r="A1" s="314"/>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
-      <c r="G1" s="315"/>
-      <c r="H1" s="315"/>
-      <c r="I1" s="315"/>
-      <c r="J1" s="315"/>
-      <c r="K1" s="315"/>
-      <c r="L1" s="315"/>
-      <c r="M1" s="315"/>
-      <c r="N1" s="316"/>
+      <c r="A1" s="311"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
     </row>
     <row r="2" spans="1:84" customHeight="1" ht="51">
-      <c r="A2" s="326" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
-      <c r="N2" s="328"/>
+      <c r="A2" s="323" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="325"/>
       <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:84" customHeight="1" ht="39.75">
-      <c r="A3" s="317" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="318"/>
-      <c r="C3" s="318"/>
-      <c r="D3" s="318"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318"/>
-      <c r="H3" s="318"/>
-      <c r="I3" s="318"/>
-      <c r="J3" s="318"/>
-      <c r="K3" s="318"/>
-      <c r="L3" s="318"/>
-      <c r="M3" s="318"/>
-      <c r="N3" s="319"/>
+      <c r="A3" s="314" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="316"/>
     </row>
     <row r="4" spans="1:84" customHeight="1" ht="40.5">
-      <c r="A4" s="320" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="321"/>
-      <c r="C4" s="321"/>
-      <c r="D4" s="321"/>
-      <c r="E4" s="321"/>
-      <c r="F4" s="321"/>
-      <c r="G4" s="321"/>
-      <c r="H4" s="321"/>
-      <c r="I4" s="321"/>
-      <c r="J4" s="321"/>
-      <c r="K4" s="321"/>
-      <c r="L4" s="321"/>
-      <c r="M4" s="321"/>
-      <c r="N4" s="322"/>
+      <c r="A4" s="317" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="318"/>
+      <c r="C4" s="318"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="318"/>
+      <c r="G4" s="318"/>
+      <c r="H4" s="318"/>
+      <c r="I4" s="318"/>
+      <c r="J4" s="318"/>
+      <c r="K4" s="318"/>
+      <c r="L4" s="318"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="319"/>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
@@ -5407,20 +4577,20 @@
       <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:84" customHeight="1" ht="3" s="121" customFormat="1">
-      <c r="A5" s="323"/>
-      <c r="B5" s="324"/>
-      <c r="C5" s="324"/>
-      <c r="D5" s="324"/>
-      <c r="E5" s="324"/>
-      <c r="F5" s="324"/>
-      <c r="G5" s="324"/>
-      <c r="H5" s="324"/>
-      <c r="I5" s="324"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="324"/>
-      <c r="L5" s="324"/>
-      <c r="M5" s="324"/>
-      <c r="N5" s="325"/>
+      <c r="A5" s="320"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
+      <c r="N5" s="322"/>
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
       <c r="Q5" s="115"/>
@@ -5428,22 +4598,22 @@
       <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A6" s="299" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="300"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="301"/>
-      <c r="N6" s="302"/>
+      <c r="A6" s="296" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="297"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="298"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="298"/>
+      <c r="L6" s="298"/>
+      <c r="M6" s="298"/>
+      <c r="N6" s="299"/>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
@@ -5451,24 +4621,24 @@
       <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="305" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="306"/>
+      <c r="A7" s="302" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="303"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="307" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="308"/>
-      <c r="F7" s="213"/>
-      <c r="G7" s="214"/>
-      <c r="H7" s="214"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
-      <c r="M7" s="214"/>
-      <c r="N7" s="215"/>
+      <c r="D7" s="304" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="305"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="212"/>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
@@ -5477,25 +4647,25 @@
     </row>
     <row r="8" spans="1:84">
       <c r="A8" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="309" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="310"/>
+        <v>81</v>
+      </c>
+      <c r="B8" s="210"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="306" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="307"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="311" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="312"/>
-      <c r="I8" s="312"/>
-      <c r="J8" s="313"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="214"/>
-      <c r="M8" s="214"/>
-      <c r="N8" s="215"/>
+      <c r="G8" s="308" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="310"/>
+      <c r="K8" s="210"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="212"/>
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
@@ -5503,22 +4673,22 @@
       <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:84">
-      <c r="A9" s="303" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="304"/>
-      <c r="C9" s="213"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="215"/>
+      <c r="A9" s="300" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="301"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="212"/>
       <c r="O9" s="120"/>
       <c r="P9" s="115"/>
       <c r="Q9" s="120"/>
@@ -5526,22 +4696,22 @@
       <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:84">
-      <c r="A10" s="211" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="212"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="214"/>
-      <c r="F10" s="214"/>
-      <c r="G10" s="214"/>
-      <c r="H10" s="214"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="214"/>
-      <c r="K10" s="214"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="215"/>
+      <c r="A10" s="208" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="209"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="212"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
@@ -5594,22 +4764,22 @@
       <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:84" customHeight="1" ht="21">
-      <c r="A13" s="216" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="217"/>
-      <c r="C13" s="217"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="217"/>
-      <c r="F13" s="217"/>
-      <c r="G13" s="217"/>
-      <c r="H13" s="217"/>
-      <c r="I13" s="217"/>
-      <c r="J13" s="217"/>
-      <c r="K13" s="217"/>
-      <c r="L13" s="217"/>
-      <c r="M13" s="217"/>
-      <c r="N13" s="218"/>
+      <c r="A13" s="213" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="215"/>
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
@@ -5641,16 +4811,16 @@
     </row>
     <row r="15" spans="1:84">
       <c r="A15" s="28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="219" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="220"/>
+      <c r="C15" s="216" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="217"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -5671,18 +4841,18 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="236" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="236"/>
-      <c r="H16" s="236"/>
-      <c r="I16" s="236"/>
-      <c r="J16" s="236"/>
-      <c r="K16" s="237"/>
+      <c r="F16" s="233" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="234"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
       <c r="N16" s="34"/>
@@ -5697,18 +4867,18 @@
       <c r="A17" s="42"/>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="236" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" s="236"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="236"/>
-      <c r="J17" s="236"/>
-      <c r="K17" s="237"/>
+      <c r="F17" s="233" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="234"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="34"/>
@@ -5720,21 +4890,21 @@
       <c r="T17" s="120"/>
     </row>
     <row r="18" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A18" s="238" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="239"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="286"/>
+      <c r="A18" s="235" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="283"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="288" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="288"/>
-      <c r="H18" s="288"/>
-      <c r="I18" s="288"/>
-      <c r="J18" s="288"/>
-      <c r="K18" s="289"/>
+      <c r="F18" s="285" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="285"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="286"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
       <c r="N18" s="34"/>
@@ -5746,11 +4916,11 @@
       <c r="T18" s="120"/>
     </row>
     <row r="19" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A19" s="240" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="236"/>
-      <c r="C19" s="237"/>
+      <c r="A19" s="237" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="233"/>
+      <c r="C19" s="234"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="32"/>
@@ -5770,21 +4940,21 @@
       <c r="T19" s="120"/>
     </row>
     <row r="20" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A20" s="240" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="236"/>
-      <c r="C20" s="237"/>
+      <c r="A20" s="237" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="233"/>
+      <c r="C20" s="234"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="287" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="287"/>
-      <c r="H20" s="287"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="287"/>
-      <c r="K20" s="287"/>
+      <c r="F20" s="284" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="284"/>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="284"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="34"/>
@@ -5796,19 +4966,19 @@
       <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A21" s="240" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="236"/>
+      <c r="A21" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="233"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="287"/>
-      <c r="G21" s="287"/>
-      <c r="H21" s="287"/>
-      <c r="I21" s="287"/>
-      <c r="J21" s="287"/>
-      <c r="K21" s="287"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="284"/>
+      <c r="I21" s="284"/>
+      <c r="J21" s="284"/>
+      <c r="K21" s="284"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="34"/>
@@ -5820,11 +4990,11 @@
       <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A22" s="240" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="236"/>
-      <c r="C22" s="237"/>
+      <c r="A22" s="237" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="233"/>
+      <c r="C22" s="234"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="32"/>
@@ -5844,15 +5014,15 @@
       <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:84" customHeight="1" ht="12">
-      <c r="A23" s="240" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="236"/>
-      <c r="C23" s="237"/>
+      <c r="A23" s="237" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="233"/>
+      <c r="C23" s="234"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -5870,15 +5040,15 @@
       <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:84" customHeight="1" ht="12">
-      <c r="A24" s="240" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="236"/>
-      <c r="C24" s="237"/>
+      <c r="A24" s="237" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="233"/>
+      <c r="C24" s="234"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -5896,15 +5066,15 @@
       <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:84" customHeight="1" ht="12">
-      <c r="A25" s="240" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="236"/>
-      <c r="C25" s="237"/>
+      <c r="A25" s="237" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="233"/>
+      <c r="C25" s="234"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -5922,11 +5092,11 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:84" customHeight="1" ht="12">
-      <c r="A26" s="240" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="236"/>
-      <c r="C26" s="237"/>
+      <c r="A26" s="237" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="233"/>
+      <c r="C26" s="234"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -5946,20 +5116,20 @@
       <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:84" customHeight="1" ht="12">
-      <c r="A27" s="296" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="297"/>
-      <c r="C27" s="298"/>
+      <c r="A27" s="293" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="294"/>
+      <c r="C27" s="295"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="293" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="293"/>
-      <c r="H27" s="293"/>
-      <c r="I27" s="293"/>
-      <c r="J27" s="293"/>
+      <c r="F27" s="290" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="59"/>
@@ -5972,18 +5142,18 @@
       <c r="T27" s="120"/>
     </row>
     <row r="28" spans="1:84" customHeight="1" ht="12">
-      <c r="A28" s="290" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="291"/>
-      <c r="C28" s="292"/>
+      <c r="A28" s="287" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="288"/>
+      <c r="C28" s="289"/>
       <c r="D28" s="38"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="293"/>
-      <c r="G28" s="293"/>
-      <c r="H28" s="293"/>
-      <c r="I28" s="293"/>
-      <c r="J28" s="293"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="59"/>
@@ -6002,7 +5172,7 @@
       <c r="D29" s="47"/>
       <c r="E29" s="63"/>
       <c r="F29" s="46" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
@@ -6020,13 +5190,13 @@
       <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:84" customHeight="1" ht="12">
-      <c r="A30" s="294"/>
-      <c r="B30" s="295"/>
-      <c r="C30" s="295"/>
-      <c r="D30" s="295"/>
+      <c r="A30" s="291"/>
+      <c r="B30" s="292"/>
+      <c r="C30" s="292"/>
+      <c r="D30" s="292"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
@@ -6044,15 +5214,15 @@
       <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:84" customHeight="1" ht="12">
-      <c r="A31" s="238" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="239"/>
-      <c r="C31" s="239"/>
+      <c r="A31" s="235" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="236"/>
+      <c r="C31" s="236"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -6076,7 +5246,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="46" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -6094,15 +5264,15 @@
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:84" customHeight="1" ht="12">
-      <c r="A33" s="240" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="237"/>
-      <c r="C33" s="241"/>
-      <c r="D33" s="241"/>
+      <c r="A33" s="237" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="234"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="238"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
@@ -6143,7 +5313,7 @@
     </row>
     <row r="35" spans="1:84" customHeight="1" ht="12">
       <c r="A35" s="74" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="75"/>
@@ -6167,7 +5337,7 @@
     </row>
     <row r="36" spans="1:84" customHeight="1" ht="12">
       <c r="A36" s="16" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="77"/>
@@ -6191,7 +5361,7 @@
     </row>
     <row r="37" spans="1:84" customHeight="1" ht="12">
       <c r="A37" s="16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="77"/>
@@ -6215,7 +5385,7 @@
     </row>
     <row r="38" spans="1:84" customHeight="1" ht="12">
       <c r="A38" s="16" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="77"/>
@@ -6239,7 +5409,7 @@
     </row>
     <row r="39" spans="1:84" customHeight="1" ht="12">
       <c r="A39" s="16" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="77"/>
@@ -6263,7 +5433,7 @@
     </row>
     <row r="40" spans="1:84" customHeight="1" ht="12">
       <c r="A40" s="16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="77"/>
@@ -6287,7 +5457,7 @@
     </row>
     <row r="41" spans="1:84" customHeight="1" ht="12">
       <c r="A41" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="77"/>
@@ -6376,22 +5546,22 @@
       <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A45" s="283" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" s="284"/>
-      <c r="C45" s="284"/>
-      <c r="D45" s="284"/>
-      <c r="E45" s="284"/>
-      <c r="F45" s="284"/>
-      <c r="G45" s="284"/>
-      <c r="H45" s="284"/>
-      <c r="I45" s="284"/>
-      <c r="J45" s="284"/>
-      <c r="K45" s="284"/>
-      <c r="L45" s="284"/>
-      <c r="M45" s="284"/>
-      <c r="N45" s="285"/>
+      <c r="A45" s="280" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="281"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="281"/>
+      <c r="E45" s="281"/>
+      <c r="F45" s="281"/>
+      <c r="G45" s="281"/>
+      <c r="H45" s="281"/>
+      <c r="I45" s="281"/>
+      <c r="J45" s="281"/>
+      <c r="K45" s="281"/>
+      <c r="L45" s="281"/>
+      <c r="M45" s="281"/>
+      <c r="N45" s="282"/>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
       <c r="Q45" s="120"/>
@@ -6400,22 +5570,22 @@
       <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:84">
-      <c r="A46" s="197" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="198"/>
-      <c r="C46" s="198"/>
-      <c r="D46" s="198"/>
-      <c r="E46" s="198"/>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="198"/>
-      <c r="K46" s="198"/>
-      <c r="L46" s="198"/>
-      <c r="M46" s="198"/>
-      <c r="N46" s="199"/>
+      <c r="A46" s="194" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="195"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="196"/>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
       <c r="Q46" s="120"/>
@@ -6424,20 +5594,20 @@
       <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:84" customHeight="1" ht="25.5" s="123" customFormat="1">
-      <c r="A47" s="200"/>
-      <c r="B47" s="201"/>
-      <c r="C47" s="201"/>
-      <c r="D47" s="201"/>
-      <c r="E47" s="201"/>
-      <c r="F47" s="201"/>
-      <c r="G47" s="201"/>
-      <c r="H47" s="201"/>
-      <c r="I47" s="201"/>
-      <c r="J47" s="201"/>
-      <c r="K47" s="202"/>
-      <c r="L47" s="202"/>
-      <c r="M47" s="202"/>
-      <c r="N47" s="203"/>
+      <c r="A47" s="197"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="198"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="199"/>
+      <c r="L47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="200"/>
       <c r="O47" s="122"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="122"/>
@@ -6446,18 +5616,18 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A48" s="208" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="209"/>
-      <c r="C48" s="209"/>
-      <c r="D48" s="209"/>
-      <c r="E48" s="209"/>
-      <c r="F48" s="209"/>
-      <c r="G48" s="209"/>
-      <c r="H48" s="209"/>
-      <c r="I48" s="209"/>
-      <c r="J48" s="209"/>
+      <c r="A48" s="205" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="206"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="206"/>
       <c r="K48" s="88">
         <v>1</v>
       </c>
@@ -6478,18 +5648,18 @@
       <c r="T48" s="122"/>
     </row>
     <row r="49" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A49" s="210" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="210"/>
-      <c r="C49" s="210"/>
-      <c r="D49" s="210"/>
-      <c r="E49" s="210"/>
-      <c r="F49" s="210"/>
-      <c r="G49" s="210"/>
-      <c r="H49" s="210"/>
-      <c r="I49" s="210"/>
-      <c r="J49" s="210"/>
+      <c r="A49" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="207"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="207"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -6502,18 +5672,18 @@
       <c r="T49" s="122"/>
     </row>
     <row r="50" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A50" s="210" t="s">
-        <v>136</v>
-      </c>
-      <c r="B50" s="210"/>
-      <c r="C50" s="210"/>
-      <c r="D50" s="210"/>
-      <c r="E50" s="210"/>
-      <c r="F50" s="210"/>
-      <c r="G50" s="210"/>
-      <c r="H50" s="210"/>
-      <c r="I50" s="210"/>
-      <c r="J50" s="210"/>
+      <c r="A50" s="207" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="207"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="207"/>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -6526,18 +5696,18 @@
       <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:84" customHeight="1" ht="15">
-      <c r="A51" s="196" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="196"/>
-      <c r="C51" s="196"/>
-      <c r="D51" s="196"/>
-      <c r="E51" s="196"/>
-      <c r="F51" s="196"/>
-      <c r="G51" s="196"/>
-      <c r="H51" s="196"/>
-      <c r="I51" s="196"/>
-      <c r="J51" s="196"/>
+      <c r="A51" s="193" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="193"/>
       <c r="K51" s="88">
         <v>1</v>
       </c>
@@ -6558,54 +5728,54 @@
       <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A52" s="207" t="s">
-        <v>138</v>
-      </c>
-      <c r="B52" s="207"/>
-      <c r="C52" s="207"/>
-      <c r="D52" s="207"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="207"/>
-      <c r="I52" s="207"/>
-      <c r="J52" s="207"/>
+      <c r="A52" s="204" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="204"/>
+      <c r="C52" s="204"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="204"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:84" customHeight="1" ht="14.1" s="120" customFormat="1">
-      <c r="A53" s="207" t="s">
-        <v>139</v>
-      </c>
-      <c r="B53" s="207"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="207"/>
-      <c r="E53" s="207"/>
-      <c r="F53" s="207"/>
-      <c r="G53" s="207"/>
-      <c r="H53" s="207"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="207"/>
+      <c r="A53" s="204" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="204"/>
+      <c r="C53" s="204"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="204"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:84" customHeight="1" ht="15">
-      <c r="A54" s="196" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="196"/>
-      <c r="C54" s="196"/>
-      <c r="D54" s="196"/>
-      <c r="E54" s="196"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="196"/>
+      <c r="A54" s="193" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="193"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="193"/>
+      <c r="G54" s="193"/>
+      <c r="H54" s="193"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="193"/>
       <c r="K54" s="88">
         <v>1</v>
       </c>
@@ -6626,62 +5796,62 @@
       <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A55" s="207" t="s">
-        <v>141</v>
-      </c>
-      <c r="B55" s="207"/>
-      <c r="C55" s="207"/>
-      <c r="D55" s="207"/>
-      <c r="E55" s="207"/>
-      <c r="F55" s="207"/>
-      <c r="G55" s="207"/>
-      <c r="H55" s="207"/>
-      <c r="I55" s="207"/>
-      <c r="J55" s="207"/>
+      <c r="A55" s="204" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="204"/>
+      <c r="C55" s="204"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="204"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A56" s="270" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="270"/>
-      <c r="C56" s="270"/>
-      <c r="D56" s="270"/>
-      <c r="E56" s="270"/>
-      <c r="F56" s="270"/>
-      <c r="G56" s="270"/>
-      <c r="H56" s="270"/>
-      <c r="I56" s="270"/>
-      <c r="J56" s="270"/>
+      <c r="A56" s="267" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="267"/>
+      <c r="C56" s="267"/>
+      <c r="D56" s="267"/>
+      <c r="E56" s="267"/>
+      <c r="F56" s="267"/>
+      <c r="G56" s="267"/>
+      <c r="H56" s="267"/>
+      <c r="I56" s="267"/>
+      <c r="J56" s="267"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91"/>
       <c r="N56" s="91"/>
     </row>
     <row r="57" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A57" s="271" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="272"/>
-      <c r="C57" s="272"/>
-      <c r="D57" s="272"/>
-      <c r="E57" s="272"/>
-      <c r="F57" s="273"/>
-      <c r="G57" s="277" t="s">
-        <v>144</v>
-      </c>
-      <c r="H57" s="278"/>
-      <c r="I57" s="278"/>
-      <c r="J57" s="279"/>
-      <c r="K57" s="204" t="s">
-        <v>145</v>
-      </c>
-      <c r="L57" s="205"/>
-      <c r="M57" s="205"/>
-      <c r="N57" s="206"/>
+      <c r="A57" s="268" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="269"/>
+      <c r="C57" s="269"/>
+      <c r="D57" s="269"/>
+      <c r="E57" s="269"/>
+      <c r="F57" s="270"/>
+      <c r="G57" s="274" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" s="275"/>
+      <c r="I57" s="275"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="201" t="s">
+        <v>138</v>
+      </c>
+      <c r="L57" s="202"/>
+      <c r="M57" s="202"/>
+      <c r="N57" s="203"/>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -6690,12 +5860,12 @@
       <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A58" s="274"/>
-      <c r="B58" s="275"/>
-      <c r="C58" s="275"/>
-      <c r="D58" s="275"/>
-      <c r="E58" s="275"/>
-      <c r="F58" s="276"/>
+      <c r="A58" s="271"/>
+      <c r="B58" s="272"/>
+      <c r="C58" s="272"/>
+      <c r="D58" s="272"/>
+      <c r="E58" s="272"/>
+      <c r="F58" s="273"/>
       <c r="G58" s="88">
         <v>1</v>
       </c>
@@ -6728,14 +5898,14 @@
       <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A59" s="267" t="s">
-        <v>146</v>
-      </c>
-      <c r="B59" s="268"/>
-      <c r="C59" s="268"/>
-      <c r="D59" s="268"/>
-      <c r="E59" s="268"/>
-      <c r="F59" s="269"/>
+      <c r="A59" s="264" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="265"/>
+      <c r="C59" s="265"/>
+      <c r="D59" s="265"/>
+      <c r="E59" s="265"/>
+      <c r="F59" s="266"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
@@ -6746,14 +5916,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A60" s="267" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="268"/>
-      <c r="C60" s="268"/>
-      <c r="D60" s="268"/>
-      <c r="E60" s="268"/>
-      <c r="F60" s="269"/>
+      <c r="A60" s="264" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="265"/>
+      <c r="C60" s="265"/>
+      <c r="D60" s="265"/>
+      <c r="E60" s="265"/>
+      <c r="F60" s="266"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
@@ -6764,18 +5934,18 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A61" s="280" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="281"/>
-      <c r="C61" s="281"/>
-      <c r="D61" s="281"/>
-      <c r="E61" s="281"/>
-      <c r="F61" s="281"/>
-      <c r="G61" s="281"/>
-      <c r="H61" s="281"/>
-      <c r="I61" s="281"/>
-      <c r="J61" s="282"/>
+      <c r="A61" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="278"/>
+      <c r="C61" s="278"/>
+      <c r="D61" s="278"/>
+      <c r="E61" s="278"/>
+      <c r="F61" s="278"/>
+      <c r="G61" s="278"/>
+      <c r="H61" s="278"/>
+      <c r="I61" s="278"/>
+      <c r="J61" s="279"/>
       <c r="K61" s="88">
         <v>1</v>
       </c>
@@ -6796,54 +5966,54 @@
       <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A62" s="267" t="s">
-        <v>149</v>
-      </c>
-      <c r="B62" s="268"/>
-      <c r="C62" s="268"/>
-      <c r="D62" s="268"/>
-      <c r="E62" s="268"/>
-      <c r="F62" s="268"/>
-      <c r="G62" s="268"/>
-      <c r="H62" s="268"/>
-      <c r="I62" s="268"/>
-      <c r="J62" s="269"/>
+      <c r="A62" s="264" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="265"/>
+      <c r="C62" s="265"/>
+      <c r="D62" s="265"/>
+      <c r="E62" s="265"/>
+      <c r="F62" s="265"/>
+      <c r="G62" s="265"/>
+      <c r="H62" s="265"/>
+      <c r="I62" s="265"/>
+      <c r="J62" s="266"/>
       <c r="K62" s="93"/>
       <c r="L62" s="90"/>
       <c r="M62" s="90"/>
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A63" s="267" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="268"/>
-      <c r="C63" s="268"/>
-      <c r="D63" s="268"/>
-      <c r="E63" s="268"/>
-      <c r="F63" s="268"/>
-      <c r="G63" s="268"/>
-      <c r="H63" s="268"/>
-      <c r="I63" s="268"/>
-      <c r="J63" s="269"/>
+      <c r="A63" s="264" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="265"/>
+      <c r="C63" s="265"/>
+      <c r="D63" s="265"/>
+      <c r="E63" s="265"/>
+      <c r="F63" s="265"/>
+      <c r="G63" s="265"/>
+      <c r="H63" s="265"/>
+      <c r="I63" s="265"/>
+      <c r="J63" s="266"/>
       <c r="K63" s="93"/>
       <c r="L63" s="90"/>
       <c r="M63" s="90"/>
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:84" customHeight="1" ht="27.75">
-      <c r="A64" s="258" t="s">
-        <v>151</v>
-      </c>
-      <c r="B64" s="259"/>
-      <c r="C64" s="259"/>
-      <c r="D64" s="259"/>
-      <c r="E64" s="259"/>
-      <c r="F64" s="259"/>
-      <c r="G64" s="259"/>
-      <c r="H64" s="259"/>
-      <c r="I64" s="259"/>
-      <c r="J64" s="260"/>
+      <c r="A64" s="255" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="256"/>
+      <c r="C64" s="256"/>
+      <c r="D64" s="256"/>
+      <c r="E64" s="256"/>
+      <c r="F64" s="256"/>
+      <c r="G64" s="256"/>
+      <c r="H64" s="256"/>
+      <c r="I64" s="256"/>
+      <c r="J64" s="257"/>
       <c r="K64" s="94">
         <v>1</v>
       </c>
@@ -6864,18 +6034,18 @@
       <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A65" s="267" t="s">
-        <v>152</v>
-      </c>
-      <c r="B65" s="268"/>
-      <c r="C65" s="268"/>
-      <c r="D65" s="268"/>
-      <c r="E65" s="268"/>
-      <c r="F65" s="268"/>
-      <c r="G65" s="268"/>
-      <c r="H65" s="268"/>
-      <c r="I65" s="268"/>
-      <c r="J65" s="269"/>
+      <c r="A65" s="264" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="265"/>
+      <c r="C65" s="265"/>
+      <c r="D65" s="265"/>
+      <c r="E65" s="265"/>
+      <c r="F65" s="265"/>
+      <c r="G65" s="265"/>
+      <c r="H65" s="265"/>
+      <c r="I65" s="265"/>
+      <c r="J65" s="266"/>
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
       <c r="M65" s="90"/>
@@ -6888,18 +6058,18 @@
       <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A66" s="230" t="s">
-        <v>153</v>
-      </c>
-      <c r="B66" s="231"/>
-      <c r="C66" s="231"/>
-      <c r="D66" s="231"/>
-      <c r="E66" s="231"/>
-      <c r="F66" s="231"/>
-      <c r="G66" s="231"/>
-      <c r="H66" s="231"/>
-      <c r="I66" s="231"/>
-      <c r="J66" s="232"/>
+      <c r="A66" s="227" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="228"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="228"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="229"/>
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
       <c r="M66" s="90"/>
@@ -6912,18 +6082,18 @@
       <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:84" customHeight="1" ht="15">
-      <c r="A67" s="258" t="s">
-        <v>154</v>
-      </c>
-      <c r="B67" s="259"/>
-      <c r="C67" s="259"/>
-      <c r="D67" s="259"/>
-      <c r="E67" s="259"/>
-      <c r="F67" s="259"/>
-      <c r="G67" s="259"/>
-      <c r="H67" s="259"/>
-      <c r="I67" s="259"/>
-      <c r="J67" s="260"/>
+      <c r="A67" s="255" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="256"/>
+      <c r="C67" s="256"/>
+      <c r="D67" s="256"/>
+      <c r="E67" s="256"/>
+      <c r="F67" s="256"/>
+      <c r="G67" s="256"/>
+      <c r="H67" s="256"/>
+      <c r="I67" s="256"/>
+      <c r="J67" s="257"/>
       <c r="K67" s="88">
         <v>1</v>
       </c>
@@ -6944,18 +6114,18 @@
       <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A68" s="230" t="s">
-        <v>155</v>
-      </c>
-      <c r="B68" s="231"/>
-      <c r="C68" s="231"/>
-      <c r="D68" s="231"/>
-      <c r="E68" s="231"/>
-      <c r="F68" s="231"/>
-      <c r="G68" s="231"/>
-      <c r="H68" s="231"/>
-      <c r="I68" s="231"/>
-      <c r="J68" s="232"/>
+      <c r="A68" s="227" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="228"/>
+      <c r="C68" s="228"/>
+      <c r="D68" s="228"/>
+      <c r="E68" s="228"/>
+      <c r="F68" s="228"/>
+      <c r="G68" s="228"/>
+      <c r="H68" s="228"/>
+      <c r="I68" s="228"/>
+      <c r="J68" s="229"/>
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
       <c r="M68" s="90"/>
@@ -6968,18 +6138,18 @@
       <c r="T68" s="120"/>
     </row>
     <row r="69" spans="1:84" customHeight="1" ht="26.25">
-      <c r="A69" s="261" t="s">
-        <v>156</v>
-      </c>
-      <c r="B69" s="262"/>
-      <c r="C69" s="262"/>
-      <c r="D69" s="262"/>
-      <c r="E69" s="262"/>
-      <c r="F69" s="262"/>
-      <c r="G69" s="262"/>
-      <c r="H69" s="262"/>
-      <c r="I69" s="262"/>
-      <c r="J69" s="263"/>
+      <c r="A69" s="258" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="259"/>
+      <c r="C69" s="259"/>
+      <c r="D69" s="259"/>
+      <c r="E69" s="259"/>
+      <c r="F69" s="259"/>
+      <c r="G69" s="259"/>
+      <c r="H69" s="259"/>
+      <c r="I69" s="259"/>
+      <c r="J69" s="260"/>
       <c r="K69" s="91"/>
       <c r="L69" s="91"/>
       <c r="M69" s="91"/>
@@ -6992,22 +6162,22 @@
       <c r="T69" s="120"/>
     </row>
     <row r="70" spans="1:84" customHeight="1" ht="15">
-      <c r="A70" s="264" t="s">
-        <v>157</v>
-      </c>
-      <c r="B70" s="265"/>
-      <c r="C70" s="265"/>
-      <c r="D70" s="265"/>
-      <c r="E70" s="265"/>
-      <c r="F70" s="265"/>
-      <c r="G70" s="265"/>
-      <c r="H70" s="265"/>
-      <c r="I70" s="265"/>
-      <c r="J70" s="265"/>
-      <c r="K70" s="265"/>
-      <c r="L70" s="265"/>
-      <c r="M70" s="265"/>
-      <c r="N70" s="266"/>
+      <c r="A70" s="261" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="262"/>
+      <c r="C70" s="262"/>
+      <c r="D70" s="262"/>
+      <c r="E70" s="262"/>
+      <c r="F70" s="262"/>
+      <c r="G70" s="262"/>
+      <c r="H70" s="262"/>
+      <c r="I70" s="262"/>
+      <c r="J70" s="262"/>
+      <c r="K70" s="262"/>
+      <c r="L70" s="262"/>
+      <c r="M70" s="262"/>
+      <c r="N70" s="263"/>
       <c r="O70" s="120"/>
       <c r="P70" s="120"/>
       <c r="Q70" s="120"/>
@@ -7038,24 +6208,24 @@
       <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A72" s="230" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" s="231"/>
-      <c r="C72" s="231"/>
-      <c r="D72" s="231"/>
-      <c r="E72" s="231"/>
-      <c r="F72" s="231"/>
-      <c r="G72" s="231"/>
-      <c r="H72" s="231"/>
-      <c r="I72" s="231"/>
-      <c r="J72" s="232"/>
+      <c r="A72" s="227" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="228"/>
+      <c r="C72" s="228"/>
+      <c r="D72" s="228"/>
+      <c r="E72" s="228"/>
+      <c r="F72" s="228"/>
+      <c r="G72" s="228"/>
+      <c r="H72" s="228"/>
+      <c r="I72" s="228"/>
+      <c r="J72" s="229"/>
       <c r="K72" s="101" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L72" s="102"/>
       <c r="M72" s="101" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="N72" s="103"/>
       <c r="O72" s="120"/>
@@ -7066,24 +6236,24 @@
       <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:84" customHeight="1" ht="23.25">
-      <c r="A73" s="230" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="231"/>
-      <c r="C73" s="231"/>
-      <c r="D73" s="231"/>
-      <c r="E73" s="231"/>
-      <c r="F73" s="231"/>
-      <c r="G73" s="231"/>
-      <c r="H73" s="231"/>
-      <c r="I73" s="231"/>
-      <c r="J73" s="232"/>
+      <c r="A73" s="227" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="228"/>
+      <c r="C73" s="228"/>
+      <c r="D73" s="228"/>
+      <c r="E73" s="228"/>
+      <c r="F73" s="228"/>
+      <c r="G73" s="228"/>
+      <c r="H73" s="228"/>
+      <c r="I73" s="228"/>
+      <c r="J73" s="229"/>
       <c r="K73" s="101" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L73" s="102"/>
       <c r="M73" s="101" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="N73" s="103"/>
       <c r="O73" s="120"/>
@@ -7116,18 +6286,18 @@
       <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:84" customHeight="1" ht="15">
-      <c r="A75" s="233" t="s">
-        <v>162</v>
-      </c>
-      <c r="B75" s="234"/>
-      <c r="C75" s="234"/>
-      <c r="D75" s="234"/>
-      <c r="E75" s="234"/>
-      <c r="F75" s="234"/>
-      <c r="G75" s="234"/>
-      <c r="H75" s="234"/>
-      <c r="I75" s="234"/>
-      <c r="J75" s="235"/>
+      <c r="A75" s="230" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="231"/>
+      <c r="C75" s="231"/>
+      <c r="D75" s="231"/>
+      <c r="E75" s="231"/>
+      <c r="F75" s="231"/>
+      <c r="G75" s="231"/>
+      <c r="H75" s="231"/>
+      <c r="I75" s="231"/>
+      <c r="J75" s="232"/>
       <c r="K75" s="88">
         <v>1</v>
       </c>
@@ -7212,18 +6382,18 @@
       <c r="CF75" s="120"/>
     </row>
     <row r="76" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A76" s="252" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76" s="253"/>
-      <c r="C76" s="253"/>
-      <c r="D76" s="253"/>
-      <c r="E76" s="253"/>
-      <c r="F76" s="253"/>
-      <c r="G76" s="253"/>
-      <c r="H76" s="253"/>
-      <c r="I76" s="253"/>
-      <c r="J76" s="254"/>
+      <c r="A76" s="249" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="250"/>
+      <c r="C76" s="250"/>
+      <c r="D76" s="250"/>
+      <c r="E76" s="250"/>
+      <c r="F76" s="250"/>
+      <c r="G76" s="250"/>
+      <c r="H76" s="250"/>
+      <c r="I76" s="250"/>
+      <c r="J76" s="251"/>
       <c r="K76" s="109"/>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -7300,18 +6470,18 @@
       <c r="CF76" s="120"/>
     </row>
     <row r="77" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A77" s="252" t="s">
-        <v>164</v>
-      </c>
-      <c r="B77" s="253"/>
-      <c r="C77" s="253"/>
-      <c r="D77" s="253"/>
-      <c r="E77" s="253"/>
-      <c r="F77" s="253"/>
-      <c r="G77" s="253"/>
-      <c r="H77" s="253"/>
-      <c r="I77" s="253"/>
-      <c r="J77" s="254"/>
+      <c r="A77" s="249" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="250"/>
+      <c r="C77" s="250"/>
+      <c r="D77" s="250"/>
+      <c r="E77" s="250"/>
+      <c r="F77" s="250"/>
+      <c r="G77" s="250"/>
+      <c r="H77" s="250"/>
+      <c r="I77" s="250"/>
+      <c r="J77" s="251"/>
       <c r="K77" s="109"/>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -7388,18 +6558,18 @@
       <c r="CF77" s="120"/>
     </row>
     <row r="78" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A78" s="252" t="s">
-        <v>165</v>
-      </c>
-      <c r="B78" s="253"/>
-      <c r="C78" s="253"/>
-      <c r="D78" s="253"/>
-      <c r="E78" s="253"/>
-      <c r="F78" s="253"/>
-      <c r="G78" s="253"/>
-      <c r="H78" s="253"/>
-      <c r="I78" s="253"/>
-      <c r="J78" s="254"/>
+      <c r="A78" s="249" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="250"/>
+      <c r="C78" s="250"/>
+      <c r="D78" s="250"/>
+      <c r="E78" s="250"/>
+      <c r="F78" s="250"/>
+      <c r="G78" s="250"/>
+      <c r="H78" s="250"/>
+      <c r="I78" s="250"/>
+      <c r="J78" s="251"/>
       <c r="K78" s="109"/>
       <c r="L78" s="109"/>
       <c r="M78" s="109"/>
@@ -7476,18 +6646,18 @@
       <c r="CF78" s="120"/>
     </row>
     <row r="79" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A79" s="252" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="253"/>
-      <c r="C79" s="253"/>
-      <c r="D79" s="253"/>
-      <c r="E79" s="253"/>
-      <c r="F79" s="253"/>
-      <c r="G79" s="253"/>
-      <c r="H79" s="253"/>
-      <c r="I79" s="253"/>
-      <c r="J79" s="254"/>
+      <c r="A79" s="249" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="250"/>
+      <c r="C79" s="250"/>
+      <c r="D79" s="250"/>
+      <c r="E79" s="250"/>
+      <c r="F79" s="250"/>
+      <c r="G79" s="250"/>
+      <c r="H79" s="250"/>
+      <c r="I79" s="250"/>
+      <c r="J79" s="251"/>
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
       <c r="M79" s="109"/>
@@ -7564,18 +6734,18 @@
       <c r="CF79" s="120"/>
     </row>
     <row r="80" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A80" s="252" t="s">
-        <v>167</v>
-      </c>
-      <c r="B80" s="253"/>
-      <c r="C80" s="253"/>
-      <c r="D80" s="253"/>
-      <c r="E80" s="253"/>
-      <c r="F80" s="253"/>
-      <c r="G80" s="253"/>
-      <c r="H80" s="253"/>
-      <c r="I80" s="253"/>
-      <c r="J80" s="254"/>
+      <c r="A80" s="249" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="250"/>
+      <c r="C80" s="250"/>
+      <c r="D80" s="250"/>
+      <c r="E80" s="250"/>
+      <c r="F80" s="250"/>
+      <c r="G80" s="250"/>
+      <c r="H80" s="250"/>
+      <c r="I80" s="250"/>
+      <c r="J80" s="251"/>
       <c r="K80" s="109"/>
       <c r="L80" s="109"/>
       <c r="M80" s="109"/>
@@ -7652,18 +6822,18 @@
       <c r="CF80" s="120"/>
     </row>
     <row r="81" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A81" s="243" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" s="244"/>
-      <c r="C81" s="244"/>
-      <c r="D81" s="244"/>
-      <c r="E81" s="244"/>
-      <c r="F81" s="244"/>
-      <c r="G81" s="244"/>
-      <c r="H81" s="244"/>
-      <c r="I81" s="244"/>
-      <c r="J81" s="245"/>
+      <c r="A81" s="240" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="241"/>
+      <c r="C81" s="241"/>
+      <c r="D81" s="241"/>
+      <c r="E81" s="241"/>
+      <c r="F81" s="241"/>
+      <c r="G81" s="241"/>
+      <c r="H81" s="241"/>
+      <c r="I81" s="241"/>
+      <c r="J81" s="242"/>
       <c r="K81" s="88">
         <v>1</v>
       </c>
@@ -7748,16 +6918,16 @@
       <c r="CF81" s="120"/>
     </row>
     <row r="82" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A82" s="246"/>
-      <c r="B82" s="247"/>
-      <c r="C82" s="247"/>
-      <c r="D82" s="247"/>
-      <c r="E82" s="247"/>
-      <c r="F82" s="247"/>
-      <c r="G82" s="247"/>
-      <c r="H82" s="247"/>
-      <c r="I82" s="247"/>
-      <c r="J82" s="248"/>
+      <c r="A82" s="243"/>
+      <c r="B82" s="244"/>
+      <c r="C82" s="244"/>
+      <c r="D82" s="244"/>
+      <c r="E82" s="244"/>
+      <c r="F82" s="244"/>
+      <c r="G82" s="244"/>
+      <c r="H82" s="244"/>
+      <c r="I82" s="244"/>
+      <c r="J82" s="245"/>
       <c r="K82" s="110"/>
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
@@ -7834,22 +7004,22 @@
       <c r="CF82" s="120"/>
     </row>
     <row r="83" spans="1:84" customHeight="1" ht="15">
-      <c r="A83" s="249" t="s">
-        <v>169</v>
-      </c>
-      <c r="B83" s="250"/>
-      <c r="C83" s="250"/>
-      <c r="D83" s="250"/>
-      <c r="E83" s="250"/>
-      <c r="F83" s="250"/>
-      <c r="G83" s="250"/>
-      <c r="H83" s="250"/>
-      <c r="I83" s="250"/>
-      <c r="J83" s="250"/>
-      <c r="K83" s="250"/>
-      <c r="L83" s="250"/>
-      <c r="M83" s="250"/>
-      <c r="N83" s="251"/>
+      <c r="A83" s="246" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="247"/>
+      <c r="C83" s="247"/>
+      <c r="D83" s="247"/>
+      <c r="E83" s="247"/>
+      <c r="F83" s="247"/>
+      <c r="G83" s="247"/>
+      <c r="H83" s="247"/>
+      <c r="I83" s="247"/>
+      <c r="J83" s="247"/>
+      <c r="K83" s="247"/>
+      <c r="L83" s="247"/>
+      <c r="M83" s="247"/>
+      <c r="N83" s="248"/>
       <c r="O83" s="120"/>
       <c r="P83" s="120"/>
       <c r="Q83" s="120"/>
@@ -7922,20 +7092,20 @@
       <c r="CF83" s="120"/>
     </row>
     <row r="84" spans="1:84">
-      <c r="A84" s="221"/>
-      <c r="B84" s="222"/>
-      <c r="C84" s="222"/>
-      <c r="D84" s="222"/>
-      <c r="E84" s="222"/>
-      <c r="F84" s="222"/>
-      <c r="G84" s="222"/>
-      <c r="H84" s="222"/>
-      <c r="I84" s="222"/>
-      <c r="J84" s="222"/>
-      <c r="K84" s="222"/>
-      <c r="L84" s="222"/>
-      <c r="M84" s="222"/>
-      <c r="N84" s="223"/>
+      <c r="A84" s="218"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="219"/>
+      <c r="D84" s="219"/>
+      <c r="E84" s="219"/>
+      <c r="F84" s="219"/>
+      <c r="G84" s="219"/>
+      <c r="H84" s="219"/>
+      <c r="I84" s="219"/>
+      <c r="J84" s="219"/>
+      <c r="K84" s="219"/>
+      <c r="L84" s="219"/>
+      <c r="M84" s="219"/>
+      <c r="N84" s="220"/>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
       <c r="Q84" s="120"/>
@@ -8008,20 +7178,20 @@
       <c r="CF84" s="120"/>
     </row>
     <row r="85" spans="1:84" customHeight="1" ht="16.5">
-      <c r="A85" s="224"/>
-      <c r="B85" s="225"/>
-      <c r="C85" s="225"/>
-      <c r="D85" s="225"/>
-      <c r="E85" s="225"/>
-      <c r="F85" s="225"/>
-      <c r="G85" s="225"/>
-      <c r="H85" s="225"/>
-      <c r="I85" s="225"/>
-      <c r="J85" s="225"/>
-      <c r="K85" s="225"/>
-      <c r="L85" s="225"/>
-      <c r="M85" s="225"/>
-      <c r="N85" s="226"/>
+      <c r="A85" s="221"/>
+      <c r="B85" s="222"/>
+      <c r="C85" s="222"/>
+      <c r="D85" s="222"/>
+      <c r="E85" s="222"/>
+      <c r="F85" s="222"/>
+      <c r="G85" s="222"/>
+      <c r="H85" s="222"/>
+      <c r="I85" s="222"/>
+      <c r="J85" s="222"/>
+      <c r="K85" s="222"/>
+      <c r="L85" s="222"/>
+      <c r="M85" s="222"/>
+      <c r="N85" s="223"/>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
       <c r="Q85" s="120"/>
@@ -8030,20 +7200,20 @@
       <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:84" customHeight="1" ht="6.75">
-      <c r="A86" s="224"/>
-      <c r="B86" s="225"/>
-      <c r="C86" s="225"/>
-      <c r="D86" s="225"/>
-      <c r="E86" s="225"/>
-      <c r="F86" s="225"/>
-      <c r="G86" s="225"/>
-      <c r="H86" s="225"/>
-      <c r="I86" s="225"/>
-      <c r="J86" s="225"/>
-      <c r="K86" s="225"/>
-      <c r="L86" s="225"/>
-      <c r="M86" s="225"/>
-      <c r="N86" s="226"/>
+      <c r="A86" s="221"/>
+      <c r="B86" s="222"/>
+      <c r="C86" s="222"/>
+      <c r="D86" s="222"/>
+      <c r="E86" s="222"/>
+      <c r="F86" s="222"/>
+      <c r="G86" s="222"/>
+      <c r="H86" s="222"/>
+      <c r="I86" s="222"/>
+      <c r="J86" s="222"/>
+      <c r="K86" s="222"/>
+      <c r="L86" s="222"/>
+      <c r="M86" s="222"/>
+      <c r="N86" s="223"/>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
       <c r="Q86" s="120"/>
@@ -8052,20 +7222,20 @@
       <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:84" customHeight="1" ht="15">
-      <c r="A87" s="224"/>
-      <c r="B87" s="225"/>
-      <c r="C87" s="225"/>
-      <c r="D87" s="225"/>
-      <c r="E87" s="225"/>
-      <c r="F87" s="225"/>
-      <c r="G87" s="225"/>
-      <c r="H87" s="225"/>
-      <c r="I87" s="225"/>
-      <c r="J87" s="225"/>
-      <c r="K87" s="225"/>
-      <c r="L87" s="225"/>
-      <c r="M87" s="225"/>
-      <c r="N87" s="226"/>
+      <c r="A87" s="221"/>
+      <c r="B87" s="222"/>
+      <c r="C87" s="222"/>
+      <c r="D87" s="222"/>
+      <c r="E87" s="222"/>
+      <c r="F87" s="222"/>
+      <c r="G87" s="222"/>
+      <c r="H87" s="222"/>
+      <c r="I87" s="222"/>
+      <c r="J87" s="222"/>
+      <c r="K87" s="222"/>
+      <c r="L87" s="222"/>
+      <c r="M87" s="222"/>
+      <c r="N87" s="223"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -8074,20 +7244,20 @@
       <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:84">
-      <c r="A88" s="224"/>
-      <c r="B88" s="225"/>
-      <c r="C88" s="225"/>
-      <c r="D88" s="225"/>
-      <c r="E88" s="225"/>
-      <c r="F88" s="225"/>
-      <c r="G88" s="225"/>
-      <c r="H88" s="225"/>
-      <c r="I88" s="225"/>
-      <c r="J88" s="225"/>
-      <c r="K88" s="225"/>
-      <c r="L88" s="225"/>
-      <c r="M88" s="225"/>
-      <c r="N88" s="226"/>
+      <c r="A88" s="221"/>
+      <c r="B88" s="222"/>
+      <c r="C88" s="222"/>
+      <c r="D88" s="222"/>
+      <c r="E88" s="222"/>
+      <c r="F88" s="222"/>
+      <c r="G88" s="222"/>
+      <c r="H88" s="222"/>
+      <c r="I88" s="222"/>
+      <c r="J88" s="222"/>
+      <c r="K88" s="222"/>
+      <c r="L88" s="222"/>
+      <c r="M88" s="222"/>
+      <c r="N88" s="223"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -8096,20 +7266,20 @@
       <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:84">
-      <c r="A89" s="227"/>
-      <c r="B89" s="228"/>
-      <c r="C89" s="228"/>
-      <c r="D89" s="228"/>
-      <c r="E89" s="228"/>
-      <c r="F89" s="228"/>
-      <c r="G89" s="228"/>
-      <c r="H89" s="228"/>
-      <c r="I89" s="228"/>
-      <c r="J89" s="228"/>
-      <c r="K89" s="228"/>
-      <c r="L89" s="228"/>
-      <c r="M89" s="228"/>
-      <c r="N89" s="229"/>
+      <c r="A89" s="224"/>
+      <c r="B89" s="225"/>
+      <c r="C89" s="225"/>
+      <c r="D89" s="225"/>
+      <c r="E89" s="225"/>
+      <c r="F89" s="225"/>
+      <c r="G89" s="225"/>
+      <c r="H89" s="225"/>
+      <c r="I89" s="225"/>
+      <c r="J89" s="225"/>
+      <c r="K89" s="225"/>
+      <c r="L89" s="225"/>
+      <c r="M89" s="225"/>
+      <c r="N89" s="226"/>
       <c r="O89" s="120"/>
       <c r="P89" s="120"/>
       <c r="Q89" s="120"/>
@@ -8118,22 +7288,22 @@
       <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:84">
-      <c r="A90" s="233" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="234"/>
-      <c r="C90" s="234"/>
-      <c r="D90" s="235"/>
-      <c r="E90" s="255"/>
-      <c r="F90" s="256"/>
-      <c r="G90" s="256"/>
-      <c r="H90" s="256"/>
-      <c r="I90" s="256"/>
-      <c r="J90" s="256"/>
-      <c r="K90" s="256"/>
-      <c r="L90" s="256"/>
-      <c r="M90" s="256"/>
-      <c r="N90" s="257"/>
+      <c r="A90" s="230" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="231"/>
+      <c r="C90" s="231"/>
+      <c r="D90" s="232"/>
+      <c r="E90" s="252"/>
+      <c r="F90" s="253"/>
+      <c r="G90" s="253"/>
+      <c r="H90" s="253"/>
+      <c r="I90" s="253"/>
+      <c r="J90" s="253"/>
+      <c r="K90" s="253"/>
+      <c r="L90" s="253"/>
+      <c r="M90" s="253"/>
+      <c r="N90" s="254"/>
       <c r="O90" s="120"/>
       <c r="P90" s="120"/>
       <c r="Q90" s="120"/>
@@ -8164,22 +7334,22 @@
       <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:84" customHeight="1" ht="15">
-      <c r="A92" s="242" t="s">
-        <v>171</v>
-      </c>
-      <c r="B92" s="242"/>
-      <c r="C92" s="242"/>
-      <c r="D92" s="242"/>
-      <c r="E92" s="242"/>
-      <c r="F92" s="242"/>
-      <c r="G92" s="242"/>
-      <c r="H92" s="242"/>
-      <c r="I92" s="242"/>
-      <c r="J92" s="242"/>
-      <c r="K92" s="242"/>
-      <c r="L92" s="242"/>
-      <c r="M92" s="242"/>
-      <c r="N92" s="242"/>
+      <c r="A92" s="239" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="239"/>
+      <c r="C92" s="239"/>
+      <c r="D92" s="239"/>
+      <c r="E92" s="239"/>
+      <c r="F92" s="239"/>
+      <c r="G92" s="239"/>
+      <c r="H92" s="239"/>
+      <c r="I92" s="239"/>
+      <c r="J92" s="239"/>
+      <c r="K92" s="239"/>
+      <c r="L92" s="239"/>
+      <c r="M92" s="239"/>
+      <c r="N92" s="239"/>
       <c r="O92" s="120"/>
       <c r="P92" s="120"/>
       <c r="Q92" s="120"/>

--- a/Listado_de_asistencia.xlsx
+++ b/Listado_de_asistencia.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>DOCUMENTO CONTROL DE FIRMAS</t>
   </si>
@@ -128,16 +128,16 @@
     </r>
   </si>
   <si>
-    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Programa de formación nuevo Time to Market Nº CONVOCATORIA: 17720</t>
-  </si>
-  <si>
-    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 16-10-2017 FECHA FIN: 04-12-2017</t>
+    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: SAS I (F17) Nº CONVOCATORIA: 18087</t>
+  </si>
+  <si>
+    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 05-02-2018 FECHA FIN: 09-02-2018</t>
   </si>
   <si>
     <t>FORMADOR/RESPONSABLE DE FORMACIÓN:</t>
   </si>
   <si>
-    <t>SESIÓN Nº: ___ de 6 FECHA: 16-10-2017 HORARIO: 10:00 - 02:00</t>
+    <t>SESIÓN Nº: ___ de 5 FECHA: 05-02-2018 HORARIO: 09:00 - 02:00</t>
   </si>
   <si>
     <t>Firmado:</t>
@@ -219,154 +219,97 @@
     <t xml:space="preserve">N.I.F. </t>
   </si>
   <si>
-    <t>16-10-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>30-10-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>06-11-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>13-11-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>20-11-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>SANCHEZ CANTOS, ESTHER</t>
-  </si>
-  <si>
-    <t>024354634A</t>
-  </si>
-  <si>
-    <t>04-12-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>CASTELLANOS ANDRES, ALVARO</t>
-  </si>
-  <si>
-    <t>009785531C</t>
-  </si>
-  <si>
-    <t>PLAZA MERINO, VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>052865742N</t>
-  </si>
-  <si>
-    <t>DE LUIS CASTAÑO, LAURA</t>
-  </si>
-  <si>
-    <t>050205145D</t>
-  </si>
-  <si>
-    <t>PANTOJA LOPEZ, ELENA</t>
-  </si>
-  <si>
-    <t>002535347B</t>
-  </si>
-  <si>
-    <t>ALFARO ORTIZ, PILAR</t>
-  </si>
-  <si>
-    <t>007563405Q</t>
-  </si>
-  <si>
-    <t>BILBAO ZARRAGA, ITZIAR</t>
-  </si>
-  <si>
-    <t>016043034M</t>
-  </si>
-  <si>
-    <t>MESA MARTIN, MARA</t>
-  </si>
-  <si>
-    <t>002782609T</t>
-  </si>
-  <si>
-    <t>DJAN HERRERO, RUTH</t>
-  </si>
-  <si>
-    <t>050728583J</t>
-  </si>
-  <si>
-    <t>GARCIA AMADOR, ALONSO</t>
-  </si>
-  <si>
-    <t>051061998C</t>
-  </si>
-  <si>
-    <t>GUADALIX AVILES, DAVID</t>
-  </si>
-  <si>
-    <t>050190319H</t>
-  </si>
-  <si>
-    <t>BELMONTE GOMEZ, MARTA</t>
-  </si>
-  <si>
-    <t>006253798Y</t>
-  </si>
-  <si>
-    <t>BALLESTEROS GONZALEZ, RAUL</t>
-  </si>
-  <si>
-    <t>052993834V</t>
-  </si>
-  <si>
-    <t>GARCIA GARCIA, ALEJANDRA MARIA</t>
-  </si>
-  <si>
-    <t>015258434G</t>
-  </si>
-  <si>
-    <t>SERRA MORENO, ANTONIO</t>
-  </si>
-  <si>
-    <t>050083544D</t>
-  </si>
-  <si>
-    <t>DUQUE LUDEÑA, ALBERTO</t>
-  </si>
-  <si>
-    <t>050200229S</t>
-  </si>
-  <si>
-    <t>GARCIA RUIZ, NOEMI</t>
-  </si>
-  <si>
-    <t>051945351N</t>
-  </si>
-  <si>
-    <t>GONZALEZ SANCHEZ, RUTH</t>
-  </si>
-  <si>
-    <t>001186382L</t>
-  </si>
-  <si>
-    <t>MUNARRIZ GOMEZ, MAIDER</t>
-  </si>
-  <si>
-    <t>072471462A</t>
-  </si>
-  <si>
-    <t>BOSCA VISTA, JOAQUIN</t>
-  </si>
-  <si>
-    <t>050452728C</t>
-  </si>
-  <si>
-    <t>BALAGUER DELGADO, CLAUDIA</t>
-  </si>
-  <si>
-    <t>029200964A</t>
-  </si>
-  <si>
-    <t>RUBIO FERNANDEZ, DANIEL</t>
-  </si>
-  <si>
-    <t>007230276L</t>
+    <t>05-02-2018 09:00 - 02:00</t>
+  </si>
+  <si>
+    <t>06-02-2018 09:00 - 02:00</t>
+  </si>
+  <si>
+    <t>07-02-2018 09:00 - 02:00</t>
+  </si>
+  <si>
+    <t>08-02-2018 09:00 - 02:00</t>
+  </si>
+  <si>
+    <t>09-02-2018 09:00 - 02:00</t>
+  </si>
+  <si>
+    <t>SAINZ PINO, JAVIER</t>
+  </si>
+  <si>
+    <t>051919641Q</t>
+  </si>
+  <si>
+    <t>MONTES GUTIERREZ, NOEMI</t>
+  </si>
+  <si>
+    <t>010889069H</t>
+  </si>
+  <si>
+    <t>LOPEZ GARCIA, FELIX RUBEN</t>
+  </si>
+  <si>
+    <t>050316338C</t>
+  </si>
+  <si>
+    <t>PLAZA JEREZ, RAQUEL</t>
+  </si>
+  <si>
+    <t>007506419R</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ CORTIÑAS, JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>050077189W</t>
+  </si>
+  <si>
+    <t>GONZALO MARTINEZ, MARIA DEL VALLE</t>
+  </si>
+  <si>
+    <t>051684906L</t>
+  </si>
+  <si>
+    <t>TORRES SANZ, SAGRARIO</t>
+  </si>
+  <si>
+    <t>053044352G</t>
+  </si>
+  <si>
+    <t>LEON FERNANDEZ, DAVID</t>
+  </si>
+  <si>
+    <t>053757877T</t>
+  </si>
+  <si>
+    <t>GONZALEZ GOMEZ, NIEVES</t>
+  </si>
+  <si>
+    <t>051641334D</t>
+  </si>
+  <si>
+    <t>ROMERO RAMOS, ABILIO</t>
+  </si>
+  <si>
+    <t>006279751S</t>
+  </si>
+  <si>
+    <t>SERRANO VENTURINI, DIEGO</t>
+  </si>
+  <si>
+    <t>052896127Z</t>
+  </si>
+  <si>
+    <t>REINA GARCIA, CARMEN</t>
+  </si>
+  <si>
+    <t>033515144G</t>
+  </si>
+  <si>
+    <t>CASTILLO ALCIBAR, RAFAEL</t>
+  </si>
+  <si>
+    <t>052348562X</t>
   </si>
   <si>
     <t>OBSERVACIONES GENERALES:</t>
@@ -3903,7 +3846,7 @@
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="35.25">
       <c r="B28" s="151">
-        <v>10288</v>
+        <v>10994</v>
       </c>
       <c r="C28" s="151" t="s">
         <v>29</v>
@@ -3918,19 +3861,16 @@
       <c r="I28" s="135"/>
       <c r="J28" s="135"/>
       <c r="K28" s="127"/>
-      <c r="M28" s="2" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="35.25">
       <c r="B29" s="151">
-        <v>12261</v>
+        <v>12219</v>
       </c>
       <c r="C29" s="151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="151" t="s">
         <v>32</v>
-      </c>
-      <c r="D29" s="151" t="s">
-        <v>33</v>
       </c>
       <c r="E29" s="136"/>
       <c r="F29" s="136"/>
@@ -3942,13 +3882,13 @@
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="35.25">
       <c r="B30" s="151">
-        <v>12785</v>
+        <v>272508</v>
       </c>
       <c r="C30" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="151" t="s">
         <v>34</v>
-      </c>
-      <c r="D30" s="151" t="s">
-        <v>35</v>
       </c>
       <c r="E30" s="136"/>
       <c r="F30" s="136"/>
@@ -3960,13 +3900,13 @@
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="35.25">
       <c r="B31" s="151">
-        <v>13237</v>
+        <v>272542</v>
       </c>
       <c r="C31" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="151" t="s">
         <v>36</v>
-      </c>
-      <c r="D31" s="151" t="s">
-        <v>37</v>
       </c>
       <c r="E31" s="136"/>
       <c r="F31" s="136"/>
@@ -3978,13 +3918,13 @@
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="35.25">
       <c r="B32" s="151">
-        <v>13683</v>
+        <v>800437</v>
       </c>
       <c r="C32" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="151" t="s">
         <v>38</v>
-      </c>
-      <c r="D32" s="151" t="s">
-        <v>39</v>
       </c>
       <c r="E32" s="136"/>
       <c r="F32" s="136"/>
@@ -3996,13 +3936,13 @@
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="35.25">
       <c r="B33" s="151">
-        <v>13736</v>
+        <v>804214</v>
       </c>
       <c r="C33" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="151" t="s">
         <v>40</v>
-      </c>
-      <c r="D33" s="151" t="s">
-        <v>41</v>
       </c>
       <c r="E33" s="136"/>
       <c r="F33" s="136"/>
@@ -4014,13 +3954,13 @@
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="35.25">
       <c r="B34" s="151">
-        <v>270557</v>
+        <v>803679</v>
       </c>
       <c r="C34" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="151" t="s">
         <v>42</v>
-      </c>
-      <c r="D34" s="151" t="s">
-        <v>43</v>
       </c>
       <c r="E34" s="136"/>
       <c r="F34" s="136"/>
@@ -4032,13 +3972,13 @@
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="35.25">
       <c r="B35" s="151">
-        <v>273113</v>
+        <v>806196</v>
       </c>
       <c r="C35" s="151" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="151" t="s">
         <v>44</v>
-      </c>
-      <c r="D35" s="151" t="s">
-        <v>45</v>
       </c>
       <c r="E35" s="136"/>
       <c r="F35" s="136"/>
@@ -4050,13 +3990,13 @@
     </row>
     <row r="36" spans="1:17" customHeight="1" ht="35.25">
       <c r="B36" s="151">
-        <v>273690</v>
+        <v>805340</v>
       </c>
       <c r="C36" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="151" t="s">
         <v>46</v>
-      </c>
-      <c r="D36" s="151" t="s">
-        <v>47</v>
       </c>
       <c r="E36" s="136"/>
       <c r="F36" s="136"/>
@@ -4068,13 +4008,13 @@
     </row>
     <row r="37" spans="1:17" customHeight="1" ht="35.25">
       <c r="B37" s="151">
-        <v>300193</v>
+        <v>806473</v>
       </c>
       <c r="C37" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="151" t="s">
         <v>48</v>
-      </c>
-      <c r="D37" s="151" t="s">
-        <v>49</v>
       </c>
       <c r="E37" s="136"/>
       <c r="F37" s="136"/>
@@ -4086,13 +4026,13 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="35.25">
       <c r="B38" s="151">
-        <v>800017</v>
+        <v>806475</v>
       </c>
       <c r="C38" s="151" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="151" t="s">
         <v>50</v>
-      </c>
-      <c r="D38" s="151" t="s">
-        <v>51</v>
       </c>
       <c r="E38" s="136"/>
       <c r="F38" s="136"/>
@@ -4104,13 +4044,13 @@
     </row>
     <row r="39" spans="1:17" customHeight="1" ht="35.25">
       <c r="B39" s="151">
-        <v>800526</v>
+        <v>806491</v>
       </c>
       <c r="C39" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="151" t="s">
         <v>52</v>
-      </c>
-      <c r="D39" s="151" t="s">
-        <v>53</v>
       </c>
       <c r="E39" s="136"/>
       <c r="F39" s="136"/>
@@ -4122,13 +4062,13 @@
     </row>
     <row r="40" spans="1:17" customHeight="1" ht="35.25">
       <c r="B40" s="151">
-        <v>800565</v>
+        <v>806504</v>
       </c>
       <c r="C40" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="151" t="s">
         <v>54</v>
-      </c>
-      <c r="D40" s="151" t="s">
-        <v>55</v>
       </c>
       <c r="E40" s="136"/>
       <c r="F40" s="136"/>
@@ -4139,15 +4079,9 @@
       <c r="K40" s="128"/>
     </row>
     <row r="41" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B41" s="151">
-        <v>800599</v>
-      </c>
-      <c r="C41" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="151" t="s">
-        <v>57</v>
-      </c>
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="136"/>
       <c r="F41" s="136"/>
       <c r="G41" s="136"/>
@@ -4157,15 +4091,9 @@
       <c r="K41" s="128"/>
     </row>
     <row r="42" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B42" s="151">
-        <v>800675</v>
-      </c>
-      <c r="C42" s="151" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="151" t="s">
-        <v>59</v>
-      </c>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="136"/>
       <c r="F42" s="136"/>
       <c r="G42" s="136"/>
@@ -4175,15 +4103,9 @@
       <c r="K42" s="128"/>
     </row>
     <row r="43" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B43" s="151">
-        <v>801043</v>
-      </c>
-      <c r="C43" s="151" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="151" t="s">
-        <v>61</v>
-      </c>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="136"/>
       <c r="F43" s="136"/>
       <c r="G43" s="136"/>
@@ -4193,15 +4115,9 @@
       <c r="K43" s="128"/>
     </row>
     <row r="44" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B44" s="151">
-        <v>803677</v>
-      </c>
-      <c r="C44" s="151" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="151" t="s">
-        <v>63</v>
-      </c>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
       <c r="E44" s="136"/>
       <c r="F44" s="136"/>
       <c r="G44" s="136"/>
@@ -4211,15 +4127,9 @@
       <c r="K44" s="128"/>
     </row>
     <row r="45" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B45" s="151">
-        <v>802824</v>
-      </c>
-      <c r="C45" s="151" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45" s="151" t="s">
-        <v>65</v>
-      </c>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
       <c r="E45" s="136"/>
       <c r="F45" s="136"/>
       <c r="G45" s="136"/>
@@ -4229,15 +4139,9 @@
       <c r="K45" s="128"/>
     </row>
     <row r="46" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B46" s="151">
-        <v>803898</v>
-      </c>
-      <c r="C46" s="151" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="151" t="s">
-        <v>67</v>
-      </c>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
       <c r="E46" s="136"/>
       <c r="F46" s="136"/>
       <c r="G46" s="136"/>
@@ -4247,15 +4151,9 @@
       <c r="K46" s="128"/>
     </row>
     <row r="47" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B47" s="151">
-        <v>804363</v>
-      </c>
-      <c r="C47" s="151" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="151" t="s">
-        <v>69</v>
-      </c>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
       <c r="E47" s="136"/>
       <c r="F47" s="136"/>
       <c r="G47" s="136"/>
@@ -4265,15 +4163,9 @@
       <c r="K47" s="128"/>
     </row>
     <row r="48" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B48" s="151">
-        <v>805064</v>
-      </c>
-      <c r="C48" s="151" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" s="151" t="s">
-        <v>71</v>
-      </c>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
       <c r="E48" s="136"/>
       <c r="F48" s="136"/>
       <c r="G48" s="136"/>
@@ -4283,15 +4175,9 @@
       <c r="K48" s="128"/>
     </row>
     <row r="49" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B49" s="151">
-        <v>805086</v>
-      </c>
-      <c r="C49" s="151" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="151" t="s">
-        <v>73</v>
-      </c>
+      <c r="B49" s="151"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
       <c r="E49" s="136"/>
       <c r="F49" s="136"/>
       <c r="G49" s="136"/>
@@ -4351,7 +4237,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="B54" s="156" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C54" s="157"/>
       <c r="D54" s="157"/>
@@ -4518,7 +4404,7 @@
     </row>
     <row r="2" spans="1:84" customHeight="1" ht="51">
       <c r="A2" s="323" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B2" s="324"/>
       <c r="C2" s="324"/>
@@ -4537,7 +4423,7 @@
     </row>
     <row r="3" spans="1:84" customHeight="1" ht="39.75">
       <c r="A3" s="314" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B3" s="315"/>
       <c r="C3" s="315"/>
@@ -4555,7 +4441,7 @@
     </row>
     <row r="4" spans="1:84" customHeight="1" ht="40.5">
       <c r="A4" s="317" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B4" s="318"/>
       <c r="C4" s="318"/>
@@ -4599,7 +4485,7 @@
     </row>
     <row r="6" spans="1:84" customHeight="1" ht="24.95">
       <c r="A6" s="296" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B6" s="297"/>
       <c r="C6" s="298"/>
@@ -4622,12 +4508,12 @@
     </row>
     <row r="7" spans="1:84">
       <c r="A7" s="302" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B7" s="303"/>
       <c r="C7" s="13"/>
       <c r="D7" s="304" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E7" s="305"/>
       <c r="F7" s="210"/>
@@ -4647,17 +4533,17 @@
     </row>
     <row r="8" spans="1:84">
       <c r="A8" s="14" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B8" s="210"/>
       <c r="C8" s="212"/>
       <c r="D8" s="306" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="E8" s="307"/>
       <c r="F8" s="13"/>
       <c r="G8" s="308" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H8" s="309"/>
       <c r="I8" s="309"/>
@@ -4674,7 +4560,7 @@
     </row>
     <row r="9" spans="1:84">
       <c r="A9" s="300" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B9" s="301"/>
       <c r="C9" s="210"/>
@@ -4697,7 +4583,7 @@
     </row>
     <row r="10" spans="1:84">
       <c r="A10" s="208" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B10" s="209"/>
       <c r="C10" s="210"/>
@@ -4765,7 +4651,7 @@
     </row>
     <row r="13" spans="1:84" customHeight="1" ht="21">
       <c r="A13" s="213" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B13" s="214"/>
       <c r="C13" s="214"/>
@@ -4811,16 +4697,16 @@
     </row>
     <row r="15" spans="1:84">
       <c r="A15" s="28" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="216" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D15" s="217"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -4841,12 +4727,12 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
       <c r="F16" s="233" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G16" s="233"/>
       <c r="H16" s="233"/>
@@ -4867,12 +4753,12 @@
       <c r="A17" s="42"/>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="233" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G17" s="233"/>
       <c r="H17" s="233"/>
@@ -4891,14 +4777,14 @@
     </row>
     <row r="18" spans="1:84" customHeight="1" ht="12.75">
       <c r="A18" s="235" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B18" s="236"/>
       <c r="C18" s="236"/>
       <c r="D18" s="283"/>
       <c r="E18" s="44"/>
       <c r="F18" s="285" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G18" s="285"/>
       <c r="H18" s="285"/>
@@ -4917,7 +4803,7 @@
     </row>
     <row r="19" spans="1:84" customHeight="1" ht="13.5">
       <c r="A19" s="237" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B19" s="233"/>
       <c r="C19" s="234"/>
@@ -4941,14 +4827,14 @@
     </row>
     <row r="20" spans="1:84" customHeight="1" ht="13.5">
       <c r="A20" s="237" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B20" s="233"/>
       <c r="C20" s="234"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="284" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="G20" s="284"/>
       <c r="H20" s="284"/>
@@ -4967,7 +4853,7 @@
     </row>
     <row r="21" spans="1:84" customHeight="1" ht="12.75">
       <c r="A21" s="237" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B21" s="233"/>
       <c r="C21" s="41"/>
@@ -4991,7 +4877,7 @@
     </row>
     <row r="22" spans="1:84" customHeight="1" ht="12.75">
       <c r="A22" s="237" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B22" s="233"/>
       <c r="C22" s="234"/>
@@ -5015,14 +4901,14 @@
     </row>
     <row r="23" spans="1:84" customHeight="1" ht="12">
       <c r="A23" s="237" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B23" s="233"/>
       <c r="C23" s="234"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -5041,14 +4927,14 @@
     </row>
     <row r="24" spans="1:84" customHeight="1" ht="12">
       <c r="A24" s="237" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B24" s="233"/>
       <c r="C24" s="234"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -5067,14 +4953,14 @@
     </row>
     <row r="25" spans="1:84" customHeight="1" ht="12">
       <c r="A25" s="237" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B25" s="233"/>
       <c r="C25" s="234"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -5093,7 +4979,7 @@
     </row>
     <row r="26" spans="1:84" customHeight="1" ht="12">
       <c r="A26" s="237" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B26" s="233"/>
       <c r="C26" s="234"/>
@@ -5117,14 +5003,14 @@
     </row>
     <row r="27" spans="1:84" customHeight="1" ht="12">
       <c r="A27" s="293" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B27" s="294"/>
       <c r="C27" s="295"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
       <c r="F27" s="290" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="G27" s="290"/>
       <c r="H27" s="290"/>
@@ -5143,7 +5029,7 @@
     </row>
     <row r="28" spans="1:84" customHeight="1" ht="12">
       <c r="A28" s="287" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B28" s="288"/>
       <c r="C28" s="289"/>
@@ -5172,7 +5058,7 @@
       <c r="D29" s="47"/>
       <c r="E29" s="63"/>
       <c r="F29" s="46" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
@@ -5196,7 +5082,7 @@
       <c r="D30" s="292"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
@@ -5215,14 +5101,14 @@
     </row>
     <row r="31" spans="1:84" customHeight="1" ht="12">
       <c r="A31" s="235" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B31" s="236"/>
       <c r="C31" s="236"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -5246,7 +5132,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="46" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -5265,14 +5151,14 @@
     </row>
     <row r="33" spans="1:84" customHeight="1" ht="12">
       <c r="A33" s="237" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B33" s="234"/>
       <c r="C33" s="238"/>
       <c r="D33" s="238"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
@@ -5313,7 +5199,7 @@
     </row>
     <row r="35" spans="1:84" customHeight="1" ht="12">
       <c r="A35" s="74" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="75"/>
@@ -5337,7 +5223,7 @@
     </row>
     <row r="36" spans="1:84" customHeight="1" ht="12">
       <c r="A36" s="16" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="77"/>
@@ -5361,7 +5247,7 @@
     </row>
     <row r="37" spans="1:84" customHeight="1" ht="12">
       <c r="A37" s="16" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="77"/>
@@ -5385,7 +5271,7 @@
     </row>
     <row r="38" spans="1:84" customHeight="1" ht="12">
       <c r="A38" s="16" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="77"/>
@@ -5409,7 +5295,7 @@
     </row>
     <row r="39" spans="1:84" customHeight="1" ht="12">
       <c r="A39" s="16" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="77"/>
@@ -5433,7 +5319,7 @@
     </row>
     <row r="40" spans="1:84" customHeight="1" ht="12">
       <c r="A40" s="16" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="77"/>
@@ -5457,7 +5343,7 @@
     </row>
     <row r="41" spans="1:84" customHeight="1" ht="12">
       <c r="A41" s="15" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="77"/>
@@ -5547,7 +5433,7 @@
     </row>
     <row r="45" spans="1:84" customHeight="1" ht="24.95">
       <c r="A45" s="280" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B45" s="281"/>
       <c r="C45" s="281"/>
@@ -5571,7 +5457,7 @@
     </row>
     <row r="46" spans="1:84">
       <c r="A46" s="194" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B46" s="195"/>
       <c r="C46" s="195"/>
@@ -5617,7 +5503,7 @@
     </row>
     <row r="48" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
       <c r="A48" s="205" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B48" s="206"/>
       <c r="C48" s="206"/>
@@ -5649,7 +5535,7 @@
     </row>
     <row r="49" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
       <c r="A49" s="207" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B49" s="207"/>
       <c r="C49" s="207"/>
@@ -5673,7 +5559,7 @@
     </row>
     <row r="50" spans="1:84" customHeight="1" ht="14.1">
       <c r="A50" s="207" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B50" s="207"/>
       <c r="C50" s="207"/>
@@ -5697,7 +5583,7 @@
     </row>
     <row r="51" spans="1:84" customHeight="1" ht="15">
       <c r="A51" s="193" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B51" s="193"/>
       <c r="C51" s="193"/>
@@ -5729,7 +5615,7 @@
     </row>
     <row r="52" spans="1:84" customHeight="1" ht="14.1">
       <c r="A52" s="204" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B52" s="204"/>
       <c r="C52" s="204"/>
@@ -5747,7 +5633,7 @@
     </row>
     <row r="53" spans="1:84" customHeight="1" ht="14.1" s="120" customFormat="1">
       <c r="A53" s="204" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B53" s="204"/>
       <c r="C53" s="204"/>
@@ -5765,7 +5651,7 @@
     </row>
     <row r="54" spans="1:84" customHeight="1" ht="15">
       <c r="A54" s="193" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B54" s="193"/>
       <c r="C54" s="193"/>
@@ -5797,7 +5683,7 @@
     </row>
     <row r="55" spans="1:84" customHeight="1" ht="14.1">
       <c r="A55" s="204" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B55" s="204"/>
       <c r="C55" s="204"/>
@@ -5815,7 +5701,7 @@
     </row>
     <row r="56" spans="1:84" customHeight="1" ht="14.1">
       <c r="A56" s="267" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B56" s="267"/>
       <c r="C56" s="267"/>
@@ -5833,7 +5719,7 @@
     </row>
     <row r="57" spans="1:84" customHeight="1" ht="14.1">
       <c r="A57" s="268" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B57" s="269"/>
       <c r="C57" s="269"/>
@@ -5841,13 +5727,13 @@
       <c r="E57" s="269"/>
       <c r="F57" s="270"/>
       <c r="G57" s="274" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="H57" s="275"/>
       <c r="I57" s="275"/>
       <c r="J57" s="276"/>
       <c r="K57" s="201" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L57" s="202"/>
       <c r="M57" s="202"/>
@@ -5899,7 +5785,7 @@
     </row>
     <row r="59" spans="1:84" customHeight="1" ht="14.1">
       <c r="A59" s="264" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B59" s="265"/>
       <c r="C59" s="265"/>
@@ -5917,7 +5803,7 @@
     </row>
     <row r="60" spans="1:84" customHeight="1" ht="14.1">
       <c r="A60" s="264" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B60" s="265"/>
       <c r="C60" s="265"/>
@@ -5935,7 +5821,7 @@
     </row>
     <row r="61" spans="1:84" customHeight="1" ht="14.1">
       <c r="A61" s="277" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B61" s="278"/>
       <c r="C61" s="278"/>
@@ -5967,7 +5853,7 @@
     </row>
     <row r="62" spans="1:84" customHeight="1" ht="14.1">
       <c r="A62" s="264" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B62" s="265"/>
       <c r="C62" s="265"/>
@@ -5985,7 +5871,7 @@
     </row>
     <row r="63" spans="1:84" customHeight="1" ht="14.1">
       <c r="A63" s="264" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B63" s="265"/>
       <c r="C63" s="265"/>
@@ -6003,7 +5889,7 @@
     </row>
     <row r="64" spans="1:84" customHeight="1" ht="27.75">
       <c r="A64" s="255" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B64" s="256"/>
       <c r="C64" s="256"/>
@@ -6035,7 +5921,7 @@
     </row>
     <row r="65" spans="1:84" customHeight="1" ht="14.1">
       <c r="A65" s="264" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B65" s="265"/>
       <c r="C65" s="265"/>
@@ -6059,7 +5945,7 @@
     </row>
     <row r="66" spans="1:84" customHeight="1" ht="25.5">
       <c r="A66" s="227" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B66" s="228"/>
       <c r="C66" s="228"/>
@@ -6083,7 +5969,7 @@
     </row>
     <row r="67" spans="1:84" customHeight="1" ht="15">
       <c r="A67" s="255" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B67" s="256"/>
       <c r="C67" s="256"/>
@@ -6115,7 +6001,7 @@
     </row>
     <row r="68" spans="1:84" customHeight="1" ht="14.1">
       <c r="A68" s="227" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B68" s="228"/>
       <c r="C68" s="228"/>
@@ -6139,7 +6025,7 @@
     </row>
     <row r="69" spans="1:84" customHeight="1" ht="26.25">
       <c r="A69" s="258" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B69" s="259"/>
       <c r="C69" s="259"/>
@@ -6163,7 +6049,7 @@
     </row>
     <row r="70" spans="1:84" customHeight="1" ht="15">
       <c r="A70" s="261" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B70" s="262"/>
       <c r="C70" s="262"/>
@@ -6209,7 +6095,7 @@
     </row>
     <row r="72" spans="1:84" customHeight="1" ht="25.5">
       <c r="A72" s="227" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B72" s="228"/>
       <c r="C72" s="228"/>
@@ -6221,11 +6107,11 @@
       <c r="I72" s="228"/>
       <c r="J72" s="229"/>
       <c r="K72" s="101" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L72" s="102"/>
       <c r="M72" s="101" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="N72" s="103"/>
       <c r="O72" s="120"/>
@@ -6237,7 +6123,7 @@
     </row>
     <row r="73" spans="1:84" customHeight="1" ht="23.25">
       <c r="A73" s="227" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B73" s="228"/>
       <c r="C73" s="228"/>
@@ -6249,11 +6135,11 @@
       <c r="I73" s="228"/>
       <c r="J73" s="229"/>
       <c r="K73" s="101" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="L73" s="102"/>
       <c r="M73" s="101" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="N73" s="103"/>
       <c r="O73" s="120"/>
@@ -6287,7 +6173,7 @@
     </row>
     <row r="75" spans="1:84" customHeight="1" ht="15">
       <c r="A75" s="230" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B75" s="231"/>
       <c r="C75" s="231"/>
@@ -6383,7 +6269,7 @@
     </row>
     <row r="76" spans="1:84" customHeight="1" ht="14.1">
       <c r="A76" s="249" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B76" s="250"/>
       <c r="C76" s="250"/>
@@ -6471,7 +6357,7 @@
     </row>
     <row r="77" spans="1:84" customHeight="1" ht="14.1">
       <c r="A77" s="249" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B77" s="250"/>
       <c r="C77" s="250"/>
@@ -6559,7 +6445,7 @@
     </row>
     <row r="78" spans="1:84" customHeight="1" ht="14.1">
       <c r="A78" s="249" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B78" s="250"/>
       <c r="C78" s="250"/>
@@ -6647,7 +6533,7 @@
     </row>
     <row r="79" spans="1:84" customHeight="1" ht="14.1">
       <c r="A79" s="249" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B79" s="250"/>
       <c r="C79" s="250"/>
@@ -6735,7 +6621,7 @@
     </row>
     <row r="80" spans="1:84" customHeight="1" ht="14.1">
       <c r="A80" s="249" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B80" s="250"/>
       <c r="C80" s="250"/>
@@ -6823,7 +6709,7 @@
     </row>
     <row r="81" spans="1:84" customHeight="1" ht="14.1">
       <c r="A81" s="240" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B81" s="241"/>
       <c r="C81" s="241"/>
@@ -7005,7 +6891,7 @@
     </row>
     <row r="83" spans="1:84" customHeight="1" ht="15">
       <c r="A83" s="246" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B83" s="247"/>
       <c r="C83" s="247"/>
@@ -7289,7 +7175,7 @@
     </row>
     <row r="90" spans="1:84">
       <c r="A90" s="230" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B90" s="231"/>
       <c r="C90" s="231"/>
@@ -7335,7 +7221,7 @@
     </row>
     <row r="92" spans="1:84" customHeight="1" ht="15">
       <c r="A92" s="239" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B92" s="239"/>
       <c r="C92" s="239"/>

--- a/Listado_de_asistencia.xlsx
+++ b/Listado_de_asistencia.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL DE FIRMAS" sheetId="1" r:id="rId4"/>
-    <sheet name="Cuestionario" sheetId="2" r:id="rId5"/>
+    <sheet name="CONTROL DE FIRMAS 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Cuestionario" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CONTROL DE FIRMAS'!$C$1:$L$57</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>DOCUMENTO CONTROL DE FIRMAS</t>
   </si>
@@ -128,16 +129,16 @@
     </r>
   </si>
   <si>
-    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: SAS I (F17) Nº CONVOCATORIA: 18087</t>
-  </si>
-  <si>
-    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 05-02-2018 FECHA FIN: 09-02-2018</t>
+    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Cómo creamos el cambio: Módulo 3 Rompiendo Barreras Nº CONVOCATORIA: 19538</t>
+  </si>
+  <si>
+    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 30-11-2017 FECHA FIN: 30-11-2017</t>
   </si>
   <si>
     <t>FORMADOR/RESPONSABLE DE FORMACIÓN:</t>
   </si>
   <si>
-    <t>SESIÓN Nº: ___ de 5 FECHA: 05-02-2018 HORARIO: 09:00 - 02:00</t>
+    <t>SESIÓN Nº: ___ de 1 FECHA: 30-11-2017 HORARIO: 10:00 - 03:00</t>
   </si>
   <si>
     <t>Firmado:</t>
@@ -188,7 +189,7 @@
     <t>DATOS DE ASISTENTES</t>
   </si>
   <si>
-    <t>Sesión 1</t>
+    <t xml:space="preserve">Sesión 1 </t>
   </si>
   <si>
     <t>Sesión 2</t>
@@ -219,100 +220,394 @@
     <t xml:space="preserve">N.I.F. </t>
   </si>
   <si>
-    <t>05-02-2018 09:00 - 02:00</t>
-  </si>
-  <si>
-    <t>06-02-2018 09:00 - 02:00</t>
-  </si>
-  <si>
-    <t>07-02-2018 09:00 - 02:00</t>
-  </si>
-  <si>
-    <t>08-02-2018 09:00 - 02:00</t>
-  </si>
-  <si>
-    <t>09-02-2018 09:00 - 02:00</t>
-  </si>
-  <si>
-    <t>SAINZ PINO, JAVIER</t>
-  </si>
-  <si>
-    <t>051919641Q</t>
-  </si>
-  <si>
-    <t>MONTES GUTIERREZ, NOEMI</t>
-  </si>
-  <si>
-    <t>010889069H</t>
-  </si>
-  <si>
-    <t>LOPEZ GARCIA, FELIX RUBEN</t>
-  </si>
-  <si>
-    <t>050316338C</t>
-  </si>
-  <si>
-    <t>PLAZA JEREZ, RAQUEL</t>
-  </si>
-  <si>
-    <t>007506419R</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ CORTIÑAS, JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>050077189W</t>
-  </si>
-  <si>
-    <t>GONZALO MARTINEZ, MARIA DEL VALLE</t>
-  </si>
-  <si>
-    <t>051684906L</t>
-  </si>
-  <si>
-    <t>TORRES SANZ, SAGRARIO</t>
-  </si>
-  <si>
-    <t>053044352G</t>
-  </si>
-  <si>
-    <t>LEON FERNANDEZ, DAVID</t>
-  </si>
-  <si>
-    <t>053757877T</t>
-  </si>
-  <si>
-    <t>GONZALEZ GOMEZ, NIEVES</t>
-  </si>
-  <si>
-    <t>051641334D</t>
-  </si>
-  <si>
-    <t>ROMERO RAMOS, ABILIO</t>
-  </si>
-  <si>
-    <t>006279751S</t>
-  </si>
-  <si>
-    <t>SERRANO VENTURINI, DIEGO</t>
-  </si>
-  <si>
-    <t>052896127Z</t>
-  </si>
-  <si>
-    <t>REINA GARCIA, CARMEN</t>
-  </si>
-  <si>
-    <t>033515144G</t>
-  </si>
-  <si>
-    <t>CASTILLO ALCIBAR, RAFAEL</t>
-  </si>
-  <si>
-    <t>052348562X</t>
+    <t>30-11-2017 10:00 - 03:00</t>
+  </si>
+  <si>
+    <t>IZQUIERDO PALLARES, ANA MARIA</t>
+  </si>
+  <si>
+    <t>008945200V</t>
+  </si>
+  <si>
+    <t>HUERTAS ARAGON, CARMEN</t>
+  </si>
+  <si>
+    <t>011828086Z</t>
+  </si>
+  <si>
+    <t>SANCHEZ PEREZ, MARTA</t>
+  </si>
+  <si>
+    <t>051414436Y</t>
+  </si>
+  <si>
+    <t>SERRANO ROMAN, ANDRES</t>
+  </si>
+  <si>
+    <t>006238793C</t>
+  </si>
+  <si>
+    <t>CASTROVIEJO DEL VALLE, CRISTINA</t>
+  </si>
+  <si>
+    <t>016557747R</t>
+  </si>
+  <si>
+    <t>GREDILLA CAMINO, MARIA SOLEDAD</t>
+  </si>
+  <si>
+    <t>016290941H</t>
+  </si>
+  <si>
+    <t>NEBOT DAROS, Mª AMPARO</t>
+  </si>
+  <si>
+    <t>052940251R</t>
+  </si>
+  <si>
+    <t>FERNANDEZ LOZOYA, NOEMI</t>
+  </si>
+  <si>
+    <t>033534307P</t>
+  </si>
+  <si>
+    <t>FERNANDEZ GOMEZ, NOEMI</t>
+  </si>
+  <si>
+    <t>050443612N</t>
+  </si>
+  <si>
+    <t>PINILLA DIAZ DE MERA, LOURDES</t>
+  </si>
+  <si>
+    <t>005657331K</t>
+  </si>
+  <si>
+    <t>GARCIA SANCHEZ, CRISTINA</t>
+  </si>
+  <si>
+    <t>046939501C</t>
+  </si>
+  <si>
+    <t>MARTIN PEREZ, MAYTE</t>
+  </si>
+  <si>
+    <t>050197246E</t>
+  </si>
+  <si>
+    <t>MARTINEZ REMARTINEZ, MARIA PILAR</t>
+  </si>
+  <si>
+    <t>051414219L</t>
+  </si>
+  <si>
+    <t>DE CASO GONZALEZ, MARIA ENCARNACION</t>
+  </si>
+  <si>
+    <t>011974338D</t>
+  </si>
+  <si>
+    <t>MULET DIAZ, GABRIEL</t>
+  </si>
+  <si>
+    <t>008997923R</t>
+  </si>
+  <si>
+    <t>ARNAS ALCALA, MANUEL ANGEL</t>
+  </si>
+  <si>
+    <t>025173904J</t>
+  </si>
+  <si>
+    <t>HITA HERRERA, SEHILA</t>
+  </si>
+  <si>
+    <t>047460164D</t>
+  </si>
+  <si>
+    <t>GONZALEZ FERNANDEZ, ARANZAZU</t>
+  </si>
+  <si>
+    <t>030629856C</t>
+  </si>
+  <si>
+    <t>GARCIA JIMENEZ, ROBERTO</t>
+  </si>
+  <si>
+    <t>051064142W</t>
+  </si>
+  <si>
+    <t>PRIETO AMORIN, FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>007229825M</t>
+  </si>
+  <si>
+    <t>MATEOS CALAFAT, INMACULADA</t>
+  </si>
+  <si>
+    <t>051673173Q</t>
+  </si>
+  <si>
+    <t>SERRANO RIVERA, MARIA PILAR</t>
+  </si>
+  <si>
+    <t>050848158B</t>
+  </si>
+  <si>
+    <t>CUEVAS BARROSO, M CARMEN</t>
+  </si>
+  <si>
+    <t>002898920T</t>
+  </si>
+  <si>
+    <t>PEREZ DEL AMO, YOLANDA</t>
+  </si>
+  <si>
+    <t>050094025W</t>
+  </si>
+  <si>
+    <t>GOMEZ MARTIN, MARIA LUISA</t>
+  </si>
+  <si>
+    <t>033531158X</t>
   </si>
   <si>
     <t>OBSERVACIONES GENERALES:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EMPRESA BONIFICADA:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> ORANGE ESPAGNE S.A.U                                </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CIF.: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">A82009812</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ENTIDAD ORGANIZADORA:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> ______________________________________ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CIF.:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> ____________</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CÓDIGO DE AGRUPACIÓN:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> ________________________________________</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Obligatoriamente </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> se debe de FIRMAR- TODAS LAS CASILLAS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">(no válido poner Sí, X, o cualquier símbolo que no sea una firma)</t>
+    </r>
+  </si>
+  <si>
+    <t>RODRIGO ACERO, CECILIA</t>
+  </si>
+  <si>
+    <t>009008097D</t>
+  </si>
+  <si>
+    <t>MOREIRA MOURIN, OLGA</t>
+  </si>
+  <si>
+    <t>052863938W</t>
+  </si>
+  <si>
+    <t>ESPINAR DIAZ-OBREGON, JULIO</t>
+  </si>
+  <si>
+    <t>000414784W</t>
+  </si>
+  <si>
+    <t>HOLGUIN GRANADO, FERNANDO</t>
+  </si>
+  <si>
+    <t>052972230X</t>
+  </si>
+  <si>
+    <t>SIERRA VILLAREJO, JOSE ANGEL</t>
+  </si>
+  <si>
+    <t>033519085N</t>
+  </si>
+  <si>
+    <t>SANTOS LOPEZ, CESAR</t>
+  </si>
+  <si>
+    <t>002266144T</t>
+  </si>
+  <si>
+    <t>BROGUERAS REMON, REBECA</t>
+  </si>
+  <si>
+    <t>052883321L</t>
+  </si>
+  <si>
+    <t>MARTINEZ ORTAL, FRANCISCO JAVIER</t>
+  </si>
+  <si>
+    <t>005433916M</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ CUEVA, PEDRO</t>
+  </si>
+  <si>
+    <t>010602892F</t>
+  </si>
+  <si>
+    <t>BENITO PEREZ, CRISTINA</t>
+  </si>
+  <si>
+    <t>001188533P</t>
+  </si>
+  <si>
+    <t>AGUILAR URBANO, ALEJANDRA</t>
+  </si>
+  <si>
+    <t>052476843C</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ GOMEZ, VIVIANA</t>
+  </si>
+  <si>
+    <t>051149143H</t>
+  </si>
+  <si>
+    <t>ALVAREZ AROCA, CARMEN</t>
+  </si>
+  <si>
+    <t>052533464S</t>
+  </si>
+  <si>
+    <t>CHO, HANA EN ZUNG</t>
+  </si>
+  <si>
+    <t>054217288D</t>
+  </si>
+  <si>
+    <t>ANTON PEREZ, BEATRIZ</t>
+  </si>
+  <si>
+    <t>072312047R</t>
+  </si>
+  <si>
+    <t>BELDA NUEVO, ARTURO</t>
+  </si>
+  <si>
+    <t>005283174M</t>
   </si>
   <si>
     <t>CUESTIONARIO PARA LA EVALUACIÓN DE LA CALIDAD DE LAS ACCIONES FORMATIVAS 
@@ -772,7 +1067,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="39">
+  <fonts count="47">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -1035,8 +1330,62 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Comic Sans MS"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="9"/>
@@ -1090,6 +1439,33 @@
     </font>
     <font>
       <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -1113,15 +1489,6 @@
       <u val="none"/>
       <sz val="12"/>
       <color rgb="FF993300"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1543,6 +1910,14 @@
       <left style="medium">
         <color rgb="FF969696"/>
       </left>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF969696"/>
+      </left>
       <top style="medium">
         <color rgb="FF808080"/>
       </top>
@@ -2092,19 +2467,11 @@
         <color rgb="FF969696"/>
       </bottom>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF969696"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="392">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2510,10 +2877,13 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="38" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -2531,100 +2901,214 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="27" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="3"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="3"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="8"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2633,83 +3117,161 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="37" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="37" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="42" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="41" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="37" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="41" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="43" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="43" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2717,15 +3279,18 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2735,17 +3300,14 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2753,54 +3315,57 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="60" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="61" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="62" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="75" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="63" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="76" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="66" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="65" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="63" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="77" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="76" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2822,11 +3387,8 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="46" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2840,104 +3402,104 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="77" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="78" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="79" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2945,12 +3507,15 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2960,10 +3525,10 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2975,7 +3540,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -2993,43 +3558,43 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3038,9 +3603,6 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="88" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="89" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -3048,7 +3610,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="91" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="92" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -3056,13 +3618,16 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="93" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="94" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3074,16 +3639,13 @@
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="95" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="96" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -3095,7 +3657,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3453,8 +4015,8 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3484,19 +4046,19 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:17" customHeight="1" ht="33">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="150"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="151"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -3510,17 +4072,17 @@
       <c r="B5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="223"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -3528,18 +4090,18 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="186"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="225"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -3547,18 +4109,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B7" s="180"/>
-      <c r="C7" s="187" t="s">
+      <c r="B7" s="219"/>
+      <c r="C7" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="189"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="228"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -3566,7 +4128,7 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="B8" s="180"/>
+      <c r="B8" s="219"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3575,7 +4137,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="142"/>
+      <c r="K8" s="143"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3583,18 +4145,18 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B9" s="181"/>
-      <c r="C9" s="190" t="s">
+      <c r="B9" s="220"/>
+      <c r="C9" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="231"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -3605,16 +4167,16 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="27.75">
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
     </row>
     <row r="12" spans="1:17" customHeight="1" ht="19.5">
       <c r="B12" s="130"/>
@@ -3626,21 +4188,21 @@
       <c r="H12" s="131"/>
       <c r="I12" s="131"/>
       <c r="J12" s="131"/>
-      <c r="K12" s="143"/>
+      <c r="K12" s="144"/>
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="15">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="176"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="215"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="15">
       <c r="B14" s="125"/>
@@ -3652,21 +4214,21 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="144"/>
+      <c r="K14" s="145"/>
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="15">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="144"/>
+      <c r="K15" s="145"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="15">
       <c r="B16" s="132"/>
@@ -3678,21 +4240,21 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="144"/>
+      <c r="K16" s="145"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="15">
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="214"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
       <c r="I17" s="134"/>
       <c r="J17" s="134"/>
-      <c r="K17" s="145"/>
+      <c r="K17" s="146"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="15">
       <c r="B18" s="132"/>
@@ -3704,21 +4266,21 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="144"/>
+      <c r="K18" s="145"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="15">
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="145"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="146"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="15">
       <c r="B20" s="132"/>
@@ -3730,7 +4292,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="144"/>
+      <c r="K20" s="145"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="15">
       <c r="B21" s="124" t="s">
@@ -3744,7 +4306,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="144"/>
+      <c r="K21" s="145"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="15">
       <c r="B22" s="124" t="s">
@@ -3758,7 +4320,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="144"/>
+      <c r="K22" s="145"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="15.75">
       <c r="B23" s="126"/>
@@ -3770,462 +4332,525 @@
       <c r="H23" s="133"/>
       <c r="I23" s="133"/>
       <c r="J23" s="133"/>
-      <c r="K23" s="146"/>
+      <c r="K23" s="147"/>
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="10.5">
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:17" customHeight="1" ht="30.75">
       <c r="C25" s="7"/>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="167"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="206"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="39">
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="155" t="s">
+      <c r="C26" s="211"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="155" t="s">
+      <c r="F26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="155" t="s">
+      <c r="G26" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="155" t="s">
+      <c r="H26" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="170" t="s">
+      <c r="I26" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="170" t="s">
+      <c r="J26" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="168" t="s">
+      <c r="K26" s="207" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:17" customHeight="1" ht="44.25" s="149" customFormat="1">
-      <c r="B27" s="147" t="s">
+    <row r="27" spans="1:17" customHeight="1" ht="44.25" s="150" customFormat="1">
+      <c r="B27" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C27" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="148" t="s">
+      <c r="D27" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="326" t="s">
+      <c r="E27" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="326" t="s">
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="208"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B28" s="152">
+        <v>10182</v>
+      </c>
+      <c r="C28" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="326" t="s">
+      <c r="D28" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="326" t="s">
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="127"/>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B29" s="152">
+        <v>10428</v>
+      </c>
+      <c r="C29" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="169"/>
-      <c r="M27" s="149" t="s">
+      <c r="D29" s="152" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B28" s="151">
-        <v>10994</v>
-      </c>
-      <c r="C28" s="151" t="s">
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="128"/>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B30" s="152">
+        <v>10582</v>
+      </c>
+      <c r="C30" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="151" t="s">
+      <c r="D30" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="127"/>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B29" s="151">
-        <v>12219</v>
-      </c>
-      <c r="C29" s="151" t="s">
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="128"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B31" s="152">
+        <v>11641</v>
+      </c>
+      <c r="C31" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="151" t="s">
+      <c r="D31" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="128"/>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B30" s="151">
-        <v>272508</v>
-      </c>
-      <c r="C30" s="151" t="s">
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="128"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B32" s="152">
+        <v>11877</v>
+      </c>
+      <c r="C32" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="151" t="s">
+      <c r="D32" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="128"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B31" s="151">
-        <v>272542</v>
-      </c>
-      <c r="C31" s="151" t="s">
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="128"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B33" s="152">
+        <v>11747</v>
+      </c>
+      <c r="C33" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="151" t="s">
+      <c r="D33" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="128"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B32" s="151">
-        <v>800437</v>
-      </c>
-      <c r="C32" s="151" t="s">
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="128"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B34" s="152">
+        <v>12226</v>
+      </c>
+      <c r="C34" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="151" t="s">
+      <c r="D34" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="128"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B33" s="151">
-        <v>804214</v>
-      </c>
-      <c r="C33" s="151" t="s">
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="128"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B35" s="152">
+        <v>12832</v>
+      </c>
+      <c r="C35" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="151" t="s">
+      <c r="D35" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="128"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B34" s="151">
-        <v>803679</v>
-      </c>
-      <c r="C34" s="151" t="s">
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="128"/>
+    </row>
+    <row r="36" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B36" s="152">
+        <v>12517</v>
+      </c>
+      <c r="C36" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="151" t="s">
+      <c r="D36" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="128"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B35" s="151">
-        <v>806196</v>
-      </c>
-      <c r="C35" s="151" t="s">
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="128"/>
+    </row>
+    <row r="37" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B37" s="152">
+        <v>12580</v>
+      </c>
+      <c r="C37" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="151" t="s">
+      <c r="D37" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="128"/>
-    </row>
-    <row r="36" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B36" s="151">
-        <v>805340</v>
-      </c>
-      <c r="C36" s="151" t="s">
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="128"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B38" s="152">
+        <v>12919</v>
+      </c>
+      <c r="C38" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="151" t="s">
+      <c r="D38" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="128"/>
-    </row>
-    <row r="37" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B37" s="151">
-        <v>806473</v>
-      </c>
-      <c r="C37" s="151" t="s">
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="128"/>
+    </row>
+    <row r="39" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B39" s="152">
+        <v>270564</v>
+      </c>
+      <c r="C39" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="151" t="s">
+      <c r="D39" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="128"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B38" s="151">
-        <v>806475</v>
-      </c>
-      <c r="C38" s="151" t="s">
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="128"/>
+    </row>
+    <row r="40" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B40" s="152">
+        <v>13341</v>
+      </c>
+      <c r="C40" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="151" t="s">
+      <c r="D40" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="128"/>
-    </row>
-    <row r="39" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B39" s="151">
-        <v>806491</v>
-      </c>
-      <c r="C39" s="151" t="s">
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="128"/>
+    </row>
+    <row r="41" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B41" s="152">
+        <v>271841</v>
+      </c>
+      <c r="C41" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="151" t="s">
+      <c r="D41" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="128"/>
-    </row>
-    <row r="40" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B40" s="151">
-        <v>806504</v>
-      </c>
-      <c r="C40" s="151" t="s">
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="128"/>
+    </row>
+    <row r="42" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B42" s="152">
+        <v>272718</v>
+      </c>
+      <c r="C42" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="151" t="s">
+      <c r="D42" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="128"/>
-    </row>
-    <row r="41" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B41" s="151"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="128"/>
-    </row>
-    <row r="42" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
       <c r="K42" s="128"/>
     </row>
     <row r="43" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B43" s="151"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="136"/>
+      <c r="B43" s="152">
+        <v>273587</v>
+      </c>
+      <c r="C43" s="152" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="152" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
       <c r="K43" s="128"/>
     </row>
     <row r="44" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="136"/>
+      <c r="B44" s="152">
+        <v>273557</v>
+      </c>
+      <c r="C44" s="152" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
       <c r="K44" s="128"/>
     </row>
     <row r="45" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B45" s="151"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
+      <c r="B45" s="152">
+        <v>270614</v>
+      </c>
+      <c r="C45" s="152" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="152" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
       <c r="K45" s="128"/>
     </row>
     <row r="46" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B46" s="151"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
+      <c r="B46" s="152">
+        <v>500176</v>
+      </c>
+      <c r="C46" s="152" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="152" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
       <c r="K46" s="128"/>
     </row>
     <row r="47" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B47" s="151"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="136"/>
+      <c r="B47" s="152">
+        <v>500098</v>
+      </c>
+      <c r="C47" s="152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
       <c r="K47" s="128"/>
     </row>
     <row r="48" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B48" s="151"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
+      <c r="B48" s="152">
+        <v>300124</v>
+      </c>
+      <c r="C48" s="152" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="152" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137"/>
       <c r="K48" s="128"/>
     </row>
     <row r="49" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B49" s="151"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
+      <c r="B49" s="152">
+        <v>500250</v>
+      </c>
+      <c r="C49" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="152" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137"/>
       <c r="K49" s="128"/>
     </row>
     <row r="50" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
+      <c r="B50" s="152">
+        <v>800317</v>
+      </c>
+      <c r="C50" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
       <c r="K50" s="128"/>
     </row>
     <row r="51" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
+      <c r="B51" s="152">
+        <v>600034</v>
+      </c>
+      <c r="C51" s="152" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="152" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137"/>
       <c r="K51" s="128"/>
     </row>
     <row r="52" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B52" s="152"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="136"/>
+      <c r="B52" s="153">
+        <v>800522</v>
+      </c>
+      <c r="C52" s="153" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="154"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
       <c r="K52" s="128"/>
     </row>
     <row r="53" spans="1:17" customHeight="1" ht="27.75">
-      <c r="B53" s="140"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="139"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4236,88 +4861,88 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="B54" s="156" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="139"/>
+      <c r="B54" s="195" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="196"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="197"/>
+      <c r="L54" s="140"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="B55" s="159"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="160"/>
-      <c r="E55" s="160"/>
-      <c r="F55" s="160"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="160"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="139"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="199"/>
+      <c r="F55" s="199"/>
+      <c r="G55" s="199"/>
+      <c r="H55" s="199"/>
+      <c r="I55" s="199"/>
+      <c r="J55" s="199"/>
+      <c r="K55" s="200"/>
+      <c r="L55" s="140"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="B56" s="159"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="139"/>
+      <c r="B56" s="198"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="199"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="199"/>
+      <c r="H56" s="199"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="199"/>
+      <c r="K56" s="200"/>
+      <c r="L56" s="140"/>
     </row>
     <row r="57" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B57" s="162"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="163"/>
-      <c r="J57" s="163"/>
-      <c r="K57" s="164"/>
-      <c r="L57" s="139"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202"/>
+      <c r="F57" s="202"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="202"/>
+      <c r="J57" s="202"/>
+      <c r="K57" s="203"/>
+      <c r="L57" s="140"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="B58" s="140"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="139"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="139"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="140"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="141"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="141"/>
+      <c r="K59" s="141"/>
+      <c r="L59" s="141"/>
     </row>
     <row r="60" spans="1:17">
       <c r="C60" s="9"/>
@@ -4361,6 +4986,939 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:Q60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="true" style="156"/>
+    <col min="2" max="2" width="24.5703125" customWidth="true" style="156"/>
+    <col min="3" max="3" width="24.140625" customWidth="true" style="156"/>
+    <col min="4" max="4" width="16" customWidth="true" style="156"/>
+    <col min="5" max="5" width="14.28515625" customWidth="true" style="156"/>
+    <col min="6" max="6" width="15" customWidth="true" style="156"/>
+    <col min="7" max="7" width="15" customWidth="true" style="156"/>
+    <col min="8" max="8" width="15" customWidth="true" style="156"/>
+    <col min="9" max="9" width="19.7109375" customWidth="true" style="156"/>
+    <col min="10" max="10" width="18.7109375" customWidth="true" style="156"/>
+    <col min="11" max="11" width="20" customWidth="true" style="156"/>
+    <col min="12" max="12" width="22.5703125" customWidth="true" style="156"/>
+    <col min="13" max="13" width="11.42578125" customWidth="true" style="156"/>
+    <col min="14" max="14" width="25.85546875" customWidth="true" style="156"/>
+    <col min="15" max="15" width="91.7109375" customWidth="true" style="156"/>
+    <col min="16" max="16" width="11.42578125" customWidth="true" style="156"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="C1" s="157"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="C2" s="157"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="15">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="235" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="237"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="240" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="240"/>
+      <c r="C7" s="199" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="242"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="240"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="12.75">
+      <c r="B9" s="241"/>
+      <c r="C9" s="244" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="161"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="13.5">
+      <c r="B10" s="165"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="12.75">
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="233"/>
+      <c r="L11" s="233"/>
+    </row>
+    <row r="12" spans="1:17" customHeight="1" ht="14.25">
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="168"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="247" t="str">
+        <f>'CONTROL DE FIRMAS'!B13:K13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="249"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="169"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="171"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="247" t="str">
+        <f>'CONTROL DE FIRMAS'!B15:F15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="248"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="171"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="173"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="171"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="B17" s="247" t="str">
+        <f>'CONTROL DE FIRMAS'!B17:C17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="248"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="174"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="B18" s="173"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="171"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="247" t="str">
+        <f>'CONTROL DE FIRMAS'!B19:J19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="248"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="248"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="174"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="173"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="171"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="171"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="171"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="17.25">
+      <c r="B23" s="176"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="17.25">
+      <c r="B24" s="179"/>
+    </row>
+    <row r="25" spans="1:17" customHeight="1" ht="39">
+      <c r="C25" s="179"/>
+      <c r="E25" s="250" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="252"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="25.5">
+      <c r="B26" s="253" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="253"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="180" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="180" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="255" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="255" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="257" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" customHeight="1" ht="22.5" s="183" customFormat="1">
+      <c r="B27" s="181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="182" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="180" t="str">
+        <f>'CONTROL DE FIRMAS'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="180" t="str">
+        <f>'CONTROL DE FIRMAS'!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="180" t="str">
+        <f>'CONTROL DE FIRMAS'!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="180" t="str">
+        <f>'CONTROL DE FIRMAS'!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="256"/>
+      <c r="J27" s="256"/>
+      <c r="K27" s="258"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B28" s="184">
+        <v>273616</v>
+      </c>
+      <c r="C28" s="184" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="186"/>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B29" s="184">
+        <v>800183</v>
+      </c>
+      <c r="C29" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="187"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="188"/>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B30" s="184">
+        <v>800699</v>
+      </c>
+      <c r="C30" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="184" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="188"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B31" s="184">
+        <v>800787</v>
+      </c>
+      <c r="C31" s="184" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="184" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="188"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B32" s="184">
+        <v>803017</v>
+      </c>
+      <c r="C32" s="184" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="188"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B33" s="184">
+        <v>800339</v>
+      </c>
+      <c r="C33" s="184" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="184" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="188"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B34" s="184">
+        <v>801161</v>
+      </c>
+      <c r="C34" s="184" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="184" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="188"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B35" s="184">
+        <v>801568</v>
+      </c>
+      <c r="C35" s="184" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="184" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="188"/>
+    </row>
+    <row r="36" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B36" s="184">
+        <v>801011</v>
+      </c>
+      <c r="C36" s="184" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="184" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="188"/>
+    </row>
+    <row r="37" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B37" s="184">
+        <v>803934</v>
+      </c>
+      <c r="C37" s="184" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="184" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="187"/>
+      <c r="K37" s="188"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B38" s="184">
+        <v>805617</v>
+      </c>
+      <c r="C38" s="184" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="184" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="188"/>
+    </row>
+    <row r="39" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B39" s="184">
+        <v>803631</v>
+      </c>
+      <c r="C39" s="184" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="184" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="188"/>
+    </row>
+    <row r="40" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B40" s="184">
+        <v>804113</v>
+      </c>
+      <c r="C40" s="184" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="184" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
+      <c r="K40" s="188"/>
+    </row>
+    <row r="41" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B41" s="184">
+        <v>803903</v>
+      </c>
+      <c r="C41" s="184" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="184" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="188"/>
+    </row>
+    <row r="42" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B42" s="184">
+        <v>805764</v>
+      </c>
+      <c r="C42" s="184" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="184" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
+      <c r="K42" s="188"/>
+    </row>
+    <row r="43" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B43" s="184">
+        <v>806069</v>
+      </c>
+      <c r="C43" s="184" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="184" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="188"/>
+    </row>
+    <row r="44" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B44" s="184"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="188"/>
+    </row>
+    <row r="45" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="188"/>
+    </row>
+    <row r="46" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="187"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="188"/>
+    </row>
+    <row r="47" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B47" s="184"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="187"/>
+      <c r="G47" s="187"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="187"/>
+      <c r="K47" s="188"/>
+    </row>
+    <row r="48" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B48" s="184"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="187"/>
+      <c r="G48" s="187"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="187"/>
+      <c r="K48" s="188"/>
+    </row>
+    <row r="49" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B49" s="184"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="187"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
+      <c r="J49" s="187"/>
+      <c r="K49" s="188"/>
+    </row>
+    <row r="50" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B50" s="184"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
+      <c r="J50" s="187"/>
+      <c r="K50" s="188"/>
+    </row>
+    <row r="51" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B51" s="184"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="184"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="187"/>
+      <c r="J51" s="187"/>
+      <c r="K51" s="188"/>
+    </row>
+    <row r="52" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B52" s="187"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="187"/>
+      <c r="J52" s="187"/>
+      <c r="K52" s="188"/>
+    </row>
+    <row r="53" spans="1:17" customHeight="1" ht="12.75">
+      <c r="B53" s="170"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="191"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" s="195" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="196"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="197"/>
+      <c r="L54" s="192"/>
+      <c r="M54" s="159"/>
+      <c r="N54" s="159"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="B55" s="198"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="199"/>
+      <c r="F55" s="199"/>
+      <c r="G55" s="199"/>
+      <c r="H55" s="199"/>
+      <c r="I55" s="199"/>
+      <c r="J55" s="199"/>
+      <c r="K55" s="200"/>
+      <c r="L55" s="192"/>
+      <c r="M55" s="159"/>
+      <c r="N55" s="159"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="B56" s="198"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="199"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="199"/>
+      <c r="H56" s="199"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="199"/>
+      <c r="K56" s="200"/>
+      <c r="L56" s="192"/>
+    </row>
+    <row r="57" spans="1:17" customHeight="1" ht="12.75">
+      <c r="B57" s="201"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202"/>
+      <c r="F57" s="202"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="202"/>
+      <c r="J57" s="202"/>
+      <c r="K57" s="203"/>
+      <c r="L57" s="192"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="B58" s="170"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="192"/>
+      <c r="K58" s="192"/>
+      <c r="L58" s="192"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="170"/>
+      <c r="J59" s="170"/>
+      <c r="K59" s="170"/>
+      <c r="L59" s="170"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="C60" s="194"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="B54:K57"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C5:K6"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C9:K9"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:CF102"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" showGridLines="true" showRowColHeaders="1">
@@ -4387,75 +5945,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" customHeight="1" ht="48">
-      <c r="A1" s="311"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
+      <c r="A1" s="377"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="379"/>
     </row>
     <row r="2" spans="1:84" customHeight="1" ht="51">
-      <c r="A2" s="323" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="325"/>
+      <c r="A2" s="389" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="390"/>
+      <c r="L2" s="390"/>
+      <c r="M2" s="390"/>
+      <c r="N2" s="391"/>
       <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:84" customHeight="1" ht="39.75">
-      <c r="A3" s="314" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="316"/>
+      <c r="A3" s="380" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="381"/>
+      <c r="I3" s="381"/>
+      <c r="J3" s="381"/>
+      <c r="K3" s="381"/>
+      <c r="L3" s="381"/>
+      <c r="M3" s="381"/>
+      <c r="N3" s="382"/>
     </row>
     <row r="4" spans="1:84" customHeight="1" ht="40.5">
-      <c r="A4" s="317" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="318"/>
-      <c r="C4" s="318"/>
-      <c r="D4" s="318"/>
-      <c r="E4" s="318"/>
-      <c r="F4" s="318"/>
-      <c r="G4" s="318"/>
-      <c r="H4" s="318"/>
-      <c r="I4" s="318"/>
-      <c r="J4" s="318"/>
-      <c r="K4" s="318"/>
-      <c r="L4" s="318"/>
-      <c r="M4" s="318"/>
-      <c r="N4" s="319"/>
+      <c r="A4" s="383" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="384"/>
+      <c r="C4" s="384"/>
+      <c r="D4" s="384"/>
+      <c r="E4" s="384"/>
+      <c r="F4" s="384"/>
+      <c r="G4" s="384"/>
+      <c r="H4" s="384"/>
+      <c r="I4" s="384"/>
+      <c r="J4" s="384"/>
+      <c r="K4" s="384"/>
+      <c r="L4" s="384"/>
+      <c r="M4" s="384"/>
+      <c r="N4" s="385"/>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
@@ -4463,20 +6021,20 @@
       <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:84" customHeight="1" ht="3" s="121" customFormat="1">
-      <c r="A5" s="320"/>
-      <c r="B5" s="321"/>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
-      <c r="N5" s="322"/>
+      <c r="A5" s="386"/>
+      <c r="B5" s="387"/>
+      <c r="C5" s="387"/>
+      <c r="D5" s="387"/>
+      <c r="E5" s="387"/>
+      <c r="F5" s="387"/>
+      <c r="G5" s="387"/>
+      <c r="H5" s="387"/>
+      <c r="I5" s="387"/>
+      <c r="J5" s="387"/>
+      <c r="K5" s="387"/>
+      <c r="L5" s="387"/>
+      <c r="M5" s="387"/>
+      <c r="N5" s="388"/>
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
       <c r="Q5" s="115"/>
@@ -4484,22 +6042,22 @@
       <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A6" s="296" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="297"/>
-      <c r="C6" s="298"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="298"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="298"/>
-      <c r="M6" s="298"/>
-      <c r="N6" s="299"/>
+      <c r="A6" s="362" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="363"/>
+      <c r="C6" s="364"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="364"/>
+      <c r="G6" s="364"/>
+      <c r="H6" s="364"/>
+      <c r="I6" s="364"/>
+      <c r="J6" s="364"/>
+      <c r="K6" s="364"/>
+      <c r="L6" s="364"/>
+      <c r="M6" s="364"/>
+      <c r="N6" s="365"/>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
@@ -4507,24 +6065,24 @@
       <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="302" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="303"/>
+      <c r="A7" s="368" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="369"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="304" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="305"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="212"/>
+      <c r="D7" s="370" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="371"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="277"/>
+      <c r="H7" s="277"/>
+      <c r="I7" s="277"/>
+      <c r="J7" s="277"/>
+      <c r="K7" s="277"/>
+      <c r="L7" s="277"/>
+      <c r="M7" s="277"/>
+      <c r="N7" s="278"/>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
@@ -4533,25 +6091,25 @@
     </row>
     <row r="8" spans="1:84">
       <c r="A8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="306" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="307"/>
+        <v>118</v>
+      </c>
+      <c r="B8" s="276"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="372" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="373"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="308" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="310"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="G8" s="374" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="375"/>
+      <c r="I8" s="375"/>
+      <c r="J8" s="376"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="277"/>
+      <c r="N8" s="278"/>
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
@@ -4559,22 +6117,22 @@
       <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:84">
-      <c r="A9" s="300" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="301"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="212"/>
+      <c r="A9" s="366" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="367"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="277"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="277"/>
+      <c r="H9" s="277"/>
+      <c r="I9" s="277"/>
+      <c r="J9" s="277"/>
+      <c r="K9" s="277"/>
+      <c r="L9" s="277"/>
+      <c r="M9" s="277"/>
+      <c r="N9" s="278"/>
       <c r="O9" s="120"/>
       <c r="P9" s="115"/>
       <c r="Q9" s="120"/>
@@ -4582,22 +6140,22 @@
       <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:84">
-      <c r="A10" s="208" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="209"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="212"/>
+      <c r="A10" s="274" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="275"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="277"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+      <c r="N10" s="278"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
@@ -4650,22 +6208,22 @@
       <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:84" customHeight="1" ht="21">
-      <c r="A13" s="213" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="214"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="215"/>
+      <c r="A13" s="279" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="280"/>
+      <c r="C13" s="280"/>
+      <c r="D13" s="280"/>
+      <c r="E13" s="280"/>
+      <c r="F13" s="280"/>
+      <c r="G13" s="280"/>
+      <c r="H13" s="280"/>
+      <c r="I13" s="280"/>
+      <c r="J13" s="280"/>
+      <c r="K13" s="280"/>
+      <c r="L13" s="280"/>
+      <c r="M13" s="280"/>
+      <c r="N13" s="281"/>
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
@@ -4697,16 +6255,16 @@
     </row>
     <row r="15" spans="1:84">
       <c r="A15" s="28" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="216" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="217"/>
+      <c r="C15" s="282" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="283"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -4727,18 +6285,18 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="233" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
+      <c r="F16" s="299" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" s="299"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="299"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="300"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
       <c r="N16" s="34"/>
@@ -4753,18 +6311,18 @@
       <c r="A17" s="42"/>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="233" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="234"/>
+      <c r="F17" s="299" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="299"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="299"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="300"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="34"/>
@@ -4776,21 +6334,21 @@
       <c r="T17" s="120"/>
     </row>
     <row r="18" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A18" s="235" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="236"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="283"/>
+      <c r="A18" s="301" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="349"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="285" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="285"/>
-      <c r="H18" s="285"/>
-      <c r="I18" s="285"/>
-      <c r="J18" s="285"/>
-      <c r="K18" s="286"/>
+      <c r="F18" s="351" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="351"/>
+      <c r="H18" s="351"/>
+      <c r="I18" s="351"/>
+      <c r="J18" s="351"/>
+      <c r="K18" s="352"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
       <c r="N18" s="34"/>
@@ -4802,11 +6360,11 @@
       <c r="T18" s="120"/>
     </row>
     <row r="19" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A19" s="237" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="233"/>
-      <c r="C19" s="234"/>
+      <c r="A19" s="303" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="299"/>
+      <c r="C19" s="300"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="32"/>
@@ -4826,21 +6384,21 @@
       <c r="T19" s="120"/>
     </row>
     <row r="20" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A20" s="237" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="234"/>
+      <c r="A20" s="303" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="299"/>
+      <c r="C20" s="300"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="284" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="284"/>
-      <c r="H20" s="284"/>
-      <c r="I20" s="284"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
+      <c r="F20" s="350" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="350"/>
+      <c r="H20" s="350"/>
+      <c r="I20" s="350"/>
+      <c r="J20" s="350"/>
+      <c r="K20" s="350"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="34"/>
@@ -4852,19 +6410,19 @@
       <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A21" s="237" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="233"/>
+      <c r="A21" s="303" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="299"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="284"/>
-      <c r="H21" s="284"/>
-      <c r="I21" s="284"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="284"/>
+      <c r="F21" s="350"/>
+      <c r="G21" s="350"/>
+      <c r="H21" s="350"/>
+      <c r="I21" s="350"/>
+      <c r="J21" s="350"/>
+      <c r="K21" s="350"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="34"/>
@@ -4876,11 +6434,11 @@
       <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A22" s="237" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="233"/>
-      <c r="C22" s="234"/>
+      <c r="A22" s="303" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="299"/>
+      <c r="C22" s="300"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="32"/>
@@ -4900,15 +6458,15 @@
       <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:84" customHeight="1" ht="12">
-      <c r="A23" s="237" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="234"/>
+      <c r="A23" s="303" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="299"/>
+      <c r="C23" s="300"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -4926,15 +6484,15 @@
       <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:84" customHeight="1" ht="12">
-      <c r="A24" s="237" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="233"/>
-      <c r="C24" s="234"/>
+      <c r="A24" s="303" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24" s="299"/>
+      <c r="C24" s="300"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -4952,15 +6510,15 @@
       <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:84" customHeight="1" ht="12">
-      <c r="A25" s="237" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="233"/>
-      <c r="C25" s="234"/>
+      <c r="A25" s="303" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="299"/>
+      <c r="C25" s="300"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -4978,11 +6536,11 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:84" customHeight="1" ht="12">
-      <c r="A26" s="237" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="234"/>
+      <c r="A26" s="303" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="299"/>
+      <c r="C26" s="300"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -5002,20 +6560,20 @@
       <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:84" customHeight="1" ht="12">
-      <c r="A27" s="293" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="294"/>
-      <c r="C27" s="295"/>
+      <c r="A27" s="359" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="360"/>
+      <c r="C27" s="361"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="290" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
+      <c r="F27" s="356" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="356"/>
+      <c r="H27" s="356"/>
+      <c r="I27" s="356"/>
+      <c r="J27" s="356"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="59"/>
@@ -5028,18 +6586,18 @@
       <c r="T27" s="120"/>
     </row>
     <row r="28" spans="1:84" customHeight="1" ht="12">
-      <c r="A28" s="287" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="288"/>
-      <c r="C28" s="289"/>
+      <c r="A28" s="353" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="354"/>
+      <c r="C28" s="355"/>
       <c r="D28" s="38"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
+      <c r="F28" s="356"/>
+      <c r="G28" s="356"/>
+      <c r="H28" s="356"/>
+      <c r="I28" s="356"/>
+      <c r="J28" s="356"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="59"/>
@@ -5058,7 +6616,7 @@
       <c r="D29" s="47"/>
       <c r="E29" s="63"/>
       <c r="F29" s="46" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
@@ -5076,13 +6634,13 @@
       <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:84" customHeight="1" ht="12">
-      <c r="A30" s="291"/>
-      <c r="B30" s="292"/>
-      <c r="C30" s="292"/>
-      <c r="D30" s="292"/>
+      <c r="A30" s="357"/>
+      <c r="B30" s="358"/>
+      <c r="C30" s="358"/>
+      <c r="D30" s="358"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
@@ -5100,15 +6658,15 @@
       <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:84" customHeight="1" ht="12">
-      <c r="A31" s="235" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="236"/>
-      <c r="C31" s="236"/>
+      <c r="A31" s="301" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="302"/>
+      <c r="C31" s="302"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -5132,7 +6690,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="46" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -5150,15 +6708,15 @@
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:84" customHeight="1" ht="12">
-      <c r="A33" s="237" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="238"/>
-      <c r="D33" s="238"/>
+      <c r="A33" s="303" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" s="300"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="304"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
@@ -5199,7 +6757,7 @@
     </row>
     <row r="35" spans="1:84" customHeight="1" ht="12">
       <c r="A35" s="74" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="75"/>
@@ -5223,7 +6781,7 @@
     </row>
     <row r="36" spans="1:84" customHeight="1" ht="12">
       <c r="A36" s="16" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="77"/>
@@ -5247,7 +6805,7 @@
     </row>
     <row r="37" spans="1:84" customHeight="1" ht="12">
       <c r="A37" s="16" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="77"/>
@@ -5271,7 +6829,7 @@
     </row>
     <row r="38" spans="1:84" customHeight="1" ht="12">
       <c r="A38" s="16" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="77"/>
@@ -5295,7 +6853,7 @@
     </row>
     <row r="39" spans="1:84" customHeight="1" ht="12">
       <c r="A39" s="16" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="77"/>
@@ -5319,7 +6877,7 @@
     </row>
     <row r="40" spans="1:84" customHeight="1" ht="12">
       <c r="A40" s="16" t="s">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="77"/>
@@ -5343,7 +6901,7 @@
     </row>
     <row r="41" spans="1:84" customHeight="1" ht="12">
       <c r="A41" s="15" t="s">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="77"/>
@@ -5432,22 +6990,22 @@
       <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A45" s="280" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="281"/>
-      <c r="C45" s="281"/>
-      <c r="D45" s="281"/>
-      <c r="E45" s="281"/>
-      <c r="F45" s="281"/>
-      <c r="G45" s="281"/>
-      <c r="H45" s="281"/>
-      <c r="I45" s="281"/>
-      <c r="J45" s="281"/>
-      <c r="K45" s="281"/>
-      <c r="L45" s="281"/>
-      <c r="M45" s="281"/>
-      <c r="N45" s="282"/>
+      <c r="A45" s="346" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" s="347"/>
+      <c r="C45" s="347"/>
+      <c r="D45" s="347"/>
+      <c r="E45" s="347"/>
+      <c r="F45" s="347"/>
+      <c r="G45" s="347"/>
+      <c r="H45" s="347"/>
+      <c r="I45" s="347"/>
+      <c r="J45" s="347"/>
+      <c r="K45" s="347"/>
+      <c r="L45" s="347"/>
+      <c r="M45" s="347"/>
+      <c r="N45" s="348"/>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
       <c r="Q45" s="120"/>
@@ -5456,22 +7014,22 @@
       <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:84">
-      <c r="A46" s="194" t="s">
-        <v>107</v>
-      </c>
-      <c r="B46" s="195"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
-      <c r="L46" s="195"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="196"/>
+      <c r="A46" s="260" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="261"/>
+      <c r="C46" s="261"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="261"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="261"/>
+      <c r="I46" s="261"/>
+      <c r="J46" s="261"/>
+      <c r="K46" s="261"/>
+      <c r="L46" s="261"/>
+      <c r="M46" s="261"/>
+      <c r="N46" s="262"/>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
       <c r="Q46" s="120"/>
@@ -5480,20 +7038,20 @@
       <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:84" customHeight="1" ht="25.5" s="123" customFormat="1">
-      <c r="A47" s="197"/>
-      <c r="B47" s="198"/>
-      <c r="C47" s="198"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="198"/>
-      <c r="G47" s="198"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="198"/>
-      <c r="K47" s="199"/>
-      <c r="L47" s="199"/>
-      <c r="M47" s="199"/>
-      <c r="N47" s="200"/>
+      <c r="A47" s="263"/>
+      <c r="B47" s="264"/>
+      <c r="C47" s="264"/>
+      <c r="D47" s="264"/>
+      <c r="E47" s="264"/>
+      <c r="F47" s="264"/>
+      <c r="G47" s="264"/>
+      <c r="H47" s="264"/>
+      <c r="I47" s="264"/>
+      <c r="J47" s="264"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="265"/>
+      <c r="M47" s="265"/>
+      <c r="N47" s="266"/>
       <c r="O47" s="122"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="122"/>
@@ -5502,18 +7060,18 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A48" s="205" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="206"/>
-      <c r="C48" s="206"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="206"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="206"/>
+      <c r="A48" s="271" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="272"/>
+      <c r="C48" s="272"/>
+      <c r="D48" s="272"/>
+      <c r="E48" s="272"/>
+      <c r="F48" s="272"/>
+      <c r="G48" s="272"/>
+      <c r="H48" s="272"/>
+      <c r="I48" s="272"/>
+      <c r="J48" s="272"/>
       <c r="K48" s="88">
         <v>1</v>
       </c>
@@ -5534,18 +7092,18 @@
       <c r="T48" s="122"/>
     </row>
     <row r="49" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A49" s="207" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="207"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="207"/>
+      <c r="A49" s="273" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="273"/>
+      <c r="C49" s="273"/>
+      <c r="D49" s="273"/>
+      <c r="E49" s="273"/>
+      <c r="F49" s="273"/>
+      <c r="G49" s="273"/>
+      <c r="H49" s="273"/>
+      <c r="I49" s="273"/>
+      <c r="J49" s="273"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -5558,18 +7116,18 @@
       <c r="T49" s="122"/>
     </row>
     <row r="50" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A50" s="207" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="207"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="207"/>
-      <c r="E50" s="207"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="207"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="207"/>
+      <c r="A50" s="273" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="273"/>
+      <c r="C50" s="273"/>
+      <c r="D50" s="273"/>
+      <c r="E50" s="273"/>
+      <c r="F50" s="273"/>
+      <c r="G50" s="273"/>
+      <c r="H50" s="273"/>
+      <c r="I50" s="273"/>
+      <c r="J50" s="273"/>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -5582,18 +7140,18 @@
       <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:84" customHeight="1" ht="15">
-      <c r="A51" s="193" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="193"/>
+      <c r="A51" s="259" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="259"/>
+      <c r="C51" s="259"/>
+      <c r="D51" s="259"/>
+      <c r="E51" s="259"/>
+      <c r="F51" s="259"/>
+      <c r="G51" s="259"/>
+      <c r="H51" s="259"/>
+      <c r="I51" s="259"/>
+      <c r="J51" s="259"/>
       <c r="K51" s="88">
         <v>1</v>
       </c>
@@ -5614,54 +7172,54 @@
       <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A52" s="204" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="204"/>
-      <c r="C52" s="204"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="204"/>
-      <c r="F52" s="204"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="204"/>
-      <c r="I52" s="204"/>
-      <c r="J52" s="204"/>
+      <c r="A52" s="270" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="270"/>
+      <c r="C52" s="270"/>
+      <c r="D52" s="270"/>
+      <c r="E52" s="270"/>
+      <c r="F52" s="270"/>
+      <c r="G52" s="270"/>
+      <c r="H52" s="270"/>
+      <c r="I52" s="270"/>
+      <c r="J52" s="270"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:84" customHeight="1" ht="14.1" s="120" customFormat="1">
-      <c r="A53" s="204" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="204"/>
-      <c r="C53" s="204"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="204"/>
-      <c r="F53" s="204"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="204"/>
-      <c r="I53" s="204"/>
-      <c r="J53" s="204"/>
+      <c r="A53" s="270" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="270"/>
+      <c r="C53" s="270"/>
+      <c r="D53" s="270"/>
+      <c r="E53" s="270"/>
+      <c r="F53" s="270"/>
+      <c r="G53" s="270"/>
+      <c r="H53" s="270"/>
+      <c r="I53" s="270"/>
+      <c r="J53" s="270"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:84" customHeight="1" ht="15">
-      <c r="A54" s="193" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" s="193"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="193"/>
-      <c r="F54" s="193"/>
-      <c r="G54" s="193"/>
-      <c r="H54" s="193"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="193"/>
+      <c r="A54" s="259" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54" s="259"/>
+      <c r="C54" s="259"/>
+      <c r="D54" s="259"/>
+      <c r="E54" s="259"/>
+      <c r="F54" s="259"/>
+      <c r="G54" s="259"/>
+      <c r="H54" s="259"/>
+      <c r="I54" s="259"/>
+      <c r="J54" s="259"/>
       <c r="K54" s="88">
         <v>1</v>
       </c>
@@ -5682,62 +7240,62 @@
       <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A55" s="204" t="s">
-        <v>115</v>
-      </c>
-      <c r="B55" s="204"/>
-      <c r="C55" s="204"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="204"/>
-      <c r="F55" s="204"/>
-      <c r="G55" s="204"/>
-      <c r="H55" s="204"/>
-      <c r="I55" s="204"/>
-      <c r="J55" s="204"/>
+      <c r="A55" s="270" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="270"/>
+      <c r="C55" s="270"/>
+      <c r="D55" s="270"/>
+      <c r="E55" s="270"/>
+      <c r="F55" s="270"/>
+      <c r="G55" s="270"/>
+      <c r="H55" s="270"/>
+      <c r="I55" s="270"/>
+      <c r="J55" s="270"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A56" s="267" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" s="267"/>
-      <c r="C56" s="267"/>
-      <c r="D56" s="267"/>
-      <c r="E56" s="267"/>
-      <c r="F56" s="267"/>
-      <c r="G56" s="267"/>
-      <c r="H56" s="267"/>
-      <c r="I56" s="267"/>
-      <c r="J56" s="267"/>
+      <c r="A56" s="333" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="333"/>
+      <c r="C56" s="333"/>
+      <c r="D56" s="333"/>
+      <c r="E56" s="333"/>
+      <c r="F56" s="333"/>
+      <c r="G56" s="333"/>
+      <c r="H56" s="333"/>
+      <c r="I56" s="333"/>
+      <c r="J56" s="333"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91"/>
       <c r="N56" s="91"/>
     </row>
     <row r="57" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A57" s="268" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" s="269"/>
-      <c r="C57" s="269"/>
-      <c r="D57" s="269"/>
-      <c r="E57" s="269"/>
-      <c r="F57" s="270"/>
-      <c r="G57" s="274" t="s">
-        <v>118</v>
-      </c>
-      <c r="H57" s="275"/>
-      <c r="I57" s="275"/>
-      <c r="J57" s="276"/>
-      <c r="K57" s="201" t="s">
-        <v>119</v>
-      </c>
-      <c r="L57" s="202"/>
-      <c r="M57" s="202"/>
-      <c r="N57" s="203"/>
+      <c r="A57" s="334" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="335"/>
+      <c r="C57" s="335"/>
+      <c r="D57" s="335"/>
+      <c r="E57" s="335"/>
+      <c r="F57" s="336"/>
+      <c r="G57" s="340" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="341"/>
+      <c r="I57" s="341"/>
+      <c r="J57" s="342"/>
+      <c r="K57" s="267" t="s">
+        <v>175</v>
+      </c>
+      <c r="L57" s="268"/>
+      <c r="M57" s="268"/>
+      <c r="N57" s="269"/>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -5746,12 +7304,12 @@
       <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A58" s="271"/>
-      <c r="B58" s="272"/>
-      <c r="C58" s="272"/>
-      <c r="D58" s="272"/>
-      <c r="E58" s="272"/>
-      <c r="F58" s="273"/>
+      <c r="A58" s="337"/>
+      <c r="B58" s="338"/>
+      <c r="C58" s="338"/>
+      <c r="D58" s="338"/>
+      <c r="E58" s="338"/>
+      <c r="F58" s="339"/>
       <c r="G58" s="88">
         <v>1</v>
       </c>
@@ -5784,14 +7342,14 @@
       <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A59" s="264" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" s="265"/>
-      <c r="C59" s="265"/>
-      <c r="D59" s="265"/>
-      <c r="E59" s="265"/>
-      <c r="F59" s="266"/>
+      <c r="A59" s="330" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="331"/>
+      <c r="C59" s="331"/>
+      <c r="D59" s="331"/>
+      <c r="E59" s="331"/>
+      <c r="F59" s="332"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
@@ -5802,14 +7360,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A60" s="264" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="265"/>
-      <c r="C60" s="265"/>
-      <c r="D60" s="265"/>
-      <c r="E60" s="265"/>
-      <c r="F60" s="266"/>
+      <c r="A60" s="330" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="331"/>
+      <c r="C60" s="331"/>
+      <c r="D60" s="331"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="332"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
@@ -5820,18 +7378,18 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A61" s="277" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="278"/>
-      <c r="C61" s="278"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
-      <c r="H61" s="278"/>
-      <c r="I61" s="278"/>
-      <c r="J61" s="279"/>
+      <c r="A61" s="343" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="344"/>
+      <c r="C61" s="344"/>
+      <c r="D61" s="344"/>
+      <c r="E61" s="344"/>
+      <c r="F61" s="344"/>
+      <c r="G61" s="344"/>
+      <c r="H61" s="344"/>
+      <c r="I61" s="344"/>
+      <c r="J61" s="345"/>
       <c r="K61" s="88">
         <v>1</v>
       </c>
@@ -5852,54 +7410,54 @@
       <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A62" s="264" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="265"/>
-      <c r="C62" s="265"/>
-      <c r="D62" s="265"/>
-      <c r="E62" s="265"/>
-      <c r="F62" s="265"/>
-      <c r="G62" s="265"/>
-      <c r="H62" s="265"/>
-      <c r="I62" s="265"/>
-      <c r="J62" s="266"/>
+      <c r="A62" s="330" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="331"/>
+      <c r="C62" s="331"/>
+      <c r="D62" s="331"/>
+      <c r="E62" s="331"/>
+      <c r="F62" s="331"/>
+      <c r="G62" s="331"/>
+      <c r="H62" s="331"/>
+      <c r="I62" s="331"/>
+      <c r="J62" s="332"/>
       <c r="K62" s="93"/>
       <c r="L62" s="90"/>
       <c r="M62" s="90"/>
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A63" s="264" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="265"/>
-      <c r="C63" s="265"/>
-      <c r="D63" s="265"/>
-      <c r="E63" s="265"/>
-      <c r="F63" s="265"/>
-      <c r="G63" s="265"/>
-      <c r="H63" s="265"/>
-      <c r="I63" s="265"/>
-      <c r="J63" s="266"/>
+      <c r="A63" s="330" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="331"/>
+      <c r="C63" s="331"/>
+      <c r="D63" s="331"/>
+      <c r="E63" s="331"/>
+      <c r="F63" s="331"/>
+      <c r="G63" s="331"/>
+      <c r="H63" s="331"/>
+      <c r="I63" s="331"/>
+      <c r="J63" s="332"/>
       <c r="K63" s="93"/>
       <c r="L63" s="90"/>
       <c r="M63" s="90"/>
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:84" customHeight="1" ht="27.75">
-      <c r="A64" s="255" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="256"/>
-      <c r="C64" s="256"/>
-      <c r="D64" s="256"/>
-      <c r="E64" s="256"/>
-      <c r="F64" s="256"/>
-      <c r="G64" s="256"/>
-      <c r="H64" s="256"/>
-      <c r="I64" s="256"/>
-      <c r="J64" s="257"/>
+      <c r="A64" s="321" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="322"/>
+      <c r="C64" s="322"/>
+      <c r="D64" s="322"/>
+      <c r="E64" s="322"/>
+      <c r="F64" s="322"/>
+      <c r="G64" s="322"/>
+      <c r="H64" s="322"/>
+      <c r="I64" s="322"/>
+      <c r="J64" s="323"/>
       <c r="K64" s="94">
         <v>1</v>
       </c>
@@ -5920,18 +7478,18 @@
       <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A65" s="264" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="265"/>
-      <c r="C65" s="265"/>
-      <c r="D65" s="265"/>
-      <c r="E65" s="265"/>
-      <c r="F65" s="265"/>
-      <c r="G65" s="265"/>
-      <c r="H65" s="265"/>
-      <c r="I65" s="265"/>
-      <c r="J65" s="266"/>
+      <c r="A65" s="330" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="331"/>
+      <c r="C65" s="331"/>
+      <c r="D65" s="331"/>
+      <c r="E65" s="331"/>
+      <c r="F65" s="331"/>
+      <c r="G65" s="331"/>
+      <c r="H65" s="331"/>
+      <c r="I65" s="331"/>
+      <c r="J65" s="332"/>
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
       <c r="M65" s="90"/>
@@ -5944,18 +7502,18 @@
       <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A66" s="227" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="228"/>
-      <c r="C66" s="228"/>
-      <c r="D66" s="228"/>
-      <c r="E66" s="228"/>
-      <c r="F66" s="228"/>
-      <c r="G66" s="228"/>
-      <c r="H66" s="228"/>
-      <c r="I66" s="228"/>
-      <c r="J66" s="229"/>
+      <c r="A66" s="293" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="294"/>
+      <c r="C66" s="294"/>
+      <c r="D66" s="294"/>
+      <c r="E66" s="294"/>
+      <c r="F66" s="294"/>
+      <c r="G66" s="294"/>
+      <c r="H66" s="294"/>
+      <c r="I66" s="294"/>
+      <c r="J66" s="295"/>
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
       <c r="M66" s="90"/>
@@ -5968,18 +7526,18 @@
       <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:84" customHeight="1" ht="15">
-      <c r="A67" s="255" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="256"/>
-      <c r="C67" s="256"/>
-      <c r="D67" s="256"/>
-      <c r="E67" s="256"/>
-      <c r="F67" s="256"/>
-      <c r="G67" s="256"/>
-      <c r="H67" s="256"/>
-      <c r="I67" s="256"/>
-      <c r="J67" s="257"/>
+      <c r="A67" s="321" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="322"/>
+      <c r="C67" s="322"/>
+      <c r="D67" s="322"/>
+      <c r="E67" s="322"/>
+      <c r="F67" s="322"/>
+      <c r="G67" s="322"/>
+      <c r="H67" s="322"/>
+      <c r="I67" s="322"/>
+      <c r="J67" s="323"/>
       <c r="K67" s="88">
         <v>1</v>
       </c>
@@ -6000,18 +7558,18 @@
       <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A68" s="227" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="228"/>
-      <c r="C68" s="228"/>
-      <c r="D68" s="228"/>
-      <c r="E68" s="228"/>
-      <c r="F68" s="228"/>
-      <c r="G68" s="228"/>
-      <c r="H68" s="228"/>
-      <c r="I68" s="228"/>
-      <c r="J68" s="229"/>
+      <c r="A68" s="293" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" s="294"/>
+      <c r="C68" s="294"/>
+      <c r="D68" s="294"/>
+      <c r="E68" s="294"/>
+      <c r="F68" s="294"/>
+      <c r="G68" s="294"/>
+      <c r="H68" s="294"/>
+      <c r="I68" s="294"/>
+      <c r="J68" s="295"/>
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
       <c r="M68" s="90"/>
@@ -6024,18 +7582,18 @@
       <c r="T68" s="120"/>
     </row>
     <row r="69" spans="1:84" customHeight="1" ht="26.25">
-      <c r="A69" s="258" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="259"/>
-      <c r="C69" s="259"/>
-      <c r="D69" s="259"/>
-      <c r="E69" s="259"/>
-      <c r="F69" s="259"/>
-      <c r="G69" s="259"/>
-      <c r="H69" s="259"/>
-      <c r="I69" s="259"/>
-      <c r="J69" s="260"/>
+      <c r="A69" s="324" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="325"/>
+      <c r="C69" s="325"/>
+      <c r="D69" s="325"/>
+      <c r="E69" s="325"/>
+      <c r="F69" s="325"/>
+      <c r="G69" s="325"/>
+      <c r="H69" s="325"/>
+      <c r="I69" s="325"/>
+      <c r="J69" s="326"/>
       <c r="K69" s="91"/>
       <c r="L69" s="91"/>
       <c r="M69" s="91"/>
@@ -6048,22 +7606,22 @@
       <c r="T69" s="120"/>
     </row>
     <row r="70" spans="1:84" customHeight="1" ht="15">
-      <c r="A70" s="261" t="s">
-        <v>131</v>
-      </c>
-      <c r="B70" s="262"/>
-      <c r="C70" s="262"/>
-      <c r="D70" s="262"/>
-      <c r="E70" s="262"/>
-      <c r="F70" s="262"/>
-      <c r="G70" s="262"/>
-      <c r="H70" s="262"/>
-      <c r="I70" s="262"/>
-      <c r="J70" s="262"/>
-      <c r="K70" s="262"/>
-      <c r="L70" s="262"/>
-      <c r="M70" s="262"/>
-      <c r="N70" s="263"/>
+      <c r="A70" s="327" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="328"/>
+      <c r="C70" s="328"/>
+      <c r="D70" s="328"/>
+      <c r="E70" s="328"/>
+      <c r="F70" s="328"/>
+      <c r="G70" s="328"/>
+      <c r="H70" s="328"/>
+      <c r="I70" s="328"/>
+      <c r="J70" s="328"/>
+      <c r="K70" s="328"/>
+      <c r="L70" s="328"/>
+      <c r="M70" s="328"/>
+      <c r="N70" s="329"/>
       <c r="O70" s="120"/>
       <c r="P70" s="120"/>
       <c r="Q70" s="120"/>
@@ -6094,24 +7652,24 @@
       <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A72" s="227" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="228"/>
-      <c r="C72" s="228"/>
-      <c r="D72" s="228"/>
-      <c r="E72" s="228"/>
-      <c r="F72" s="228"/>
-      <c r="G72" s="228"/>
-      <c r="H72" s="228"/>
-      <c r="I72" s="228"/>
-      <c r="J72" s="229"/>
+      <c r="A72" s="293" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" s="294"/>
+      <c r="C72" s="294"/>
+      <c r="D72" s="294"/>
+      <c r="E72" s="294"/>
+      <c r="F72" s="294"/>
+      <c r="G72" s="294"/>
+      <c r="H72" s="294"/>
+      <c r="I72" s="294"/>
+      <c r="J72" s="295"/>
       <c r="K72" s="101" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="L72" s="102"/>
       <c r="M72" s="101" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="N72" s="103"/>
       <c r="O72" s="120"/>
@@ -6122,24 +7680,24 @@
       <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:84" customHeight="1" ht="23.25">
-      <c r="A73" s="227" t="s">
-        <v>135</v>
-      </c>
-      <c r="B73" s="228"/>
-      <c r="C73" s="228"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="228"/>
-      <c r="G73" s="228"/>
-      <c r="H73" s="228"/>
-      <c r="I73" s="228"/>
-      <c r="J73" s="229"/>
+      <c r="A73" s="293" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" s="294"/>
+      <c r="C73" s="294"/>
+      <c r="D73" s="294"/>
+      <c r="E73" s="294"/>
+      <c r="F73" s="294"/>
+      <c r="G73" s="294"/>
+      <c r="H73" s="294"/>
+      <c r="I73" s="294"/>
+      <c r="J73" s="295"/>
       <c r="K73" s="101" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="L73" s="102"/>
       <c r="M73" s="101" t="s">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="N73" s="103"/>
       <c r="O73" s="120"/>
@@ -6172,18 +7730,18 @@
       <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:84" customHeight="1" ht="15">
-      <c r="A75" s="230" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="231"/>
-      <c r="C75" s="231"/>
-      <c r="D75" s="231"/>
-      <c r="E75" s="231"/>
-      <c r="F75" s="231"/>
-      <c r="G75" s="231"/>
-      <c r="H75" s="231"/>
-      <c r="I75" s="231"/>
-      <c r="J75" s="232"/>
+      <c r="A75" s="296" t="s">
+        <v>192</v>
+      </c>
+      <c r="B75" s="297"/>
+      <c r="C75" s="297"/>
+      <c r="D75" s="297"/>
+      <c r="E75" s="297"/>
+      <c r="F75" s="297"/>
+      <c r="G75" s="297"/>
+      <c r="H75" s="297"/>
+      <c r="I75" s="297"/>
+      <c r="J75" s="298"/>
       <c r="K75" s="88">
         <v>1</v>
       </c>
@@ -6268,18 +7826,18 @@
       <c r="CF75" s="120"/>
     </row>
     <row r="76" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A76" s="249" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="250"/>
-      <c r="C76" s="250"/>
-      <c r="D76" s="250"/>
-      <c r="E76" s="250"/>
-      <c r="F76" s="250"/>
-      <c r="G76" s="250"/>
-      <c r="H76" s="250"/>
-      <c r="I76" s="250"/>
-      <c r="J76" s="251"/>
+      <c r="A76" s="315" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="316"/>
+      <c r="C76" s="316"/>
+      <c r="D76" s="316"/>
+      <c r="E76" s="316"/>
+      <c r="F76" s="316"/>
+      <c r="G76" s="316"/>
+      <c r="H76" s="316"/>
+      <c r="I76" s="316"/>
+      <c r="J76" s="317"/>
       <c r="K76" s="109"/>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -6356,18 +7914,18 @@
       <c r="CF76" s="120"/>
     </row>
     <row r="77" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A77" s="249" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="250"/>
-      <c r="C77" s="250"/>
-      <c r="D77" s="250"/>
-      <c r="E77" s="250"/>
-      <c r="F77" s="250"/>
-      <c r="G77" s="250"/>
-      <c r="H77" s="250"/>
-      <c r="I77" s="250"/>
-      <c r="J77" s="251"/>
+      <c r="A77" s="315" t="s">
+        <v>194</v>
+      </c>
+      <c r="B77" s="316"/>
+      <c r="C77" s="316"/>
+      <c r="D77" s="316"/>
+      <c r="E77" s="316"/>
+      <c r="F77" s="316"/>
+      <c r="G77" s="316"/>
+      <c r="H77" s="316"/>
+      <c r="I77" s="316"/>
+      <c r="J77" s="317"/>
       <c r="K77" s="109"/>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -6444,18 +8002,18 @@
       <c r="CF77" s="120"/>
     </row>
     <row r="78" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A78" s="249" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" s="250"/>
-      <c r="C78" s="250"/>
-      <c r="D78" s="250"/>
-      <c r="E78" s="250"/>
-      <c r="F78" s="250"/>
-      <c r="G78" s="250"/>
-      <c r="H78" s="250"/>
-      <c r="I78" s="250"/>
-      <c r="J78" s="251"/>
+      <c r="A78" s="315" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="316"/>
+      <c r="C78" s="316"/>
+      <c r="D78" s="316"/>
+      <c r="E78" s="316"/>
+      <c r="F78" s="316"/>
+      <c r="G78" s="316"/>
+      <c r="H78" s="316"/>
+      <c r="I78" s="316"/>
+      <c r="J78" s="317"/>
       <c r="K78" s="109"/>
       <c r="L78" s="109"/>
       <c r="M78" s="109"/>
@@ -6532,18 +8090,18 @@
       <c r="CF78" s="120"/>
     </row>
     <row r="79" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A79" s="249" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" s="250"/>
-      <c r="C79" s="250"/>
-      <c r="D79" s="250"/>
-      <c r="E79" s="250"/>
-      <c r="F79" s="250"/>
-      <c r="G79" s="250"/>
-      <c r="H79" s="250"/>
-      <c r="I79" s="250"/>
-      <c r="J79" s="251"/>
+      <c r="A79" s="315" t="s">
+        <v>196</v>
+      </c>
+      <c r="B79" s="316"/>
+      <c r="C79" s="316"/>
+      <c r="D79" s="316"/>
+      <c r="E79" s="316"/>
+      <c r="F79" s="316"/>
+      <c r="G79" s="316"/>
+      <c r="H79" s="316"/>
+      <c r="I79" s="316"/>
+      <c r="J79" s="317"/>
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
       <c r="M79" s="109"/>
@@ -6620,18 +8178,18 @@
       <c r="CF79" s="120"/>
     </row>
     <row r="80" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A80" s="249" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="250"/>
-      <c r="C80" s="250"/>
-      <c r="D80" s="250"/>
-      <c r="E80" s="250"/>
-      <c r="F80" s="250"/>
-      <c r="G80" s="250"/>
-      <c r="H80" s="250"/>
-      <c r="I80" s="250"/>
-      <c r="J80" s="251"/>
+      <c r="A80" s="315" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" s="316"/>
+      <c r="C80" s="316"/>
+      <c r="D80" s="316"/>
+      <c r="E80" s="316"/>
+      <c r="F80" s="316"/>
+      <c r="G80" s="316"/>
+      <c r="H80" s="316"/>
+      <c r="I80" s="316"/>
+      <c r="J80" s="317"/>
       <c r="K80" s="109"/>
       <c r="L80" s="109"/>
       <c r="M80" s="109"/>
@@ -6708,18 +8266,18 @@
       <c r="CF80" s="120"/>
     </row>
     <row r="81" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A81" s="240" t="s">
-        <v>142</v>
-      </c>
-      <c r="B81" s="241"/>
-      <c r="C81" s="241"/>
-      <c r="D81" s="241"/>
-      <c r="E81" s="241"/>
-      <c r="F81" s="241"/>
-      <c r="G81" s="241"/>
-      <c r="H81" s="241"/>
-      <c r="I81" s="241"/>
-      <c r="J81" s="242"/>
+      <c r="A81" s="306" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="307"/>
+      <c r="C81" s="307"/>
+      <c r="D81" s="307"/>
+      <c r="E81" s="307"/>
+      <c r="F81" s="307"/>
+      <c r="G81" s="307"/>
+      <c r="H81" s="307"/>
+      <c r="I81" s="307"/>
+      <c r="J81" s="308"/>
       <c r="K81" s="88">
         <v>1</v>
       </c>
@@ -6804,16 +8362,16 @@
       <c r="CF81" s="120"/>
     </row>
     <row r="82" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A82" s="243"/>
-      <c r="B82" s="244"/>
-      <c r="C82" s="244"/>
-      <c r="D82" s="244"/>
-      <c r="E82" s="244"/>
-      <c r="F82" s="244"/>
-      <c r="G82" s="244"/>
-      <c r="H82" s="244"/>
-      <c r="I82" s="244"/>
-      <c r="J82" s="245"/>
+      <c r="A82" s="309"/>
+      <c r="B82" s="310"/>
+      <c r="C82" s="310"/>
+      <c r="D82" s="310"/>
+      <c r="E82" s="310"/>
+      <c r="F82" s="310"/>
+      <c r="G82" s="310"/>
+      <c r="H82" s="310"/>
+      <c r="I82" s="310"/>
+      <c r="J82" s="311"/>
       <c r="K82" s="110"/>
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
@@ -6890,22 +8448,22 @@
       <c r="CF82" s="120"/>
     </row>
     <row r="83" spans="1:84" customHeight="1" ht="15">
-      <c r="A83" s="246" t="s">
-        <v>143</v>
-      </c>
-      <c r="B83" s="247"/>
-      <c r="C83" s="247"/>
-      <c r="D83" s="247"/>
-      <c r="E83" s="247"/>
-      <c r="F83" s="247"/>
-      <c r="G83" s="247"/>
-      <c r="H83" s="247"/>
-      <c r="I83" s="247"/>
-      <c r="J83" s="247"/>
-      <c r="K83" s="247"/>
-      <c r="L83" s="247"/>
-      <c r="M83" s="247"/>
-      <c r="N83" s="248"/>
+      <c r="A83" s="312" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="313"/>
+      <c r="C83" s="313"/>
+      <c r="D83" s="313"/>
+      <c r="E83" s="313"/>
+      <c r="F83" s="313"/>
+      <c r="G83" s="313"/>
+      <c r="H83" s="313"/>
+      <c r="I83" s="313"/>
+      <c r="J83" s="313"/>
+      <c r="K83" s="313"/>
+      <c r="L83" s="313"/>
+      <c r="M83" s="313"/>
+      <c r="N83" s="314"/>
       <c r="O83" s="120"/>
       <c r="P83" s="120"/>
       <c r="Q83" s="120"/>
@@ -6978,20 +8536,20 @@
       <c r="CF83" s="120"/>
     </row>
     <row r="84" spans="1:84">
-      <c r="A84" s="218"/>
-      <c r="B84" s="219"/>
-      <c r="C84" s="219"/>
-      <c r="D84" s="219"/>
-      <c r="E84" s="219"/>
-      <c r="F84" s="219"/>
-      <c r="G84" s="219"/>
-      <c r="H84" s="219"/>
-      <c r="I84" s="219"/>
-      <c r="J84" s="219"/>
-      <c r="K84" s="219"/>
-      <c r="L84" s="219"/>
-      <c r="M84" s="219"/>
-      <c r="N84" s="220"/>
+      <c r="A84" s="284"/>
+      <c r="B84" s="285"/>
+      <c r="C84" s="285"/>
+      <c r="D84" s="285"/>
+      <c r="E84" s="285"/>
+      <c r="F84" s="285"/>
+      <c r="G84" s="285"/>
+      <c r="H84" s="285"/>
+      <c r="I84" s="285"/>
+      <c r="J84" s="285"/>
+      <c r="K84" s="285"/>
+      <c r="L84" s="285"/>
+      <c r="M84" s="285"/>
+      <c r="N84" s="286"/>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
       <c r="Q84" s="120"/>
@@ -7064,20 +8622,20 @@
       <c r="CF84" s="120"/>
     </row>
     <row r="85" spans="1:84" customHeight="1" ht="16.5">
-      <c r="A85" s="221"/>
-      <c r="B85" s="222"/>
-      <c r="C85" s="222"/>
-      <c r="D85" s="222"/>
-      <c r="E85" s="222"/>
-      <c r="F85" s="222"/>
-      <c r="G85" s="222"/>
-      <c r="H85" s="222"/>
-      <c r="I85" s="222"/>
-      <c r="J85" s="222"/>
-      <c r="K85" s="222"/>
-      <c r="L85" s="222"/>
-      <c r="M85" s="222"/>
-      <c r="N85" s="223"/>
+      <c r="A85" s="287"/>
+      <c r="B85" s="288"/>
+      <c r="C85" s="288"/>
+      <c r="D85" s="288"/>
+      <c r="E85" s="288"/>
+      <c r="F85" s="288"/>
+      <c r="G85" s="288"/>
+      <c r="H85" s="288"/>
+      <c r="I85" s="288"/>
+      <c r="J85" s="288"/>
+      <c r="K85" s="288"/>
+      <c r="L85" s="288"/>
+      <c r="M85" s="288"/>
+      <c r="N85" s="289"/>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
       <c r="Q85" s="120"/>
@@ -7086,20 +8644,20 @@
       <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:84" customHeight="1" ht="6.75">
-      <c r="A86" s="221"/>
-      <c r="B86" s="222"/>
-      <c r="C86" s="222"/>
-      <c r="D86" s="222"/>
-      <c r="E86" s="222"/>
-      <c r="F86" s="222"/>
-      <c r="G86" s="222"/>
-      <c r="H86" s="222"/>
-      <c r="I86" s="222"/>
-      <c r="J86" s="222"/>
-      <c r="K86" s="222"/>
-      <c r="L86" s="222"/>
-      <c r="M86" s="222"/>
-      <c r="N86" s="223"/>
+      <c r="A86" s="287"/>
+      <c r="B86" s="288"/>
+      <c r="C86" s="288"/>
+      <c r="D86" s="288"/>
+      <c r="E86" s="288"/>
+      <c r="F86" s="288"/>
+      <c r="G86" s="288"/>
+      <c r="H86" s="288"/>
+      <c r="I86" s="288"/>
+      <c r="J86" s="288"/>
+      <c r="K86" s="288"/>
+      <c r="L86" s="288"/>
+      <c r="M86" s="288"/>
+      <c r="N86" s="289"/>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
       <c r="Q86" s="120"/>
@@ -7108,20 +8666,20 @@
       <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:84" customHeight="1" ht="15">
-      <c r="A87" s="221"/>
-      <c r="B87" s="222"/>
-      <c r="C87" s="222"/>
-      <c r="D87" s="222"/>
-      <c r="E87" s="222"/>
-      <c r="F87" s="222"/>
-      <c r="G87" s="222"/>
-      <c r="H87" s="222"/>
-      <c r="I87" s="222"/>
-      <c r="J87" s="222"/>
-      <c r="K87" s="222"/>
-      <c r="L87" s="222"/>
-      <c r="M87" s="222"/>
-      <c r="N87" s="223"/>
+      <c r="A87" s="287"/>
+      <c r="B87" s="288"/>
+      <c r="C87" s="288"/>
+      <c r="D87" s="288"/>
+      <c r="E87" s="288"/>
+      <c r="F87" s="288"/>
+      <c r="G87" s="288"/>
+      <c r="H87" s="288"/>
+      <c r="I87" s="288"/>
+      <c r="J87" s="288"/>
+      <c r="K87" s="288"/>
+      <c r="L87" s="288"/>
+      <c r="M87" s="288"/>
+      <c r="N87" s="289"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -7130,20 +8688,20 @@
       <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:84">
-      <c r="A88" s="221"/>
-      <c r="B88" s="222"/>
-      <c r="C88" s="222"/>
-      <c r="D88" s="222"/>
-      <c r="E88" s="222"/>
-      <c r="F88" s="222"/>
-      <c r="G88" s="222"/>
-      <c r="H88" s="222"/>
-      <c r="I88" s="222"/>
-      <c r="J88" s="222"/>
-      <c r="K88" s="222"/>
-      <c r="L88" s="222"/>
-      <c r="M88" s="222"/>
-      <c r="N88" s="223"/>
+      <c r="A88" s="287"/>
+      <c r="B88" s="288"/>
+      <c r="C88" s="288"/>
+      <c r="D88" s="288"/>
+      <c r="E88" s="288"/>
+      <c r="F88" s="288"/>
+      <c r="G88" s="288"/>
+      <c r="H88" s="288"/>
+      <c r="I88" s="288"/>
+      <c r="J88" s="288"/>
+      <c r="K88" s="288"/>
+      <c r="L88" s="288"/>
+      <c r="M88" s="288"/>
+      <c r="N88" s="289"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -7152,20 +8710,20 @@
       <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:84">
-      <c r="A89" s="224"/>
-      <c r="B89" s="225"/>
-      <c r="C89" s="225"/>
-      <c r="D89" s="225"/>
-      <c r="E89" s="225"/>
-      <c r="F89" s="225"/>
-      <c r="G89" s="225"/>
-      <c r="H89" s="225"/>
-      <c r="I89" s="225"/>
-      <c r="J89" s="225"/>
-      <c r="K89" s="225"/>
-      <c r="L89" s="225"/>
-      <c r="M89" s="225"/>
-      <c r="N89" s="226"/>
+      <c r="A89" s="290"/>
+      <c r="B89" s="291"/>
+      <c r="C89" s="291"/>
+      <c r="D89" s="291"/>
+      <c r="E89" s="291"/>
+      <c r="F89" s="291"/>
+      <c r="G89" s="291"/>
+      <c r="H89" s="291"/>
+      <c r="I89" s="291"/>
+      <c r="J89" s="291"/>
+      <c r="K89" s="291"/>
+      <c r="L89" s="291"/>
+      <c r="M89" s="291"/>
+      <c r="N89" s="292"/>
       <c r="O89" s="120"/>
       <c r="P89" s="120"/>
       <c r="Q89" s="120"/>
@@ -7174,22 +8732,22 @@
       <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:84">
-      <c r="A90" s="230" t="s">
-        <v>144</v>
-      </c>
-      <c r="B90" s="231"/>
-      <c r="C90" s="231"/>
-      <c r="D90" s="232"/>
-      <c r="E90" s="252"/>
-      <c r="F90" s="253"/>
-      <c r="G90" s="253"/>
-      <c r="H90" s="253"/>
-      <c r="I90" s="253"/>
-      <c r="J90" s="253"/>
-      <c r="K90" s="253"/>
-      <c r="L90" s="253"/>
-      <c r="M90" s="253"/>
-      <c r="N90" s="254"/>
+      <c r="A90" s="296" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" s="297"/>
+      <c r="C90" s="297"/>
+      <c r="D90" s="298"/>
+      <c r="E90" s="318"/>
+      <c r="F90" s="319"/>
+      <c r="G90" s="319"/>
+      <c r="H90" s="319"/>
+      <c r="I90" s="319"/>
+      <c r="J90" s="319"/>
+      <c r="K90" s="319"/>
+      <c r="L90" s="319"/>
+      <c r="M90" s="319"/>
+      <c r="N90" s="320"/>
       <c r="O90" s="120"/>
       <c r="P90" s="120"/>
       <c r="Q90" s="120"/>
@@ -7220,22 +8778,22 @@
       <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:84" customHeight="1" ht="15">
-      <c r="A92" s="239" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" s="239"/>
-      <c r="C92" s="239"/>
-      <c r="D92" s="239"/>
-      <c r="E92" s="239"/>
-      <c r="F92" s="239"/>
-      <c r="G92" s="239"/>
-      <c r="H92" s="239"/>
-      <c r="I92" s="239"/>
-      <c r="J92" s="239"/>
-      <c r="K92" s="239"/>
-      <c r="L92" s="239"/>
-      <c r="M92" s="239"/>
-      <c r="N92" s="239"/>
+      <c r="A92" s="305" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="305"/>
+      <c r="C92" s="305"/>
+      <c r="D92" s="305"/>
+      <c r="E92" s="305"/>
+      <c r="F92" s="305"/>
+      <c r="G92" s="305"/>
+      <c r="H92" s="305"/>
+      <c r="I92" s="305"/>
+      <c r="J92" s="305"/>
+      <c r="K92" s="305"/>
+      <c r="L92" s="305"/>
+      <c r="M92" s="305"/>
+      <c r="N92" s="305"/>
       <c r="O92" s="120"/>
       <c r="P92" s="120"/>
       <c r="Q92" s="120"/>

--- a/Listado_de_asistencia.xlsx
+++ b/Listado_de_asistencia.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL DE FIRMAS" sheetId="1" r:id="rId4"/>
-    <sheet name="CONTROL DE FIRMAS 2" sheetId="2" r:id="rId5"/>
-    <sheet name="Cuestionario" sheetId="3" r:id="rId6"/>
+    <sheet name="Cuestionario" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CONTROL DE FIRMAS'!$C$1:$L$57</definedName>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>DOCUMENTO CONTROL DE FIRMAS</t>
   </si>
@@ -129,16 +128,16 @@
     </r>
   </si>
   <si>
-    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Cómo creamos el cambio: Módulo 3 Rompiendo Barreras Nº CONVOCATORIA: 19538</t>
-  </si>
-  <si>
-    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 30-11-2017 FECHA FIN: 30-11-2017</t>
+    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Programa de formación nuevo Time to Market Nº CONVOCATORIA: 17720</t>
+  </si>
+  <si>
+    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 16-10-2017 FECHA FIN: 04-12-2017</t>
   </si>
   <si>
     <t>FORMADOR/RESPONSABLE DE FORMACIÓN:</t>
   </si>
   <si>
-    <t>SESIÓN Nº: ___ de 1 FECHA: 30-11-2017 HORARIO: 10:00 - 03:00</t>
+    <t>SESIÓN Nº: ___ de 6 FECHA: 16-10-2017 HORARIO: 10:00 - 02:00</t>
   </si>
   <si>
     <t>Firmado:</t>
@@ -189,7 +188,7 @@
     <t>DATOS DE ASISTENTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Sesión 1 </t>
+    <t>Sesión 1</t>
   </si>
   <si>
     <t>Sesión 2</t>
@@ -220,394 +219,157 @@
     <t xml:space="preserve">N.I.F. </t>
   </si>
   <si>
-    <t>30-11-2017 10:00 - 03:00</t>
-  </si>
-  <si>
-    <t>IZQUIERDO PALLARES, ANA MARIA</t>
-  </si>
-  <si>
-    <t>008945200V</t>
-  </si>
-  <si>
-    <t>HUERTAS ARAGON, CARMEN</t>
-  </si>
-  <si>
-    <t>011828086Z</t>
-  </si>
-  <si>
-    <t>SANCHEZ PEREZ, MARTA</t>
-  </si>
-  <si>
-    <t>051414436Y</t>
-  </si>
-  <si>
-    <t>SERRANO ROMAN, ANDRES</t>
-  </si>
-  <si>
-    <t>006238793C</t>
-  </si>
-  <si>
-    <t>CASTROVIEJO DEL VALLE, CRISTINA</t>
-  </si>
-  <si>
-    <t>016557747R</t>
-  </si>
-  <si>
-    <t>GREDILLA CAMINO, MARIA SOLEDAD</t>
-  </si>
-  <si>
-    <t>016290941H</t>
-  </si>
-  <si>
-    <t>NEBOT DAROS, Mª AMPARO</t>
-  </si>
-  <si>
-    <t>052940251R</t>
-  </si>
-  <si>
-    <t>FERNANDEZ LOZOYA, NOEMI</t>
-  </si>
-  <si>
-    <t>033534307P</t>
-  </si>
-  <si>
-    <t>FERNANDEZ GOMEZ, NOEMI</t>
-  </si>
-  <si>
-    <t>050443612N</t>
-  </si>
-  <si>
-    <t>PINILLA DIAZ DE MERA, LOURDES</t>
-  </si>
-  <si>
-    <t>005657331K</t>
-  </si>
-  <si>
-    <t>GARCIA SANCHEZ, CRISTINA</t>
-  </si>
-  <si>
-    <t>046939501C</t>
-  </si>
-  <si>
-    <t>MARTIN PEREZ, MAYTE</t>
-  </si>
-  <si>
-    <t>050197246E</t>
-  </si>
-  <si>
-    <t>MARTINEZ REMARTINEZ, MARIA PILAR</t>
-  </si>
-  <si>
-    <t>051414219L</t>
-  </si>
-  <si>
-    <t>DE CASO GONZALEZ, MARIA ENCARNACION</t>
-  </si>
-  <si>
-    <t>011974338D</t>
-  </si>
-  <si>
-    <t>MULET DIAZ, GABRIEL</t>
-  </si>
-  <si>
-    <t>008997923R</t>
-  </si>
-  <si>
-    <t>ARNAS ALCALA, MANUEL ANGEL</t>
-  </si>
-  <si>
-    <t>025173904J</t>
-  </si>
-  <si>
-    <t>HITA HERRERA, SEHILA</t>
-  </si>
-  <si>
-    <t>047460164D</t>
-  </si>
-  <si>
-    <t>GONZALEZ FERNANDEZ, ARANZAZU</t>
-  </si>
-  <si>
-    <t>030629856C</t>
-  </si>
-  <si>
-    <t>GARCIA JIMENEZ, ROBERTO</t>
-  </si>
-  <si>
-    <t>051064142W</t>
-  </si>
-  <si>
-    <t>PRIETO AMORIN, FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>007229825M</t>
-  </si>
-  <si>
-    <t>MATEOS CALAFAT, INMACULADA</t>
-  </si>
-  <si>
-    <t>051673173Q</t>
-  </si>
-  <si>
-    <t>SERRANO RIVERA, MARIA PILAR</t>
-  </si>
-  <si>
-    <t>050848158B</t>
-  </si>
-  <si>
-    <t>CUEVAS BARROSO, M CARMEN</t>
-  </si>
-  <si>
-    <t>002898920T</t>
-  </si>
-  <si>
-    <t>PEREZ DEL AMO, YOLANDA</t>
-  </si>
-  <si>
-    <t>050094025W</t>
-  </si>
-  <si>
-    <t>GOMEZ MARTIN, MARIA LUISA</t>
-  </si>
-  <si>
-    <t>033531158X</t>
+    <t>16-10-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>30-10-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>06-11-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>13-11-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>20-11-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>SANCHEZ CANTOS, ESTHER</t>
+  </si>
+  <si>
+    <t>024354634A</t>
+  </si>
+  <si>
+    <t>04-12-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>CASTELLANOS ANDRES, ALVARO</t>
+  </si>
+  <si>
+    <t>009785531C</t>
+  </si>
+  <si>
+    <t>PLAZA MERINO, VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>052865742N</t>
+  </si>
+  <si>
+    <t>DE LUIS CASTAÑO, LAURA</t>
+  </si>
+  <si>
+    <t>050205145D</t>
+  </si>
+  <si>
+    <t>PANTOJA LOPEZ, ELENA</t>
+  </si>
+  <si>
+    <t>002535347B</t>
+  </si>
+  <si>
+    <t>ALFARO ORTIZ, PILAR</t>
+  </si>
+  <si>
+    <t>007563405Q</t>
+  </si>
+  <si>
+    <t>BILBAO ZARRAGA, ITZIAR</t>
+  </si>
+  <si>
+    <t>016043034M</t>
+  </si>
+  <si>
+    <t>MESA MARTIN, MARA</t>
+  </si>
+  <si>
+    <t>002782609T</t>
+  </si>
+  <si>
+    <t>DJAN HERRERO, RUTH</t>
+  </si>
+  <si>
+    <t>050728583J</t>
+  </si>
+  <si>
+    <t>GARCIA AMADOR, ALONSO</t>
+  </si>
+  <si>
+    <t>051061998C</t>
+  </si>
+  <si>
+    <t>GUADALIX AVILES, DAVID</t>
+  </si>
+  <si>
+    <t>050190319H</t>
+  </si>
+  <si>
+    <t>BELMONTE GOMEZ, MARTA</t>
+  </si>
+  <si>
+    <t>006253798Y</t>
+  </si>
+  <si>
+    <t>BALLESTEROS GONZALEZ, RAUL</t>
+  </si>
+  <si>
+    <t>052993834V</t>
+  </si>
+  <si>
+    <t>GARCIA GARCIA, ALEJANDRA MARIA</t>
+  </si>
+  <si>
+    <t>015258434G</t>
+  </si>
+  <si>
+    <t>SERRA MORENO, ANTONIO</t>
+  </si>
+  <si>
+    <t>050083544D</t>
+  </si>
+  <si>
+    <t>DUQUE LUDEÑA, ALBERTO</t>
+  </si>
+  <si>
+    <t>050200229S</t>
+  </si>
+  <si>
+    <t>GARCIA RUIZ, NOEMI</t>
+  </si>
+  <si>
+    <t>051945351N</t>
+  </si>
+  <si>
+    <t>GONZALEZ SANCHEZ, RUTH</t>
+  </si>
+  <si>
+    <t>001186382L</t>
+  </si>
+  <si>
+    <t>MUNARRIZ GOMEZ, MAIDER</t>
+  </si>
+  <si>
+    <t>072471462A</t>
+  </si>
+  <si>
+    <t>BOSCA VISTA, JOAQUIN</t>
+  </si>
+  <si>
+    <t>050452728C</t>
+  </si>
+  <si>
+    <t>BALAGUER DELGADO, CLAUDIA</t>
+  </si>
+  <si>
+    <t>029200964A</t>
+  </si>
+  <si>
+    <t>RUBIO FERNANDEZ, DANIEL</t>
+  </si>
+  <si>
+    <t>007230276L</t>
   </si>
   <si>
     <t>OBSERVACIONES GENERALES:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EMPRESA BONIFICADA:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> ORANGE ESPAGNE S.A.U                                </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CIF.: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">A82009812</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ENTIDAD ORGANIZADORA:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> ______________________________________ </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CIF.:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> ____________</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CÓDIGO DE AGRUPACIÓN:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> ________________________________________</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">Obligatoriamente </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> se debe de FIRMAR- TODAS LAS CASILLAS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">(no válido poner Sí, X, o cualquier símbolo que no sea una firma)</t>
-    </r>
-  </si>
-  <si>
-    <t>RODRIGO ACERO, CECILIA</t>
-  </si>
-  <si>
-    <t>009008097D</t>
-  </si>
-  <si>
-    <t>MOREIRA MOURIN, OLGA</t>
-  </si>
-  <si>
-    <t>052863938W</t>
-  </si>
-  <si>
-    <t>ESPINAR DIAZ-OBREGON, JULIO</t>
-  </si>
-  <si>
-    <t>000414784W</t>
-  </si>
-  <si>
-    <t>HOLGUIN GRANADO, FERNANDO</t>
-  </si>
-  <si>
-    <t>052972230X</t>
-  </si>
-  <si>
-    <t>SIERRA VILLAREJO, JOSE ANGEL</t>
-  </si>
-  <si>
-    <t>033519085N</t>
-  </si>
-  <si>
-    <t>SANTOS LOPEZ, CESAR</t>
-  </si>
-  <si>
-    <t>002266144T</t>
-  </si>
-  <si>
-    <t>BROGUERAS REMON, REBECA</t>
-  </si>
-  <si>
-    <t>052883321L</t>
-  </si>
-  <si>
-    <t>MARTINEZ ORTAL, FRANCISCO JAVIER</t>
-  </si>
-  <si>
-    <t>005433916M</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ CUEVA, PEDRO</t>
-  </si>
-  <si>
-    <t>010602892F</t>
-  </si>
-  <si>
-    <t>BENITO PEREZ, CRISTINA</t>
-  </si>
-  <si>
-    <t>001188533P</t>
-  </si>
-  <si>
-    <t>AGUILAR URBANO, ALEJANDRA</t>
-  </si>
-  <si>
-    <t>052476843C</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ GOMEZ, VIVIANA</t>
-  </si>
-  <si>
-    <t>051149143H</t>
-  </si>
-  <si>
-    <t>ALVAREZ AROCA, CARMEN</t>
-  </si>
-  <si>
-    <t>052533464S</t>
-  </si>
-  <si>
-    <t>CHO, HANA EN ZUNG</t>
-  </si>
-  <si>
-    <t>054217288D</t>
-  </si>
-  <si>
-    <t>ANTON PEREZ, BEATRIZ</t>
-  </si>
-  <si>
-    <t>072312047R</t>
-  </si>
-  <si>
-    <t>BELDA NUEVO, ARTURO</t>
-  </si>
-  <si>
-    <t>005283174M</t>
   </si>
   <si>
     <t>CUESTIONARIO PARA LA EVALUACIÓN DE LA CALIDAD DE LAS ACCIONES FORMATIVAS 
@@ -1067,7 +829,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="47">
+  <fonts count="39">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -1330,62 +1092,8 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000080"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <b val="1"/>
       <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000080"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Comic Sans MS"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="9"/>
@@ -1439,33 +1147,6 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF808080"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000080"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -1489,6 +1170,15 @@
       <u val="none"/>
       <sz val="12"/>
       <color rgb="FF993300"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1910,14 +1600,6 @@
       <left style="medium">
         <color rgb="FF969696"/>
       </left>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF969696"/>
-      </left>
       <top style="medium">
         <color rgb="FF808080"/>
       </top>
@@ -2467,11 +2149,19 @@
         <color rgb="FF969696"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF969696"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="327">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2877,401 +2567,206 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="38" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="27" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="27" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="8"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="37" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="42" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="41" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="43" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="43" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="41" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -3279,18 +2774,15 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -3300,14 +2792,17 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -3315,80 +2810,164 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="60" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="61" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="62" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="75" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="65" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="63" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="76" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="37" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="66" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="65" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="77" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="78" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="46" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -3402,104 +2981,20 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="78" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="79" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -3507,94 +3002,91 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3603,6 +3095,9 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="88" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="89" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -3610,7 +3105,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="91" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="92" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -3618,16 +3113,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="93" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="94" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3639,13 +3131,16 @@
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="95" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="96" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -3657,7 +3152,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4015,8 +3510,8 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4046,19 +3541,19 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:17" customHeight="1" ht="33">
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="151"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -4072,17 +3567,17 @@
       <c r="B5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="221" t="s">
+      <c r="C5" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
-      <c r="K5" s="223"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="184"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -4090,18 +3585,18 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="225"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="186"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4109,18 +3604,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B7" s="219"/>
-      <c r="C7" s="226" t="s">
+      <c r="B7" s="180"/>
+      <c r="C7" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="228"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -4128,7 +3623,7 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="B8" s="219"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4137,7 +3632,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="143"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -4145,18 +3640,18 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B9" s="220"/>
-      <c r="C9" s="229" t="s">
+      <c r="B9" s="181"/>
+      <c r="C9" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="231"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="192"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -4167,16 +3662,16 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="27.75">
-      <c r="C11" s="217"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
     </row>
     <row r="12" spans="1:17" customHeight="1" ht="19.5">
       <c r="B12" s="130"/>
@@ -4188,21 +3683,21 @@
       <c r="H12" s="131"/>
       <c r="I12" s="131"/>
       <c r="J12" s="131"/>
-      <c r="K12" s="144"/>
+      <c r="K12" s="143"/>
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="15">
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="215"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="176"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="15">
       <c r="B14" s="125"/>
@@ -4214,21 +3709,21 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="145"/>
+      <c r="K14" s="144"/>
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="15">
-      <c r="B15" s="213" t="s">
+      <c r="B15" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="145"/>
+      <c r="K15" s="144"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="15">
       <c r="B16" s="132"/>
@@ -4240,21 +3735,21 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="145"/>
+      <c r="K16" s="144"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="15">
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="214"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
       <c r="I17" s="134"/>
       <c r="J17" s="134"/>
-      <c r="K17" s="146"/>
+      <c r="K17" s="145"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="15">
       <c r="B18" s="132"/>
@@ -4266,21 +3761,21 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="145"/>
+      <c r="K18" s="144"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="15">
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="146"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="145"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="15">
       <c r="B20" s="132"/>
@@ -4292,7 +3787,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="145"/>
+      <c r="K20" s="144"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="15">
       <c r="B21" s="124" t="s">
@@ -4306,7 +3801,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="145"/>
+      <c r="K21" s="144"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="15">
       <c r="B22" s="124" t="s">
@@ -4320,7 +3815,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="145"/>
+      <c r="K22" s="144"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="15.75">
       <c r="B23" s="126"/>
@@ -4332,525 +3827,519 @@
       <c r="H23" s="133"/>
       <c r="I23" s="133"/>
       <c r="J23" s="133"/>
-      <c r="K23" s="147"/>
+      <c r="K23" s="146"/>
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="10.5">
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:17" customHeight="1" ht="30.75">
       <c r="C25" s="7"/>
-      <c r="E25" s="204" t="s">
+      <c r="E25" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="206"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="167"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="39">
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="135" t="s">
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="135" t="s">
+      <c r="F26" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="135" t="s">
+      <c r="G26" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="135" t="s">
+      <c r="H26" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="209" t="s">
+      <c r="I26" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="209" t="s">
+      <c r="J26" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="207" t="s">
+      <c r="K26" s="168" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:17" customHeight="1" ht="44.25" s="150" customFormat="1">
-      <c r="B27" s="148" t="s">
+    <row r="27" spans="1:17" customHeight="1" ht="44.25" s="149" customFormat="1">
+      <c r="B27" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="149" t="s">
+      <c r="D27" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="326" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="208"/>
+      <c r="F27" s="326" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="326" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="326" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="169"/>
+      <c r="M27" s="149" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B28" s="152">
-        <v>10182</v>
-      </c>
-      <c r="C28" s="152" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
+      <c r="B28" s="151">
+        <v>10288</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
       <c r="K28" s="127"/>
+      <c r="M28" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B29" s="152">
-        <v>10428</v>
-      </c>
-      <c r="C29" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
+      <c r="B29" s="151">
+        <v>12261</v>
+      </c>
+      <c r="C29" s="151" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
       <c r="K29" s="128"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B30" s="152">
-        <v>10582</v>
-      </c>
-      <c r="C30" s="152" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="152" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
+      <c r="B30" s="151">
+        <v>12785</v>
+      </c>
+      <c r="C30" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
       <c r="K30" s="128"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B31" s="152">
-        <v>11641</v>
-      </c>
-      <c r="C31" s="152" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="152" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
+      <c r="B31" s="151">
+        <v>13237</v>
+      </c>
+      <c r="C31" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
       <c r="K31" s="128"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B32" s="152">
-        <v>11877</v>
-      </c>
-      <c r="C32" s="152" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
+      <c r="B32" s="151">
+        <v>13683</v>
+      </c>
+      <c r="C32" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
       <c r="K32" s="128"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B33" s="152">
-        <v>11747</v>
-      </c>
-      <c r="C33" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
+      <c r="B33" s="151">
+        <v>13736</v>
+      </c>
+      <c r="C33" s="151" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
       <c r="K33" s="128"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B34" s="152">
-        <v>12226</v>
-      </c>
-      <c r="C34" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="152" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
+      <c r="B34" s="151">
+        <v>270557</v>
+      </c>
+      <c r="C34" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="151" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
       <c r="K34" s="128"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B35" s="152">
-        <v>12832</v>
-      </c>
-      <c r="C35" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="152" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
+      <c r="B35" s="151">
+        <v>273113</v>
+      </c>
+      <c r="C35" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
       <c r="K35" s="128"/>
     </row>
     <row r="36" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B36" s="152">
-        <v>12517</v>
-      </c>
-      <c r="C36" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="152" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
+      <c r="B36" s="151">
+        <v>273690</v>
+      </c>
+      <c r="C36" s="151" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
       <c r="K36" s="128"/>
     </row>
     <row r="37" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B37" s="152">
-        <v>12580</v>
-      </c>
-      <c r="C37" s="152" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="152" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
+      <c r="B37" s="151">
+        <v>300193</v>
+      </c>
+      <c r="C37" s="151" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="151" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
       <c r="K37" s="128"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B38" s="152">
-        <v>12919</v>
-      </c>
-      <c r="C38" s="152" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="152" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
+      <c r="B38" s="151">
+        <v>800017</v>
+      </c>
+      <c r="C38" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
       <c r="K38" s="128"/>
     </row>
     <row r="39" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B39" s="152">
-        <v>270564</v>
-      </c>
-      <c r="C39" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="152" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
+      <c r="B39" s="151">
+        <v>800526</v>
+      </c>
+      <c r="C39" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
       <c r="K39" s="128"/>
     </row>
     <row r="40" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B40" s="152">
-        <v>13341</v>
-      </c>
-      <c r="C40" s="152" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
+      <c r="B40" s="151">
+        <v>800565</v>
+      </c>
+      <c r="C40" s="151" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="151" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
       <c r="K40" s="128"/>
     </row>
     <row r="41" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B41" s="152">
-        <v>271841</v>
-      </c>
-      <c r="C41" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
+      <c r="B41" s="151">
+        <v>800599</v>
+      </c>
+      <c r="C41" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="151" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
       <c r="K41" s="128"/>
     </row>
     <row r="42" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B42" s="152">
-        <v>272718</v>
-      </c>
-      <c r="C42" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="152" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
+      <c r="B42" s="151">
+        <v>800675</v>
+      </c>
+      <c r="C42" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="151" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
       <c r="K42" s="128"/>
     </row>
     <row r="43" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B43" s="152">
-        <v>273587</v>
-      </c>
-      <c r="C43" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="152" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
+      <c r="B43" s="151">
+        <v>801043</v>
+      </c>
+      <c r="C43" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="151" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
       <c r="K43" s="128"/>
     </row>
     <row r="44" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B44" s="152">
-        <v>273557</v>
-      </c>
-      <c r="C44" s="152" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="152" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
+      <c r="B44" s="151">
+        <v>803677</v>
+      </c>
+      <c r="C44" s="151" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
       <c r="K44" s="128"/>
     </row>
     <row r="45" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B45" s="152">
-        <v>270614</v>
-      </c>
-      <c r="C45" s="152" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="152" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
+      <c r="B45" s="151">
+        <v>802824</v>
+      </c>
+      <c r="C45" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="151" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
       <c r="K45" s="128"/>
     </row>
     <row r="46" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B46" s="152">
-        <v>500176</v>
-      </c>
-      <c r="C46" s="152" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
+      <c r="B46" s="151">
+        <v>803898</v>
+      </c>
+      <c r="C46" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="151" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
       <c r="K46" s="128"/>
     </row>
     <row r="47" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B47" s="152">
-        <v>500098</v>
-      </c>
-      <c r="C47" s="152" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="152" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
+      <c r="B47" s="151">
+        <v>804363</v>
+      </c>
+      <c r="C47" s="151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
       <c r="K47" s="128"/>
     </row>
     <row r="48" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B48" s="152">
-        <v>300124</v>
-      </c>
-      <c r="C48" s="152" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
+      <c r="B48" s="151">
+        <v>805064</v>
+      </c>
+      <c r="C48" s="151" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="151" t="s">
+        <v>71</v>
+      </c>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
       <c r="K48" s="128"/>
     </row>
     <row r="49" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B49" s="152">
-        <v>500250</v>
-      </c>
-      <c r="C49" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
+      <c r="B49" s="151">
+        <v>805086</v>
+      </c>
+      <c r="C49" s="151" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="151" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
       <c r="K49" s="128"/>
     </row>
     <row r="50" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B50" s="152">
-        <v>800317</v>
-      </c>
-      <c r="C50" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
       <c r="K50" s="128"/>
     </row>
     <row r="51" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B51" s="152">
-        <v>600034</v>
-      </c>
-      <c r="C51" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="152" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
       <c r="K51" s="128"/>
     </row>
     <row r="52" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B52" s="153">
-        <v>800522</v>
-      </c>
-      <c r="C52" s="153" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="153" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="154"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
       <c r="K52" s="128"/>
     </row>
     <row r="53" spans="1:17" customHeight="1" ht="27.75">
-      <c r="B53" s="141"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="139"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4861,88 +4350,88 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="B54" s="195" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="196"/>
-      <c r="D54" s="196"/>
-      <c r="E54" s="196"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="197"/>
-      <c r="L54" s="140"/>
+      <c r="B54" s="156" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="158"/>
+      <c r="L54" s="139"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="B55" s="198"/>
-      <c r="C55" s="199"/>
-      <c r="D55" s="199"/>
-      <c r="E55" s="199"/>
-      <c r="F55" s="199"/>
-      <c r="G55" s="199"/>
-      <c r="H55" s="199"/>
-      <c r="I55" s="199"/>
-      <c r="J55" s="199"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="140"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="161"/>
+      <c r="L55" s="139"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="B56" s="198"/>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="199"/>
-      <c r="F56" s="199"/>
-      <c r="G56" s="199"/>
-      <c r="H56" s="199"/>
-      <c r="I56" s="199"/>
-      <c r="J56" s="199"/>
-      <c r="K56" s="200"/>
-      <c r="L56" s="140"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="139"/>
     </row>
     <row r="57" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B57" s="201"/>
-      <c r="C57" s="202"/>
-      <c r="D57" s="202"/>
-      <c r="E57" s="202"/>
-      <c r="F57" s="202"/>
-      <c r="G57" s="202"/>
-      <c r="H57" s="202"/>
-      <c r="I57" s="202"/>
-      <c r="J57" s="202"/>
-      <c r="K57" s="203"/>
-      <c r="L57" s="140"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="163"/>
+      <c r="F57" s="163"/>
+      <c r="G57" s="163"/>
+      <c r="H57" s="163"/>
+      <c r="I57" s="163"/>
+      <c r="J57" s="163"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="139"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="B58" s="141"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="140"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-      <c r="K59" s="141"/>
-      <c r="L59" s="141"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
     </row>
     <row r="60" spans="1:17">
       <c r="C60" s="9"/>
@@ -4986,939 +4475,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="true" style="156"/>
-    <col min="2" max="2" width="24.5703125" customWidth="true" style="156"/>
-    <col min="3" max="3" width="24.140625" customWidth="true" style="156"/>
-    <col min="4" max="4" width="16" customWidth="true" style="156"/>
-    <col min="5" max="5" width="14.28515625" customWidth="true" style="156"/>
-    <col min="6" max="6" width="15" customWidth="true" style="156"/>
-    <col min="7" max="7" width="15" customWidth="true" style="156"/>
-    <col min="8" max="8" width="15" customWidth="true" style="156"/>
-    <col min="9" max="9" width="19.7109375" customWidth="true" style="156"/>
-    <col min="10" max="10" width="18.7109375" customWidth="true" style="156"/>
-    <col min="11" max="11" width="20" customWidth="true" style="156"/>
-    <col min="12" max="12" width="22.5703125" customWidth="true" style="156"/>
-    <col min="13" max="13" width="11.42578125" customWidth="true" style="156"/>
-    <col min="14" max="14" width="25.85546875" customWidth="true" style="156"/>
-    <col min="15" max="15" width="91.7109375" customWidth="true" style="156"/>
-    <col min="16" max="16" width="11.42578125" customWidth="true" style="156"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="C1" s="157"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="C2" s="157"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="B3" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="15">
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="235" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="B6" s="240" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="B7" s="240"/>
-      <c r="C7" s="199" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="242"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="240"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B9" s="241"/>
-      <c r="C9" s="244" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="161"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B10" s="165"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="12.75">
-      <c r="C11" s="232"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="233"/>
-    </row>
-    <row r="12" spans="1:17" customHeight="1" ht="14.25">
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="168"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="B13" s="247" t="str">
-        <f>'CONTROL DE FIRMAS'!B13:K13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="248"/>
-      <c r="D13" s="248"/>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="248"/>
-      <c r="H13" s="248"/>
-      <c r="I13" s="248"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="249"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="B14" s="169"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="171"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="B15" s="247" t="str">
-        <f>'CONTROL DE FIRMAS'!B15:F15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="248"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="248"/>
-      <c r="F15" s="248"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="171"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="B16" s="173"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="B17" s="247" t="str">
-        <f>'CONTROL DE FIRMAS'!B17:C17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="248"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="174"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="B18" s="173"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="247" t="str">
-        <f>'CONTROL DE FIRMAS'!B19:J19</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="248"/>
-      <c r="D19" s="248"/>
-      <c r="E19" s="248"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="248"/>
-      <c r="H19" s="248"/>
-      <c r="I19" s="248"/>
-      <c r="J19" s="248"/>
-      <c r="K19" s="174"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="173"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="171"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="B21" s="175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="171"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="B22" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="171"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="17.25">
-      <c r="B23" s="176"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="178"/>
-    </row>
-    <row r="24" spans="1:17" customHeight="1" ht="17.25">
-      <c r="B24" s="179"/>
-    </row>
-    <row r="25" spans="1:17" customHeight="1" ht="39">
-      <c r="C25" s="179"/>
-      <c r="E25" s="250" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="252"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="25.5">
-      <c r="B26" s="253" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="253"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="180" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="180" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="180" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="255" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="255" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="257" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" customHeight="1" ht="22.5" s="183" customFormat="1">
-      <c r="B27" s="181" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="181" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="182" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="180" t="str">
-        <f>'CONTROL DE FIRMAS'!E27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="180" t="str">
-        <f>'CONTROL DE FIRMAS'!F27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="180" t="str">
-        <f>'CONTROL DE FIRMAS'!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="180" t="str">
-        <f>'CONTROL DE FIRMAS'!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="256"/>
-      <c r="J27" s="256"/>
-      <c r="K27" s="258"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B28" s="184">
-        <v>273616</v>
-      </c>
-      <c r="C28" s="184" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="184" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="186"/>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B29" s="184">
-        <v>800183</v>
-      </c>
-      <c r="C29" s="184" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="184" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="188"/>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B30" s="184">
-        <v>800699</v>
-      </c>
-      <c r="C30" s="184" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="184" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="188"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B31" s="184">
-        <v>800787</v>
-      </c>
-      <c r="C31" s="184" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="184" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="188"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B32" s="184">
-        <v>803017</v>
-      </c>
-      <c r="C32" s="184" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="184" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="188"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B33" s="184">
-        <v>800339</v>
-      </c>
-      <c r="C33" s="184" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="184" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="188"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B34" s="184">
-        <v>801161</v>
-      </c>
-      <c r="C34" s="184" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="188"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B35" s="184">
-        <v>801568</v>
-      </c>
-      <c r="C35" s="184" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="184" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="188"/>
-    </row>
-    <row r="36" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B36" s="184">
-        <v>801011</v>
-      </c>
-      <c r="C36" s="184" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="184" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="188"/>
-    </row>
-    <row r="37" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B37" s="184">
-        <v>803934</v>
-      </c>
-      <c r="C37" s="184" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="184" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="187"/>
-      <c r="K37" s="188"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B38" s="184">
-        <v>805617</v>
-      </c>
-      <c r="C38" s="184" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="184" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="188"/>
-    </row>
-    <row r="39" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B39" s="184">
-        <v>803631</v>
-      </c>
-      <c r="C39" s="184" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="184" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="187"/>
-      <c r="K39" s="188"/>
-    </row>
-    <row r="40" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B40" s="184">
-        <v>804113</v>
-      </c>
-      <c r="C40" s="184" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="184" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="188"/>
-    </row>
-    <row r="41" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B41" s="184">
-        <v>803903</v>
-      </c>
-      <c r="C41" s="184" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="184" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="188"/>
-    </row>
-    <row r="42" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B42" s="184">
-        <v>805764</v>
-      </c>
-      <c r="C42" s="184" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="184" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="188"/>
-    </row>
-    <row r="43" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B43" s="184">
-        <v>806069</v>
-      </c>
-      <c r="C43" s="184" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="184" t="s">
-        <v>111</v>
-      </c>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="188"/>
-    </row>
-    <row r="44" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B44" s="184"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="184"/>
-      <c r="E44" s="187"/>
-      <c r="F44" s="187"/>
-      <c r="G44" s="187"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="188"/>
-    </row>
-    <row r="45" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-      <c r="J45" s="187"/>
-      <c r="K45" s="188"/>
-    </row>
-    <row r="46" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="188"/>
-    </row>
-    <row r="47" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="184"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="187"/>
-      <c r="G47" s="187"/>
-      <c r="H47" s="187"/>
-      <c r="I47" s="187"/>
-      <c r="J47" s="187"/>
-      <c r="K47" s="188"/>
-    </row>
-    <row r="48" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B48" s="184"/>
-      <c r="C48" s="184"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="187"/>
-      <c r="G48" s="187"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
-      <c r="J48" s="187"/>
-      <c r="K48" s="188"/>
-    </row>
-    <row r="49" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B49" s="184"/>
-      <c r="C49" s="184"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="187"/>
-      <c r="F49" s="187"/>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
-      <c r="J49" s="187"/>
-      <c r="K49" s="188"/>
-    </row>
-    <row r="50" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B50" s="184"/>
-      <c r="C50" s="184"/>
-      <c r="D50" s="184"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
-      <c r="J50" s="187"/>
-      <c r="K50" s="188"/>
-    </row>
-    <row r="51" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B51" s="184"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="184"/>
-      <c r="E51" s="187"/>
-      <c r="F51" s="187"/>
-      <c r="G51" s="187"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
-      <c r="J51" s="187"/>
-      <c r="K51" s="188"/>
-    </row>
-    <row r="52" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B52" s="187"/>
-      <c r="C52" s="187"/>
-      <c r="D52" s="187"/>
-      <c r="E52" s="187"/>
-      <c r="F52" s="187"/>
-      <c r="G52" s="187"/>
-      <c r="H52" s="187"/>
-      <c r="I52" s="187"/>
-      <c r="J52" s="187"/>
-      <c r="K52" s="188"/>
-    </row>
-    <row r="53" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B53" s="170"/>
-      <c r="C53" s="189"/>
-      <c r="D53" s="190"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
-      <c r="L53" s="191"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="B54" s="195" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="196"/>
-      <c r="D54" s="196"/>
-      <c r="E54" s="196"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="197"/>
-      <c r="L54" s="192"/>
-      <c r="M54" s="159"/>
-      <c r="N54" s="159"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="B55" s="198"/>
-      <c r="C55" s="199"/>
-      <c r="D55" s="199"/>
-      <c r="E55" s="199"/>
-      <c r="F55" s="199"/>
-      <c r="G55" s="199"/>
-      <c r="H55" s="199"/>
-      <c r="I55" s="199"/>
-      <c r="J55" s="199"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="192"/>
-      <c r="M55" s="159"/>
-      <c r="N55" s="159"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="B56" s="198"/>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="199"/>
-      <c r="F56" s="199"/>
-      <c r="G56" s="199"/>
-      <c r="H56" s="199"/>
-      <c r="I56" s="199"/>
-      <c r="J56" s="199"/>
-      <c r="K56" s="200"/>
-      <c r="L56" s="192"/>
-    </row>
-    <row r="57" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B57" s="201"/>
-      <c r="C57" s="202"/>
-      <c r="D57" s="202"/>
-      <c r="E57" s="202"/>
-      <c r="F57" s="202"/>
-      <c r="G57" s="202"/>
-      <c r="H57" s="202"/>
-      <c r="I57" s="202"/>
-      <c r="J57" s="202"/>
-      <c r="K57" s="203"/>
-      <c r="L57" s="192"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="B58" s="170"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="192"/>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-      <c r="J58" s="192"/>
-      <c r="K58" s="192"/>
-      <c r="L58" s="192"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="170"/>
-      <c r="I59" s="170"/>
-      <c r="J59" s="170"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="170"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="C60" s="194"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="B54:K57"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C5:K6"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C9:K9"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:CF102"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" showGridLines="true" showRowColHeaders="1">
@@ -5945,75 +4501,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" customHeight="1" ht="48">
-      <c r="A1" s="377"/>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="378"/>
-      <c r="E1" s="378"/>
-      <c r="F1" s="378"/>
-      <c r="G1" s="378"/>
-      <c r="H1" s="378"/>
-      <c r="I1" s="378"/>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="379"/>
+      <c r="A1" s="311"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
     </row>
     <row r="2" spans="1:84" customHeight="1" ht="51">
-      <c r="A2" s="389" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="390"/>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="390"/>
-      <c r="I2" s="390"/>
-      <c r="J2" s="390"/>
-      <c r="K2" s="390"/>
-      <c r="L2" s="390"/>
-      <c r="M2" s="390"/>
-      <c r="N2" s="391"/>
+      <c r="A2" s="323" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="325"/>
       <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:84" customHeight="1" ht="39.75">
-      <c r="A3" s="380" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="381"/>
-      <c r="M3" s="381"/>
-      <c r="N3" s="382"/>
+      <c r="A3" s="314" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="316"/>
     </row>
     <row r="4" spans="1:84" customHeight="1" ht="40.5">
-      <c r="A4" s="383" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="D4" s="384"/>
-      <c r="E4" s="384"/>
-      <c r="F4" s="384"/>
-      <c r="G4" s="384"/>
-      <c r="H4" s="384"/>
-      <c r="I4" s="384"/>
-      <c r="J4" s="384"/>
-      <c r="K4" s="384"/>
-      <c r="L4" s="384"/>
-      <c r="M4" s="384"/>
-      <c r="N4" s="385"/>
+      <c r="A4" s="317" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="318"/>
+      <c r="C4" s="318"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="318"/>
+      <c r="G4" s="318"/>
+      <c r="H4" s="318"/>
+      <c r="I4" s="318"/>
+      <c r="J4" s="318"/>
+      <c r="K4" s="318"/>
+      <c r="L4" s="318"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="319"/>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
@@ -6021,20 +4577,20 @@
       <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:84" customHeight="1" ht="3" s="121" customFormat="1">
-      <c r="A5" s="386"/>
-      <c r="B5" s="387"/>
-      <c r="C5" s="387"/>
-      <c r="D5" s="387"/>
-      <c r="E5" s="387"/>
-      <c r="F5" s="387"/>
-      <c r="G5" s="387"/>
-      <c r="H5" s="387"/>
-      <c r="I5" s="387"/>
-      <c r="J5" s="387"/>
-      <c r="K5" s="387"/>
-      <c r="L5" s="387"/>
-      <c r="M5" s="387"/>
-      <c r="N5" s="388"/>
+      <c r="A5" s="320"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
+      <c r="N5" s="322"/>
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
       <c r="Q5" s="115"/>
@@ -6042,22 +4598,22 @@
       <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A6" s="362" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="363"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="364"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="364"/>
-      <c r="I6" s="364"/>
-      <c r="J6" s="364"/>
-      <c r="K6" s="364"/>
-      <c r="L6" s="364"/>
-      <c r="M6" s="364"/>
-      <c r="N6" s="365"/>
+      <c r="A6" s="296" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="297"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="298"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="298"/>
+      <c r="L6" s="298"/>
+      <c r="M6" s="298"/>
+      <c r="N6" s="299"/>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
@@ -6065,24 +4621,24 @@
       <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="368" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="369"/>
+      <c r="A7" s="302" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="303"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="370" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="371"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="277"/>
-      <c r="I7" s="277"/>
-      <c r="J7" s="277"/>
-      <c r="K7" s="277"/>
-      <c r="L7" s="277"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="278"/>
+      <c r="D7" s="304" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="305"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="212"/>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
@@ -6091,25 +4647,25 @@
     </row>
     <row r="8" spans="1:84">
       <c r="A8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="276"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="372" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="373"/>
+        <v>81</v>
+      </c>
+      <c r="B8" s="210"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="306" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="307"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="374" t="s">
-        <v>120</v>
-      </c>
-      <c r="H8" s="375"/>
-      <c r="I8" s="375"/>
-      <c r="J8" s="376"/>
-      <c r="K8" s="276"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="277"/>
-      <c r="N8" s="278"/>
+      <c r="G8" s="308" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="310"/>
+      <c r="K8" s="210"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="212"/>
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
@@ -6117,22 +4673,22 @@
       <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:84">
-      <c r="A9" s="366" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="367"/>
-      <c r="C9" s="276"/>
-      <c r="D9" s="277"/>
-      <c r="E9" s="277"/>
-      <c r="F9" s="277"/>
-      <c r="G9" s="277"/>
-      <c r="H9" s="277"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="277"/>
-      <c r="K9" s="277"/>
-      <c r="L9" s="277"/>
-      <c r="M9" s="277"/>
-      <c r="N9" s="278"/>
+      <c r="A9" s="300" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="301"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="212"/>
       <c r="O9" s="120"/>
       <c r="P9" s="115"/>
       <c r="Q9" s="120"/>
@@ -6140,22 +4696,22 @@
       <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:84">
-      <c r="A10" s="274" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="275"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="277"/>
-      <c r="K10" s="277"/>
-      <c r="L10" s="277"/>
-      <c r="M10" s="277"/>
-      <c r="N10" s="278"/>
+      <c r="A10" s="208" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="209"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="212"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
@@ -6208,22 +4764,22 @@
       <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:84" customHeight="1" ht="21">
-      <c r="A13" s="279" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="280"/>
-      <c r="C13" s="280"/>
-      <c r="D13" s="280"/>
-      <c r="E13" s="280"/>
-      <c r="F13" s="280"/>
-      <c r="G13" s="280"/>
-      <c r="H13" s="280"/>
-      <c r="I13" s="280"/>
-      <c r="J13" s="280"/>
-      <c r="K13" s="280"/>
-      <c r="L13" s="280"/>
-      <c r="M13" s="280"/>
-      <c r="N13" s="281"/>
+      <c r="A13" s="213" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="215"/>
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
@@ -6255,16 +4811,16 @@
     </row>
     <row r="15" spans="1:84">
       <c r="A15" s="28" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="282" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="283"/>
+      <c r="C15" s="216" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="217"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -6285,18 +4841,18 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="299" t="s">
-        <v>128</v>
-      </c>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="300"/>
+      <c r="F16" s="233" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="234"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
       <c r="N16" s="34"/>
@@ -6311,18 +4867,18 @@
       <c r="A17" s="42"/>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="299" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="300"/>
+      <c r="F17" s="233" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="234"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="34"/>
@@ -6334,21 +4890,21 @@
       <c r="T17" s="120"/>
     </row>
     <row r="18" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A18" s="301" t="s">
-        <v>131</v>
-      </c>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="349"/>
+      <c r="A18" s="235" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="283"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="351" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" s="351"/>
-      <c r="H18" s="351"/>
-      <c r="I18" s="351"/>
-      <c r="J18" s="351"/>
-      <c r="K18" s="352"/>
+      <c r="F18" s="285" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="285"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="286"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
       <c r="N18" s="34"/>
@@ -6360,11 +4916,11 @@
       <c r="T18" s="120"/>
     </row>
     <row r="19" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A19" s="303" t="s">
-        <v>133</v>
-      </c>
-      <c r="B19" s="299"/>
-      <c r="C19" s="300"/>
+      <c r="A19" s="237" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="233"/>
+      <c r="C19" s="234"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="32"/>
@@ -6384,21 +4940,21 @@
       <c r="T19" s="120"/>
     </row>
     <row r="20" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A20" s="303" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="299"/>
-      <c r="C20" s="300"/>
+      <c r="A20" s="237" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="233"/>
+      <c r="C20" s="234"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="350" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="350"/>
-      <c r="H20" s="350"/>
-      <c r="I20" s="350"/>
-      <c r="J20" s="350"/>
-      <c r="K20" s="350"/>
+      <c r="F20" s="284" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="284"/>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="284"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="34"/>
@@ -6410,19 +4966,19 @@
       <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A21" s="303" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="299"/>
+      <c r="A21" s="237" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="233"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="350"/>
-      <c r="G21" s="350"/>
-      <c r="H21" s="350"/>
-      <c r="I21" s="350"/>
-      <c r="J21" s="350"/>
-      <c r="K21" s="350"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="284"/>
+      <c r="I21" s="284"/>
+      <c r="J21" s="284"/>
+      <c r="K21" s="284"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="34"/>
@@ -6434,11 +4990,11 @@
       <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A22" s="303" t="s">
-        <v>137</v>
-      </c>
-      <c r="B22" s="299"/>
-      <c r="C22" s="300"/>
+      <c r="A22" s="237" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="233"/>
+      <c r="C22" s="234"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="32"/>
@@ -6458,15 +5014,15 @@
       <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:84" customHeight="1" ht="12">
-      <c r="A23" s="303" t="s">
-        <v>138</v>
-      </c>
-      <c r="B23" s="299"/>
-      <c r="C23" s="300"/>
+      <c r="A23" s="237" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="233"/>
+      <c r="C23" s="234"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -6484,15 +5040,15 @@
       <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:84" customHeight="1" ht="12">
-      <c r="A24" s="303" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24" s="299"/>
-      <c r="C24" s="300"/>
+      <c r="A24" s="237" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="233"/>
+      <c r="C24" s="234"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -6510,15 +5066,15 @@
       <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:84" customHeight="1" ht="12">
-      <c r="A25" s="303" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="299"/>
-      <c r="C25" s="300"/>
+      <c r="A25" s="237" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="233"/>
+      <c r="C25" s="234"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -6536,11 +5092,11 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:84" customHeight="1" ht="12">
-      <c r="A26" s="303" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="299"/>
-      <c r="C26" s="300"/>
+      <c r="A26" s="237" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="233"/>
+      <c r="C26" s="234"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -6560,20 +5116,20 @@
       <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:84" customHeight="1" ht="12">
-      <c r="A27" s="359" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="360"/>
-      <c r="C27" s="361"/>
+      <c r="A27" s="293" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="294"/>
+      <c r="C27" s="295"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="356" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="356"/>
-      <c r="H27" s="356"/>
-      <c r="I27" s="356"/>
-      <c r="J27" s="356"/>
+      <c r="F27" s="290" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="59"/>
@@ -6586,18 +5142,18 @@
       <c r="T27" s="120"/>
     </row>
     <row r="28" spans="1:84" customHeight="1" ht="12">
-      <c r="A28" s="353" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="354"/>
-      <c r="C28" s="355"/>
+      <c r="A28" s="287" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="288"/>
+      <c r="C28" s="289"/>
       <c r="D28" s="38"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="356"/>
-      <c r="G28" s="356"/>
-      <c r="H28" s="356"/>
-      <c r="I28" s="356"/>
-      <c r="J28" s="356"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="59"/>
@@ -6616,7 +5172,7 @@
       <c r="D29" s="47"/>
       <c r="E29" s="63"/>
       <c r="F29" s="46" t="s">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
@@ -6634,13 +5190,13 @@
       <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:84" customHeight="1" ht="12">
-      <c r="A30" s="357"/>
-      <c r="B30" s="358"/>
-      <c r="C30" s="358"/>
-      <c r="D30" s="358"/>
+      <c r="A30" s="291"/>
+      <c r="B30" s="292"/>
+      <c r="C30" s="292"/>
+      <c r="D30" s="292"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
@@ -6658,15 +5214,15 @@
       <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:84" customHeight="1" ht="12">
-      <c r="A31" s="301" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="302"/>
-      <c r="C31" s="302"/>
+      <c r="A31" s="235" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="236"/>
+      <c r="C31" s="236"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -6690,7 +5246,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="46" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -6708,15 +5264,15 @@
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:84" customHeight="1" ht="12">
-      <c r="A33" s="303" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="300"/>
-      <c r="C33" s="304"/>
-      <c r="D33" s="304"/>
+      <c r="A33" s="237" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="234"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="238"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
@@ -6757,7 +5313,7 @@
     </row>
     <row r="35" spans="1:84" customHeight="1" ht="12">
       <c r="A35" s="74" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="75"/>
@@ -6781,7 +5337,7 @@
     </row>
     <row r="36" spans="1:84" customHeight="1" ht="12">
       <c r="A36" s="16" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="77"/>
@@ -6805,7 +5361,7 @@
     </row>
     <row r="37" spans="1:84" customHeight="1" ht="12">
       <c r="A37" s="16" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="77"/>
@@ -6829,7 +5385,7 @@
     </row>
     <row r="38" spans="1:84" customHeight="1" ht="12">
       <c r="A38" s="16" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="77"/>
@@ -6853,7 +5409,7 @@
     </row>
     <row r="39" spans="1:84" customHeight="1" ht="12">
       <c r="A39" s="16" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="77"/>
@@ -6877,7 +5433,7 @@
     </row>
     <row r="40" spans="1:84" customHeight="1" ht="12">
       <c r="A40" s="16" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="77"/>
@@ -6901,7 +5457,7 @@
     </row>
     <row r="41" spans="1:84" customHeight="1" ht="12">
       <c r="A41" s="15" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="77"/>
@@ -6990,22 +5546,22 @@
       <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A45" s="346" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="347"/>
-      <c r="C45" s="347"/>
-      <c r="D45" s="347"/>
-      <c r="E45" s="347"/>
-      <c r="F45" s="347"/>
-      <c r="G45" s="347"/>
-      <c r="H45" s="347"/>
-      <c r="I45" s="347"/>
-      <c r="J45" s="347"/>
-      <c r="K45" s="347"/>
-      <c r="L45" s="347"/>
-      <c r="M45" s="347"/>
-      <c r="N45" s="348"/>
+      <c r="A45" s="280" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45" s="281"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="281"/>
+      <c r="E45" s="281"/>
+      <c r="F45" s="281"/>
+      <c r="G45" s="281"/>
+      <c r="H45" s="281"/>
+      <c r="I45" s="281"/>
+      <c r="J45" s="281"/>
+      <c r="K45" s="281"/>
+      <c r="L45" s="281"/>
+      <c r="M45" s="281"/>
+      <c r="N45" s="282"/>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
       <c r="Q45" s="120"/>
@@ -7014,22 +5570,22 @@
       <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:84">
-      <c r="A46" s="260" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="261"/>
-      <c r="C46" s="261"/>
-      <c r="D46" s="261"/>
-      <c r="E46" s="261"/>
-      <c r="F46" s="261"/>
-      <c r="G46" s="261"/>
-      <c r="H46" s="261"/>
-      <c r="I46" s="261"/>
-      <c r="J46" s="261"/>
-      <c r="K46" s="261"/>
-      <c r="L46" s="261"/>
-      <c r="M46" s="261"/>
-      <c r="N46" s="262"/>
+      <c r="A46" s="194" t="s">
+        <v>126</v>
+      </c>
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="195"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="196"/>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
       <c r="Q46" s="120"/>
@@ -7038,20 +5594,20 @@
       <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:84" customHeight="1" ht="25.5" s="123" customFormat="1">
-      <c r="A47" s="263"/>
-      <c r="B47" s="264"/>
-      <c r="C47" s="264"/>
-      <c r="D47" s="264"/>
-      <c r="E47" s="264"/>
-      <c r="F47" s="264"/>
-      <c r="G47" s="264"/>
-      <c r="H47" s="264"/>
-      <c r="I47" s="264"/>
-      <c r="J47" s="264"/>
-      <c r="K47" s="265"/>
-      <c r="L47" s="265"/>
-      <c r="M47" s="265"/>
-      <c r="N47" s="266"/>
+      <c r="A47" s="197"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="198"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="199"/>
+      <c r="L47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="200"/>
       <c r="O47" s="122"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="122"/>
@@ -7060,18 +5616,18 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A48" s="271" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="272"/>
-      <c r="C48" s="272"/>
-      <c r="D48" s="272"/>
-      <c r="E48" s="272"/>
-      <c r="F48" s="272"/>
-      <c r="G48" s="272"/>
-      <c r="H48" s="272"/>
-      <c r="I48" s="272"/>
-      <c r="J48" s="272"/>
+      <c r="A48" s="205" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="206"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="206"/>
       <c r="K48" s="88">
         <v>1</v>
       </c>
@@ -7092,18 +5648,18 @@
       <c r="T48" s="122"/>
     </row>
     <row r="49" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A49" s="273" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="273"/>
-      <c r="C49" s="273"/>
-      <c r="D49" s="273"/>
-      <c r="E49" s="273"/>
-      <c r="F49" s="273"/>
-      <c r="G49" s="273"/>
-      <c r="H49" s="273"/>
-      <c r="I49" s="273"/>
-      <c r="J49" s="273"/>
+      <c r="A49" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="207"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="207"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -7116,18 +5672,18 @@
       <c r="T49" s="122"/>
     </row>
     <row r="50" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A50" s="273" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="273"/>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="273"/>
-      <c r="F50" s="273"/>
-      <c r="G50" s="273"/>
-      <c r="H50" s="273"/>
-      <c r="I50" s="273"/>
-      <c r="J50" s="273"/>
+      <c r="A50" s="207" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="207"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="207"/>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -7140,18 +5696,18 @@
       <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:84" customHeight="1" ht="15">
-      <c r="A51" s="259" t="s">
-        <v>167</v>
-      </c>
-      <c r="B51" s="259"/>
-      <c r="C51" s="259"/>
-      <c r="D51" s="259"/>
-      <c r="E51" s="259"/>
-      <c r="F51" s="259"/>
-      <c r="G51" s="259"/>
-      <c r="H51" s="259"/>
-      <c r="I51" s="259"/>
-      <c r="J51" s="259"/>
+      <c r="A51" s="193" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="193"/>
       <c r="K51" s="88">
         <v>1</v>
       </c>
@@ -7172,54 +5728,54 @@
       <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A52" s="270" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="270"/>
-      <c r="C52" s="270"/>
-      <c r="D52" s="270"/>
-      <c r="E52" s="270"/>
-      <c r="F52" s="270"/>
-      <c r="G52" s="270"/>
-      <c r="H52" s="270"/>
-      <c r="I52" s="270"/>
-      <c r="J52" s="270"/>
+      <c r="A52" s="204" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="204"/>
+      <c r="C52" s="204"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="204"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:84" customHeight="1" ht="14.1" s="120" customFormat="1">
-      <c r="A53" s="270" t="s">
-        <v>169</v>
-      </c>
-      <c r="B53" s="270"/>
-      <c r="C53" s="270"/>
-      <c r="D53" s="270"/>
-      <c r="E53" s="270"/>
-      <c r="F53" s="270"/>
-      <c r="G53" s="270"/>
-      <c r="H53" s="270"/>
-      <c r="I53" s="270"/>
-      <c r="J53" s="270"/>
+      <c r="A53" s="204" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="204"/>
+      <c r="C53" s="204"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="204"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:84" customHeight="1" ht="15">
-      <c r="A54" s="259" t="s">
-        <v>170</v>
-      </c>
-      <c r="B54" s="259"/>
-      <c r="C54" s="259"/>
-      <c r="D54" s="259"/>
-      <c r="E54" s="259"/>
-      <c r="F54" s="259"/>
-      <c r="G54" s="259"/>
-      <c r="H54" s="259"/>
-      <c r="I54" s="259"/>
-      <c r="J54" s="259"/>
+      <c r="A54" s="193" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="193"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="193"/>
+      <c r="G54" s="193"/>
+      <c r="H54" s="193"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="193"/>
       <c r="K54" s="88">
         <v>1</v>
       </c>
@@ -7240,62 +5796,62 @@
       <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A55" s="270" t="s">
-        <v>171</v>
-      </c>
-      <c r="B55" s="270"/>
-      <c r="C55" s="270"/>
-      <c r="D55" s="270"/>
-      <c r="E55" s="270"/>
-      <c r="F55" s="270"/>
-      <c r="G55" s="270"/>
-      <c r="H55" s="270"/>
-      <c r="I55" s="270"/>
-      <c r="J55" s="270"/>
+      <c r="A55" s="204" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="204"/>
+      <c r="C55" s="204"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="204"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A56" s="333" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="333"/>
-      <c r="C56" s="333"/>
-      <c r="D56" s="333"/>
-      <c r="E56" s="333"/>
-      <c r="F56" s="333"/>
-      <c r="G56" s="333"/>
-      <c r="H56" s="333"/>
-      <c r="I56" s="333"/>
-      <c r="J56" s="333"/>
+      <c r="A56" s="267" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="267"/>
+      <c r="C56" s="267"/>
+      <c r="D56" s="267"/>
+      <c r="E56" s="267"/>
+      <c r="F56" s="267"/>
+      <c r="G56" s="267"/>
+      <c r="H56" s="267"/>
+      <c r="I56" s="267"/>
+      <c r="J56" s="267"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91"/>
       <c r="N56" s="91"/>
     </row>
     <row r="57" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A57" s="334" t="s">
-        <v>173</v>
-      </c>
-      <c r="B57" s="335"/>
-      <c r="C57" s="335"/>
-      <c r="D57" s="335"/>
-      <c r="E57" s="335"/>
-      <c r="F57" s="336"/>
-      <c r="G57" s="340" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" s="341"/>
-      <c r="I57" s="341"/>
-      <c r="J57" s="342"/>
-      <c r="K57" s="267" t="s">
-        <v>175</v>
-      </c>
-      <c r="L57" s="268"/>
-      <c r="M57" s="268"/>
-      <c r="N57" s="269"/>
+      <c r="A57" s="268" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="269"/>
+      <c r="C57" s="269"/>
+      <c r="D57" s="269"/>
+      <c r="E57" s="269"/>
+      <c r="F57" s="270"/>
+      <c r="G57" s="274" t="s">
+        <v>137</v>
+      </c>
+      <c r="H57" s="275"/>
+      <c r="I57" s="275"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="201" t="s">
+        <v>138</v>
+      </c>
+      <c r="L57" s="202"/>
+      <c r="M57" s="202"/>
+      <c r="N57" s="203"/>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -7304,12 +5860,12 @@
       <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A58" s="337"/>
-      <c r="B58" s="338"/>
-      <c r="C58" s="338"/>
-      <c r="D58" s="338"/>
-      <c r="E58" s="338"/>
-      <c r="F58" s="339"/>
+      <c r="A58" s="271"/>
+      <c r="B58" s="272"/>
+      <c r="C58" s="272"/>
+      <c r="D58" s="272"/>
+      <c r="E58" s="272"/>
+      <c r="F58" s="273"/>
       <c r="G58" s="88">
         <v>1</v>
       </c>
@@ -7342,14 +5898,14 @@
       <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A59" s="330" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" s="331"/>
-      <c r="C59" s="331"/>
-      <c r="D59" s="331"/>
-      <c r="E59" s="331"/>
-      <c r="F59" s="332"/>
+      <c r="A59" s="264" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="265"/>
+      <c r="C59" s="265"/>
+      <c r="D59" s="265"/>
+      <c r="E59" s="265"/>
+      <c r="F59" s="266"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
@@ -7360,14 +5916,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A60" s="330" t="s">
-        <v>177</v>
-      </c>
-      <c r="B60" s="331"/>
-      <c r="C60" s="331"/>
-      <c r="D60" s="331"/>
-      <c r="E60" s="331"/>
-      <c r="F60" s="332"/>
+      <c r="A60" s="264" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="265"/>
+      <c r="C60" s="265"/>
+      <c r="D60" s="265"/>
+      <c r="E60" s="265"/>
+      <c r="F60" s="266"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
@@ -7378,18 +5934,18 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A61" s="343" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="344"/>
-      <c r="C61" s="344"/>
-      <c r="D61" s="344"/>
-      <c r="E61" s="344"/>
-      <c r="F61" s="344"/>
-      <c r="G61" s="344"/>
-      <c r="H61" s="344"/>
-      <c r="I61" s="344"/>
-      <c r="J61" s="345"/>
+      <c r="A61" s="277" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="278"/>
+      <c r="C61" s="278"/>
+      <c r="D61" s="278"/>
+      <c r="E61" s="278"/>
+      <c r="F61" s="278"/>
+      <c r="G61" s="278"/>
+      <c r="H61" s="278"/>
+      <c r="I61" s="278"/>
+      <c r="J61" s="279"/>
       <c r="K61" s="88">
         <v>1</v>
       </c>
@@ -7410,54 +5966,54 @@
       <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A62" s="330" t="s">
-        <v>179</v>
-      </c>
-      <c r="B62" s="331"/>
-      <c r="C62" s="331"/>
-      <c r="D62" s="331"/>
-      <c r="E62" s="331"/>
-      <c r="F62" s="331"/>
-      <c r="G62" s="331"/>
-      <c r="H62" s="331"/>
-      <c r="I62" s="331"/>
-      <c r="J62" s="332"/>
+      <c r="A62" s="264" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="265"/>
+      <c r="C62" s="265"/>
+      <c r="D62" s="265"/>
+      <c r="E62" s="265"/>
+      <c r="F62" s="265"/>
+      <c r="G62" s="265"/>
+      <c r="H62" s="265"/>
+      <c r="I62" s="265"/>
+      <c r="J62" s="266"/>
       <c r="K62" s="93"/>
       <c r="L62" s="90"/>
       <c r="M62" s="90"/>
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A63" s="330" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" s="331"/>
-      <c r="C63" s="331"/>
-      <c r="D63" s="331"/>
-      <c r="E63" s="331"/>
-      <c r="F63" s="331"/>
-      <c r="G63" s="331"/>
-      <c r="H63" s="331"/>
-      <c r="I63" s="331"/>
-      <c r="J63" s="332"/>
+      <c r="A63" s="264" t="s">
+        <v>143</v>
+      </c>
+      <c r="B63" s="265"/>
+      <c r="C63" s="265"/>
+      <c r="D63" s="265"/>
+      <c r="E63" s="265"/>
+      <c r="F63" s="265"/>
+      <c r="G63" s="265"/>
+      <c r="H63" s="265"/>
+      <c r="I63" s="265"/>
+      <c r="J63" s="266"/>
       <c r="K63" s="93"/>
       <c r="L63" s="90"/>
       <c r="M63" s="90"/>
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:84" customHeight="1" ht="27.75">
-      <c r="A64" s="321" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" s="322"/>
-      <c r="C64" s="322"/>
-      <c r="D64" s="322"/>
-      <c r="E64" s="322"/>
-      <c r="F64" s="322"/>
-      <c r="G64" s="322"/>
-      <c r="H64" s="322"/>
-      <c r="I64" s="322"/>
-      <c r="J64" s="323"/>
+      <c r="A64" s="255" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" s="256"/>
+      <c r="C64" s="256"/>
+      <c r="D64" s="256"/>
+      <c r="E64" s="256"/>
+      <c r="F64" s="256"/>
+      <c r="G64" s="256"/>
+      <c r="H64" s="256"/>
+      <c r="I64" s="256"/>
+      <c r="J64" s="257"/>
       <c r="K64" s="94">
         <v>1</v>
       </c>
@@ -7478,18 +6034,18 @@
       <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A65" s="330" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="331"/>
-      <c r="C65" s="331"/>
-      <c r="D65" s="331"/>
-      <c r="E65" s="331"/>
-      <c r="F65" s="331"/>
-      <c r="G65" s="331"/>
-      <c r="H65" s="331"/>
-      <c r="I65" s="331"/>
-      <c r="J65" s="332"/>
+      <c r="A65" s="264" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="265"/>
+      <c r="C65" s="265"/>
+      <c r="D65" s="265"/>
+      <c r="E65" s="265"/>
+      <c r="F65" s="265"/>
+      <c r="G65" s="265"/>
+      <c r="H65" s="265"/>
+      <c r="I65" s="265"/>
+      <c r="J65" s="266"/>
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
       <c r="M65" s="90"/>
@@ -7502,18 +6058,18 @@
       <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A66" s="293" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" s="294"/>
-      <c r="C66" s="294"/>
-      <c r="D66" s="294"/>
-      <c r="E66" s="294"/>
-      <c r="F66" s="294"/>
-      <c r="G66" s="294"/>
-      <c r="H66" s="294"/>
-      <c r="I66" s="294"/>
-      <c r="J66" s="295"/>
+      <c r="A66" s="227" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="228"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="228"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="229"/>
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
       <c r="M66" s="90"/>
@@ -7526,18 +6082,18 @@
       <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:84" customHeight="1" ht="15">
-      <c r="A67" s="321" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" s="322"/>
-      <c r="C67" s="322"/>
-      <c r="D67" s="322"/>
-      <c r="E67" s="322"/>
-      <c r="F67" s="322"/>
-      <c r="G67" s="322"/>
-      <c r="H67" s="322"/>
-      <c r="I67" s="322"/>
-      <c r="J67" s="323"/>
+      <c r="A67" s="255" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" s="256"/>
+      <c r="C67" s="256"/>
+      <c r="D67" s="256"/>
+      <c r="E67" s="256"/>
+      <c r="F67" s="256"/>
+      <c r="G67" s="256"/>
+      <c r="H67" s="256"/>
+      <c r="I67" s="256"/>
+      <c r="J67" s="257"/>
       <c r="K67" s="88">
         <v>1</v>
       </c>
@@ -7558,18 +6114,18 @@
       <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A68" s="293" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" s="294"/>
-      <c r="C68" s="294"/>
-      <c r="D68" s="294"/>
-      <c r="E68" s="294"/>
-      <c r="F68" s="294"/>
-      <c r="G68" s="294"/>
-      <c r="H68" s="294"/>
-      <c r="I68" s="294"/>
-      <c r="J68" s="295"/>
+      <c r="A68" s="227" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="228"/>
+      <c r="C68" s="228"/>
+      <c r="D68" s="228"/>
+      <c r="E68" s="228"/>
+      <c r="F68" s="228"/>
+      <c r="G68" s="228"/>
+      <c r="H68" s="228"/>
+      <c r="I68" s="228"/>
+      <c r="J68" s="229"/>
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
       <c r="M68" s="90"/>
@@ -7582,18 +6138,18 @@
       <c r="T68" s="120"/>
     </row>
     <row r="69" spans="1:84" customHeight="1" ht="26.25">
-      <c r="A69" s="324" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69" s="325"/>
-      <c r="C69" s="325"/>
-      <c r="D69" s="325"/>
-      <c r="E69" s="325"/>
-      <c r="F69" s="325"/>
-      <c r="G69" s="325"/>
-      <c r="H69" s="325"/>
-      <c r="I69" s="325"/>
-      <c r="J69" s="326"/>
+      <c r="A69" s="258" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="259"/>
+      <c r="C69" s="259"/>
+      <c r="D69" s="259"/>
+      <c r="E69" s="259"/>
+      <c r="F69" s="259"/>
+      <c r="G69" s="259"/>
+      <c r="H69" s="259"/>
+      <c r="I69" s="259"/>
+      <c r="J69" s="260"/>
       <c r="K69" s="91"/>
       <c r="L69" s="91"/>
       <c r="M69" s="91"/>
@@ -7606,22 +6162,22 @@
       <c r="T69" s="120"/>
     </row>
     <row r="70" spans="1:84" customHeight="1" ht="15">
-      <c r="A70" s="327" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70" s="328"/>
-      <c r="C70" s="328"/>
-      <c r="D70" s="328"/>
-      <c r="E70" s="328"/>
-      <c r="F70" s="328"/>
-      <c r="G70" s="328"/>
-      <c r="H70" s="328"/>
-      <c r="I70" s="328"/>
-      <c r="J70" s="328"/>
-      <c r="K70" s="328"/>
-      <c r="L70" s="328"/>
-      <c r="M70" s="328"/>
-      <c r="N70" s="329"/>
+      <c r="A70" s="261" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="262"/>
+      <c r="C70" s="262"/>
+      <c r="D70" s="262"/>
+      <c r="E70" s="262"/>
+      <c r="F70" s="262"/>
+      <c r="G70" s="262"/>
+      <c r="H70" s="262"/>
+      <c r="I70" s="262"/>
+      <c r="J70" s="262"/>
+      <c r="K70" s="262"/>
+      <c r="L70" s="262"/>
+      <c r="M70" s="262"/>
+      <c r="N70" s="263"/>
       <c r="O70" s="120"/>
       <c r="P70" s="120"/>
       <c r="Q70" s="120"/>
@@ -7652,24 +6208,24 @@
       <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A72" s="293" t="s">
-        <v>188</v>
-      </c>
-      <c r="B72" s="294"/>
-      <c r="C72" s="294"/>
-      <c r="D72" s="294"/>
-      <c r="E72" s="294"/>
-      <c r="F72" s="294"/>
-      <c r="G72" s="294"/>
-      <c r="H72" s="294"/>
-      <c r="I72" s="294"/>
-      <c r="J72" s="295"/>
+      <c r="A72" s="227" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="228"/>
+      <c r="C72" s="228"/>
+      <c r="D72" s="228"/>
+      <c r="E72" s="228"/>
+      <c r="F72" s="228"/>
+      <c r="G72" s="228"/>
+      <c r="H72" s="228"/>
+      <c r="I72" s="228"/>
+      <c r="J72" s="229"/>
       <c r="K72" s="101" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="L72" s="102"/>
       <c r="M72" s="101" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="N72" s="103"/>
       <c r="O72" s="120"/>
@@ -7680,24 +6236,24 @@
       <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:84" customHeight="1" ht="23.25">
-      <c r="A73" s="293" t="s">
-        <v>191</v>
-      </c>
-      <c r="B73" s="294"/>
-      <c r="C73" s="294"/>
-      <c r="D73" s="294"/>
-      <c r="E73" s="294"/>
-      <c r="F73" s="294"/>
-      <c r="G73" s="294"/>
-      <c r="H73" s="294"/>
-      <c r="I73" s="294"/>
-      <c r="J73" s="295"/>
+      <c r="A73" s="227" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="228"/>
+      <c r="C73" s="228"/>
+      <c r="D73" s="228"/>
+      <c r="E73" s="228"/>
+      <c r="F73" s="228"/>
+      <c r="G73" s="228"/>
+      <c r="H73" s="228"/>
+      <c r="I73" s="228"/>
+      <c r="J73" s="229"/>
       <c r="K73" s="101" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="L73" s="102"/>
       <c r="M73" s="101" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="N73" s="103"/>
       <c r="O73" s="120"/>
@@ -7730,18 +6286,18 @@
       <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:84" customHeight="1" ht="15">
-      <c r="A75" s="296" t="s">
-        <v>192</v>
-      </c>
-      <c r="B75" s="297"/>
-      <c r="C75" s="297"/>
-      <c r="D75" s="297"/>
-      <c r="E75" s="297"/>
-      <c r="F75" s="297"/>
-      <c r="G75" s="297"/>
-      <c r="H75" s="297"/>
-      <c r="I75" s="297"/>
-      <c r="J75" s="298"/>
+      <c r="A75" s="230" t="s">
+        <v>155</v>
+      </c>
+      <c r="B75" s="231"/>
+      <c r="C75" s="231"/>
+      <c r="D75" s="231"/>
+      <c r="E75" s="231"/>
+      <c r="F75" s="231"/>
+      <c r="G75" s="231"/>
+      <c r="H75" s="231"/>
+      <c r="I75" s="231"/>
+      <c r="J75" s="232"/>
       <c r="K75" s="88">
         <v>1</v>
       </c>
@@ -7826,18 +6382,18 @@
       <c r="CF75" s="120"/>
     </row>
     <row r="76" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A76" s="315" t="s">
-        <v>193</v>
-      </c>
-      <c r="B76" s="316"/>
-      <c r="C76" s="316"/>
-      <c r="D76" s="316"/>
-      <c r="E76" s="316"/>
-      <c r="F76" s="316"/>
-      <c r="G76" s="316"/>
-      <c r="H76" s="316"/>
-      <c r="I76" s="316"/>
-      <c r="J76" s="317"/>
+      <c r="A76" s="249" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" s="250"/>
+      <c r="C76" s="250"/>
+      <c r="D76" s="250"/>
+      <c r="E76" s="250"/>
+      <c r="F76" s="250"/>
+      <c r="G76" s="250"/>
+      <c r="H76" s="250"/>
+      <c r="I76" s="250"/>
+      <c r="J76" s="251"/>
       <c r="K76" s="109"/>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -7914,18 +6470,18 @@
       <c r="CF76" s="120"/>
     </row>
     <row r="77" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A77" s="315" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" s="316"/>
-      <c r="C77" s="316"/>
-      <c r="D77" s="316"/>
-      <c r="E77" s="316"/>
-      <c r="F77" s="316"/>
-      <c r="G77" s="316"/>
-      <c r="H77" s="316"/>
-      <c r="I77" s="316"/>
-      <c r="J77" s="317"/>
+      <c r="A77" s="249" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="250"/>
+      <c r="C77" s="250"/>
+      <c r="D77" s="250"/>
+      <c r="E77" s="250"/>
+      <c r="F77" s="250"/>
+      <c r="G77" s="250"/>
+      <c r="H77" s="250"/>
+      <c r="I77" s="250"/>
+      <c r="J77" s="251"/>
       <c r="K77" s="109"/>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -8002,18 +6558,18 @@
       <c r="CF77" s="120"/>
     </row>
     <row r="78" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A78" s="315" t="s">
-        <v>195</v>
-      </c>
-      <c r="B78" s="316"/>
-      <c r="C78" s="316"/>
-      <c r="D78" s="316"/>
-      <c r="E78" s="316"/>
-      <c r="F78" s="316"/>
-      <c r="G78" s="316"/>
-      <c r="H78" s="316"/>
-      <c r="I78" s="316"/>
-      <c r="J78" s="317"/>
+      <c r="A78" s="249" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" s="250"/>
+      <c r="C78" s="250"/>
+      <c r="D78" s="250"/>
+      <c r="E78" s="250"/>
+      <c r="F78" s="250"/>
+      <c r="G78" s="250"/>
+      <c r="H78" s="250"/>
+      <c r="I78" s="250"/>
+      <c r="J78" s="251"/>
       <c r="K78" s="109"/>
       <c r="L78" s="109"/>
       <c r="M78" s="109"/>
@@ -8090,18 +6646,18 @@
       <c r="CF78" s="120"/>
     </row>
     <row r="79" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A79" s="315" t="s">
-        <v>196</v>
-      </c>
-      <c r="B79" s="316"/>
-      <c r="C79" s="316"/>
-      <c r="D79" s="316"/>
-      <c r="E79" s="316"/>
-      <c r="F79" s="316"/>
-      <c r="G79" s="316"/>
-      <c r="H79" s="316"/>
-      <c r="I79" s="316"/>
-      <c r="J79" s="317"/>
+      <c r="A79" s="249" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="250"/>
+      <c r="C79" s="250"/>
+      <c r="D79" s="250"/>
+      <c r="E79" s="250"/>
+      <c r="F79" s="250"/>
+      <c r="G79" s="250"/>
+      <c r="H79" s="250"/>
+      <c r="I79" s="250"/>
+      <c r="J79" s="251"/>
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
       <c r="M79" s="109"/>
@@ -8178,18 +6734,18 @@
       <c r="CF79" s="120"/>
     </row>
     <row r="80" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A80" s="315" t="s">
-        <v>197</v>
-      </c>
-      <c r="B80" s="316"/>
-      <c r="C80" s="316"/>
-      <c r="D80" s="316"/>
-      <c r="E80" s="316"/>
-      <c r="F80" s="316"/>
-      <c r="G80" s="316"/>
-      <c r="H80" s="316"/>
-      <c r="I80" s="316"/>
-      <c r="J80" s="317"/>
+      <c r="A80" s="249" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="250"/>
+      <c r="C80" s="250"/>
+      <c r="D80" s="250"/>
+      <c r="E80" s="250"/>
+      <c r="F80" s="250"/>
+      <c r="G80" s="250"/>
+      <c r="H80" s="250"/>
+      <c r="I80" s="250"/>
+      <c r="J80" s="251"/>
       <c r="K80" s="109"/>
       <c r="L80" s="109"/>
       <c r="M80" s="109"/>
@@ -8266,18 +6822,18 @@
       <c r="CF80" s="120"/>
     </row>
     <row r="81" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A81" s="306" t="s">
-        <v>198</v>
-      </c>
-      <c r="B81" s="307"/>
-      <c r="C81" s="307"/>
-      <c r="D81" s="307"/>
-      <c r="E81" s="307"/>
-      <c r="F81" s="307"/>
-      <c r="G81" s="307"/>
-      <c r="H81" s="307"/>
-      <c r="I81" s="307"/>
-      <c r="J81" s="308"/>
+      <c r="A81" s="240" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="241"/>
+      <c r="C81" s="241"/>
+      <c r="D81" s="241"/>
+      <c r="E81" s="241"/>
+      <c r="F81" s="241"/>
+      <c r="G81" s="241"/>
+      <c r="H81" s="241"/>
+      <c r="I81" s="241"/>
+      <c r="J81" s="242"/>
       <c r="K81" s="88">
         <v>1</v>
       </c>
@@ -8362,16 +6918,16 @@
       <c r="CF81" s="120"/>
     </row>
     <row r="82" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A82" s="309"/>
-      <c r="B82" s="310"/>
-      <c r="C82" s="310"/>
-      <c r="D82" s="310"/>
-      <c r="E82" s="310"/>
-      <c r="F82" s="310"/>
-      <c r="G82" s="310"/>
-      <c r="H82" s="310"/>
-      <c r="I82" s="310"/>
-      <c r="J82" s="311"/>
+      <c r="A82" s="243"/>
+      <c r="B82" s="244"/>
+      <c r="C82" s="244"/>
+      <c r="D82" s="244"/>
+      <c r="E82" s="244"/>
+      <c r="F82" s="244"/>
+      <c r="G82" s="244"/>
+      <c r="H82" s="244"/>
+      <c r="I82" s="244"/>
+      <c r="J82" s="245"/>
       <c r="K82" s="110"/>
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
@@ -8448,22 +7004,22 @@
       <c r="CF82" s="120"/>
     </row>
     <row r="83" spans="1:84" customHeight="1" ht="15">
-      <c r="A83" s="312" t="s">
-        <v>199</v>
-      </c>
-      <c r="B83" s="313"/>
-      <c r="C83" s="313"/>
-      <c r="D83" s="313"/>
-      <c r="E83" s="313"/>
-      <c r="F83" s="313"/>
-      <c r="G83" s="313"/>
-      <c r="H83" s="313"/>
-      <c r="I83" s="313"/>
-      <c r="J83" s="313"/>
-      <c r="K83" s="313"/>
-      <c r="L83" s="313"/>
-      <c r="M83" s="313"/>
-      <c r="N83" s="314"/>
+      <c r="A83" s="246" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="247"/>
+      <c r="C83" s="247"/>
+      <c r="D83" s="247"/>
+      <c r="E83" s="247"/>
+      <c r="F83" s="247"/>
+      <c r="G83" s="247"/>
+      <c r="H83" s="247"/>
+      <c r="I83" s="247"/>
+      <c r="J83" s="247"/>
+      <c r="K83" s="247"/>
+      <c r="L83" s="247"/>
+      <c r="M83" s="247"/>
+      <c r="N83" s="248"/>
       <c r="O83" s="120"/>
       <c r="P83" s="120"/>
       <c r="Q83" s="120"/>
@@ -8536,20 +7092,20 @@
       <c r="CF83" s="120"/>
     </row>
     <row r="84" spans="1:84">
-      <c r="A84" s="284"/>
-      <c r="B84" s="285"/>
-      <c r="C84" s="285"/>
-      <c r="D84" s="285"/>
-      <c r="E84" s="285"/>
-      <c r="F84" s="285"/>
-      <c r="G84" s="285"/>
-      <c r="H84" s="285"/>
-      <c r="I84" s="285"/>
-      <c r="J84" s="285"/>
-      <c r="K84" s="285"/>
-      <c r="L84" s="285"/>
-      <c r="M84" s="285"/>
-      <c r="N84" s="286"/>
+      <c r="A84" s="218"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="219"/>
+      <c r="D84" s="219"/>
+      <c r="E84" s="219"/>
+      <c r="F84" s="219"/>
+      <c r="G84" s="219"/>
+      <c r="H84" s="219"/>
+      <c r="I84" s="219"/>
+      <c r="J84" s="219"/>
+      <c r="K84" s="219"/>
+      <c r="L84" s="219"/>
+      <c r="M84" s="219"/>
+      <c r="N84" s="220"/>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
       <c r="Q84" s="120"/>
@@ -8622,20 +7178,20 @@
       <c r="CF84" s="120"/>
     </row>
     <row r="85" spans="1:84" customHeight="1" ht="16.5">
-      <c r="A85" s="287"/>
-      <c r="B85" s="288"/>
-      <c r="C85" s="288"/>
-      <c r="D85" s="288"/>
-      <c r="E85" s="288"/>
-      <c r="F85" s="288"/>
-      <c r="G85" s="288"/>
-      <c r="H85" s="288"/>
-      <c r="I85" s="288"/>
-      <c r="J85" s="288"/>
-      <c r="K85" s="288"/>
-      <c r="L85" s="288"/>
-      <c r="M85" s="288"/>
-      <c r="N85" s="289"/>
+      <c r="A85" s="221"/>
+      <c r="B85" s="222"/>
+      <c r="C85" s="222"/>
+      <c r="D85" s="222"/>
+      <c r="E85" s="222"/>
+      <c r="F85" s="222"/>
+      <c r="G85" s="222"/>
+      <c r="H85" s="222"/>
+      <c r="I85" s="222"/>
+      <c r="J85" s="222"/>
+      <c r="K85" s="222"/>
+      <c r="L85" s="222"/>
+      <c r="M85" s="222"/>
+      <c r="N85" s="223"/>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
       <c r="Q85" s="120"/>
@@ -8644,20 +7200,20 @@
       <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:84" customHeight="1" ht="6.75">
-      <c r="A86" s="287"/>
-      <c r="B86" s="288"/>
-      <c r="C86" s="288"/>
-      <c r="D86" s="288"/>
-      <c r="E86" s="288"/>
-      <c r="F86" s="288"/>
-      <c r="G86" s="288"/>
-      <c r="H86" s="288"/>
-      <c r="I86" s="288"/>
-      <c r="J86" s="288"/>
-      <c r="K86" s="288"/>
-      <c r="L86" s="288"/>
-      <c r="M86" s="288"/>
-      <c r="N86" s="289"/>
+      <c r="A86" s="221"/>
+      <c r="B86" s="222"/>
+      <c r="C86" s="222"/>
+      <c r="D86" s="222"/>
+      <c r="E86" s="222"/>
+      <c r="F86" s="222"/>
+      <c r="G86" s="222"/>
+      <c r="H86" s="222"/>
+      <c r="I86" s="222"/>
+      <c r="J86" s="222"/>
+      <c r="K86" s="222"/>
+      <c r="L86" s="222"/>
+      <c r="M86" s="222"/>
+      <c r="N86" s="223"/>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
       <c r="Q86" s="120"/>
@@ -8666,20 +7222,20 @@
       <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:84" customHeight="1" ht="15">
-      <c r="A87" s="287"/>
-      <c r="B87" s="288"/>
-      <c r="C87" s="288"/>
-      <c r="D87" s="288"/>
-      <c r="E87" s="288"/>
-      <c r="F87" s="288"/>
-      <c r="G87" s="288"/>
-      <c r="H87" s="288"/>
-      <c r="I87" s="288"/>
-      <c r="J87" s="288"/>
-      <c r="K87" s="288"/>
-      <c r="L87" s="288"/>
-      <c r="M87" s="288"/>
-      <c r="N87" s="289"/>
+      <c r="A87" s="221"/>
+      <c r="B87" s="222"/>
+      <c r="C87" s="222"/>
+      <c r="D87" s="222"/>
+      <c r="E87" s="222"/>
+      <c r="F87" s="222"/>
+      <c r="G87" s="222"/>
+      <c r="H87" s="222"/>
+      <c r="I87" s="222"/>
+      <c r="J87" s="222"/>
+      <c r="K87" s="222"/>
+      <c r="L87" s="222"/>
+      <c r="M87" s="222"/>
+      <c r="N87" s="223"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -8688,20 +7244,20 @@
       <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:84">
-      <c r="A88" s="287"/>
-      <c r="B88" s="288"/>
-      <c r="C88" s="288"/>
-      <c r="D88" s="288"/>
-      <c r="E88" s="288"/>
-      <c r="F88" s="288"/>
-      <c r="G88" s="288"/>
-      <c r="H88" s="288"/>
-      <c r="I88" s="288"/>
-      <c r="J88" s="288"/>
-      <c r="K88" s="288"/>
-      <c r="L88" s="288"/>
-      <c r="M88" s="288"/>
-      <c r="N88" s="289"/>
+      <c r="A88" s="221"/>
+      <c r="B88" s="222"/>
+      <c r="C88" s="222"/>
+      <c r="D88" s="222"/>
+      <c r="E88" s="222"/>
+      <c r="F88" s="222"/>
+      <c r="G88" s="222"/>
+      <c r="H88" s="222"/>
+      <c r="I88" s="222"/>
+      <c r="J88" s="222"/>
+      <c r="K88" s="222"/>
+      <c r="L88" s="222"/>
+      <c r="M88" s="222"/>
+      <c r="N88" s="223"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -8710,20 +7266,20 @@
       <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:84">
-      <c r="A89" s="290"/>
-      <c r="B89" s="291"/>
-      <c r="C89" s="291"/>
-      <c r="D89" s="291"/>
-      <c r="E89" s="291"/>
-      <c r="F89" s="291"/>
-      <c r="G89" s="291"/>
-      <c r="H89" s="291"/>
-      <c r="I89" s="291"/>
-      <c r="J89" s="291"/>
-      <c r="K89" s="291"/>
-      <c r="L89" s="291"/>
-      <c r="M89" s="291"/>
-      <c r="N89" s="292"/>
+      <c r="A89" s="224"/>
+      <c r="B89" s="225"/>
+      <c r="C89" s="225"/>
+      <c r="D89" s="225"/>
+      <c r="E89" s="225"/>
+      <c r="F89" s="225"/>
+      <c r="G89" s="225"/>
+      <c r="H89" s="225"/>
+      <c r="I89" s="225"/>
+      <c r="J89" s="225"/>
+      <c r="K89" s="225"/>
+      <c r="L89" s="225"/>
+      <c r="M89" s="225"/>
+      <c r="N89" s="226"/>
       <c r="O89" s="120"/>
       <c r="P89" s="120"/>
       <c r="Q89" s="120"/>
@@ -8732,22 +7288,22 @@
       <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:84">
-      <c r="A90" s="296" t="s">
-        <v>200</v>
-      </c>
-      <c r="B90" s="297"/>
-      <c r="C90" s="297"/>
-      <c r="D90" s="298"/>
-      <c r="E90" s="318"/>
-      <c r="F90" s="319"/>
-      <c r="G90" s="319"/>
-      <c r="H90" s="319"/>
-      <c r="I90" s="319"/>
-      <c r="J90" s="319"/>
-      <c r="K90" s="319"/>
-      <c r="L90" s="319"/>
-      <c r="M90" s="319"/>
-      <c r="N90" s="320"/>
+      <c r="A90" s="230" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" s="231"/>
+      <c r="C90" s="231"/>
+      <c r="D90" s="232"/>
+      <c r="E90" s="252"/>
+      <c r="F90" s="253"/>
+      <c r="G90" s="253"/>
+      <c r="H90" s="253"/>
+      <c r="I90" s="253"/>
+      <c r="J90" s="253"/>
+      <c r="K90" s="253"/>
+      <c r="L90" s="253"/>
+      <c r="M90" s="253"/>
+      <c r="N90" s="254"/>
       <c r="O90" s="120"/>
       <c r="P90" s="120"/>
       <c r="Q90" s="120"/>
@@ -8778,22 +7334,22 @@
       <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:84" customHeight="1" ht="15">
-      <c r="A92" s="305" t="s">
-        <v>201</v>
-      </c>
-      <c r="B92" s="305"/>
-      <c r="C92" s="305"/>
-      <c r="D92" s="305"/>
-      <c r="E92" s="305"/>
-      <c r="F92" s="305"/>
-      <c r="G92" s="305"/>
-      <c r="H92" s="305"/>
-      <c r="I92" s="305"/>
-      <c r="J92" s="305"/>
-      <c r="K92" s="305"/>
-      <c r="L92" s="305"/>
-      <c r="M92" s="305"/>
-      <c r="N92" s="305"/>
+      <c r="A92" s="239" t="s">
+        <v>164</v>
+      </c>
+      <c r="B92" s="239"/>
+      <c r="C92" s="239"/>
+      <c r="D92" s="239"/>
+      <c r="E92" s="239"/>
+      <c r="F92" s="239"/>
+      <c r="G92" s="239"/>
+      <c r="H92" s="239"/>
+      <c r="I92" s="239"/>
+      <c r="J92" s="239"/>
+      <c r="K92" s="239"/>
+      <c r="L92" s="239"/>
+      <c r="M92" s="239"/>
+      <c r="N92" s="239"/>
       <c r="O92" s="120"/>
       <c r="P92" s="120"/>
       <c r="Q92" s="120"/>

--- a/Listado_de_asistencia.xlsx
+++ b/Listado_de_asistencia.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL DE FIRMAS" sheetId="1" r:id="rId4"/>
-    <sheet name="Cuestionario" sheetId="2" r:id="rId5"/>
+    <sheet name="CONTROL DE FIRMAS 2" sheetId="2" r:id="rId5"/>
+    <sheet name="Cuestionario" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CONTROL DE FIRMAS'!$C$1:$L$57</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
   <si>
     <t>DOCUMENTO CONTROL DE FIRMAS</t>
   </si>
@@ -128,16 +129,16 @@
     </r>
   </si>
   <si>
-    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Programa de formación nuevo Time to Market Nº CONVOCATORIA: 17720</t>
-  </si>
-  <si>
-    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 16-10-2017 FECHA FIN: 04-12-2017</t>
+    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Procesos Agile – IT Bimodal Nº CONVOCATORIA: 19497</t>
+  </si>
+  <si>
+    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 30-11-2017 FECHA FIN: 30-11-2017</t>
   </si>
   <si>
     <t>FORMADOR/RESPONSABLE DE FORMACIÓN:</t>
   </si>
   <si>
-    <t>SESIÓN Nº: ___ de 6 FECHA: 16-10-2017 HORARIO: 10:00 - 02:00</t>
+    <t>SESIÓN Nº: ___ de 1 FECHA: 30-11-2017 HORARIO: 04:00 - 06:00</t>
   </si>
   <si>
     <t>Firmado:</t>
@@ -188,7 +189,7 @@
     <t>DATOS DE ASISTENTES</t>
   </si>
   <si>
-    <t>Sesión 1</t>
+    <t xml:space="preserve">Sesión 1 </t>
   </si>
   <si>
     <t>Sesión 2</t>
@@ -219,157 +220,346 @@
     <t xml:space="preserve">N.I.F. </t>
   </si>
   <si>
-    <t>16-10-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>30-10-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>06-11-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>13-11-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>20-11-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>SANCHEZ CANTOS, ESTHER</t>
-  </si>
-  <si>
-    <t>024354634A</t>
-  </si>
-  <si>
-    <t>04-12-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>CASTELLANOS ANDRES, ALVARO</t>
-  </si>
-  <si>
-    <t>009785531C</t>
-  </si>
-  <si>
-    <t>PLAZA MERINO, VICTOR MANUEL</t>
-  </si>
-  <si>
-    <t>052865742N</t>
-  </si>
-  <si>
-    <t>DE LUIS CASTAÑO, LAURA</t>
-  </si>
-  <si>
-    <t>050205145D</t>
-  </si>
-  <si>
-    <t>PANTOJA LOPEZ, ELENA</t>
-  </si>
-  <si>
-    <t>002535347B</t>
-  </si>
-  <si>
-    <t>ALFARO ORTIZ, PILAR</t>
-  </si>
-  <si>
-    <t>007563405Q</t>
-  </si>
-  <si>
-    <t>BILBAO ZARRAGA, ITZIAR</t>
-  </si>
-  <si>
-    <t>016043034M</t>
-  </si>
-  <si>
-    <t>MESA MARTIN, MARA</t>
-  </si>
-  <si>
-    <t>002782609T</t>
-  </si>
-  <si>
-    <t>DJAN HERRERO, RUTH</t>
-  </si>
-  <si>
-    <t>050728583J</t>
-  </si>
-  <si>
-    <t>GARCIA AMADOR, ALONSO</t>
-  </si>
-  <si>
-    <t>051061998C</t>
-  </si>
-  <si>
-    <t>GUADALIX AVILES, DAVID</t>
-  </si>
-  <si>
-    <t>050190319H</t>
-  </si>
-  <si>
-    <t>BELMONTE GOMEZ, MARTA</t>
-  </si>
-  <si>
-    <t>006253798Y</t>
-  </si>
-  <si>
-    <t>BALLESTEROS GONZALEZ, RAUL</t>
-  </si>
-  <si>
-    <t>052993834V</t>
-  </si>
-  <si>
-    <t>GARCIA GARCIA, ALEJANDRA MARIA</t>
-  </si>
-  <si>
-    <t>015258434G</t>
-  </si>
-  <si>
-    <t>SERRA MORENO, ANTONIO</t>
-  </si>
-  <si>
-    <t>050083544D</t>
-  </si>
-  <si>
-    <t>DUQUE LUDEÑA, ALBERTO</t>
-  </si>
-  <si>
-    <t>050200229S</t>
-  </si>
-  <si>
-    <t>GARCIA RUIZ, NOEMI</t>
-  </si>
-  <si>
-    <t>051945351N</t>
-  </si>
-  <si>
-    <t>GONZALEZ SANCHEZ, RUTH</t>
-  </si>
-  <si>
-    <t>001186382L</t>
-  </si>
-  <si>
-    <t>MUNARRIZ GOMEZ, MAIDER</t>
-  </si>
-  <si>
-    <t>072471462A</t>
-  </si>
-  <si>
-    <t>BOSCA VISTA, JOAQUIN</t>
-  </si>
-  <si>
-    <t>050452728C</t>
-  </si>
-  <si>
-    <t>BALAGUER DELGADO, CLAUDIA</t>
-  </si>
-  <si>
-    <t>029200964A</t>
-  </si>
-  <si>
-    <t>RUBIO FERNANDEZ, DANIEL</t>
-  </si>
-  <si>
-    <t>007230276L</t>
+    <t>30-11-2017 04:00 - 06:00</t>
+  </si>
+  <si>
+    <t>CARMONA RUIZ, CAYETANO</t>
+  </si>
+  <si>
+    <t>052543802A</t>
+  </si>
+  <si>
+    <t>MURILLO MANCILLA, Mª JESUS</t>
+  </si>
+  <si>
+    <t>033378764Z</t>
+  </si>
+  <si>
+    <t>OTERO GOMEZ, JUAN JOSE</t>
+  </si>
+  <si>
+    <t>002629230P</t>
+  </si>
+  <si>
+    <t>GARCIA FERNANDEZ, EDUARDO DAVID</t>
+  </si>
+  <si>
+    <t>023805083Z</t>
+  </si>
+  <si>
+    <t>GONZALEZ COLIN, ALBERTO</t>
+  </si>
+  <si>
+    <t>046875385M</t>
+  </si>
+  <si>
+    <t>LORENZO CRISTOBAL, ANA DEL MAR</t>
+  </si>
+  <si>
+    <t>008997714E</t>
+  </si>
+  <si>
+    <t>PULPILLO PULPILLO, MARIA CARMEN</t>
+  </si>
+  <si>
+    <t>026228849V</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ BORGES, INES</t>
+  </si>
+  <si>
+    <t>033528503T</t>
+  </si>
+  <si>
+    <t>HERNANDEZ DE LA FUENTE, ROBERTO</t>
+  </si>
+  <si>
+    <t>051949527W</t>
+  </si>
+  <si>
+    <t>IGLESIAS DURAN, MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>002626165W</t>
+  </si>
+  <si>
+    <t>DEL PINO FLORES, OSCAR</t>
+  </si>
+  <si>
+    <t>009012265Z</t>
+  </si>
+  <si>
+    <t>JIMENEZ SANCHEZ, LUIS MIGUEL</t>
+  </si>
+  <si>
+    <t>012765661V</t>
+  </si>
+  <si>
+    <t>MORENO MIGUEL, ALICIA</t>
+  </si>
+  <si>
+    <t>050223959D</t>
+  </si>
+  <si>
+    <t>CANO REINA, JUAN RAMON</t>
+  </si>
+  <si>
+    <t>021667880V</t>
+  </si>
+  <si>
+    <t>GIJON MARTIN, MARIO ALFONSO</t>
+  </si>
+  <si>
+    <t>050189955E</t>
+  </si>
+  <si>
+    <t>APARICIO DEL RIO, ISABEL</t>
+  </si>
+  <si>
+    <t>044359316K</t>
+  </si>
+  <si>
+    <t>GARCIA DEL MORAL GONZALEZ, ERNESTO</t>
+  </si>
+  <si>
+    <t>051404528B</t>
+  </si>
+  <si>
+    <t>CASTELLANOS PAZOS, OSCAR</t>
+  </si>
+  <si>
+    <t>052369500H</t>
+  </si>
+  <si>
+    <t>PERALTA GARCIA, ROBERTO</t>
+  </si>
+  <si>
+    <t>002907293R</t>
+  </si>
+  <si>
+    <t>LOPEZ FELGUEIRAS, MARIA CARMEN</t>
+  </si>
+  <si>
+    <t>032666618V</t>
+  </si>
+  <si>
+    <t>ARIAS MUIÑA, JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>002882664M</t>
+  </si>
+  <si>
+    <t>PEREZ TORIO, DAVID</t>
+  </si>
+  <si>
+    <t>051060153S</t>
+  </si>
+  <si>
+    <t>BENAVIDES BLANCO, ALEJANDRA</t>
+  </si>
+  <si>
+    <t>071558378L</t>
+  </si>
+  <si>
+    <t>EGIDO CAÑIZARES, SARA</t>
+  </si>
+  <si>
+    <t>005917676Y</t>
+  </si>
+  <si>
+    <t>MENA CORROCHANO, ALBERTO</t>
+  </si>
+  <si>
+    <t>004194926W</t>
   </si>
   <si>
     <t>OBSERVACIONES GENERALES:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EMPRESA BONIFICADA:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> ORANGE ESPAGNE S.A.U                                </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CIF.: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">A82009812</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ENTIDAD ORGANIZADORA:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> ______________________________________ </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CIF.:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> ____________</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CÓDIGO DE AGRUPACIÓN:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> ________________________________________</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Obligatoriamente </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000080"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> se debe de FIRMAR- TODAS LAS CASILLAS
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Verdana"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFF0000"/>
+        <sz val="9"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">(no válido poner Sí, X, o cualquier símbolo que no sea una firma)</t>
+    </r>
+  </si>
+  <si>
+    <t>VILLACASTIN CANDIL, LUIS</t>
+  </si>
+  <si>
+    <t>011857512T</t>
+  </si>
+  <si>
+    <t>MAROTO RODRIGUEZ, JAVIER</t>
+  </si>
+  <si>
+    <t>070249450K</t>
+  </si>
+  <si>
+    <t>TEJEDOR DORIA, JESUS ALBERTO</t>
+  </si>
+  <si>
+    <t>044520329B</t>
+  </si>
+  <si>
+    <t>MARTIN GONZALEZ, DIEGO</t>
+  </si>
+  <si>
+    <t>002253986D</t>
+  </si>
+  <si>
+    <t>CABALLERO RODRIGUEZ, DAVID</t>
+  </si>
+  <si>
+    <t>050728996N</t>
+  </si>
+  <si>
+    <t>SALGADO MARTIN, MARIA</t>
+  </si>
+  <si>
+    <t>051455868S</t>
+  </si>
+  <si>
+    <t>REY GARCIA, ANTONIO</t>
+  </si>
+  <si>
+    <t>047023376Z</t>
+  </si>
+  <si>
+    <t>PASAMAR GALLEGO, ANA</t>
+  </si>
+  <si>
+    <t>025456691S</t>
   </si>
   <si>
     <t>CUESTIONARIO PARA LA EVALUACIÓN DE LA CALIDAD DE LAS ACCIONES FORMATIVAS 
@@ -829,7 +1019,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="39">
+  <fonts count="47">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -1092,8 +1282,62 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Comic Sans MS"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="9"/>
@@ -1147,6 +1391,33 @@
     </font>
     <font>
       <b val="0"/>
+      <i val="1"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF808080"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -1170,15 +1441,6 @@
       <u val="none"/>
       <sz val="12"/>
       <color rgb="FF993300"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1600,6 +1862,14 @@
       <left style="medium">
         <color rgb="FF969696"/>
       </left>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF969696"/>
+      </left>
       <top style="medium">
         <color rgb="FF808080"/>
       </top>
@@ -2149,19 +2419,11 @@
         <color rgb="FF969696"/>
       </bottom>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF969696"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="392">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2567,10 +2829,13 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="38" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
@@ -2588,100 +2853,214 @@
     <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="27" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="3"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="3"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="8"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2690,83 +3069,161 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="37" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="39" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="37" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="42" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="41" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="37" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="41" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="43" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="43" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2774,15 +3231,18 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -2792,17 +3252,14 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2810,54 +3267,57 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="60" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="61" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="62" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="75" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="63" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="76" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="66" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="65" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="63" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="77" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="76" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2879,11 +3339,8 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="46" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -2897,104 +3354,104 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="77" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="78" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="79" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -3002,12 +3459,15 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -3017,10 +3477,10 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3032,7 +3492,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3050,43 +3510,43 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3095,9 +3555,6 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="88" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="89" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -3105,7 +3562,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="91" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="92" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -3113,13 +3570,16 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="93" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="94" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3131,16 +3591,13 @@
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="95" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="96" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -3152,7 +3609,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3510,8 +3967,8 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3541,19 +3998,19 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:17" customHeight="1" ht="33">
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="150"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
+      <c r="I3" s="216"/>
+      <c r="J3" s="216"/>
+      <c r="K3" s="216"/>
+      <c r="L3" s="151"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -3567,17 +4024,17 @@
       <c r="B5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="182" t="s">
+      <c r="C5" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="183"/>
-      <c r="E5" s="183"/>
-      <c r="F5" s="183"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="183"/>
-      <c r="K5" s="184"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="222"/>
+      <c r="J5" s="222"/>
+      <c r="K5" s="223"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -3585,18 +4042,18 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="186"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="225"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -3604,18 +4061,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B7" s="180"/>
-      <c r="C7" s="187" t="s">
+      <c r="B7" s="219"/>
+      <c r="C7" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="189"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="227"/>
+      <c r="I7" s="227"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="228"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -3623,7 +4080,7 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="B8" s="180"/>
+      <c r="B8" s="219"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3632,7 +4089,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="142"/>
+      <c r="K8" s="143"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3640,18 +4097,18 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B9" s="181"/>
-      <c r="C9" s="190" t="s">
+      <c r="B9" s="220"/>
+      <c r="C9" s="229" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="192"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="230"/>
+      <c r="J9" s="230"/>
+      <c r="K9" s="231"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -3662,16 +4119,16 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="27.75">
-      <c r="C11" s="178"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="179"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
+      <c r="C11" s="217"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="218"/>
+      <c r="K11" s="218"/>
+      <c r="L11" s="218"/>
     </row>
     <row r="12" spans="1:17" customHeight="1" ht="19.5">
       <c r="B12" s="130"/>
@@ -3683,21 +4140,21 @@
       <c r="H12" s="131"/>
       <c r="I12" s="131"/>
       <c r="J12" s="131"/>
-      <c r="K12" s="143"/>
+      <c r="K12" s="144"/>
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="15">
-      <c r="B13" s="174" t="s">
+      <c r="B13" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="176"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="215"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="15">
       <c r="B14" s="125"/>
@@ -3709,21 +4166,21 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="144"/>
+      <c r="K14" s="145"/>
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="15">
-      <c r="B15" s="174" t="s">
+      <c r="B15" s="213" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="154"/>
+      <c r="C15" s="214"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="144"/>
+      <c r="K15" s="145"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="15">
       <c r="B16" s="132"/>
@@ -3735,21 +4192,21 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="144"/>
+      <c r="K16" s="145"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="15">
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="214"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
       <c r="I17" s="134"/>
       <c r="J17" s="134"/>
-      <c r="K17" s="145"/>
+      <c r="K17" s="146"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="15">
       <c r="B18" s="132"/>
@@ -3761,21 +4218,21 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="144"/>
+      <c r="K18" s="145"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="15">
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="175"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="145"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="146"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="15">
       <c r="B20" s="132"/>
@@ -3787,7 +4244,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="144"/>
+      <c r="K20" s="145"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="15">
       <c r="B21" s="124" t="s">
@@ -3801,7 +4258,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="144"/>
+      <c r="K21" s="145"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="15">
       <c r="B22" s="124" t="s">
@@ -3815,7 +4272,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="144"/>
+      <c r="K22" s="145"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="15.75">
       <c r="B23" s="126"/>
@@ -3827,519 +4284,525 @@
       <c r="H23" s="133"/>
       <c r="I23" s="133"/>
       <c r="J23" s="133"/>
-      <c r="K23" s="146"/>
+      <c r="K23" s="147"/>
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="10.5">
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:17" customHeight="1" ht="30.75">
       <c r="C25" s="7"/>
-      <c r="E25" s="165" t="s">
+      <c r="E25" s="204" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="167"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="205"/>
+      <c r="H25" s="205"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="206"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="39">
-      <c r="B26" s="172" t="s">
+      <c r="B26" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="172"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="155" t="s">
+      <c r="C26" s="211"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="155" t="s">
+      <c r="F26" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="155" t="s">
+      <c r="G26" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="155" t="s">
+      <c r="H26" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="170" t="s">
+      <c r="I26" s="209" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="170" t="s">
+      <c r="J26" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="168" t="s">
+      <c r="K26" s="207" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:17" customHeight="1" ht="44.25" s="149" customFormat="1">
-      <c r="B27" s="147" t="s">
+    <row r="27" spans="1:17" customHeight="1" ht="44.25" s="150" customFormat="1">
+      <c r="B27" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C27" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="148" t="s">
+      <c r="D27" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="326" t="s">
+      <c r="E27" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="326" t="s">
+      <c r="F27" s="135"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="210"/>
+      <c r="J27" s="210"/>
+      <c r="K27" s="208"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B28" s="152">
+        <v>10709</v>
+      </c>
+      <c r="C28" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="326" t="s">
+      <c r="D28" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="326" t="s">
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+      <c r="K28" s="127"/>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B29" s="152">
+        <v>12114</v>
+      </c>
+      <c r="C29" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="169"/>
-      <c r="M27" s="149" t="s">
+      <c r="D29" s="152" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B28" s="151">
-        <v>10288</v>
-      </c>
-      <c r="C28" s="151" t="s">
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="128"/>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B30" s="152">
+        <v>12979</v>
+      </c>
+      <c r="C30" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="151" t="s">
+      <c r="D30" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="127"/>
-      <c r="M28" s="2" t="s">
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="128"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B31" s="152">
+        <v>12498</v>
+      </c>
+      <c r="C31" s="152" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B29" s="151">
-        <v>12261</v>
-      </c>
-      <c r="C29" s="151" t="s">
+      <c r="D31" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="151" t="s">
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="128"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B32" s="152">
+        <v>12866</v>
+      </c>
+      <c r="C32" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="128"/>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B30" s="151">
-        <v>12785</v>
-      </c>
-      <c r="C30" s="151" t="s">
+      <c r="D32" s="152" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="151" t="s">
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="128"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B33" s="152">
+        <v>12949</v>
+      </c>
+      <c r="C33" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="128"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B31" s="151">
-        <v>13237</v>
-      </c>
-      <c r="C31" s="151" t="s">
+      <c r="D33" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="151" t="s">
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="128"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B34" s="152">
+        <v>271088</v>
+      </c>
+      <c r="C34" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="128"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B32" s="151">
-        <v>13683</v>
-      </c>
-      <c r="C32" s="151" t="s">
+      <c r="D34" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="151" t="s">
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
+      <c r="K34" s="128"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B35" s="152">
+        <v>272998</v>
+      </c>
+      <c r="C35" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="128"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B33" s="151">
-        <v>13736</v>
-      </c>
-      <c r="C33" s="151" t="s">
+      <c r="D35" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="151" t="s">
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="128"/>
+    </row>
+    <row r="36" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B36" s="152">
+        <v>273069</v>
+      </c>
+      <c r="C36" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="128"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B34" s="151">
-        <v>270557</v>
-      </c>
-      <c r="C34" s="151" t="s">
+      <c r="D36" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="151" t="s">
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="128"/>
+    </row>
+    <row r="37" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B37" s="152">
+        <v>273564</v>
+      </c>
+      <c r="C37" s="152" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="136"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="128"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B35" s="151">
-        <v>273113</v>
-      </c>
-      <c r="C35" s="151" t="s">
+      <c r="D37" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="151" t="s">
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="128"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B38" s="152">
+        <v>272764</v>
+      </c>
+      <c r="C38" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="128"/>
-    </row>
-    <row r="36" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B36" s="151">
-        <v>273690</v>
-      </c>
-      <c r="C36" s="151" t="s">
+      <c r="D38" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="151" t="s">
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="128"/>
+    </row>
+    <row r="39" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B39" s="152">
+        <v>270892</v>
+      </c>
+      <c r="C39" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="136"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="136"/>
-      <c r="J36" s="136"/>
-      <c r="K36" s="128"/>
-    </row>
-    <row r="37" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B37" s="151">
-        <v>300193</v>
-      </c>
-      <c r="C37" s="151" t="s">
+      <c r="D39" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="151" t="s">
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="128"/>
+    </row>
+    <row r="40" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B40" s="152">
+        <v>273516</v>
+      </c>
+      <c r="C40" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="128"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B38" s="151">
-        <v>800017</v>
-      </c>
-      <c r="C38" s="151" t="s">
+      <c r="D40" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="151" t="s">
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="128"/>
+    </row>
+    <row r="41" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B41" s="152">
+        <v>600131</v>
+      </c>
+      <c r="C41" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="136"/>
-      <c r="I38" s="136"/>
-      <c r="J38" s="136"/>
-      <c r="K38" s="128"/>
-    </row>
-    <row r="39" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B39" s="151">
-        <v>800526</v>
-      </c>
-      <c r="C39" s="151" t="s">
+      <c r="D41" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="151" t="s">
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="128"/>
+    </row>
+    <row r="42" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B42" s="152">
+        <v>273622</v>
+      </c>
+      <c r="C42" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="128"/>
-    </row>
-    <row r="40" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B40" s="151">
-        <v>800565</v>
-      </c>
-      <c r="C40" s="151" t="s">
+      <c r="D42" s="152" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="151" t="s">
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="128"/>
+    </row>
+    <row r="43" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B43" s="152">
+        <v>801192</v>
+      </c>
+      <c r="C43" s="152" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="136"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="128"/>
-    </row>
-    <row r="41" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B41" s="151">
-        <v>800599</v>
-      </c>
-      <c r="C41" s="151" t="s">
+      <c r="D43" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="151" t="s">
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="128"/>
+    </row>
+    <row r="44" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B44" s="152">
+        <v>800275</v>
+      </c>
+      <c r="C44" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="128"/>
-    </row>
-    <row r="42" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B42" s="151">
-        <v>800675</v>
-      </c>
-      <c r="C42" s="151" t="s">
+      <c r="D44" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="151" t="s">
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="128"/>
+    </row>
+    <row r="45" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B45" s="152">
+        <v>800664</v>
+      </c>
+      <c r="C45" s="152" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="136"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="136"/>
-      <c r="H42" s="136"/>
-      <c r="I42" s="136"/>
-      <c r="J42" s="136"/>
-      <c r="K42" s="128"/>
-    </row>
-    <row r="43" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B43" s="151">
-        <v>801043</v>
-      </c>
-      <c r="C43" s="151" t="s">
+      <c r="D45" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="151" t="s">
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="128"/>
+    </row>
+    <row r="46" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B46" s="152">
+        <v>803418</v>
+      </c>
+      <c r="C46" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="128"/>
-    </row>
-    <row r="44" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B44" s="151">
-        <v>803677</v>
-      </c>
-      <c r="C44" s="151" t="s">
+      <c r="D46" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="151" t="s">
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="128"/>
+    </row>
+    <row r="47" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B47" s="152">
+        <v>600106</v>
+      </c>
+      <c r="C47" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="136"/>
-      <c r="K44" s="128"/>
-    </row>
-    <row r="45" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B45" s="151">
-        <v>802824</v>
-      </c>
-      <c r="C45" s="151" t="s">
+      <c r="D47" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="151" t="s">
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="128"/>
+    </row>
+    <row r="48" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B48" s="152">
+        <v>800230</v>
+      </c>
+      <c r="C48" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="128"/>
-    </row>
-    <row r="46" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B46" s="151">
-        <v>803898</v>
-      </c>
-      <c r="C46" s="151" t="s">
+      <c r="D48" s="152" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="151" t="s">
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="128"/>
+    </row>
+    <row r="49" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B49" s="152">
+        <v>800627</v>
+      </c>
+      <c r="C49" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="128"/>
-    </row>
-    <row r="47" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B47" s="151">
-        <v>804363</v>
-      </c>
-      <c r="C47" s="151" t="s">
+      <c r="D49" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="137"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="128"/>
+    </row>
+    <row r="50" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B50" s="152">
+        <v>806445</v>
+      </c>
+      <c r="C50" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="136"/>
-      <c r="K47" s="128"/>
-    </row>
-    <row r="48" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B48" s="151">
-        <v>805064</v>
-      </c>
-      <c r="C48" s="151" t="s">
+      <c r="D50" s="152" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="151" t="s">
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="137"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="128"/>
+    </row>
+    <row r="51" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B51" s="152">
+        <v>804334</v>
+      </c>
+      <c r="C51" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="128"/>
-    </row>
-    <row r="49" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B49" s="151">
-        <v>805086</v>
-      </c>
-      <c r="C49" s="151" t="s">
+      <c r="D51" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="151" t="s">
+      <c r="E51" s="137"/>
+      <c r="F51" s="137"/>
+      <c r="G51" s="137"/>
+      <c r="H51" s="137"/>
+      <c r="I51" s="137"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="128"/>
+    </row>
+    <row r="52" spans="1:17" customHeight="1" ht="35.25">
+      <c r="B52" s="153">
+        <v>806485</v>
+      </c>
+      <c r="C52" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="128"/>
-    </row>
-    <row r="50" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="128"/>
-    </row>
-    <row r="51" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="128"/>
-    </row>
-    <row r="52" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B52" s="152"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="136"/>
+      <c r="D52" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="154"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
       <c r="K52" s="128"/>
     </row>
     <row r="53" spans="1:17" customHeight="1" ht="27.75">
-      <c r="B53" s="140"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="138"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="139"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4350,88 +4813,88 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="B54" s="156" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="139"/>
+      <c r="B54" s="195" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="196"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="197"/>
+      <c r="L54" s="140"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="B55" s="159"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="160"/>
-      <c r="E55" s="160"/>
-      <c r="F55" s="160"/>
-      <c r="G55" s="160"/>
-      <c r="H55" s="160"/>
-      <c r="I55" s="160"/>
-      <c r="J55" s="160"/>
-      <c r="K55" s="161"/>
-      <c r="L55" s="139"/>
+      <c r="B55" s="198"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="199"/>
+      <c r="F55" s="199"/>
+      <c r="G55" s="199"/>
+      <c r="H55" s="199"/>
+      <c r="I55" s="199"/>
+      <c r="J55" s="199"/>
+      <c r="K55" s="200"/>
+      <c r="L55" s="140"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="B56" s="159"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="161"/>
-      <c r="L56" s="139"/>
+      <c r="B56" s="198"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="199"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="199"/>
+      <c r="H56" s="199"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="199"/>
+      <c r="K56" s="200"/>
+      <c r="L56" s="140"/>
     </row>
     <row r="57" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B57" s="162"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="163"/>
-      <c r="J57" s="163"/>
-      <c r="K57" s="164"/>
-      <c r="L57" s="139"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202"/>
+      <c r="F57" s="202"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="202"/>
+      <c r="J57" s="202"/>
+      <c r="K57" s="203"/>
+      <c r="L57" s="140"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="B58" s="140"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="139"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="139"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="140"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="141"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="141"/>
+      <c r="K59" s="141"/>
+      <c r="L59" s="141"/>
     </row>
     <row r="60" spans="1:17">
       <c r="C60" s="9"/>
@@ -4475,6 +4938,891 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
+  <dimension ref="A1:Q60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="true" style="156"/>
+    <col min="2" max="2" width="24.5703125" customWidth="true" style="156"/>
+    <col min="3" max="3" width="24.140625" customWidth="true" style="156"/>
+    <col min="4" max="4" width="16" customWidth="true" style="156"/>
+    <col min="5" max="5" width="14.28515625" customWidth="true" style="156"/>
+    <col min="6" max="6" width="15" customWidth="true" style="156"/>
+    <col min="7" max="7" width="15" customWidth="true" style="156"/>
+    <col min="8" max="8" width="15" customWidth="true" style="156"/>
+    <col min="9" max="9" width="19.7109375" customWidth="true" style="156"/>
+    <col min="10" max="10" width="18.7109375" customWidth="true" style="156"/>
+    <col min="11" max="11" width="20" customWidth="true" style="156"/>
+    <col min="12" max="12" width="22.5703125" customWidth="true" style="156"/>
+    <col min="13" max="13" width="11.42578125" customWidth="true" style="156"/>
+    <col min="14" max="14" width="25.85546875" customWidth="true" style="156"/>
+    <col min="15" max="15" width="91.7109375" customWidth="true" style="156"/>
+    <col min="16" max="16" width="11.42578125" customWidth="true" style="156"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="C1" s="157"/>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="C2" s="157"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="158"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="15">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="B5" s="160" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="235" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="237"/>
+      <c r="L5" s="159"/>
+      <c r="M5" s="159"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="240" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="238"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="238"/>
+      <c r="K6" s="239"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="161"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="161"/>
+      <c r="P6" s="161"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="240"/>
+      <c r="C7" s="199" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="242"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="159"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="159"/>
+      <c r="P7" s="159"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="240"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="161"/>
+      <c r="M8" s="161"/>
+      <c r="N8" s="161"/>
+      <c r="O8" s="161"/>
+      <c r="P8" s="161"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="12.75">
+      <c r="B9" s="241"/>
+      <c r="C9" s="244" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="161"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="13.5">
+      <c r="B10" s="165"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="12.75">
+      <c r="C11" s="232"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="233"/>
+      <c r="G11" s="233"/>
+      <c r="H11" s="233"/>
+      <c r="I11" s="233"/>
+      <c r="J11" s="233"/>
+      <c r="K11" s="233"/>
+      <c r="L11" s="233"/>
+    </row>
+    <row r="12" spans="1:17" customHeight="1" ht="14.25">
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="167"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="168"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="247" t="str">
+        <f>'CONTROL DE FIRMAS'!B13:K13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="248"/>
+      <c r="D13" s="248"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="248"/>
+      <c r="I13" s="248"/>
+      <c r="J13" s="248"/>
+      <c r="K13" s="249"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="B14" s="169"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="171"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="B15" s="247" t="str">
+        <f>'CONTROL DE FIRMAS'!B15:F15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="248"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="171"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" s="173"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="171"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="B17" s="247" t="str">
+        <f>'CONTROL DE FIRMAS'!B17:C17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="248"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="174"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="B18" s="173"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="171"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="B19" s="247" t="str">
+        <f>'CONTROL DE FIRMAS'!B19:J19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="248"/>
+      <c r="D19" s="248"/>
+      <c r="E19" s="248"/>
+      <c r="F19" s="248"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="248"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="248"/>
+      <c r="K19" s="174"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="B20" s="173"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="171"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" s="175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="171"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="B22" s="175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="171"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="17.25">
+      <c r="B23" s="176"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="177"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="177"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
+    </row>
+    <row r="24" spans="1:17" customHeight="1" ht="17.25">
+      <c r="B24" s="179"/>
+    </row>
+    <row r="25" spans="1:17" customHeight="1" ht="39">
+      <c r="C25" s="179"/>
+      <c r="E25" s="250" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="251"/>
+      <c r="K25" s="252"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="25.5">
+      <c r="B26" s="253" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="253"/>
+      <c r="D26" s="254"/>
+      <c r="E26" s="180" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="180" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="180" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="180" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="255" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="255" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="257" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" customHeight="1" ht="22.5" s="183" customFormat="1">
+      <c r="B27" s="181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="182" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="180" t="str">
+        <f>'CONTROL DE FIRMAS'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="180" t="str">
+        <f>'CONTROL DE FIRMAS'!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="180" t="str">
+        <f>'CONTROL DE FIRMAS'!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="180" t="str">
+        <f>'CONTROL DE FIRMAS'!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="256"/>
+      <c r="J27" s="256"/>
+      <c r="K27" s="258"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B28" s="184">
+        <v>806322</v>
+      </c>
+      <c r="C28" s="184" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="186"/>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B29" s="184">
+        <v>806405</v>
+      </c>
+      <c r="C29" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="187"/>
+      <c r="F29" s="187"/>
+      <c r="G29" s="187"/>
+      <c r="H29" s="187"/>
+      <c r="I29" s="187"/>
+      <c r="J29" s="187"/>
+      <c r="K29" s="188"/>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B30" s="184">
+        <v>806450</v>
+      </c>
+      <c r="C30" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="184" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="187"/>
+      <c r="I30" s="187"/>
+      <c r="J30" s="187"/>
+      <c r="K30" s="188"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B31" s="184">
+        <v>806446</v>
+      </c>
+      <c r="C31" s="184" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="184" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="187"/>
+      <c r="I31" s="187"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="188"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B32" s="184">
+        <v>806461</v>
+      </c>
+      <c r="C32" s="184" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="187"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="187"/>
+      <c r="H32" s="187"/>
+      <c r="I32" s="187"/>
+      <c r="J32" s="187"/>
+      <c r="K32" s="188"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B33" s="184">
+        <v>806498</v>
+      </c>
+      <c r="C33" s="184" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="184" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="187"/>
+      <c r="F33" s="187"/>
+      <c r="G33" s="187"/>
+      <c r="H33" s="187"/>
+      <c r="I33" s="187"/>
+      <c r="J33" s="187"/>
+      <c r="K33" s="188"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B34" s="184">
+        <v>806539</v>
+      </c>
+      <c r="C34" s="184" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="184" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="187"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="188"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B35" s="184">
+        <v>806526</v>
+      </c>
+      <c r="C35" s="184" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="184" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="187"/>
+      <c r="I35" s="187"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="188"/>
+    </row>
+    <row r="36" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B36" s="184"/>
+      <c r="C36" s="184"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="187"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="188"/>
+    </row>
+    <row r="37" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B37" s="184"/>
+      <c r="C37" s="184"/>
+      <c r="D37" s="184"/>
+      <c r="E37" s="187"/>
+      <c r="F37" s="187"/>
+      <c r="G37" s="187"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="187"/>
+      <c r="J37" s="187"/>
+      <c r="K37" s="188"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B38" s="184"/>
+      <c r="C38" s="184"/>
+      <c r="D38" s="184"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="187"/>
+      <c r="G38" s="187"/>
+      <c r="H38" s="187"/>
+      <c r="I38" s="187"/>
+      <c r="J38" s="187"/>
+      <c r="K38" s="188"/>
+    </row>
+    <row r="39" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
+      <c r="I39" s="187"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="188"/>
+    </row>
+    <row r="40" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B40" s="184"/>
+      <c r="C40" s="184"/>
+      <c r="D40" s="184"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
+      <c r="I40" s="187"/>
+      <c r="J40" s="187"/>
+      <c r="K40" s="188"/>
+    </row>
+    <row r="41" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="188"/>
+    </row>
+    <row r="42" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
+      <c r="I42" s="187"/>
+      <c r="J42" s="187"/>
+      <c r="K42" s="188"/>
+    </row>
+    <row r="43" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="187"/>
+      <c r="F43" s="187"/>
+      <c r="G43" s="187"/>
+      <c r="H43" s="187"/>
+      <c r="I43" s="187"/>
+      <c r="J43" s="187"/>
+      <c r="K43" s="188"/>
+    </row>
+    <row r="44" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B44" s="184"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="184"/>
+      <c r="E44" s="187"/>
+      <c r="F44" s="187"/>
+      <c r="G44" s="187"/>
+      <c r="H44" s="187"/>
+      <c r="I44" s="187"/>
+      <c r="J44" s="187"/>
+      <c r="K44" s="188"/>
+    </row>
+    <row r="45" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B45" s="184"/>
+      <c r="C45" s="184"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
+      <c r="I45" s="187"/>
+      <c r="J45" s="187"/>
+      <c r="K45" s="188"/>
+    </row>
+    <row r="46" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="187"/>
+      <c r="F46" s="187"/>
+      <c r="G46" s="187"/>
+      <c r="H46" s="187"/>
+      <c r="I46" s="187"/>
+      <c r="J46" s="187"/>
+      <c r="K46" s="188"/>
+    </row>
+    <row r="47" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B47" s="184"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="187"/>
+      <c r="G47" s="187"/>
+      <c r="H47" s="187"/>
+      <c r="I47" s="187"/>
+      <c r="J47" s="187"/>
+      <c r="K47" s="188"/>
+    </row>
+    <row r="48" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B48" s="184"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="187"/>
+      <c r="G48" s="187"/>
+      <c r="H48" s="187"/>
+      <c r="I48" s="187"/>
+      <c r="J48" s="187"/>
+      <c r="K48" s="188"/>
+    </row>
+    <row r="49" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B49" s="184"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="187"/>
+      <c r="F49" s="187"/>
+      <c r="G49" s="187"/>
+      <c r="H49" s="187"/>
+      <c r="I49" s="187"/>
+      <c r="J49" s="187"/>
+      <c r="K49" s="188"/>
+    </row>
+    <row r="50" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B50" s="184"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
+      <c r="J50" s="187"/>
+      <c r="K50" s="188"/>
+    </row>
+    <row r="51" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B51" s="184"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="184"/>
+      <c r="E51" s="187"/>
+      <c r="F51" s="187"/>
+      <c r="G51" s="187"/>
+      <c r="H51" s="187"/>
+      <c r="I51" s="187"/>
+      <c r="J51" s="187"/>
+      <c r="K51" s="188"/>
+    </row>
+    <row r="52" spans="1:17" customHeight="1" ht="23.25">
+      <c r="B52" s="187"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="187"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="187"/>
+      <c r="J52" s="187"/>
+      <c r="K52" s="188"/>
+    </row>
+    <row r="53" spans="1:17" customHeight="1" ht="12.75">
+      <c r="B53" s="170"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="190"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="191"/>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" s="195" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="196"/>
+      <c r="D54" s="196"/>
+      <c r="E54" s="196"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="196"/>
+      <c r="H54" s="196"/>
+      <c r="I54" s="196"/>
+      <c r="J54" s="196"/>
+      <c r="K54" s="197"/>
+      <c r="L54" s="192"/>
+      <c r="M54" s="159"/>
+      <c r="N54" s="159"/>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="B55" s="198"/>
+      <c r="C55" s="199"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="199"/>
+      <c r="F55" s="199"/>
+      <c r="G55" s="199"/>
+      <c r="H55" s="199"/>
+      <c r="I55" s="199"/>
+      <c r="J55" s="199"/>
+      <c r="K55" s="200"/>
+      <c r="L55" s="192"/>
+      <c r="M55" s="159"/>
+      <c r="N55" s="159"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="B56" s="198"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="199"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="199"/>
+      <c r="H56" s="199"/>
+      <c r="I56" s="199"/>
+      <c r="J56" s="199"/>
+      <c r="K56" s="200"/>
+      <c r="L56" s="192"/>
+    </row>
+    <row r="57" spans="1:17" customHeight="1" ht="12.75">
+      <c r="B57" s="201"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="202"/>
+      <c r="E57" s="202"/>
+      <c r="F57" s="202"/>
+      <c r="G57" s="202"/>
+      <c r="H57" s="202"/>
+      <c r="I57" s="202"/>
+      <c r="J57" s="202"/>
+      <c r="K57" s="203"/>
+      <c r="L57" s="192"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="B58" s="170"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="192"/>
+      <c r="K58" s="192"/>
+      <c r="L58" s="192"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="B59" s="170"/>
+      <c r="C59" s="170"/>
+      <c r="D59" s="170"/>
+      <c r="E59" s="170"/>
+      <c r="F59" s="170"/>
+      <c r="G59" s="170"/>
+      <c r="H59" s="170"/>
+      <c r="I59" s="170"/>
+      <c r="J59" s="170"/>
+      <c r="K59" s="170"/>
+      <c r="L59" s="170"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="C60" s="194"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="B54:K57"/>
+    <mergeCell ref="B13:K13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="C5:K6"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C9:K9"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:CF102"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" showGridLines="true" showRowColHeaders="1">
@@ -4501,75 +5849,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" customHeight="1" ht="48">
-      <c r="A1" s="311"/>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="313"/>
+      <c r="A1" s="377"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
+      <c r="H1" s="378"/>
+      <c r="I1" s="378"/>
+      <c r="J1" s="378"/>
+      <c r="K1" s="378"/>
+      <c r="L1" s="378"/>
+      <c r="M1" s="378"/>
+      <c r="N1" s="379"/>
     </row>
     <row r="2" spans="1:84" customHeight="1" ht="51">
-      <c r="A2" s="323" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
-      <c r="G2" s="324"/>
-      <c r="H2" s="324"/>
-      <c r="I2" s="324"/>
-      <c r="J2" s="324"/>
-      <c r="K2" s="324"/>
-      <c r="L2" s="324"/>
-      <c r="M2" s="324"/>
-      <c r="N2" s="325"/>
+      <c r="A2" s="389" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="390"/>
+      <c r="C2" s="390"/>
+      <c r="D2" s="390"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="390"/>
+      <c r="L2" s="390"/>
+      <c r="M2" s="390"/>
+      <c r="N2" s="391"/>
       <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:84" customHeight="1" ht="39.75">
-      <c r="A3" s="314" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="316"/>
+      <c r="A3" s="380" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="381"/>
+      <c r="C3" s="381"/>
+      <c r="D3" s="381"/>
+      <c r="E3" s="381"/>
+      <c r="F3" s="381"/>
+      <c r="G3" s="381"/>
+      <c r="H3" s="381"/>
+      <c r="I3" s="381"/>
+      <c r="J3" s="381"/>
+      <c r="K3" s="381"/>
+      <c r="L3" s="381"/>
+      <c r="M3" s="381"/>
+      <c r="N3" s="382"/>
     </row>
     <row r="4" spans="1:84" customHeight="1" ht="40.5">
-      <c r="A4" s="317" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="318"/>
-      <c r="C4" s="318"/>
-      <c r="D4" s="318"/>
-      <c r="E4" s="318"/>
-      <c r="F4" s="318"/>
-      <c r="G4" s="318"/>
-      <c r="H4" s="318"/>
-      <c r="I4" s="318"/>
-      <c r="J4" s="318"/>
-      <c r="K4" s="318"/>
-      <c r="L4" s="318"/>
-      <c r="M4" s="318"/>
-      <c r="N4" s="319"/>
+      <c r="A4" s="383" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="384"/>
+      <c r="C4" s="384"/>
+      <c r="D4" s="384"/>
+      <c r="E4" s="384"/>
+      <c r="F4" s="384"/>
+      <c r="G4" s="384"/>
+      <c r="H4" s="384"/>
+      <c r="I4" s="384"/>
+      <c r="J4" s="384"/>
+      <c r="K4" s="384"/>
+      <c r="L4" s="384"/>
+      <c r="M4" s="384"/>
+      <c r="N4" s="385"/>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
@@ -4577,20 +5925,20 @@
       <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:84" customHeight="1" ht="3" s="121" customFormat="1">
-      <c r="A5" s="320"/>
-      <c r="B5" s="321"/>
-      <c r="C5" s="321"/>
-      <c r="D5" s="321"/>
-      <c r="E5" s="321"/>
-      <c r="F5" s="321"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="321"/>
-      <c r="I5" s="321"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="321"/>
-      <c r="L5" s="321"/>
-      <c r="M5" s="321"/>
-      <c r="N5" s="322"/>
+      <c r="A5" s="386"/>
+      <c r="B5" s="387"/>
+      <c r="C5" s="387"/>
+      <c r="D5" s="387"/>
+      <c r="E5" s="387"/>
+      <c r="F5" s="387"/>
+      <c r="G5" s="387"/>
+      <c r="H5" s="387"/>
+      <c r="I5" s="387"/>
+      <c r="J5" s="387"/>
+      <c r="K5" s="387"/>
+      <c r="L5" s="387"/>
+      <c r="M5" s="387"/>
+      <c r="N5" s="388"/>
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
       <c r="Q5" s="115"/>
@@ -4598,22 +5946,22 @@
       <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A6" s="296" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="297"/>
-      <c r="C6" s="298"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="298"/>
-      <c r="G6" s="298"/>
-      <c r="H6" s="298"/>
-      <c r="I6" s="298"/>
-      <c r="J6" s="298"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="298"/>
-      <c r="M6" s="298"/>
-      <c r="N6" s="299"/>
+      <c r="A6" s="362" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="363"/>
+      <c r="C6" s="364"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="364"/>
+      <c r="G6" s="364"/>
+      <c r="H6" s="364"/>
+      <c r="I6" s="364"/>
+      <c r="J6" s="364"/>
+      <c r="K6" s="364"/>
+      <c r="L6" s="364"/>
+      <c r="M6" s="364"/>
+      <c r="N6" s="365"/>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
@@ -4621,24 +5969,24 @@
       <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="302" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="303"/>
+      <c r="A7" s="368" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="369"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="304" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="305"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="212"/>
+      <c r="D7" s="370" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="371"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="277"/>
+      <c r="H7" s="277"/>
+      <c r="I7" s="277"/>
+      <c r="J7" s="277"/>
+      <c r="K7" s="277"/>
+      <c r="L7" s="277"/>
+      <c r="M7" s="277"/>
+      <c r="N7" s="278"/>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
@@ -4647,25 +5995,25 @@
     </row>
     <row r="8" spans="1:84">
       <c r="A8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="210"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="306" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="307"/>
+        <v>102</v>
+      </c>
+      <c r="B8" s="276"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="372" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="373"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="308" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="310"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="G8" s="374" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="375"/>
+      <c r="I8" s="375"/>
+      <c r="J8" s="376"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="277"/>
+      <c r="N8" s="278"/>
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
@@ -4673,22 +6021,22 @@
       <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:84">
-      <c r="A9" s="300" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="301"/>
-      <c r="C9" s="210"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="212"/>
+      <c r="A9" s="366" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="367"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="277"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="277"/>
+      <c r="H9" s="277"/>
+      <c r="I9" s="277"/>
+      <c r="J9" s="277"/>
+      <c r="K9" s="277"/>
+      <c r="L9" s="277"/>
+      <c r="M9" s="277"/>
+      <c r="N9" s="278"/>
       <c r="O9" s="120"/>
       <c r="P9" s="115"/>
       <c r="Q9" s="120"/>
@@ -4696,22 +6044,22 @@
       <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:84">
-      <c r="A10" s="208" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="209"/>
-      <c r="C10" s="210"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="212"/>
+      <c r="A10" s="274" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="275"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="277"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+      <c r="N10" s="278"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
@@ -4764,22 +6112,22 @@
       <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:84" customHeight="1" ht="21">
-      <c r="A13" s="213" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="214"/>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="214"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="214"/>
-      <c r="N13" s="215"/>
+      <c r="A13" s="279" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="280"/>
+      <c r="C13" s="280"/>
+      <c r="D13" s="280"/>
+      <c r="E13" s="280"/>
+      <c r="F13" s="280"/>
+      <c r="G13" s="280"/>
+      <c r="H13" s="280"/>
+      <c r="I13" s="280"/>
+      <c r="J13" s="280"/>
+      <c r="K13" s="280"/>
+      <c r="L13" s="280"/>
+      <c r="M13" s="280"/>
+      <c r="N13" s="281"/>
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
@@ -4811,16 +6159,16 @@
     </row>
     <row r="15" spans="1:84">
       <c r="A15" s="28" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="216" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="217"/>
+      <c r="C15" s="282" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="283"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -4841,18 +6189,18 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="233" t="s">
-        <v>91</v>
-      </c>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="233"/>
-      <c r="K16" s="234"/>
+      <c r="F16" s="299" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="299"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="299"/>
+      <c r="J16" s="299"/>
+      <c r="K16" s="300"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
       <c r="N16" s="34"/>
@@ -4867,18 +6215,18 @@
       <c r="A17" s="42"/>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="233" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="233"/>
-      <c r="H17" s="233"/>
-      <c r="I17" s="233"/>
-      <c r="J17" s="233"/>
-      <c r="K17" s="234"/>
+      <c r="F17" s="299" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="299"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="299"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="300"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="34"/>
@@ -4890,21 +6238,21 @@
       <c r="T17" s="120"/>
     </row>
     <row r="18" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A18" s="235" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="236"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="283"/>
+      <c r="A18" s="301" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="349"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="285" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="285"/>
-      <c r="H18" s="285"/>
-      <c r="I18" s="285"/>
-      <c r="J18" s="285"/>
-      <c r="K18" s="286"/>
+      <c r="F18" s="351" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="351"/>
+      <c r="H18" s="351"/>
+      <c r="I18" s="351"/>
+      <c r="J18" s="351"/>
+      <c r="K18" s="352"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
       <c r="N18" s="34"/>
@@ -4916,11 +6264,11 @@
       <c r="T18" s="120"/>
     </row>
     <row r="19" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A19" s="237" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="233"/>
-      <c r="C19" s="234"/>
+      <c r="A19" s="303" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="299"/>
+      <c r="C19" s="300"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="32"/>
@@ -4940,21 +6288,21 @@
       <c r="T19" s="120"/>
     </row>
     <row r="20" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A20" s="237" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="233"/>
-      <c r="C20" s="234"/>
+      <c r="A20" s="303" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="299"/>
+      <c r="C20" s="300"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="284" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="284"/>
-      <c r="H20" s="284"/>
-      <c r="I20" s="284"/>
-      <c r="J20" s="284"/>
-      <c r="K20" s="284"/>
+      <c r="F20" s="350" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="350"/>
+      <c r="H20" s="350"/>
+      <c r="I20" s="350"/>
+      <c r="J20" s="350"/>
+      <c r="K20" s="350"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="34"/>
@@ -4966,19 +6314,19 @@
       <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A21" s="237" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="233"/>
+      <c r="A21" s="303" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="299"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="284"/>
-      <c r="G21" s="284"/>
-      <c r="H21" s="284"/>
-      <c r="I21" s="284"/>
-      <c r="J21" s="284"/>
-      <c r="K21" s="284"/>
+      <c r="F21" s="350"/>
+      <c r="G21" s="350"/>
+      <c r="H21" s="350"/>
+      <c r="I21" s="350"/>
+      <c r="J21" s="350"/>
+      <c r="K21" s="350"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="34"/>
@@ -4990,11 +6338,11 @@
       <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A22" s="237" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="233"/>
-      <c r="C22" s="234"/>
+      <c r="A22" s="303" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="299"/>
+      <c r="C22" s="300"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="32"/>
@@ -5014,15 +6362,15 @@
       <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:84" customHeight="1" ht="12">
-      <c r="A23" s="237" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="233"/>
-      <c r="C23" s="234"/>
+      <c r="A23" s="303" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="299"/>
+      <c r="C23" s="300"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -5040,15 +6388,15 @@
       <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:84" customHeight="1" ht="12">
-      <c r="A24" s="237" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="233"/>
-      <c r="C24" s="234"/>
+      <c r="A24" s="303" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="299"/>
+      <c r="C24" s="300"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -5066,15 +6414,15 @@
       <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:84" customHeight="1" ht="12">
-      <c r="A25" s="237" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="233"/>
-      <c r="C25" s="234"/>
+      <c r="A25" s="303" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="299"/>
+      <c r="C25" s="300"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -5092,11 +6440,11 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:84" customHeight="1" ht="12">
-      <c r="A26" s="237" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="234"/>
+      <c r="A26" s="303" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="299"/>
+      <c r="C26" s="300"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -5116,20 +6464,20 @@
       <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:84" customHeight="1" ht="12">
-      <c r="A27" s="293" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="294"/>
-      <c r="C27" s="295"/>
+      <c r="A27" s="359" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="360"/>
+      <c r="C27" s="361"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="290" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="290"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="290"/>
-      <c r="J27" s="290"/>
+      <c r="F27" s="356" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="356"/>
+      <c r="H27" s="356"/>
+      <c r="I27" s="356"/>
+      <c r="J27" s="356"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="59"/>
@@ -5142,18 +6490,18 @@
       <c r="T27" s="120"/>
     </row>
     <row r="28" spans="1:84" customHeight="1" ht="12">
-      <c r="A28" s="287" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="288"/>
-      <c r="C28" s="289"/>
+      <c r="A28" s="353" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="354"/>
+      <c r="C28" s="355"/>
       <c r="D28" s="38"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="290"/>
-      <c r="G28" s="290"/>
-      <c r="H28" s="290"/>
-      <c r="I28" s="290"/>
-      <c r="J28" s="290"/>
+      <c r="F28" s="356"/>
+      <c r="G28" s="356"/>
+      <c r="H28" s="356"/>
+      <c r="I28" s="356"/>
+      <c r="J28" s="356"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="59"/>
@@ -5172,7 +6520,7 @@
       <c r="D29" s="47"/>
       <c r="E29" s="63"/>
       <c r="F29" s="46" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
@@ -5190,13 +6538,13 @@
       <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:84" customHeight="1" ht="12">
-      <c r="A30" s="291"/>
-      <c r="B30" s="292"/>
-      <c r="C30" s="292"/>
-      <c r="D30" s="292"/>
+      <c r="A30" s="357"/>
+      <c r="B30" s="358"/>
+      <c r="C30" s="358"/>
+      <c r="D30" s="358"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
@@ -5214,15 +6562,15 @@
       <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:84" customHeight="1" ht="12">
-      <c r="A31" s="235" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="236"/>
-      <c r="C31" s="236"/>
+      <c r="A31" s="301" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="302"/>
+      <c r="C31" s="302"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -5246,7 +6594,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="46" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -5264,15 +6612,15 @@
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:84" customHeight="1" ht="12">
-      <c r="A33" s="237" t="s">
-        <v>116</v>
-      </c>
-      <c r="B33" s="234"/>
-      <c r="C33" s="238"/>
-      <c r="D33" s="238"/>
+      <c r="A33" s="303" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" s="300"/>
+      <c r="C33" s="304"/>
+      <c r="D33" s="304"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
@@ -5313,7 +6661,7 @@
     </row>
     <row r="35" spans="1:84" customHeight="1" ht="12">
       <c r="A35" s="74" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="75"/>
@@ -5337,7 +6685,7 @@
     </row>
     <row r="36" spans="1:84" customHeight="1" ht="12">
       <c r="A36" s="16" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="77"/>
@@ -5361,7 +6709,7 @@
     </row>
     <row r="37" spans="1:84" customHeight="1" ht="12">
       <c r="A37" s="16" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="77"/>
@@ -5385,7 +6733,7 @@
     </row>
     <row r="38" spans="1:84" customHeight="1" ht="12">
       <c r="A38" s="16" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="77"/>
@@ -5409,7 +6757,7 @@
     </row>
     <row r="39" spans="1:84" customHeight="1" ht="12">
       <c r="A39" s="16" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="77"/>
@@ -5433,7 +6781,7 @@
     </row>
     <row r="40" spans="1:84" customHeight="1" ht="12">
       <c r="A40" s="16" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="77"/>
@@ -5457,7 +6805,7 @@
     </row>
     <row r="41" spans="1:84" customHeight="1" ht="12">
       <c r="A41" s="15" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="77"/>
@@ -5546,22 +6894,22 @@
       <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A45" s="280" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" s="281"/>
-      <c r="C45" s="281"/>
-      <c r="D45" s="281"/>
-      <c r="E45" s="281"/>
-      <c r="F45" s="281"/>
-      <c r="G45" s="281"/>
-      <c r="H45" s="281"/>
-      <c r="I45" s="281"/>
-      <c r="J45" s="281"/>
-      <c r="K45" s="281"/>
-      <c r="L45" s="281"/>
-      <c r="M45" s="281"/>
-      <c r="N45" s="282"/>
+      <c r="A45" s="346" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="347"/>
+      <c r="C45" s="347"/>
+      <c r="D45" s="347"/>
+      <c r="E45" s="347"/>
+      <c r="F45" s="347"/>
+      <c r="G45" s="347"/>
+      <c r="H45" s="347"/>
+      <c r="I45" s="347"/>
+      <c r="J45" s="347"/>
+      <c r="K45" s="347"/>
+      <c r="L45" s="347"/>
+      <c r="M45" s="347"/>
+      <c r="N45" s="348"/>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
       <c r="Q45" s="120"/>
@@ -5570,22 +6918,22 @@
       <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:84">
-      <c r="A46" s="194" t="s">
-        <v>126</v>
-      </c>
-      <c r="B46" s="195"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
-      <c r="L46" s="195"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="196"/>
+      <c r="A46" s="260" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="261"/>
+      <c r="C46" s="261"/>
+      <c r="D46" s="261"/>
+      <c r="E46" s="261"/>
+      <c r="F46" s="261"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="261"/>
+      <c r="I46" s="261"/>
+      <c r="J46" s="261"/>
+      <c r="K46" s="261"/>
+      <c r="L46" s="261"/>
+      <c r="M46" s="261"/>
+      <c r="N46" s="262"/>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
       <c r="Q46" s="120"/>
@@ -5594,20 +6942,20 @@
       <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:84" customHeight="1" ht="25.5" s="123" customFormat="1">
-      <c r="A47" s="197"/>
-      <c r="B47" s="198"/>
-      <c r="C47" s="198"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="198"/>
-      <c r="G47" s="198"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="198"/>
-      <c r="J47" s="198"/>
-      <c r="K47" s="199"/>
-      <c r="L47" s="199"/>
-      <c r="M47" s="199"/>
-      <c r="N47" s="200"/>
+      <c r="A47" s="263"/>
+      <c r="B47" s="264"/>
+      <c r="C47" s="264"/>
+      <c r="D47" s="264"/>
+      <c r="E47" s="264"/>
+      <c r="F47" s="264"/>
+      <c r="G47" s="264"/>
+      <c r="H47" s="264"/>
+      <c r="I47" s="264"/>
+      <c r="J47" s="264"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="265"/>
+      <c r="M47" s="265"/>
+      <c r="N47" s="266"/>
       <c r="O47" s="122"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="122"/>
@@ -5616,18 +6964,18 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A48" s="205" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="206"/>
-      <c r="C48" s="206"/>
-      <c r="D48" s="206"/>
-      <c r="E48" s="206"/>
-      <c r="F48" s="206"/>
-      <c r="G48" s="206"/>
-      <c r="H48" s="206"/>
-      <c r="I48" s="206"/>
-      <c r="J48" s="206"/>
+      <c r="A48" s="271" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="272"/>
+      <c r="C48" s="272"/>
+      <c r="D48" s="272"/>
+      <c r="E48" s="272"/>
+      <c r="F48" s="272"/>
+      <c r="G48" s="272"/>
+      <c r="H48" s="272"/>
+      <c r="I48" s="272"/>
+      <c r="J48" s="272"/>
       <c r="K48" s="88">
         <v>1</v>
       </c>
@@ -5648,18 +6996,18 @@
       <c r="T48" s="122"/>
     </row>
     <row r="49" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A49" s="207" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="207"/>
-      <c r="C49" s="207"/>
-      <c r="D49" s="207"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
-      <c r="H49" s="207"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="207"/>
+      <c r="A49" s="273" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="273"/>
+      <c r="C49" s="273"/>
+      <c r="D49" s="273"/>
+      <c r="E49" s="273"/>
+      <c r="F49" s="273"/>
+      <c r="G49" s="273"/>
+      <c r="H49" s="273"/>
+      <c r="I49" s="273"/>
+      <c r="J49" s="273"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -5672,18 +7020,18 @@
       <c r="T49" s="122"/>
     </row>
     <row r="50" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A50" s="207" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="207"/>
-      <c r="C50" s="207"/>
-      <c r="D50" s="207"/>
-      <c r="E50" s="207"/>
-      <c r="F50" s="207"/>
-      <c r="G50" s="207"/>
-      <c r="H50" s="207"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="207"/>
+      <c r="A50" s="273" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="273"/>
+      <c r="C50" s="273"/>
+      <c r="D50" s="273"/>
+      <c r="E50" s="273"/>
+      <c r="F50" s="273"/>
+      <c r="G50" s="273"/>
+      <c r="H50" s="273"/>
+      <c r="I50" s="273"/>
+      <c r="J50" s="273"/>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -5696,18 +7044,18 @@
       <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:84" customHeight="1" ht="15">
-      <c r="A51" s="193" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="193"/>
-      <c r="C51" s="193"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="193"/>
-      <c r="G51" s="193"/>
-      <c r="H51" s="193"/>
-      <c r="I51" s="193"/>
-      <c r="J51" s="193"/>
+      <c r="A51" s="259" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="259"/>
+      <c r="C51" s="259"/>
+      <c r="D51" s="259"/>
+      <c r="E51" s="259"/>
+      <c r="F51" s="259"/>
+      <c r="G51" s="259"/>
+      <c r="H51" s="259"/>
+      <c r="I51" s="259"/>
+      <c r="J51" s="259"/>
       <c r="K51" s="88">
         <v>1</v>
       </c>
@@ -5728,54 +7076,54 @@
       <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A52" s="204" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="204"/>
-      <c r="C52" s="204"/>
-      <c r="D52" s="204"/>
-      <c r="E52" s="204"/>
-      <c r="F52" s="204"/>
-      <c r="G52" s="204"/>
-      <c r="H52" s="204"/>
-      <c r="I52" s="204"/>
-      <c r="J52" s="204"/>
+      <c r="A52" s="270" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="270"/>
+      <c r="C52" s="270"/>
+      <c r="D52" s="270"/>
+      <c r="E52" s="270"/>
+      <c r="F52" s="270"/>
+      <c r="G52" s="270"/>
+      <c r="H52" s="270"/>
+      <c r="I52" s="270"/>
+      <c r="J52" s="270"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:84" customHeight="1" ht="14.1" s="120" customFormat="1">
-      <c r="A53" s="204" t="s">
-        <v>132</v>
-      </c>
-      <c r="B53" s="204"/>
-      <c r="C53" s="204"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="204"/>
-      <c r="F53" s="204"/>
-      <c r="G53" s="204"/>
-      <c r="H53" s="204"/>
-      <c r="I53" s="204"/>
-      <c r="J53" s="204"/>
+      <c r="A53" s="270" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="270"/>
+      <c r="C53" s="270"/>
+      <c r="D53" s="270"/>
+      <c r="E53" s="270"/>
+      <c r="F53" s="270"/>
+      <c r="G53" s="270"/>
+      <c r="H53" s="270"/>
+      <c r="I53" s="270"/>
+      <c r="J53" s="270"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:84" customHeight="1" ht="15">
-      <c r="A54" s="193" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="193"/>
-      <c r="C54" s="193"/>
-      <c r="D54" s="193"/>
-      <c r="E54" s="193"/>
-      <c r="F54" s="193"/>
-      <c r="G54" s="193"/>
-      <c r="H54" s="193"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="193"/>
+      <c r="A54" s="259" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="259"/>
+      <c r="C54" s="259"/>
+      <c r="D54" s="259"/>
+      <c r="E54" s="259"/>
+      <c r="F54" s="259"/>
+      <c r="G54" s="259"/>
+      <c r="H54" s="259"/>
+      <c r="I54" s="259"/>
+      <c r="J54" s="259"/>
       <c r="K54" s="88">
         <v>1</v>
       </c>
@@ -5796,62 +7144,62 @@
       <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A55" s="204" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="204"/>
-      <c r="C55" s="204"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="204"/>
-      <c r="F55" s="204"/>
-      <c r="G55" s="204"/>
-      <c r="H55" s="204"/>
-      <c r="I55" s="204"/>
-      <c r="J55" s="204"/>
+      <c r="A55" s="270" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="270"/>
+      <c r="C55" s="270"/>
+      <c r="D55" s="270"/>
+      <c r="E55" s="270"/>
+      <c r="F55" s="270"/>
+      <c r="G55" s="270"/>
+      <c r="H55" s="270"/>
+      <c r="I55" s="270"/>
+      <c r="J55" s="270"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A56" s="267" t="s">
-        <v>135</v>
-      </c>
-      <c r="B56" s="267"/>
-      <c r="C56" s="267"/>
-      <c r="D56" s="267"/>
-      <c r="E56" s="267"/>
-      <c r="F56" s="267"/>
-      <c r="G56" s="267"/>
-      <c r="H56" s="267"/>
-      <c r="I56" s="267"/>
-      <c r="J56" s="267"/>
+      <c r="A56" s="333" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="333"/>
+      <c r="C56" s="333"/>
+      <c r="D56" s="333"/>
+      <c r="E56" s="333"/>
+      <c r="F56" s="333"/>
+      <c r="G56" s="333"/>
+      <c r="H56" s="333"/>
+      <c r="I56" s="333"/>
+      <c r="J56" s="333"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91"/>
       <c r="N56" s="91"/>
     </row>
     <row r="57" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A57" s="268" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="269"/>
-      <c r="C57" s="269"/>
-      <c r="D57" s="269"/>
-      <c r="E57" s="269"/>
-      <c r="F57" s="270"/>
-      <c r="G57" s="274" t="s">
-        <v>137</v>
-      </c>
-      <c r="H57" s="275"/>
-      <c r="I57" s="275"/>
-      <c r="J57" s="276"/>
-      <c r="K57" s="201" t="s">
-        <v>138</v>
-      </c>
-      <c r="L57" s="202"/>
-      <c r="M57" s="202"/>
-      <c r="N57" s="203"/>
+      <c r="A57" s="334" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="335"/>
+      <c r="C57" s="335"/>
+      <c r="D57" s="335"/>
+      <c r="E57" s="335"/>
+      <c r="F57" s="336"/>
+      <c r="G57" s="340" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" s="341"/>
+      <c r="I57" s="341"/>
+      <c r="J57" s="342"/>
+      <c r="K57" s="267" t="s">
+        <v>159</v>
+      </c>
+      <c r="L57" s="268"/>
+      <c r="M57" s="268"/>
+      <c r="N57" s="269"/>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -5860,12 +7208,12 @@
       <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A58" s="271"/>
-      <c r="B58" s="272"/>
-      <c r="C58" s="272"/>
-      <c r="D58" s="272"/>
-      <c r="E58" s="272"/>
-      <c r="F58" s="273"/>
+      <c r="A58" s="337"/>
+      <c r="B58" s="338"/>
+      <c r="C58" s="338"/>
+      <c r="D58" s="338"/>
+      <c r="E58" s="338"/>
+      <c r="F58" s="339"/>
       <c r="G58" s="88">
         <v>1</v>
       </c>
@@ -5898,14 +7246,14 @@
       <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A59" s="264" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="265"/>
-      <c r="C59" s="265"/>
-      <c r="D59" s="265"/>
-      <c r="E59" s="265"/>
-      <c r="F59" s="266"/>
+      <c r="A59" s="330" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="331"/>
+      <c r="C59" s="331"/>
+      <c r="D59" s="331"/>
+      <c r="E59" s="331"/>
+      <c r="F59" s="332"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
@@ -5916,14 +7264,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A60" s="264" t="s">
-        <v>140</v>
-      </c>
-      <c r="B60" s="265"/>
-      <c r="C60" s="265"/>
-      <c r="D60" s="265"/>
-      <c r="E60" s="265"/>
-      <c r="F60" s="266"/>
+      <c r="A60" s="330" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="331"/>
+      <c r="C60" s="331"/>
+      <c r="D60" s="331"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="332"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
@@ -5934,18 +7282,18 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A61" s="277" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" s="278"/>
-      <c r="C61" s="278"/>
-      <c r="D61" s="278"/>
-      <c r="E61" s="278"/>
-      <c r="F61" s="278"/>
-      <c r="G61" s="278"/>
-      <c r="H61" s="278"/>
-      <c r="I61" s="278"/>
-      <c r="J61" s="279"/>
+      <c r="A61" s="343" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" s="344"/>
+      <c r="C61" s="344"/>
+      <c r="D61" s="344"/>
+      <c r="E61" s="344"/>
+      <c r="F61" s="344"/>
+      <c r="G61" s="344"/>
+      <c r="H61" s="344"/>
+      <c r="I61" s="344"/>
+      <c r="J61" s="345"/>
       <c r="K61" s="88">
         <v>1</v>
       </c>
@@ -5966,54 +7314,54 @@
       <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A62" s="264" t="s">
-        <v>142</v>
-      </c>
-      <c r="B62" s="265"/>
-      <c r="C62" s="265"/>
-      <c r="D62" s="265"/>
-      <c r="E62" s="265"/>
-      <c r="F62" s="265"/>
-      <c r="G62" s="265"/>
-      <c r="H62" s="265"/>
-      <c r="I62" s="265"/>
-      <c r="J62" s="266"/>
+      <c r="A62" s="330" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="331"/>
+      <c r="C62" s="331"/>
+      <c r="D62" s="331"/>
+      <c r="E62" s="331"/>
+      <c r="F62" s="331"/>
+      <c r="G62" s="331"/>
+      <c r="H62" s="331"/>
+      <c r="I62" s="331"/>
+      <c r="J62" s="332"/>
       <c r="K62" s="93"/>
       <c r="L62" s="90"/>
       <c r="M62" s="90"/>
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A63" s="264" t="s">
-        <v>143</v>
-      </c>
-      <c r="B63" s="265"/>
-      <c r="C63" s="265"/>
-      <c r="D63" s="265"/>
-      <c r="E63" s="265"/>
-      <c r="F63" s="265"/>
-      <c r="G63" s="265"/>
-      <c r="H63" s="265"/>
-      <c r="I63" s="265"/>
-      <c r="J63" s="266"/>
+      <c r="A63" s="330" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" s="331"/>
+      <c r="C63" s="331"/>
+      <c r="D63" s="331"/>
+      <c r="E63" s="331"/>
+      <c r="F63" s="331"/>
+      <c r="G63" s="331"/>
+      <c r="H63" s="331"/>
+      <c r="I63" s="331"/>
+      <c r="J63" s="332"/>
       <c r="K63" s="93"/>
       <c r="L63" s="90"/>
       <c r="M63" s="90"/>
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:84" customHeight="1" ht="27.75">
-      <c r="A64" s="255" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="256"/>
-      <c r="C64" s="256"/>
-      <c r="D64" s="256"/>
-      <c r="E64" s="256"/>
-      <c r="F64" s="256"/>
-      <c r="G64" s="256"/>
-      <c r="H64" s="256"/>
-      <c r="I64" s="256"/>
-      <c r="J64" s="257"/>
+      <c r="A64" s="321" t="s">
+        <v>165</v>
+      </c>
+      <c r="B64" s="322"/>
+      <c r="C64" s="322"/>
+      <c r="D64" s="322"/>
+      <c r="E64" s="322"/>
+      <c r="F64" s="322"/>
+      <c r="G64" s="322"/>
+      <c r="H64" s="322"/>
+      <c r="I64" s="322"/>
+      <c r="J64" s="323"/>
       <c r="K64" s="94">
         <v>1</v>
       </c>
@@ -6034,18 +7382,18 @@
       <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A65" s="264" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="265"/>
-      <c r="C65" s="265"/>
-      <c r="D65" s="265"/>
-      <c r="E65" s="265"/>
-      <c r="F65" s="265"/>
-      <c r="G65" s="265"/>
-      <c r="H65" s="265"/>
-      <c r="I65" s="265"/>
-      <c r="J65" s="266"/>
+      <c r="A65" s="330" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="331"/>
+      <c r="C65" s="331"/>
+      <c r="D65" s="331"/>
+      <c r="E65" s="331"/>
+      <c r="F65" s="331"/>
+      <c r="G65" s="331"/>
+      <c r="H65" s="331"/>
+      <c r="I65" s="331"/>
+      <c r="J65" s="332"/>
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
       <c r="M65" s="90"/>
@@ -6058,18 +7406,18 @@
       <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A66" s="227" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66" s="228"/>
-      <c r="C66" s="228"/>
-      <c r="D66" s="228"/>
-      <c r="E66" s="228"/>
-      <c r="F66" s="228"/>
-      <c r="G66" s="228"/>
-      <c r="H66" s="228"/>
-      <c r="I66" s="228"/>
-      <c r="J66" s="229"/>
+      <c r="A66" s="293" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="294"/>
+      <c r="C66" s="294"/>
+      <c r="D66" s="294"/>
+      <c r="E66" s="294"/>
+      <c r="F66" s="294"/>
+      <c r="G66" s="294"/>
+      <c r="H66" s="294"/>
+      <c r="I66" s="294"/>
+      <c r="J66" s="295"/>
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
       <c r="M66" s="90"/>
@@ -6082,18 +7430,18 @@
       <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:84" customHeight="1" ht="15">
-      <c r="A67" s="255" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="256"/>
-      <c r="C67" s="256"/>
-      <c r="D67" s="256"/>
-      <c r="E67" s="256"/>
-      <c r="F67" s="256"/>
-      <c r="G67" s="256"/>
-      <c r="H67" s="256"/>
-      <c r="I67" s="256"/>
-      <c r="J67" s="257"/>
+      <c r="A67" s="321" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="322"/>
+      <c r="C67" s="322"/>
+      <c r="D67" s="322"/>
+      <c r="E67" s="322"/>
+      <c r="F67" s="322"/>
+      <c r="G67" s="322"/>
+      <c r="H67" s="322"/>
+      <c r="I67" s="322"/>
+      <c r="J67" s="323"/>
       <c r="K67" s="88">
         <v>1</v>
       </c>
@@ -6114,18 +7462,18 @@
       <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A68" s="227" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="228"/>
-      <c r="C68" s="228"/>
-      <c r="D68" s="228"/>
-      <c r="E68" s="228"/>
-      <c r="F68" s="228"/>
-      <c r="G68" s="228"/>
-      <c r="H68" s="228"/>
-      <c r="I68" s="228"/>
-      <c r="J68" s="229"/>
+      <c r="A68" s="293" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="294"/>
+      <c r="C68" s="294"/>
+      <c r="D68" s="294"/>
+      <c r="E68" s="294"/>
+      <c r="F68" s="294"/>
+      <c r="G68" s="294"/>
+      <c r="H68" s="294"/>
+      <c r="I68" s="294"/>
+      <c r="J68" s="295"/>
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
       <c r="M68" s="90"/>
@@ -6138,18 +7486,18 @@
       <c r="T68" s="120"/>
     </row>
     <row r="69" spans="1:84" customHeight="1" ht="26.25">
-      <c r="A69" s="258" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" s="259"/>
-      <c r="C69" s="259"/>
-      <c r="D69" s="259"/>
-      <c r="E69" s="259"/>
-      <c r="F69" s="259"/>
-      <c r="G69" s="259"/>
-      <c r="H69" s="259"/>
-      <c r="I69" s="259"/>
-      <c r="J69" s="260"/>
+      <c r="A69" s="324" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="325"/>
+      <c r="C69" s="325"/>
+      <c r="D69" s="325"/>
+      <c r="E69" s="325"/>
+      <c r="F69" s="325"/>
+      <c r="G69" s="325"/>
+      <c r="H69" s="325"/>
+      <c r="I69" s="325"/>
+      <c r="J69" s="326"/>
       <c r="K69" s="91"/>
       <c r="L69" s="91"/>
       <c r="M69" s="91"/>
@@ -6162,22 +7510,22 @@
       <c r="T69" s="120"/>
     </row>
     <row r="70" spans="1:84" customHeight="1" ht="15">
-      <c r="A70" s="261" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" s="262"/>
-      <c r="C70" s="262"/>
-      <c r="D70" s="262"/>
-      <c r="E70" s="262"/>
-      <c r="F70" s="262"/>
-      <c r="G70" s="262"/>
-      <c r="H70" s="262"/>
-      <c r="I70" s="262"/>
-      <c r="J70" s="262"/>
-      <c r="K70" s="262"/>
-      <c r="L70" s="262"/>
-      <c r="M70" s="262"/>
-      <c r="N70" s="263"/>
+      <c r="A70" s="327" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="328"/>
+      <c r="C70" s="328"/>
+      <c r="D70" s="328"/>
+      <c r="E70" s="328"/>
+      <c r="F70" s="328"/>
+      <c r="G70" s="328"/>
+      <c r="H70" s="328"/>
+      <c r="I70" s="328"/>
+      <c r="J70" s="328"/>
+      <c r="K70" s="328"/>
+      <c r="L70" s="328"/>
+      <c r="M70" s="328"/>
+      <c r="N70" s="329"/>
       <c r="O70" s="120"/>
       <c r="P70" s="120"/>
       <c r="Q70" s="120"/>
@@ -6208,24 +7556,24 @@
       <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A72" s="227" t="s">
-        <v>151</v>
-      </c>
-      <c r="B72" s="228"/>
-      <c r="C72" s="228"/>
-      <c r="D72" s="228"/>
-      <c r="E72" s="228"/>
-      <c r="F72" s="228"/>
-      <c r="G72" s="228"/>
-      <c r="H72" s="228"/>
-      <c r="I72" s="228"/>
-      <c r="J72" s="229"/>
+      <c r="A72" s="293" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="294"/>
+      <c r="C72" s="294"/>
+      <c r="D72" s="294"/>
+      <c r="E72" s="294"/>
+      <c r="F72" s="294"/>
+      <c r="G72" s="294"/>
+      <c r="H72" s="294"/>
+      <c r="I72" s="294"/>
+      <c r="J72" s="295"/>
       <c r="K72" s="101" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L72" s="102"/>
       <c r="M72" s="101" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="N72" s="103"/>
       <c r="O72" s="120"/>
@@ -6236,24 +7584,24 @@
       <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:84" customHeight="1" ht="23.25">
-      <c r="A73" s="227" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" s="228"/>
-      <c r="C73" s="228"/>
-      <c r="D73" s="228"/>
-      <c r="E73" s="228"/>
-      <c r="F73" s="228"/>
-      <c r="G73" s="228"/>
-      <c r="H73" s="228"/>
-      <c r="I73" s="228"/>
-      <c r="J73" s="229"/>
+      <c r="A73" s="293" t="s">
+        <v>175</v>
+      </c>
+      <c r="B73" s="294"/>
+      <c r="C73" s="294"/>
+      <c r="D73" s="294"/>
+      <c r="E73" s="294"/>
+      <c r="F73" s="294"/>
+      <c r="G73" s="294"/>
+      <c r="H73" s="294"/>
+      <c r="I73" s="294"/>
+      <c r="J73" s="295"/>
       <c r="K73" s="101" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L73" s="102"/>
       <c r="M73" s="101" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="N73" s="103"/>
       <c r="O73" s="120"/>
@@ -6286,18 +7634,18 @@
       <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:84" customHeight="1" ht="15">
-      <c r="A75" s="230" t="s">
-        <v>155</v>
-      </c>
-      <c r="B75" s="231"/>
-      <c r="C75" s="231"/>
-      <c r="D75" s="231"/>
-      <c r="E75" s="231"/>
-      <c r="F75" s="231"/>
-      <c r="G75" s="231"/>
-      <c r="H75" s="231"/>
-      <c r="I75" s="231"/>
-      <c r="J75" s="232"/>
+      <c r="A75" s="296" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" s="297"/>
+      <c r="C75" s="297"/>
+      <c r="D75" s="297"/>
+      <c r="E75" s="297"/>
+      <c r="F75" s="297"/>
+      <c r="G75" s="297"/>
+      <c r="H75" s="297"/>
+      <c r="I75" s="297"/>
+      <c r="J75" s="298"/>
       <c r="K75" s="88">
         <v>1</v>
       </c>
@@ -6382,18 +7730,18 @@
       <c r="CF75" s="120"/>
     </row>
     <row r="76" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A76" s="249" t="s">
-        <v>156</v>
-      </c>
-      <c r="B76" s="250"/>
-      <c r="C76" s="250"/>
-      <c r="D76" s="250"/>
-      <c r="E76" s="250"/>
-      <c r="F76" s="250"/>
-      <c r="G76" s="250"/>
-      <c r="H76" s="250"/>
-      <c r="I76" s="250"/>
-      <c r="J76" s="251"/>
+      <c r="A76" s="315" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="316"/>
+      <c r="C76" s="316"/>
+      <c r="D76" s="316"/>
+      <c r="E76" s="316"/>
+      <c r="F76" s="316"/>
+      <c r="G76" s="316"/>
+      <c r="H76" s="316"/>
+      <c r="I76" s="316"/>
+      <c r="J76" s="317"/>
       <c r="K76" s="109"/>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -6470,18 +7818,18 @@
       <c r="CF76" s="120"/>
     </row>
     <row r="77" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A77" s="249" t="s">
-        <v>157</v>
-      </c>
-      <c r="B77" s="250"/>
-      <c r="C77" s="250"/>
-      <c r="D77" s="250"/>
-      <c r="E77" s="250"/>
-      <c r="F77" s="250"/>
-      <c r="G77" s="250"/>
-      <c r="H77" s="250"/>
-      <c r="I77" s="250"/>
-      <c r="J77" s="251"/>
+      <c r="A77" s="315" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="316"/>
+      <c r="C77" s="316"/>
+      <c r="D77" s="316"/>
+      <c r="E77" s="316"/>
+      <c r="F77" s="316"/>
+      <c r="G77" s="316"/>
+      <c r="H77" s="316"/>
+      <c r="I77" s="316"/>
+      <c r="J77" s="317"/>
       <c r="K77" s="109"/>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -6558,18 +7906,18 @@
       <c r="CF77" s="120"/>
     </row>
     <row r="78" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A78" s="249" t="s">
-        <v>158</v>
-      </c>
-      <c r="B78" s="250"/>
-      <c r="C78" s="250"/>
-      <c r="D78" s="250"/>
-      <c r="E78" s="250"/>
-      <c r="F78" s="250"/>
-      <c r="G78" s="250"/>
-      <c r="H78" s="250"/>
-      <c r="I78" s="250"/>
-      <c r="J78" s="251"/>
+      <c r="A78" s="315" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="316"/>
+      <c r="C78" s="316"/>
+      <c r="D78" s="316"/>
+      <c r="E78" s="316"/>
+      <c r="F78" s="316"/>
+      <c r="G78" s="316"/>
+      <c r="H78" s="316"/>
+      <c r="I78" s="316"/>
+      <c r="J78" s="317"/>
       <c r="K78" s="109"/>
       <c r="L78" s="109"/>
       <c r="M78" s="109"/>
@@ -6646,18 +7994,18 @@
       <c r="CF78" s="120"/>
     </row>
     <row r="79" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A79" s="249" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="250"/>
-      <c r="C79" s="250"/>
-      <c r="D79" s="250"/>
-      <c r="E79" s="250"/>
-      <c r="F79" s="250"/>
-      <c r="G79" s="250"/>
-      <c r="H79" s="250"/>
-      <c r="I79" s="250"/>
-      <c r="J79" s="251"/>
+      <c r="A79" s="315" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="316"/>
+      <c r="C79" s="316"/>
+      <c r="D79" s="316"/>
+      <c r="E79" s="316"/>
+      <c r="F79" s="316"/>
+      <c r="G79" s="316"/>
+      <c r="H79" s="316"/>
+      <c r="I79" s="316"/>
+      <c r="J79" s="317"/>
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
       <c r="M79" s="109"/>
@@ -6734,18 +8082,18 @@
       <c r="CF79" s="120"/>
     </row>
     <row r="80" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A80" s="249" t="s">
-        <v>160</v>
-      </c>
-      <c r="B80" s="250"/>
-      <c r="C80" s="250"/>
-      <c r="D80" s="250"/>
-      <c r="E80" s="250"/>
-      <c r="F80" s="250"/>
-      <c r="G80" s="250"/>
-      <c r="H80" s="250"/>
-      <c r="I80" s="250"/>
-      <c r="J80" s="251"/>
+      <c r="A80" s="315" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="316"/>
+      <c r="C80" s="316"/>
+      <c r="D80" s="316"/>
+      <c r="E80" s="316"/>
+      <c r="F80" s="316"/>
+      <c r="G80" s="316"/>
+      <c r="H80" s="316"/>
+      <c r="I80" s="316"/>
+      <c r="J80" s="317"/>
       <c r="K80" s="109"/>
       <c r="L80" s="109"/>
       <c r="M80" s="109"/>
@@ -6822,18 +8170,18 @@
       <c r="CF80" s="120"/>
     </row>
     <row r="81" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A81" s="240" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="241"/>
-      <c r="C81" s="241"/>
-      <c r="D81" s="241"/>
-      <c r="E81" s="241"/>
-      <c r="F81" s="241"/>
-      <c r="G81" s="241"/>
-      <c r="H81" s="241"/>
-      <c r="I81" s="241"/>
-      <c r="J81" s="242"/>
+      <c r="A81" s="306" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="307"/>
+      <c r="C81" s="307"/>
+      <c r="D81" s="307"/>
+      <c r="E81" s="307"/>
+      <c r="F81" s="307"/>
+      <c r="G81" s="307"/>
+      <c r="H81" s="307"/>
+      <c r="I81" s="307"/>
+      <c r="J81" s="308"/>
       <c r="K81" s="88">
         <v>1</v>
       </c>
@@ -6918,16 +8266,16 @@
       <c r="CF81" s="120"/>
     </row>
     <row r="82" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A82" s="243"/>
-      <c r="B82" s="244"/>
-      <c r="C82" s="244"/>
-      <c r="D82" s="244"/>
-      <c r="E82" s="244"/>
-      <c r="F82" s="244"/>
-      <c r="G82" s="244"/>
-      <c r="H82" s="244"/>
-      <c r="I82" s="244"/>
-      <c r="J82" s="245"/>
+      <c r="A82" s="309"/>
+      <c r="B82" s="310"/>
+      <c r="C82" s="310"/>
+      <c r="D82" s="310"/>
+      <c r="E82" s="310"/>
+      <c r="F82" s="310"/>
+      <c r="G82" s="310"/>
+      <c r="H82" s="310"/>
+      <c r="I82" s="310"/>
+      <c r="J82" s="311"/>
       <c r="K82" s="110"/>
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
@@ -7004,22 +8352,22 @@
       <c r="CF82" s="120"/>
     </row>
     <row r="83" spans="1:84" customHeight="1" ht="15">
-      <c r="A83" s="246" t="s">
-        <v>162</v>
-      </c>
-      <c r="B83" s="247"/>
-      <c r="C83" s="247"/>
-      <c r="D83" s="247"/>
-      <c r="E83" s="247"/>
-      <c r="F83" s="247"/>
-      <c r="G83" s="247"/>
-      <c r="H83" s="247"/>
-      <c r="I83" s="247"/>
-      <c r="J83" s="247"/>
-      <c r="K83" s="247"/>
-      <c r="L83" s="247"/>
-      <c r="M83" s="247"/>
-      <c r="N83" s="248"/>
+      <c r="A83" s="312" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="313"/>
+      <c r="C83" s="313"/>
+      <c r="D83" s="313"/>
+      <c r="E83" s="313"/>
+      <c r="F83" s="313"/>
+      <c r="G83" s="313"/>
+      <c r="H83" s="313"/>
+      <c r="I83" s="313"/>
+      <c r="J83" s="313"/>
+      <c r="K83" s="313"/>
+      <c r="L83" s="313"/>
+      <c r="M83" s="313"/>
+      <c r="N83" s="314"/>
       <c r="O83" s="120"/>
       <c r="P83" s="120"/>
       <c r="Q83" s="120"/>
@@ -7092,20 +8440,20 @@
       <c r="CF83" s="120"/>
     </row>
     <row r="84" spans="1:84">
-      <c r="A84" s="218"/>
-      <c r="B84" s="219"/>
-      <c r="C84" s="219"/>
-      <c r="D84" s="219"/>
-      <c r="E84" s="219"/>
-      <c r="F84" s="219"/>
-      <c r="G84" s="219"/>
-      <c r="H84" s="219"/>
-      <c r="I84" s="219"/>
-      <c r="J84" s="219"/>
-      <c r="K84" s="219"/>
-      <c r="L84" s="219"/>
-      <c r="M84" s="219"/>
-      <c r="N84" s="220"/>
+      <c r="A84" s="284"/>
+      <c r="B84" s="285"/>
+      <c r="C84" s="285"/>
+      <c r="D84" s="285"/>
+      <c r="E84" s="285"/>
+      <c r="F84" s="285"/>
+      <c r="G84" s="285"/>
+      <c r="H84" s="285"/>
+      <c r="I84" s="285"/>
+      <c r="J84" s="285"/>
+      <c r="K84" s="285"/>
+      <c r="L84" s="285"/>
+      <c r="M84" s="285"/>
+      <c r="N84" s="286"/>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
       <c r="Q84" s="120"/>
@@ -7178,20 +8526,20 @@
       <c r="CF84" s="120"/>
     </row>
     <row r="85" spans="1:84" customHeight="1" ht="16.5">
-      <c r="A85" s="221"/>
-      <c r="B85" s="222"/>
-      <c r="C85" s="222"/>
-      <c r="D85" s="222"/>
-      <c r="E85" s="222"/>
-      <c r="F85" s="222"/>
-      <c r="G85" s="222"/>
-      <c r="H85" s="222"/>
-      <c r="I85" s="222"/>
-      <c r="J85" s="222"/>
-      <c r="K85" s="222"/>
-      <c r="L85" s="222"/>
-      <c r="M85" s="222"/>
-      <c r="N85" s="223"/>
+      <c r="A85" s="287"/>
+      <c r="B85" s="288"/>
+      <c r="C85" s="288"/>
+      <c r="D85" s="288"/>
+      <c r="E85" s="288"/>
+      <c r="F85" s="288"/>
+      <c r="G85" s="288"/>
+      <c r="H85" s="288"/>
+      <c r="I85" s="288"/>
+      <c r="J85" s="288"/>
+      <c r="K85" s="288"/>
+      <c r="L85" s="288"/>
+      <c r="M85" s="288"/>
+      <c r="N85" s="289"/>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
       <c r="Q85" s="120"/>
@@ -7200,20 +8548,20 @@
       <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:84" customHeight="1" ht="6.75">
-      <c r="A86" s="221"/>
-      <c r="B86" s="222"/>
-      <c r="C86" s="222"/>
-      <c r="D86" s="222"/>
-      <c r="E86" s="222"/>
-      <c r="F86" s="222"/>
-      <c r="G86" s="222"/>
-      <c r="H86" s="222"/>
-      <c r="I86" s="222"/>
-      <c r="J86" s="222"/>
-      <c r="K86" s="222"/>
-      <c r="L86" s="222"/>
-      <c r="M86" s="222"/>
-      <c r="N86" s="223"/>
+      <c r="A86" s="287"/>
+      <c r="B86" s="288"/>
+      <c r="C86" s="288"/>
+      <c r="D86" s="288"/>
+      <c r="E86" s="288"/>
+      <c r="F86" s="288"/>
+      <c r="G86" s="288"/>
+      <c r="H86" s="288"/>
+      <c r="I86" s="288"/>
+      <c r="J86" s="288"/>
+      <c r="K86" s="288"/>
+      <c r="L86" s="288"/>
+      <c r="M86" s="288"/>
+      <c r="N86" s="289"/>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
       <c r="Q86" s="120"/>
@@ -7222,20 +8570,20 @@
       <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:84" customHeight="1" ht="15">
-      <c r="A87" s="221"/>
-      <c r="B87" s="222"/>
-      <c r="C87" s="222"/>
-      <c r="D87" s="222"/>
-      <c r="E87" s="222"/>
-      <c r="F87" s="222"/>
-      <c r="G87" s="222"/>
-      <c r="H87" s="222"/>
-      <c r="I87" s="222"/>
-      <c r="J87" s="222"/>
-      <c r="K87" s="222"/>
-      <c r="L87" s="222"/>
-      <c r="M87" s="222"/>
-      <c r="N87" s="223"/>
+      <c r="A87" s="287"/>
+      <c r="B87" s="288"/>
+      <c r="C87" s="288"/>
+      <c r="D87" s="288"/>
+      <c r="E87" s="288"/>
+      <c r="F87" s="288"/>
+      <c r="G87" s="288"/>
+      <c r="H87" s="288"/>
+      <c r="I87" s="288"/>
+      <c r="J87" s="288"/>
+      <c r="K87" s="288"/>
+      <c r="L87" s="288"/>
+      <c r="M87" s="288"/>
+      <c r="N87" s="289"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -7244,20 +8592,20 @@
       <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:84">
-      <c r="A88" s="221"/>
-      <c r="B88" s="222"/>
-      <c r="C88" s="222"/>
-      <c r="D88" s="222"/>
-      <c r="E88" s="222"/>
-      <c r="F88" s="222"/>
-      <c r="G88" s="222"/>
-      <c r="H88" s="222"/>
-      <c r="I88" s="222"/>
-      <c r="J88" s="222"/>
-      <c r="K88" s="222"/>
-      <c r="L88" s="222"/>
-      <c r="M88" s="222"/>
-      <c r="N88" s="223"/>
+      <c r="A88" s="287"/>
+      <c r="B88" s="288"/>
+      <c r="C88" s="288"/>
+      <c r="D88" s="288"/>
+      <c r="E88" s="288"/>
+      <c r="F88" s="288"/>
+      <c r="G88" s="288"/>
+      <c r="H88" s="288"/>
+      <c r="I88" s="288"/>
+      <c r="J88" s="288"/>
+      <c r="K88" s="288"/>
+      <c r="L88" s="288"/>
+      <c r="M88" s="288"/>
+      <c r="N88" s="289"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -7266,20 +8614,20 @@
       <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:84">
-      <c r="A89" s="224"/>
-      <c r="B89" s="225"/>
-      <c r="C89" s="225"/>
-      <c r="D89" s="225"/>
-      <c r="E89" s="225"/>
-      <c r="F89" s="225"/>
-      <c r="G89" s="225"/>
-      <c r="H89" s="225"/>
-      <c r="I89" s="225"/>
-      <c r="J89" s="225"/>
-      <c r="K89" s="225"/>
-      <c r="L89" s="225"/>
-      <c r="M89" s="225"/>
-      <c r="N89" s="226"/>
+      <c r="A89" s="290"/>
+      <c r="B89" s="291"/>
+      <c r="C89" s="291"/>
+      <c r="D89" s="291"/>
+      <c r="E89" s="291"/>
+      <c r="F89" s="291"/>
+      <c r="G89" s="291"/>
+      <c r="H89" s="291"/>
+      <c r="I89" s="291"/>
+      <c r="J89" s="291"/>
+      <c r="K89" s="291"/>
+      <c r="L89" s="291"/>
+      <c r="M89" s="291"/>
+      <c r="N89" s="292"/>
       <c r="O89" s="120"/>
       <c r="P89" s="120"/>
       <c r="Q89" s="120"/>
@@ -7288,22 +8636,22 @@
       <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:84">
-      <c r="A90" s="230" t="s">
-        <v>163</v>
-      </c>
-      <c r="B90" s="231"/>
-      <c r="C90" s="231"/>
-      <c r="D90" s="232"/>
-      <c r="E90" s="252"/>
-      <c r="F90" s="253"/>
-      <c r="G90" s="253"/>
-      <c r="H90" s="253"/>
-      <c r="I90" s="253"/>
-      <c r="J90" s="253"/>
-      <c r="K90" s="253"/>
-      <c r="L90" s="253"/>
-      <c r="M90" s="253"/>
-      <c r="N90" s="254"/>
+      <c r="A90" s="296" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="297"/>
+      <c r="C90" s="297"/>
+      <c r="D90" s="298"/>
+      <c r="E90" s="318"/>
+      <c r="F90" s="319"/>
+      <c r="G90" s="319"/>
+      <c r="H90" s="319"/>
+      <c r="I90" s="319"/>
+      <c r="J90" s="319"/>
+      <c r="K90" s="319"/>
+      <c r="L90" s="319"/>
+      <c r="M90" s="319"/>
+      <c r="N90" s="320"/>
       <c r="O90" s="120"/>
       <c r="P90" s="120"/>
       <c r="Q90" s="120"/>
@@ -7334,22 +8682,22 @@
       <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:84" customHeight="1" ht="15">
-      <c r="A92" s="239" t="s">
-        <v>164</v>
-      </c>
-      <c r="B92" s="239"/>
-      <c r="C92" s="239"/>
-      <c r="D92" s="239"/>
-      <c r="E92" s="239"/>
-      <c r="F92" s="239"/>
-      <c r="G92" s="239"/>
-      <c r="H92" s="239"/>
-      <c r="I92" s="239"/>
-      <c r="J92" s="239"/>
-      <c r="K92" s="239"/>
-      <c r="L92" s="239"/>
-      <c r="M92" s="239"/>
-      <c r="N92" s="239"/>
+      <c r="A92" s="305" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="305"/>
+      <c r="C92" s="305"/>
+      <c r="D92" s="305"/>
+      <c r="E92" s="305"/>
+      <c r="F92" s="305"/>
+      <c r="G92" s="305"/>
+      <c r="H92" s="305"/>
+      <c r="I92" s="305"/>
+      <c r="J92" s="305"/>
+      <c r="K92" s="305"/>
+      <c r="L92" s="305"/>
+      <c r="M92" s="305"/>
+      <c r="N92" s="305"/>
       <c r="O92" s="120"/>
       <c r="P92" s="120"/>
       <c r="Q92" s="120"/>

--- a/Listado_de_asistencia.xlsx
+++ b/Listado_de_asistencia.xlsx
@@ -4,12 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL DE FIRMAS" sheetId="1" r:id="rId4"/>
-    <sheet name="CONTROL DE FIRMAS 2" sheetId="2" r:id="rId5"/>
-    <sheet name="Cuestionario" sheetId="3" r:id="rId6"/>
+    <sheet name="Cuestionario" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'CONTROL DE FIRMAS'!$C$1:$L$57</definedName>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
   <si>
     <t>DOCUMENTO CONTROL DE FIRMAS</t>
   </si>
@@ -129,16 +128,16 @@
     </r>
   </si>
   <si>
-    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Procesos Agile – IT Bimodal Nº CONVOCATORIA: 19497</t>
-  </si>
-  <si>
-    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 30-11-2017 FECHA FIN: 30-11-2017</t>
+    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Formación Técnica Avanzada Agile &amp; DevOps Nº CONVOCATORIA: 18635</t>
+  </si>
+  <si>
+    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 11-12-2017 FECHA FIN: 12-12-2017</t>
   </si>
   <si>
     <t>FORMADOR/RESPONSABLE DE FORMACIÓN:</t>
   </si>
   <si>
-    <t>SESIÓN Nº: ___ de 1 FECHA: 30-11-2017 HORARIO: 04:00 - 06:00</t>
+    <t>SESIÓN Nº: ___ de 2 FECHA: 11-12-2017 HORARIO: 10:00 - 02:00</t>
   </si>
   <si>
     <t>Firmado:</t>
@@ -189,7 +188,7 @@
     <t>DATOS DE ASISTENTES</t>
   </si>
   <si>
-    <t xml:space="preserve">Sesión 1 </t>
+    <t>Sesión 1</t>
   </si>
   <si>
     <t>Sesión 2</t>
@@ -220,115 +219,91 @@
     <t xml:space="preserve">N.I.F. </t>
   </si>
   <si>
-    <t>30-11-2017 04:00 - 06:00</t>
-  </si>
-  <si>
-    <t>CARMONA RUIZ, CAYETANO</t>
-  </si>
-  <si>
-    <t>052543802A</t>
-  </si>
-  <si>
-    <t>MURILLO MANCILLA, Mª JESUS</t>
-  </si>
-  <si>
-    <t>033378764Z</t>
-  </si>
-  <si>
-    <t>OTERO GOMEZ, JUAN JOSE</t>
-  </si>
-  <si>
-    <t>002629230P</t>
-  </si>
-  <si>
-    <t>GARCIA FERNANDEZ, EDUARDO DAVID</t>
-  </si>
-  <si>
-    <t>023805083Z</t>
-  </si>
-  <si>
-    <t>GONZALEZ COLIN, ALBERTO</t>
-  </si>
-  <si>
-    <t>046875385M</t>
-  </si>
-  <si>
-    <t>LORENZO CRISTOBAL, ANA DEL MAR</t>
-  </si>
-  <si>
-    <t>008997714E</t>
-  </si>
-  <si>
-    <t>PULPILLO PULPILLO, MARIA CARMEN</t>
-  </si>
-  <si>
-    <t>026228849V</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ BORGES, INES</t>
-  </si>
-  <si>
-    <t>033528503T</t>
-  </si>
-  <si>
-    <t>HERNANDEZ DE LA FUENTE, ROBERTO</t>
-  </si>
-  <si>
-    <t>051949527W</t>
-  </si>
-  <si>
-    <t>IGLESIAS DURAN, MARIA GUADALUPE</t>
-  </si>
-  <si>
-    <t>002626165W</t>
-  </si>
-  <si>
-    <t>DEL PINO FLORES, OSCAR</t>
-  </si>
-  <si>
-    <t>009012265Z</t>
-  </si>
-  <si>
-    <t>JIMENEZ SANCHEZ, LUIS MIGUEL</t>
-  </si>
-  <si>
-    <t>012765661V</t>
-  </si>
-  <si>
-    <t>MORENO MIGUEL, ALICIA</t>
-  </si>
-  <si>
-    <t>050223959D</t>
-  </si>
-  <si>
-    <t>CANO REINA, JUAN RAMON</t>
-  </si>
-  <si>
-    <t>021667880V</t>
-  </si>
-  <si>
-    <t>GIJON MARTIN, MARIO ALFONSO</t>
-  </si>
-  <si>
-    <t>050189955E</t>
-  </si>
-  <si>
-    <t>APARICIO DEL RIO, ISABEL</t>
-  </si>
-  <si>
-    <t>044359316K</t>
-  </si>
-  <si>
-    <t>GARCIA DEL MORAL GONZALEZ, ERNESTO</t>
-  </si>
-  <si>
-    <t>051404528B</t>
-  </si>
-  <si>
-    <t>CASTELLANOS PAZOS, OSCAR</t>
-  </si>
-  <si>
-    <t>052369500H</t>
+    <t>11-12-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>12-12-2017 10:00 - 02:00</t>
+  </si>
+  <si>
+    <t>Fecha/Hora</t>
+  </si>
+  <si>
+    <t>ARIAS RODRIGUEZ, FERNANDO</t>
+  </si>
+  <si>
+    <t>028909454H</t>
+  </si>
+  <si>
+    <t>LOPEZ LUENGO, ANGEL</t>
+  </si>
+  <si>
+    <t>050722009V</t>
+  </si>
+  <si>
+    <t>TORESANO SALGADO, GUILLERMO</t>
+  </si>
+  <si>
+    <t>007046432Z</t>
+  </si>
+  <si>
+    <t>AGUILAR MARTIN, JUAN ANTONIO</t>
+  </si>
+  <si>
+    <t>001180189J</t>
+  </si>
+  <si>
+    <t>SANTOS GAITANO, MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>033512865W</t>
+  </si>
+  <si>
+    <t>PASCUAL ALONSO, ANTONIO</t>
+  </si>
+  <si>
+    <t>052972615G</t>
+  </si>
+  <si>
+    <t>GARCIA CARMONA, JUAN MARIA</t>
+  </si>
+  <si>
+    <t>008932376G</t>
+  </si>
+  <si>
+    <t>COLLADO MARTIN, IVAN</t>
+  </si>
+  <si>
+    <t>000830001T</t>
+  </si>
+  <si>
+    <t>FARGES, PATRICK</t>
+  </si>
+  <si>
+    <t>0X8029788M</t>
+  </si>
+  <si>
+    <t>SANTOS ROGERO, MARIA LETICIA</t>
+  </si>
+  <si>
+    <t>047492765L</t>
+  </si>
+  <si>
+    <t>MARTIN AGUNDEZ, PABLO</t>
+  </si>
+  <si>
+    <t>049006609A</t>
+  </si>
+  <si>
+    <t>GARRIDO ANDRES, DAVID</t>
+  </si>
+  <si>
+    <t>047496550D</t>
+  </si>
+  <si>
+    <t>MARTIN MACAYO, DAVID</t>
+  </si>
+  <si>
+    <t>002638907W</t>
   </si>
   <si>
     <t>PERALTA GARCIA, ROBERTO</t>
@@ -337,229 +312,43 @@
     <t>002907293R</t>
   </si>
   <si>
-    <t>LOPEZ FELGUEIRAS, MARIA CARMEN</t>
-  </si>
-  <si>
-    <t>032666618V</t>
-  </si>
-  <si>
-    <t>ARIAS MUIÑA, JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>002882664M</t>
-  </si>
-  <si>
-    <t>PEREZ TORIO, DAVID</t>
-  </si>
-  <si>
-    <t>051060153S</t>
-  </si>
-  <si>
-    <t>BENAVIDES BLANCO, ALEJANDRA</t>
-  </si>
-  <si>
-    <t>071558378L</t>
-  </si>
-  <si>
-    <t>EGIDO CAÑIZARES, SARA</t>
-  </si>
-  <si>
-    <t>005917676Y</t>
-  </si>
-  <si>
-    <t>MENA CORROCHANO, ALBERTO</t>
-  </si>
-  <si>
-    <t>004194926W</t>
+    <t>NIHARRA LOPEZ, CARLOS</t>
+  </si>
+  <si>
+    <t>000834213A</t>
+  </si>
+  <si>
+    <t>PULIDO HERNANDEZ, LAURA</t>
+  </si>
+  <si>
+    <t>053391742W</t>
+  </si>
+  <si>
+    <t>NUÑEZ CACHAZO, HECTOR</t>
+  </si>
+  <si>
+    <t>020267557A</t>
+  </si>
+  <si>
+    <t>MAROTO RODRIGUEZ, JAVIER</t>
+  </si>
+  <si>
+    <t>070249450K</t>
+  </si>
+  <si>
+    <t>QUINTIN, FREDERIC</t>
+  </si>
+  <si>
+    <t>0Y4353076H</t>
+  </si>
+  <si>
+    <t>CALLE HERNANDEZ, JAVIER</t>
+  </si>
+  <si>
+    <t>070866895P</t>
   </si>
   <si>
     <t>OBSERVACIONES GENERALES:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">EMPRESA BONIFICADA:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> ORANGE ESPAGNE S.A.U                                </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CIF.: </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">A82009812</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ENTIDAD ORGANIZADORA:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> ______________________________________ </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CIF.:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> ____________</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CÓDIGO DE AGRUPACIÓN:</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> ________________________________________</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">Obligatoriamente </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FF000080"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve"> se debe de FIRMAR- TODAS LAS CASILLAS
-</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Verdana"/>
-        <b val="true"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="9"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">(no válido poner Sí, X, o cualquier símbolo que no sea una firma)</t>
-    </r>
-  </si>
-  <si>
-    <t>VILLACASTIN CANDIL, LUIS</t>
-  </si>
-  <si>
-    <t>011857512T</t>
-  </si>
-  <si>
-    <t>MAROTO RODRIGUEZ, JAVIER</t>
-  </si>
-  <si>
-    <t>070249450K</t>
-  </si>
-  <si>
-    <t>TEJEDOR DORIA, JESUS ALBERTO</t>
-  </si>
-  <si>
-    <t>044520329B</t>
-  </si>
-  <si>
-    <t>MARTIN GONZALEZ, DIEGO</t>
-  </si>
-  <si>
-    <t>002253986D</t>
-  </si>
-  <si>
-    <t>CABALLERO RODRIGUEZ, DAVID</t>
-  </si>
-  <si>
-    <t>050728996N</t>
-  </si>
-  <si>
-    <t>SALGADO MARTIN, MARIA</t>
-  </si>
-  <si>
-    <t>051455868S</t>
-  </si>
-  <si>
-    <t>REY GARCIA, ANTONIO</t>
-  </si>
-  <si>
-    <t>047023376Z</t>
-  </si>
-  <si>
-    <t>PASAMAR GALLEGO, ANA</t>
-  </si>
-  <si>
-    <t>025456691S</t>
   </si>
   <si>
     <t>CUESTIONARIO PARA LA EVALUACIÓN DE LA CALIDAD DE LAS ACCIONES FORMATIVAS 
@@ -1019,7 +808,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="47">
+  <fonts count="39">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -1282,62 +1071,8 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000080"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <b val="1"/>
       <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000080"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Comic Sans MS"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="1"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="9"/>
@@ -1391,33 +1126,6 @@
     </font>
     <font>
       <b val="0"/>
-      <i val="1"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF808080"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FF000080"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -1441,6 +1149,15 @@
       <u val="none"/>
       <sz val="12"/>
       <color rgb="FF993300"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1862,14 +1579,6 @@
       <left style="medium">
         <color rgb="FF969696"/>
       </left>
-      <bottom style="medium">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF969696"/>
-      </left>
       <top style="medium">
         <color rgb="FF808080"/>
       </top>
@@ -2419,11 +2128,19 @@
         <color rgb="FF969696"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF969696"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF808080"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="392">
+  <cellXfs count="327">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -2829,401 +2546,206 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="38" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="26" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="27" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="26" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="34" numFmtId="0" fillId="2" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="39" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="27" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="28" numFmtId="0" fillId="3" borderId="45" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="3" borderId="46" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="29" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="32" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="3"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="8"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="38" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="44" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="33" numFmtId="0" fillId="3" borderId="43" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="34" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="34" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="35" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false" indent="4"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="47" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="48" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="49" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="50" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="51" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="52" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="53" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="36" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="37" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="38" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="40" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="40" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="39" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="37" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="42" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="41" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="41" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="42" numFmtId="0" fillId="2" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="3" borderId="42" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="40" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="39" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="54" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="55" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="37" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="43" numFmtId="0" fillId="3" borderId="58" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="43" numFmtId="0" fillId="3" borderId="59" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="56" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="31" numFmtId="0" fillId="3" borderId="57" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="41" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="45" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="36" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -3231,18 +2753,15 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -3252,14 +2771,17 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="70" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="71" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -3267,80 +2789,164 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="75" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="60" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="61" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="62" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="75" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="65" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="63" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="76" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="37" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="66" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="64" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="65" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="77" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="78" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="46" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -3354,104 +2960,20 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="66" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="60" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="78" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="79" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="67" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="68" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="69" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="61" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -3459,94 +2981,91 @@
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="62" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="78" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="38" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="35" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="72" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="79" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="30" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="44" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="13" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="73" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="74" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="80" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="81" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="82" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="83" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="84" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="85" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="86" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="14" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="88" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="87" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3555,6 +3074,9 @@
     <xf xfId="0" fontId="10" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="88" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="89" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -3562,7 +3084,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="91" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="92" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -3570,16 +3092,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="93" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="94" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="63" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="64" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="65" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="77" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="76" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -3591,13 +3110,16 @@
     <xf xfId="0" fontId="17" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="94" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="95" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="96" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="12" numFmtId="0" fillId="2" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="30" numFmtId="0" fillId="3" borderId="97" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -3609,7 +3131,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3967,8 +3489,8 @@
   </sheetPr>
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="55" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3998,19 +3520,19 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:17" customHeight="1" ht="33">
-      <c r="B3" s="216" t="s">
+      <c r="B3" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="216"/>
-      <c r="D3" s="216"/>
-      <c r="E3" s="216"/>
-      <c r="F3" s="216"/>
-      <c r="G3" s="216"/>
-      <c r="H3" s="216"/>
-      <c r="I3" s="216"/>
-      <c r="J3" s="216"/>
-      <c r="K3" s="216"/>
-      <c r="L3" s="151"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="150"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -4024,17 +3546,17 @@
       <c r="B5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="221" t="s">
+      <c r="C5" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="222"/>
-      <c r="J5" s="222"/>
-      <c r="K5" s="223"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="183"/>
+      <c r="K5" s="184"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -4042,18 +3564,18 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="B6" s="219" t="s">
+      <c r="B6" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="225"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="186"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -4061,18 +3583,18 @@
       <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B7" s="219"/>
-      <c r="C7" s="226" t="s">
+      <c r="B7" s="180"/>
+      <c r="C7" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="227"/>
-      <c r="E7" s="227"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="227"/>
-      <c r="K7" s="228"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="188"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="189"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -4080,7 +3602,7 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="B8" s="219"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4089,7 +3611,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="143"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -4097,18 +3619,18 @@
       <c r="P8" s="5"/>
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B9" s="220"/>
-      <c r="C9" s="229" t="s">
+      <c r="B9" s="181"/>
+      <c r="C9" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="230"/>
-      <c r="J9" s="230"/>
-      <c r="K9" s="231"/>
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="191"/>
+      <c r="G9" s="191"/>
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="192"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -4119,16 +3641,16 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="27.75">
-      <c r="C11" s="217"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="218"/>
-      <c r="K11" s="218"/>
-      <c r="L11" s="218"/>
+      <c r="C11" s="178"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="179"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
     </row>
     <row r="12" spans="1:17" customHeight="1" ht="19.5">
       <c r="B12" s="130"/>
@@ -4140,21 +3662,21 @@
       <c r="H12" s="131"/>
       <c r="I12" s="131"/>
       <c r="J12" s="131"/>
-      <c r="K12" s="144"/>
+      <c r="K12" s="143"/>
     </row>
     <row r="13" spans="1:17" customHeight="1" ht="15">
-      <c r="B13" s="213" t="s">
+      <c r="B13" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="214"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="214"/>
-      <c r="F13" s="214"/>
-      <c r="G13" s="214"/>
-      <c r="H13" s="214"/>
-      <c r="I13" s="214"/>
-      <c r="J13" s="214"/>
-      <c r="K13" s="215"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="176"/>
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="15">
       <c r="B14" s="125"/>
@@ -4166,21 +3688,21 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="145"/>
+      <c r="K14" s="144"/>
     </row>
     <row r="15" spans="1:17" customHeight="1" ht="15">
-      <c r="B15" s="213" t="s">
+      <c r="B15" s="174" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="214"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="145"/>
+      <c r="K15" s="144"/>
     </row>
     <row r="16" spans="1:17" customHeight="1" ht="15">
       <c r="B16" s="132"/>
@@ -4192,21 +3714,21 @@
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="145"/>
+      <c r="K16" s="144"/>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="15">
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="214"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="134"/>
       <c r="E17" s="134"/>
       <c r="F17" s="134"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="155"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
       <c r="I17" s="134"/>
       <c r="J17" s="134"/>
-      <c r="K17" s="146"/>
+      <c r="K17" s="145"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="15">
       <c r="B18" s="132"/>
@@ -4218,21 +3740,21 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="145"/>
+      <c r="K18" s="144"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="15">
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="146"/>
+      <c r="C19" s="175"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="145"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="15">
       <c r="B20" s="132"/>
@@ -4244,7 +3766,7 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="145"/>
+      <c r="K20" s="144"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="15">
       <c r="B21" s="124" t="s">
@@ -4258,7 +3780,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="145"/>
+      <c r="K21" s="144"/>
     </row>
     <row r="22" spans="1:17" customHeight="1" ht="15">
       <c r="B22" s="124" t="s">
@@ -4272,7 +3794,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="145"/>
+      <c r="K22" s="144"/>
     </row>
     <row r="23" spans="1:17" customHeight="1" ht="15.75">
       <c r="B23" s="126"/>
@@ -4284,525 +3806,501 @@
       <c r="H23" s="133"/>
       <c r="I23" s="133"/>
       <c r="J23" s="133"/>
-      <c r="K23" s="147"/>
+      <c r="K23" s="146"/>
     </row>
     <row r="24" spans="1:17" customHeight="1" ht="10.5">
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:17" customHeight="1" ht="30.75">
       <c r="C25" s="7"/>
-      <c r="E25" s="204" t="s">
+      <c r="E25" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="205"/>
-      <c r="G25" s="205"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="206"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="167"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="39">
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="211"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="135" t="s">
+      <c r="C26" s="172"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="135" t="s">
+      <c r="F26" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="135" t="s">
+      <c r="G26" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="135" t="s">
+      <c r="H26" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="209" t="s">
+      <c r="I26" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="209" t="s">
+      <c r="J26" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="207" t="s">
+      <c r="K26" s="168" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:17" customHeight="1" ht="44.25" s="150" customFormat="1">
-      <c r="B27" s="148" t="s">
+    <row r="27" spans="1:17" customHeight="1" ht="44.25" s="149" customFormat="1">
+      <c r="B27" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="149" t="s">
+      <c r="D27" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="326" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="208"/>
+      <c r="F27" s="326" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="326" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="326" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="169"/>
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B28" s="152">
-        <v>10709</v>
-      </c>
-      <c r="C28" s="152" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
+      <c r="B28" s="151">
+        <v>12093</v>
+      </c>
+      <c r="C28" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="135"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
+      <c r="J28" s="135"/>
       <c r="K28" s="127"/>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B29" s="152">
-        <v>12114</v>
-      </c>
-      <c r="C29" s="152" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="137"/>
+      <c r="B29" s="151">
+        <v>12385</v>
+      </c>
+      <c r="C29" s="151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
       <c r="K29" s="128"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B30" s="152">
-        <v>12979</v>
-      </c>
-      <c r="C30" s="152" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="152" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
+      <c r="B30" s="151">
+        <v>273802</v>
+      </c>
+      <c r="C30" s="151" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="151" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
       <c r="K30" s="128"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B31" s="152">
-        <v>12498</v>
-      </c>
-      <c r="C31" s="152" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="152" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
+      <c r="B31" s="151">
+        <v>273086</v>
+      </c>
+      <c r="C31" s="151" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="151" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
       <c r="K31" s="128"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B32" s="152">
-        <v>12866</v>
-      </c>
-      <c r="C32" s="152" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="152" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
+      <c r="B32" s="151">
+        <v>500107</v>
+      </c>
+      <c r="C32" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="151" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
       <c r="K32" s="128"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B33" s="152">
-        <v>12949</v>
-      </c>
-      <c r="C33" s="152" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="152" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
+      <c r="B33" s="151">
+        <v>500266</v>
+      </c>
+      <c r="C33" s="151" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
       <c r="K33" s="128"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B34" s="152">
-        <v>271088</v>
-      </c>
-      <c r="C34" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="152" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137"/>
-      <c r="J34" s="137"/>
+      <c r="B34" s="151">
+        <v>500060</v>
+      </c>
+      <c r="C34" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="151" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="136"/>
       <c r="K34" s="128"/>
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B35" s="152">
-        <v>272998</v>
-      </c>
-      <c r="C35" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="152" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="137"/>
+      <c r="B35" s="151">
+        <v>500135</v>
+      </c>
+      <c r="C35" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="151" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="136"/>
       <c r="K35" s="128"/>
     </row>
     <row r="36" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B36" s="152">
-        <v>273069</v>
-      </c>
-      <c r="C36" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="D36" s="152" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="137"/>
+      <c r="B36" s="151">
+        <v>801255</v>
+      </c>
+      <c r="C36" s="151" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="151" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="136"/>
       <c r="K36" s="128"/>
     </row>
     <row r="37" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B37" s="152">
-        <v>273564</v>
-      </c>
-      <c r="C37" s="152" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="152" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="137"/>
+      <c r="B37" s="151">
+        <v>801081</v>
+      </c>
+      <c r="C37" s="151" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" s="151" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
       <c r="K37" s="128"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B38" s="152">
-        <v>272764</v>
-      </c>
-      <c r="C38" s="152" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="152" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
+      <c r="B38" s="151">
+        <v>802994</v>
+      </c>
+      <c r="C38" s="151" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="151" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="136"/>
       <c r="K38" s="128"/>
     </row>
     <row r="39" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B39" s="152">
-        <v>270892</v>
-      </c>
-      <c r="C39" s="152" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="152" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137"/>
-      <c r="I39" s="137"/>
-      <c r="J39" s="137"/>
+      <c r="B39" s="151">
+        <v>804239</v>
+      </c>
+      <c r="C39" s="151" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="136"/>
       <c r="K39" s="128"/>
     </row>
     <row r="40" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B40" s="152">
-        <v>273516</v>
-      </c>
-      <c r="C40" s="152" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="152" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137"/>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137"/>
-      <c r="J40" s="137"/>
+      <c r="B40" s="151">
+        <v>803143</v>
+      </c>
+      <c r="C40" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="136"/>
       <c r="K40" s="128"/>
     </row>
     <row r="41" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B41" s="152">
-        <v>600131</v>
-      </c>
-      <c r="C41" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="152" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137"/>
-      <c r="J41" s="137"/>
+      <c r="B41" s="151">
+        <v>803418</v>
+      </c>
+      <c r="C41" s="151" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="151" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="136"/>
       <c r="K41" s="128"/>
     </row>
     <row r="42" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B42" s="152">
-        <v>273622</v>
-      </c>
-      <c r="C42" s="152" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="152" t="s">
-        <v>54</v>
-      </c>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
+      <c r="B42" s="151">
+        <v>804263</v>
+      </c>
+      <c r="C42" s="151" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="151" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
       <c r="K42" s="128"/>
     </row>
     <row r="43" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B43" s="152">
-        <v>801192</v>
-      </c>
-      <c r="C43" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="D43" s="152" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
+      <c r="B43" s="151">
+        <v>802295</v>
+      </c>
+      <c r="C43" s="151" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
       <c r="K43" s="128"/>
     </row>
     <row r="44" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B44" s="152">
-        <v>800275</v>
-      </c>
-      <c r="C44" s="152" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="152" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="137"/>
-      <c r="F44" s="137"/>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
-      <c r="J44" s="137"/>
+      <c r="B44" s="151">
+        <v>806205</v>
+      </c>
+      <c r="C44" s="151" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="151" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
       <c r="K44" s="128"/>
     </row>
     <row r="45" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B45" s="152">
-        <v>800664</v>
-      </c>
-      <c r="C45" s="152" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="152" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
-      <c r="I45" s="137"/>
-      <c r="J45" s="137"/>
+      <c r="B45" s="151">
+        <v>806405</v>
+      </c>
+      <c r="C45" s="151" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="151" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
       <c r="K45" s="128"/>
     </row>
     <row r="46" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B46" s="152">
-        <v>803418</v>
-      </c>
-      <c r="C46" s="152" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="152" t="s">
-        <v>62</v>
-      </c>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
-      <c r="J46" s="137"/>
+      <c r="B46" s="151">
+        <v>806159</v>
+      </c>
+      <c r="C46" s="151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
       <c r="K46" s="128"/>
     </row>
     <row r="47" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B47" s="152">
-        <v>600106</v>
-      </c>
-      <c r="C47" s="152" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="152" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="137"/>
-      <c r="I47" s="137"/>
-      <c r="J47" s="137"/>
+      <c r="B47" s="151">
+        <v>806476</v>
+      </c>
+      <c r="C47" s="151" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="151" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
       <c r="K47" s="128"/>
     </row>
     <row r="48" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B48" s="152">
-        <v>800230</v>
-      </c>
-      <c r="C48" s="152" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="152" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="137"/>
-      <c r="H48" s="137"/>
-      <c r="I48" s="137"/>
-      <c r="J48" s="137"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
       <c r="K48" s="128"/>
     </row>
     <row r="49" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B49" s="152">
-        <v>800627</v>
-      </c>
-      <c r="C49" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="152" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="137"/>
-      <c r="H49" s="137"/>
-      <c r="I49" s="137"/>
-      <c r="J49" s="137"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
       <c r="K49" s="128"/>
     </row>
     <row r="50" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B50" s="152">
-        <v>806445</v>
-      </c>
-      <c r="C50" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="152" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="137"/>
-      <c r="F50" s="137"/>
-      <c r="G50" s="137"/>
-      <c r="H50" s="137"/>
-      <c r="I50" s="137"/>
-      <c r="J50" s="137"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
       <c r="K50" s="128"/>
     </row>
     <row r="51" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B51" s="152">
-        <v>804334</v>
-      </c>
-      <c r="C51" s="152" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="152" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="137"/>
-      <c r="I51" s="137"/>
-      <c r="J51" s="137"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
       <c r="K51" s="128"/>
     </row>
     <row r="52" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B52" s="153">
-        <v>806485</v>
-      </c>
-      <c r="C52" s="153" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="153" t="s">
-        <v>74</v>
-      </c>
-      <c r="E52" s="154"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="137"/>
-      <c r="J52" s="137"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
       <c r="K52" s="128"/>
     </row>
     <row r="53" spans="1:17" customHeight="1" ht="27.75">
-      <c r="B53" s="141"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="139"/>
+      <c r="B53" s="140"/>
+      <c r="C53" s="137"/>
+      <c r="D53" s="138"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -4813,88 +4311,88 @@
       <c r="L53" s="8"/>
     </row>
     <row r="54" spans="1:17">
-      <c r="B54" s="195" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="196"/>
-      <c r="D54" s="196"/>
-      <c r="E54" s="196"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="197"/>
-      <c r="L54" s="140"/>
+      <c r="B54" s="156" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="158"/>
+      <c r="L54" s="139"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:17">
-      <c r="B55" s="198"/>
-      <c r="C55" s="199"/>
-      <c r="D55" s="199"/>
-      <c r="E55" s="199"/>
-      <c r="F55" s="199"/>
-      <c r="G55" s="199"/>
-      <c r="H55" s="199"/>
-      <c r="I55" s="199"/>
-      <c r="J55" s="199"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="140"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="160"/>
+      <c r="E55" s="160"/>
+      <c r="F55" s="160"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="160"/>
+      <c r="J55" s="160"/>
+      <c r="K55" s="161"/>
+      <c r="L55" s="139"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="B56" s="198"/>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="199"/>
-      <c r="F56" s="199"/>
-      <c r="G56" s="199"/>
-      <c r="H56" s="199"/>
-      <c r="I56" s="199"/>
-      <c r="J56" s="199"/>
-      <c r="K56" s="200"/>
-      <c r="L56" s="140"/>
+      <c r="B56" s="159"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="161"/>
+      <c r="L56" s="139"/>
     </row>
     <row r="57" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B57" s="201"/>
-      <c r="C57" s="202"/>
-      <c r="D57" s="202"/>
-      <c r="E57" s="202"/>
-      <c r="F57" s="202"/>
-      <c r="G57" s="202"/>
-      <c r="H57" s="202"/>
-      <c r="I57" s="202"/>
-      <c r="J57" s="202"/>
-      <c r="K57" s="203"/>
-      <c r="L57" s="140"/>
+      <c r="B57" s="162"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="163"/>
+      <c r="F57" s="163"/>
+      <c r="G57" s="163"/>
+      <c r="H57" s="163"/>
+      <c r="I57" s="163"/>
+      <c r="J57" s="163"/>
+      <c r="K57" s="164"/>
+      <c r="L57" s="139"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="B58" s="141"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="140"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-      <c r="K59" s="141"/>
-      <c r="L59" s="141"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
     </row>
     <row r="60" spans="1:17">
       <c r="C60" s="9"/>
@@ -4938,891 +4436,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q60"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="true" style="156"/>
-    <col min="2" max="2" width="24.5703125" customWidth="true" style="156"/>
-    <col min="3" max="3" width="24.140625" customWidth="true" style="156"/>
-    <col min="4" max="4" width="16" customWidth="true" style="156"/>
-    <col min="5" max="5" width="14.28515625" customWidth="true" style="156"/>
-    <col min="6" max="6" width="15" customWidth="true" style="156"/>
-    <col min="7" max="7" width="15" customWidth="true" style="156"/>
-    <col min="8" max="8" width="15" customWidth="true" style="156"/>
-    <col min="9" max="9" width="19.7109375" customWidth="true" style="156"/>
-    <col min="10" max="10" width="18.7109375" customWidth="true" style="156"/>
-    <col min="11" max="11" width="20" customWidth="true" style="156"/>
-    <col min="12" max="12" width="22.5703125" customWidth="true" style="156"/>
-    <col min="13" max="13" width="11.42578125" customWidth="true" style="156"/>
-    <col min="14" max="14" width="25.85546875" customWidth="true" style="156"/>
-    <col min="15" max="15" width="91.7109375" customWidth="true" style="156"/>
-    <col min="16" max="16" width="11.42578125" customWidth="true" style="156"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="C1" s="157"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="C2" s="157"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="B3" s="234" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="159"/>
-      <c r="N3" s="159"/>
-      <c r="O3" s="159"/>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="15">
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="160" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="235" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="159"/>
-      <c r="M5" s="159"/>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="B6" s="240" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="238"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="238"/>
-      <c r="H6" s="238"/>
-      <c r="I6" s="238"/>
-      <c r="J6" s="238"/>
-      <c r="K6" s="239"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="161"/>
-      <c r="N6" s="161"/>
-      <c r="O6" s="161"/>
-      <c r="P6" s="161"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="B7" s="240"/>
-      <c r="C7" s="199" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="242"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="243"/>
-      <c r="L7" s="159"/>
-      <c r="M7" s="159"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="240"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="161"/>
-      <c r="M8" s="161"/>
-      <c r="N8" s="161"/>
-      <c r="O8" s="161"/>
-      <c r="P8" s="161"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B9" s="241"/>
-      <c r="C9" s="244" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="161"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="13.5">
-      <c r="B10" s="165"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="12.75">
-      <c r="C11" s="232"/>
-      <c r="D11" s="233"/>
-      <c r="E11" s="233"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="233"/>
-      <c r="H11" s="233"/>
-      <c r="I11" s="233"/>
-      <c r="J11" s="233"/>
-      <c r="K11" s="233"/>
-      <c r="L11" s="233"/>
-    </row>
-    <row r="12" spans="1:17" customHeight="1" ht="14.25">
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="168"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="B13" s="247" t="str">
-        <f>'CONTROL DE FIRMAS'!B13:K13</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="248"/>
-      <c r="D13" s="248"/>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="248"/>
-      <c r="H13" s="248"/>
-      <c r="I13" s="248"/>
-      <c r="J13" s="248"/>
-      <c r="K13" s="249"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="B14" s="169"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="171"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="B15" s="247" t="str">
-        <f>'CONTROL DE FIRMAS'!B15:F15</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="248"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="248"/>
-      <c r="F15" s="248"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="171"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="B16" s="173"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="171"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="B17" s="247" t="str">
-        <f>'CONTROL DE FIRMAS'!B17:C17</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="248"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="174"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="B18" s="173"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="171"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="247" t="str">
-        <f>'CONTROL DE FIRMAS'!B19:J19</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="248"/>
-      <c r="D19" s="248"/>
-      <c r="E19" s="248"/>
-      <c r="F19" s="248"/>
-      <c r="G19" s="248"/>
-      <c r="H19" s="248"/>
-      <c r="I19" s="248"/>
-      <c r="J19" s="248"/>
-      <c r="K19" s="174"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="173"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="171"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="B21" s="175" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="171"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="B22" s="175" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="171"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="17.25">
-      <c r="B23" s="176"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="177"/>
-      <c r="E23" s="177"/>
-      <c r="F23" s="177"/>
-      <c r="G23" s="177"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="178"/>
-    </row>
-    <row r="24" spans="1:17" customHeight="1" ht="17.25">
-      <c r="B24" s="179"/>
-    </row>
-    <row r="25" spans="1:17" customHeight="1" ht="39">
-      <c r="C25" s="179"/>
-      <c r="E25" s="250" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="252"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="25.5">
-      <c r="B26" s="253" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="253"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="180" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="180" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="180" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="255" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="255" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="257" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" customHeight="1" ht="22.5" s="183" customFormat="1">
-      <c r="B27" s="181" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="181" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="182" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="180" t="str">
-        <f>'CONTROL DE FIRMAS'!E27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="180" t="str">
-        <f>'CONTROL DE FIRMAS'!F27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="180" t="str">
-        <f>'CONTROL DE FIRMAS'!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="180" t="str">
-        <f>'CONTROL DE FIRMAS'!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="256"/>
-      <c r="J27" s="256"/>
-      <c r="K27" s="258"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B28" s="184">
-        <v>806322</v>
-      </c>
-      <c r="C28" s="184" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="184" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="185"/>
-      <c r="K28" s="186"/>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B29" s="184">
-        <v>806405</v>
-      </c>
-      <c r="C29" s="184" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="184" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="188"/>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B30" s="184">
-        <v>806450</v>
-      </c>
-      <c r="C30" s="184" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="184" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="188"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B31" s="184">
-        <v>806446</v>
-      </c>
-      <c r="C31" s="184" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="184" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="188"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B32" s="184">
-        <v>806461</v>
-      </c>
-      <c r="C32" s="184" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="184" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="188"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B33" s="184">
-        <v>806498</v>
-      </c>
-      <c r="C33" s="184" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33" s="184" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="188"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B34" s="184">
-        <v>806539</v>
-      </c>
-      <c r="C34" s="184" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="188"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B35" s="184">
-        <v>806526</v>
-      </c>
-      <c r="C35" s="184" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="184" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="188"/>
-    </row>
-    <row r="36" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B36" s="184"/>
-      <c r="C36" s="184"/>
-      <c r="D36" s="184"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="188"/>
-    </row>
-    <row r="37" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B37" s="184"/>
-      <c r="C37" s="184"/>
-      <c r="D37" s="184"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="187"/>
-      <c r="K37" s="188"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B38" s="184"/>
-      <c r="C38" s="184"/>
-      <c r="D38" s="184"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="188"/>
-    </row>
-    <row r="39" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="187"/>
-      <c r="K39" s="188"/>
-    </row>
-    <row r="40" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="188"/>
-    </row>
-    <row r="41" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="188"/>
-    </row>
-    <row r="42" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B42" s="184"/>
-      <c r="C42" s="184"/>
-      <c r="D42" s="184"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="188"/>
-    </row>
-    <row r="43" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B43" s="184"/>
-      <c r="C43" s="184"/>
-      <c r="D43" s="184"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="188"/>
-    </row>
-    <row r="44" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B44" s="184"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="184"/>
-      <c r="E44" s="187"/>
-      <c r="F44" s="187"/>
-      <c r="G44" s="187"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="188"/>
-    </row>
-    <row r="45" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B45" s="184"/>
-      <c r="C45" s="184"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-      <c r="J45" s="187"/>
-      <c r="K45" s="188"/>
-    </row>
-    <row r="46" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="188"/>
-    </row>
-    <row r="47" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B47" s="184"/>
-      <c r="C47" s="184"/>
-      <c r="D47" s="184"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="187"/>
-      <c r="G47" s="187"/>
-      <c r="H47" s="187"/>
-      <c r="I47" s="187"/>
-      <c r="J47" s="187"/>
-      <c r="K47" s="188"/>
-    </row>
-    <row r="48" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B48" s="184"/>
-      <c r="C48" s="184"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="187"/>
-      <c r="F48" s="187"/>
-      <c r="G48" s="187"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
-      <c r="J48" s="187"/>
-      <c r="K48" s="188"/>
-    </row>
-    <row r="49" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B49" s="184"/>
-      <c r="C49" s="184"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="187"/>
-      <c r="F49" s="187"/>
-      <c r="G49" s="187"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
-      <c r="J49" s="187"/>
-      <c r="K49" s="188"/>
-    </row>
-    <row r="50" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B50" s="184"/>
-      <c r="C50" s="184"/>
-      <c r="D50" s="184"/>
-      <c r="E50" s="187"/>
-      <c r="F50" s="187"/>
-      <c r="G50" s="187"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
-      <c r="J50" s="187"/>
-      <c r="K50" s="188"/>
-    </row>
-    <row r="51" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B51" s="184"/>
-      <c r="C51" s="184"/>
-      <c r="D51" s="184"/>
-      <c r="E51" s="187"/>
-      <c r="F51" s="187"/>
-      <c r="G51" s="187"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
-      <c r="J51" s="187"/>
-      <c r="K51" s="188"/>
-    </row>
-    <row r="52" spans="1:17" customHeight="1" ht="23.25">
-      <c r="B52" s="187"/>
-      <c r="C52" s="187"/>
-      <c r="D52" s="187"/>
-      <c r="E52" s="187"/>
-      <c r="F52" s="187"/>
-      <c r="G52" s="187"/>
-      <c r="H52" s="187"/>
-      <c r="I52" s="187"/>
-      <c r="J52" s="187"/>
-      <c r="K52" s="188"/>
-    </row>
-    <row r="53" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B53" s="170"/>
-      <c r="C53" s="189"/>
-      <c r="D53" s="190"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
-      <c r="L53" s="191"/>
-    </row>
-    <row r="54" spans="1:17">
-      <c r="B54" s="195" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="196"/>
-      <c r="D54" s="196"/>
-      <c r="E54" s="196"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="196"/>
-      <c r="H54" s="196"/>
-      <c r="I54" s="196"/>
-      <c r="J54" s="196"/>
-      <c r="K54" s="197"/>
-      <c r="L54" s="192"/>
-      <c r="M54" s="159"/>
-      <c r="N54" s="159"/>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="B55" s="198"/>
-      <c r="C55" s="199"/>
-      <c r="D55" s="199"/>
-      <c r="E55" s="199"/>
-      <c r="F55" s="199"/>
-      <c r="G55" s="199"/>
-      <c r="H55" s="199"/>
-      <c r="I55" s="199"/>
-      <c r="J55" s="199"/>
-      <c r="K55" s="200"/>
-      <c r="L55" s="192"/>
-      <c r="M55" s="159"/>
-      <c r="N55" s="159"/>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="B56" s="198"/>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="199"/>
-      <c r="F56" s="199"/>
-      <c r="G56" s="199"/>
-      <c r="H56" s="199"/>
-      <c r="I56" s="199"/>
-      <c r="J56" s="199"/>
-      <c r="K56" s="200"/>
-      <c r="L56" s="192"/>
-    </row>
-    <row r="57" spans="1:17" customHeight="1" ht="12.75">
-      <c r="B57" s="201"/>
-      <c r="C57" s="202"/>
-      <c r="D57" s="202"/>
-      <c r="E57" s="202"/>
-      <c r="F57" s="202"/>
-      <c r="G57" s="202"/>
-      <c r="H57" s="202"/>
-      <c r="I57" s="202"/>
-      <c r="J57" s="202"/>
-      <c r="K57" s="203"/>
-      <c r="L57" s="192"/>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="B58" s="170"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="192"/>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-      <c r="J58" s="192"/>
-      <c r="K58" s="192"/>
-      <c r="L58" s="192"/>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="B59" s="170"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="170"/>
-      <c r="I59" s="170"/>
-      <c r="J59" s="170"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="170"/>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="C60" s="194"/>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="B54:K57"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="C5:K6"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C9:K9"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:CF102"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" showGridLines="true" showRowColHeaders="1">
@@ -5849,75 +4462,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" customHeight="1" ht="48">
-      <c r="A1" s="377"/>
-      <c r="B1" s="378"/>
-      <c r="C1" s="378"/>
-      <c r="D1" s="378"/>
-      <c r="E1" s="378"/>
-      <c r="F1" s="378"/>
-      <c r="G1" s="378"/>
-      <c r="H1" s="378"/>
-      <c r="I1" s="378"/>
-      <c r="J1" s="378"/>
-      <c r="K1" s="378"/>
-      <c r="L1" s="378"/>
-      <c r="M1" s="378"/>
-      <c r="N1" s="379"/>
+      <c r="A1" s="311"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="313"/>
     </row>
     <row r="2" spans="1:84" customHeight="1" ht="51">
-      <c r="A2" s="389" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="390"/>
-      <c r="C2" s="390"/>
-      <c r="D2" s="390"/>
-      <c r="E2" s="390"/>
-      <c r="F2" s="390"/>
-      <c r="G2" s="390"/>
-      <c r="H2" s="390"/>
-      <c r="I2" s="390"/>
-      <c r="J2" s="390"/>
-      <c r="K2" s="390"/>
-      <c r="L2" s="390"/>
-      <c r="M2" s="390"/>
-      <c r="N2" s="391"/>
+      <c r="A2" s="323" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="324"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
+      <c r="G2" s="324"/>
+      <c r="H2" s="324"/>
+      <c r="I2" s="324"/>
+      <c r="J2" s="324"/>
+      <c r="K2" s="324"/>
+      <c r="L2" s="324"/>
+      <c r="M2" s="324"/>
+      <c r="N2" s="325"/>
       <c r="O2" s="119"/>
     </row>
     <row r="3" spans="1:84" customHeight="1" ht="39.75">
-      <c r="A3" s="380" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="381"/>
-      <c r="C3" s="381"/>
-      <c r="D3" s="381"/>
-      <c r="E3" s="381"/>
-      <c r="F3" s="381"/>
-      <c r="G3" s="381"/>
-      <c r="H3" s="381"/>
-      <c r="I3" s="381"/>
-      <c r="J3" s="381"/>
-      <c r="K3" s="381"/>
-      <c r="L3" s="381"/>
-      <c r="M3" s="381"/>
-      <c r="N3" s="382"/>
+      <c r="A3" s="314" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="315"/>
+      <c r="C3" s="315"/>
+      <c r="D3" s="315"/>
+      <c r="E3" s="315"/>
+      <c r="F3" s="315"/>
+      <c r="G3" s="315"/>
+      <c r="H3" s="315"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="315"/>
+      <c r="K3" s="315"/>
+      <c r="L3" s="315"/>
+      <c r="M3" s="315"/>
+      <c r="N3" s="316"/>
     </row>
     <row r="4" spans="1:84" customHeight="1" ht="40.5">
-      <c r="A4" s="383" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="384"/>
-      <c r="C4" s="384"/>
-      <c r="D4" s="384"/>
-      <c r="E4" s="384"/>
-      <c r="F4" s="384"/>
-      <c r="G4" s="384"/>
-      <c r="H4" s="384"/>
-      <c r="I4" s="384"/>
-      <c r="J4" s="384"/>
-      <c r="K4" s="384"/>
-      <c r="L4" s="384"/>
-      <c r="M4" s="384"/>
-      <c r="N4" s="385"/>
+      <c r="A4" s="317" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="318"/>
+      <c r="C4" s="318"/>
+      <c r="D4" s="318"/>
+      <c r="E4" s="318"/>
+      <c r="F4" s="318"/>
+      <c r="G4" s="318"/>
+      <c r="H4" s="318"/>
+      <c r="I4" s="318"/>
+      <c r="J4" s="318"/>
+      <c r="K4" s="318"/>
+      <c r="L4" s="318"/>
+      <c r="M4" s="318"/>
+      <c r="N4" s="319"/>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
       <c r="Q4" s="120"/>
@@ -5925,20 +4538,20 @@
       <c r="S4" s="120"/>
     </row>
     <row r="5" spans="1:84" customHeight="1" ht="3" s="121" customFormat="1">
-      <c r="A5" s="386"/>
-      <c r="B5" s="387"/>
-      <c r="C5" s="387"/>
-      <c r="D5" s="387"/>
-      <c r="E5" s="387"/>
-      <c r="F5" s="387"/>
-      <c r="G5" s="387"/>
-      <c r="H5" s="387"/>
-      <c r="I5" s="387"/>
-      <c r="J5" s="387"/>
-      <c r="K5" s="387"/>
-      <c r="L5" s="387"/>
-      <c r="M5" s="387"/>
-      <c r="N5" s="388"/>
+      <c r="A5" s="320"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
+      <c r="N5" s="322"/>
       <c r="O5" s="115"/>
       <c r="P5" s="115"/>
       <c r="Q5" s="115"/>
@@ -5946,22 +4559,22 @@
       <c r="S5" s="115"/>
     </row>
     <row r="6" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A6" s="362" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="363"/>
-      <c r="C6" s="364"/>
-      <c r="D6" s="363"/>
-      <c r="E6" s="363"/>
-      <c r="F6" s="364"/>
-      <c r="G6" s="364"/>
-      <c r="H6" s="364"/>
-      <c r="I6" s="364"/>
-      <c r="J6" s="364"/>
-      <c r="K6" s="364"/>
-      <c r="L6" s="364"/>
-      <c r="M6" s="364"/>
-      <c r="N6" s="365"/>
+      <c r="A6" s="296" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="297"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="298"/>
+      <c r="I6" s="298"/>
+      <c r="J6" s="298"/>
+      <c r="K6" s="298"/>
+      <c r="L6" s="298"/>
+      <c r="M6" s="298"/>
+      <c r="N6" s="299"/>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
       <c r="Q6" s="120"/>
@@ -5969,24 +4582,24 @@
       <c r="S6" s="120"/>
     </row>
     <row r="7" spans="1:84">
-      <c r="A7" s="368" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="369"/>
+      <c r="A7" s="302" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="303"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="370" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="371"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="277"/>
-      <c r="H7" s="277"/>
-      <c r="I7" s="277"/>
-      <c r="J7" s="277"/>
-      <c r="K7" s="277"/>
-      <c r="L7" s="277"/>
-      <c r="M7" s="277"/>
-      <c r="N7" s="278"/>
+      <c r="D7" s="304" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="305"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="212"/>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
       <c r="Q7" s="120"/>
@@ -5995,25 +4608,25 @@
     </row>
     <row r="8" spans="1:84">
       <c r="A8" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="276"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="372" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="373"/>
+        <v>74</v>
+      </c>
+      <c r="B8" s="210"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="306" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="307"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="374" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="375"/>
-      <c r="I8" s="375"/>
-      <c r="J8" s="376"/>
-      <c r="K8" s="276"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="277"/>
-      <c r="N8" s="278"/>
+      <c r="G8" s="308" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="310"/>
+      <c r="K8" s="210"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="212"/>
       <c r="O8" s="120"/>
       <c r="P8" s="120"/>
       <c r="Q8" s="120"/>
@@ -6021,22 +4634,22 @@
       <c r="S8" s="120"/>
     </row>
     <row r="9" spans="1:84">
-      <c r="A9" s="366" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="367"/>
-      <c r="C9" s="276"/>
-      <c r="D9" s="277"/>
-      <c r="E9" s="277"/>
-      <c r="F9" s="277"/>
-      <c r="G9" s="277"/>
-      <c r="H9" s="277"/>
-      <c r="I9" s="277"/>
-      <c r="J9" s="277"/>
-      <c r="K9" s="277"/>
-      <c r="L9" s="277"/>
-      <c r="M9" s="277"/>
-      <c r="N9" s="278"/>
+      <c r="A9" s="300" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="301"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="212"/>
       <c r="O9" s="120"/>
       <c r="P9" s="115"/>
       <c r="Q9" s="120"/>
@@ -6044,22 +4657,22 @@
       <c r="S9" s="120"/>
     </row>
     <row r="10" spans="1:84">
-      <c r="A10" s="274" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="275"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="277"/>
-      <c r="K10" s="277"/>
-      <c r="L10" s="277"/>
-      <c r="M10" s="277"/>
-      <c r="N10" s="278"/>
+      <c r="A10" s="208" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="209"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="212"/>
       <c r="O10" s="120"/>
       <c r="P10" s="120"/>
       <c r="Q10" s="120"/>
@@ -6112,22 +4725,22 @@
       <c r="T12" s="115"/>
     </row>
     <row r="13" spans="1:84" customHeight="1" ht="21">
-      <c r="A13" s="279" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="280"/>
-      <c r="C13" s="280"/>
-      <c r="D13" s="280"/>
-      <c r="E13" s="280"/>
-      <c r="F13" s="280"/>
-      <c r="G13" s="280"/>
-      <c r="H13" s="280"/>
-      <c r="I13" s="280"/>
-      <c r="J13" s="280"/>
-      <c r="K13" s="280"/>
-      <c r="L13" s="280"/>
-      <c r="M13" s="280"/>
-      <c r="N13" s="281"/>
+      <c r="A13" s="213" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
+      <c r="I13" s="214"/>
+      <c r="J13" s="214"/>
+      <c r="K13" s="214"/>
+      <c r="L13" s="214"/>
+      <c r="M13" s="214"/>
+      <c r="N13" s="215"/>
       <c r="O13" s="120"/>
       <c r="P13" s="120"/>
       <c r="Q13" s="120"/>
@@ -6159,16 +4772,16 @@
     </row>
     <row r="15" spans="1:84">
       <c r="A15" s="28" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B15" s="29"/>
-      <c r="C15" s="282" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="283"/>
+      <c r="C15" s="216" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="217"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -6189,18 +4802,18 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="299" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="299"/>
-      <c r="J16" s="299"/>
-      <c r="K16" s="300"/>
+      <c r="F16" s="233" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="233"/>
+      <c r="K16" s="234"/>
       <c r="L16" s="38"/>
       <c r="M16" s="39"/>
       <c r="N16" s="34"/>
@@ -6215,18 +4828,18 @@
       <c r="A17" s="42"/>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
-      <c r="F17" s="299" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="300"/>
+      <c r="F17" s="233" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="233"/>
+      <c r="H17" s="233"/>
+      <c r="I17" s="233"/>
+      <c r="J17" s="233"/>
+      <c r="K17" s="234"/>
       <c r="L17" s="38"/>
       <c r="M17" s="39"/>
       <c r="N17" s="34"/>
@@ -6238,21 +4851,21 @@
       <c r="T17" s="120"/>
     </row>
     <row r="18" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A18" s="301" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="302"/>
-      <c r="C18" s="302"/>
-      <c r="D18" s="349"/>
+      <c r="A18" s="235" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="283"/>
       <c r="E18" s="44"/>
-      <c r="F18" s="351" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="351"/>
-      <c r="H18" s="351"/>
-      <c r="I18" s="351"/>
-      <c r="J18" s="351"/>
-      <c r="K18" s="352"/>
+      <c r="F18" s="285" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" s="285"/>
+      <c r="H18" s="285"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="285"/>
+      <c r="K18" s="286"/>
       <c r="L18" s="38"/>
       <c r="M18" s="39"/>
       <c r="N18" s="34"/>
@@ -6264,11 +4877,11 @@
       <c r="T18" s="120"/>
     </row>
     <row r="19" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A19" s="303" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="299"/>
-      <c r="C19" s="300"/>
+      <c r="A19" s="237" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="233"/>
+      <c r="C19" s="234"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
       <c r="F19" s="32"/>
@@ -6288,21 +4901,21 @@
       <c r="T19" s="120"/>
     </row>
     <row r="20" spans="1:84" customHeight="1" ht="13.5">
-      <c r="A20" s="303" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="299"/>
-      <c r="C20" s="300"/>
+      <c r="A20" s="237" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="233"/>
+      <c r="C20" s="234"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="350" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="350"/>
-      <c r="H20" s="350"/>
-      <c r="I20" s="350"/>
-      <c r="J20" s="350"/>
-      <c r="K20" s="350"/>
+      <c r="F20" s="284" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="284"/>
+      <c r="H20" s="284"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="284"/>
+      <c r="K20" s="284"/>
       <c r="L20" s="32"/>
       <c r="M20" s="32"/>
       <c r="N20" s="34"/>
@@ -6314,19 +4927,19 @@
       <c r="T20" s="120"/>
     </row>
     <row r="21" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A21" s="303" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="299"/>
+      <c r="A21" s="237" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="233"/>
       <c r="C21" s="41"/>
       <c r="D21" s="38"/>
       <c r="E21" s="39"/>
-      <c r="F21" s="350"/>
-      <c r="G21" s="350"/>
-      <c r="H21" s="350"/>
-      <c r="I21" s="350"/>
-      <c r="J21" s="350"/>
-      <c r="K21" s="350"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="284"/>
+      <c r="I21" s="284"/>
+      <c r="J21" s="284"/>
+      <c r="K21" s="284"/>
       <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="34"/>
@@ -6338,11 +4951,11 @@
       <c r="T21" s="120"/>
     </row>
     <row r="22" spans="1:84" customHeight="1" ht="12.75">
-      <c r="A22" s="303" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="299"/>
-      <c r="C22" s="300"/>
+      <c r="A22" s="237" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="233"/>
+      <c r="C22" s="234"/>
       <c r="D22" s="38"/>
       <c r="E22" s="39"/>
       <c r="F22" s="32"/>
@@ -6362,15 +4975,15 @@
       <c r="T22" s="120"/>
     </row>
     <row r="23" spans="1:84" customHeight="1" ht="12">
-      <c r="A23" s="303" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="299"/>
-      <c r="C23" s="300"/>
+      <c r="A23" s="237" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="233"/>
+      <c r="C23" s="234"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -6388,15 +5001,15 @@
       <c r="T23" s="120"/>
     </row>
     <row r="24" spans="1:84" customHeight="1" ht="12">
-      <c r="A24" s="303" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="299"/>
-      <c r="C24" s="300"/>
+      <c r="A24" s="237" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="233"/>
+      <c r="C24" s="234"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -6414,15 +5027,15 @@
       <c r="T24" s="120"/>
     </row>
     <row r="25" spans="1:84" customHeight="1" ht="12">
-      <c r="A25" s="303" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" s="299"/>
-      <c r="C25" s="300"/>
+      <c r="A25" s="237" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="233"/>
+      <c r="C25" s="234"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -6440,11 +5053,11 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="1:84" customHeight="1" ht="12">
-      <c r="A26" s="303" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="299"/>
-      <c r="C26" s="300"/>
+      <c r="A26" s="237" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="233"/>
+      <c r="C26" s="234"/>
       <c r="D26" s="38"/>
       <c r="E26" s="39"/>
       <c r="F26" s="57"/>
@@ -6464,20 +5077,20 @@
       <c r="T26" s="120"/>
     </row>
     <row r="27" spans="1:84" customHeight="1" ht="12">
-      <c r="A27" s="359" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="360"/>
-      <c r="C27" s="361"/>
+      <c r="A27" s="293" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="294"/>
+      <c r="C27" s="295"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
-      <c r="F27" s="356" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="356"/>
-      <c r="H27" s="356"/>
-      <c r="I27" s="356"/>
-      <c r="J27" s="356"/>
+      <c r="F27" s="290" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="290"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="290"/>
+      <c r="J27" s="290"/>
       <c r="K27" s="53"/>
       <c r="L27" s="53"/>
       <c r="M27" s="59"/>
@@ -6490,18 +5103,18 @@
       <c r="T27" s="120"/>
     </row>
     <row r="28" spans="1:84" customHeight="1" ht="12">
-      <c r="A28" s="353" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="354"/>
-      <c r="C28" s="355"/>
+      <c r="A28" s="287" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="288"/>
+      <c r="C28" s="289"/>
       <c r="D28" s="38"/>
       <c r="E28" s="60"/>
-      <c r="F28" s="356"/>
-      <c r="G28" s="356"/>
-      <c r="H28" s="356"/>
-      <c r="I28" s="356"/>
-      <c r="J28" s="356"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="290"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="290"/>
+      <c r="J28" s="290"/>
       <c r="K28" s="32"/>
       <c r="L28" s="33"/>
       <c r="M28" s="59"/>
@@ -6520,7 +5133,7 @@
       <c r="D29" s="47"/>
       <c r="E29" s="63"/>
       <c r="F29" s="46" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
@@ -6538,13 +5151,13 @@
       <c r="T29" s="120"/>
     </row>
     <row r="30" spans="1:84" customHeight="1" ht="12">
-      <c r="A30" s="357"/>
-      <c r="B30" s="358"/>
-      <c r="C30" s="358"/>
-      <c r="D30" s="358"/>
+      <c r="A30" s="291"/>
+      <c r="B30" s="292"/>
+      <c r="C30" s="292"/>
+      <c r="D30" s="292"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
@@ -6562,15 +5175,15 @@
       <c r="T30" s="120"/>
     </row>
     <row r="31" spans="1:84" customHeight="1" ht="12">
-      <c r="A31" s="301" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="302"/>
-      <c r="C31" s="302"/>
+      <c r="A31" s="235" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="236"/>
+      <c r="C31" s="236"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -6594,7 +5207,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="46" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -6612,15 +5225,15 @@
       <c r="T32" s="120"/>
     </row>
     <row r="33" spans="1:84" customHeight="1" ht="12">
-      <c r="A33" s="303" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="300"/>
-      <c r="C33" s="304"/>
-      <c r="D33" s="304"/>
+      <c r="A33" s="237" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="234"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="238"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
@@ -6661,7 +5274,7 @@
     </row>
     <row r="35" spans="1:84" customHeight="1" ht="12">
       <c r="A35" s="74" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="75"/>
@@ -6685,7 +5298,7 @@
     </row>
     <row r="36" spans="1:84" customHeight="1" ht="12">
       <c r="A36" s="16" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="77"/>
@@ -6709,7 +5322,7 @@
     </row>
     <row r="37" spans="1:84" customHeight="1" ht="12">
       <c r="A37" s="16" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="77"/>
@@ -6733,7 +5346,7 @@
     </row>
     <row r="38" spans="1:84" customHeight="1" ht="12">
       <c r="A38" s="16" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="77"/>
@@ -6757,7 +5370,7 @@
     </row>
     <row r="39" spans="1:84" customHeight="1" ht="12">
       <c r="A39" s="16" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="77"/>
@@ -6781,7 +5394,7 @@
     </row>
     <row r="40" spans="1:84" customHeight="1" ht="12">
       <c r="A40" s="16" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="77"/>
@@ -6805,7 +5418,7 @@
     </row>
     <row r="41" spans="1:84" customHeight="1" ht="12">
       <c r="A41" s="15" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="77"/>
@@ -6894,22 +5507,22 @@
       <c r="T44" s="115"/>
     </row>
     <row r="45" spans="1:84" customHeight="1" ht="24.95">
-      <c r="A45" s="346" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45" s="347"/>
-      <c r="C45" s="347"/>
-      <c r="D45" s="347"/>
-      <c r="E45" s="347"/>
-      <c r="F45" s="347"/>
-      <c r="G45" s="347"/>
-      <c r="H45" s="347"/>
-      <c r="I45" s="347"/>
-      <c r="J45" s="347"/>
-      <c r="K45" s="347"/>
-      <c r="L45" s="347"/>
-      <c r="M45" s="347"/>
-      <c r="N45" s="348"/>
+      <c r="A45" s="280" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="281"/>
+      <c r="C45" s="281"/>
+      <c r="D45" s="281"/>
+      <c r="E45" s="281"/>
+      <c r="F45" s="281"/>
+      <c r="G45" s="281"/>
+      <c r="H45" s="281"/>
+      <c r="I45" s="281"/>
+      <c r="J45" s="281"/>
+      <c r="K45" s="281"/>
+      <c r="L45" s="281"/>
+      <c r="M45" s="281"/>
+      <c r="N45" s="282"/>
       <c r="O45" s="120"/>
       <c r="P45" s="120"/>
       <c r="Q45" s="120"/>
@@ -6918,22 +5531,22 @@
       <c r="T45" s="120"/>
     </row>
     <row r="46" spans="1:84">
-      <c r="A46" s="260" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" s="261"/>
-      <c r="C46" s="261"/>
-      <c r="D46" s="261"/>
-      <c r="E46" s="261"/>
-      <c r="F46" s="261"/>
-      <c r="G46" s="261"/>
-      <c r="H46" s="261"/>
-      <c r="I46" s="261"/>
-      <c r="J46" s="261"/>
-      <c r="K46" s="261"/>
-      <c r="L46" s="261"/>
-      <c r="M46" s="261"/>
-      <c r="N46" s="262"/>
+      <c r="A46" s="194" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="195"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="195"/>
+      <c r="L46" s="195"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="196"/>
       <c r="O46" s="120"/>
       <c r="P46" s="120"/>
       <c r="Q46" s="120"/>
@@ -6942,20 +5555,20 @@
       <c r="T46" s="120"/>
     </row>
     <row r="47" spans="1:84" customHeight="1" ht="25.5" s="123" customFormat="1">
-      <c r="A47" s="263"/>
-      <c r="B47" s="264"/>
-      <c r="C47" s="264"/>
-      <c r="D47" s="264"/>
-      <c r="E47" s="264"/>
-      <c r="F47" s="264"/>
-      <c r="G47" s="264"/>
-      <c r="H47" s="264"/>
-      <c r="I47" s="264"/>
-      <c r="J47" s="264"/>
-      <c r="K47" s="265"/>
-      <c r="L47" s="265"/>
-      <c r="M47" s="265"/>
-      <c r="N47" s="266"/>
+      <c r="A47" s="197"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="198"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="199"/>
+      <c r="L47" s="199"/>
+      <c r="M47" s="199"/>
+      <c r="N47" s="200"/>
       <c r="O47" s="122"/>
       <c r="P47" s="122"/>
       <c r="Q47" s="122"/>
@@ -6964,18 +5577,18 @@
       <c r="T47" s="122"/>
     </row>
     <row r="48" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A48" s="271" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" s="272"/>
-      <c r="C48" s="272"/>
-      <c r="D48" s="272"/>
-      <c r="E48" s="272"/>
-      <c r="F48" s="272"/>
-      <c r="G48" s="272"/>
-      <c r="H48" s="272"/>
-      <c r="I48" s="272"/>
-      <c r="J48" s="272"/>
+      <c r="A48" s="205" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="206"/>
+      <c r="C48" s="206"/>
+      <c r="D48" s="206"/>
+      <c r="E48" s="206"/>
+      <c r="F48" s="206"/>
+      <c r="G48" s="206"/>
+      <c r="H48" s="206"/>
+      <c r="I48" s="206"/>
+      <c r="J48" s="206"/>
       <c r="K48" s="88">
         <v>1</v>
       </c>
@@ -6996,18 +5609,18 @@
       <c r="T48" s="122"/>
     </row>
     <row r="49" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
-      <c r="A49" s="273" t="s">
-        <v>149</v>
-      </c>
-      <c r="B49" s="273"/>
-      <c r="C49" s="273"/>
-      <c r="D49" s="273"/>
-      <c r="E49" s="273"/>
-      <c r="F49" s="273"/>
-      <c r="G49" s="273"/>
-      <c r="H49" s="273"/>
-      <c r="I49" s="273"/>
-      <c r="J49" s="273"/>
+      <c r="A49" s="207" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="207"/>
+      <c r="C49" s="207"/>
+      <c r="D49" s="207"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+      <c r="H49" s="207"/>
+      <c r="I49" s="207"/>
+      <c r="J49" s="207"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -7020,18 +5633,18 @@
       <c r="T49" s="122"/>
     </row>
     <row r="50" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A50" s="273" t="s">
-        <v>150</v>
-      </c>
-      <c r="B50" s="273"/>
-      <c r="C50" s="273"/>
-      <c r="D50" s="273"/>
-      <c r="E50" s="273"/>
-      <c r="F50" s="273"/>
-      <c r="G50" s="273"/>
-      <c r="H50" s="273"/>
-      <c r="I50" s="273"/>
-      <c r="J50" s="273"/>
+      <c r="A50" s="207" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="207"/>
+      <c r="C50" s="207"/>
+      <c r="D50" s="207"/>
+      <c r="E50" s="207"/>
+      <c r="F50" s="207"/>
+      <c r="G50" s="207"/>
+      <c r="H50" s="207"/>
+      <c r="I50" s="207"/>
+      <c r="J50" s="207"/>
       <c r="K50" s="89"/>
       <c r="L50" s="89"/>
       <c r="M50" s="89"/>
@@ -7044,18 +5657,18 @@
       <c r="T50" s="120"/>
     </row>
     <row r="51" spans="1:84" customHeight="1" ht="15">
-      <c r="A51" s="259" t="s">
-        <v>151</v>
-      </c>
-      <c r="B51" s="259"/>
-      <c r="C51" s="259"/>
-      <c r="D51" s="259"/>
-      <c r="E51" s="259"/>
-      <c r="F51" s="259"/>
-      <c r="G51" s="259"/>
-      <c r="H51" s="259"/>
-      <c r="I51" s="259"/>
-      <c r="J51" s="259"/>
+      <c r="A51" s="193" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="193"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="193"/>
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="193"/>
+      <c r="I51" s="193"/>
+      <c r="J51" s="193"/>
       <c r="K51" s="88">
         <v>1</v>
       </c>
@@ -7076,54 +5689,54 @@
       <c r="T51" s="120"/>
     </row>
     <row r="52" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A52" s="270" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="270"/>
-      <c r="C52" s="270"/>
-      <c r="D52" s="270"/>
-      <c r="E52" s="270"/>
-      <c r="F52" s="270"/>
-      <c r="G52" s="270"/>
-      <c r="H52" s="270"/>
-      <c r="I52" s="270"/>
-      <c r="J52" s="270"/>
+      <c r="A52" s="204" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="204"/>
+      <c r="C52" s="204"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="204"/>
       <c r="K52" s="90"/>
       <c r="L52" s="90"/>
       <c r="M52" s="90"/>
       <c r="N52" s="90"/>
     </row>
     <row r="53" spans="1:84" customHeight="1" ht="14.1" s="120" customFormat="1">
-      <c r="A53" s="270" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="270"/>
-      <c r="C53" s="270"/>
-      <c r="D53" s="270"/>
-      <c r="E53" s="270"/>
-      <c r="F53" s="270"/>
-      <c r="G53" s="270"/>
-      <c r="H53" s="270"/>
-      <c r="I53" s="270"/>
-      <c r="J53" s="270"/>
+      <c r="A53" s="204" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="204"/>
+      <c r="C53" s="204"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="204"/>
       <c r="K53" s="90"/>
       <c r="L53" s="90"/>
       <c r="M53" s="90"/>
       <c r="N53" s="90"/>
     </row>
     <row r="54" spans="1:84" customHeight="1" ht="15">
-      <c r="A54" s="259" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="259"/>
-      <c r="C54" s="259"/>
-      <c r="D54" s="259"/>
-      <c r="E54" s="259"/>
-      <c r="F54" s="259"/>
-      <c r="G54" s="259"/>
-      <c r="H54" s="259"/>
-      <c r="I54" s="259"/>
-      <c r="J54" s="259"/>
+      <c r="A54" s="193" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="193"/>
+      <c r="C54" s="193"/>
+      <c r="D54" s="193"/>
+      <c r="E54" s="193"/>
+      <c r="F54" s="193"/>
+      <c r="G54" s="193"/>
+      <c r="H54" s="193"/>
+      <c r="I54" s="193"/>
+      <c r="J54" s="193"/>
       <c r="K54" s="88">
         <v>1</v>
       </c>
@@ -7144,62 +5757,62 @@
       <c r="T54" s="120"/>
     </row>
     <row r="55" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A55" s="270" t="s">
-        <v>155</v>
-      </c>
-      <c r="B55" s="270"/>
-      <c r="C55" s="270"/>
-      <c r="D55" s="270"/>
-      <c r="E55" s="270"/>
-      <c r="F55" s="270"/>
-      <c r="G55" s="270"/>
-      <c r="H55" s="270"/>
-      <c r="I55" s="270"/>
-      <c r="J55" s="270"/>
+      <c r="A55" s="204" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="204"/>
+      <c r="C55" s="204"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="204"/>
       <c r="K55" s="90"/>
       <c r="L55" s="90"/>
       <c r="M55" s="90"/>
       <c r="N55" s="90"/>
     </row>
     <row r="56" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A56" s="333" t="s">
-        <v>156</v>
-      </c>
-      <c r="B56" s="333"/>
-      <c r="C56" s="333"/>
-      <c r="D56" s="333"/>
-      <c r="E56" s="333"/>
-      <c r="F56" s="333"/>
-      <c r="G56" s="333"/>
-      <c r="H56" s="333"/>
-      <c r="I56" s="333"/>
-      <c r="J56" s="333"/>
+      <c r="A56" s="267" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="267"/>
+      <c r="C56" s="267"/>
+      <c r="D56" s="267"/>
+      <c r="E56" s="267"/>
+      <c r="F56" s="267"/>
+      <c r="G56" s="267"/>
+      <c r="H56" s="267"/>
+      <c r="I56" s="267"/>
+      <c r="J56" s="267"/>
       <c r="K56" s="91"/>
       <c r="L56" s="91"/>
       <c r="M56" s="91"/>
       <c r="N56" s="91"/>
     </row>
     <row r="57" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A57" s="334" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="335"/>
-      <c r="C57" s="335"/>
-      <c r="D57" s="335"/>
-      <c r="E57" s="335"/>
-      <c r="F57" s="336"/>
-      <c r="G57" s="340" t="s">
-        <v>158</v>
-      </c>
-      <c r="H57" s="341"/>
-      <c r="I57" s="341"/>
-      <c r="J57" s="342"/>
-      <c r="K57" s="267" t="s">
-        <v>159</v>
-      </c>
-      <c r="L57" s="268"/>
-      <c r="M57" s="268"/>
-      <c r="N57" s="269"/>
+      <c r="A57" s="268" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="269"/>
+      <c r="C57" s="269"/>
+      <c r="D57" s="269"/>
+      <c r="E57" s="269"/>
+      <c r="F57" s="270"/>
+      <c r="G57" s="274" t="s">
+        <v>130</v>
+      </c>
+      <c r="H57" s="275"/>
+      <c r="I57" s="275"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="201" t="s">
+        <v>131</v>
+      </c>
+      <c r="L57" s="202"/>
+      <c r="M57" s="202"/>
+      <c r="N57" s="203"/>
       <c r="O57" s="120"/>
       <c r="P57" s="120"/>
       <c r="Q57" s="120"/>
@@ -7208,12 +5821,12 @@
       <c r="T57" s="120"/>
     </row>
     <row r="58" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A58" s="337"/>
-      <c r="B58" s="338"/>
-      <c r="C58" s="338"/>
-      <c r="D58" s="338"/>
-      <c r="E58" s="338"/>
-      <c r="F58" s="339"/>
+      <c r="A58" s="271"/>
+      <c r="B58" s="272"/>
+      <c r="C58" s="272"/>
+      <c r="D58" s="272"/>
+      <c r="E58" s="272"/>
+      <c r="F58" s="273"/>
       <c r="G58" s="88">
         <v>1</v>
       </c>
@@ -7246,14 +5859,14 @@
       <c r="T58" s="120"/>
     </row>
     <row r="59" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A59" s="330" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" s="331"/>
-      <c r="C59" s="331"/>
-      <c r="D59" s="331"/>
-      <c r="E59" s="331"/>
-      <c r="F59" s="332"/>
+      <c r="A59" s="264" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="265"/>
+      <c r="C59" s="265"/>
+      <c r="D59" s="265"/>
+      <c r="E59" s="265"/>
+      <c r="F59" s="266"/>
       <c r="G59" s="92"/>
       <c r="H59" s="92"/>
       <c r="I59" s="92"/>
@@ -7264,14 +5877,14 @@
       <c r="N59" s="90"/>
     </row>
     <row r="60" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A60" s="330" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="331"/>
-      <c r="C60" s="331"/>
-      <c r="D60" s="331"/>
-      <c r="E60" s="331"/>
-      <c r="F60" s="332"/>
+      <c r="A60" s="264" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="265"/>
+      <c r="C60" s="265"/>
+      <c r="D60" s="265"/>
+      <c r="E60" s="265"/>
+      <c r="F60" s="266"/>
       <c r="G60" s="92"/>
       <c r="H60" s="92"/>
       <c r="I60" s="92"/>
@@ -7282,18 +5895,18 @@
       <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A61" s="343" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="344"/>
-      <c r="C61" s="344"/>
-      <c r="D61" s="344"/>
-      <c r="E61" s="344"/>
-      <c r="F61" s="344"/>
-      <c r="G61" s="344"/>
-      <c r="H61" s="344"/>
-      <c r="I61" s="344"/>
-      <c r="J61" s="345"/>
+      <c r="A61" s="277" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="278"/>
+      <c r="C61" s="278"/>
+      <c r="D61" s="278"/>
+      <c r="E61" s="278"/>
+      <c r="F61" s="278"/>
+      <c r="G61" s="278"/>
+      <c r="H61" s="278"/>
+      <c r="I61" s="278"/>
+      <c r="J61" s="279"/>
       <c r="K61" s="88">
         <v>1</v>
       </c>
@@ -7314,54 +5927,54 @@
       <c r="T61" s="120"/>
     </row>
     <row r="62" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A62" s="330" t="s">
-        <v>163</v>
-      </c>
-      <c r="B62" s="331"/>
-      <c r="C62" s="331"/>
-      <c r="D62" s="331"/>
-      <c r="E62" s="331"/>
-      <c r="F62" s="331"/>
-      <c r="G62" s="331"/>
-      <c r="H62" s="331"/>
-      <c r="I62" s="331"/>
-      <c r="J62" s="332"/>
+      <c r="A62" s="264" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="265"/>
+      <c r="C62" s="265"/>
+      <c r="D62" s="265"/>
+      <c r="E62" s="265"/>
+      <c r="F62" s="265"/>
+      <c r="G62" s="265"/>
+      <c r="H62" s="265"/>
+      <c r="I62" s="265"/>
+      <c r="J62" s="266"/>
       <c r="K62" s="93"/>
       <c r="L62" s="90"/>
       <c r="M62" s="90"/>
       <c r="N62" s="90"/>
     </row>
     <row r="63" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A63" s="330" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="331"/>
-      <c r="C63" s="331"/>
-      <c r="D63" s="331"/>
-      <c r="E63" s="331"/>
-      <c r="F63" s="331"/>
-      <c r="G63" s="331"/>
-      <c r="H63" s="331"/>
-      <c r="I63" s="331"/>
-      <c r="J63" s="332"/>
+      <c r="A63" s="264" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="265"/>
+      <c r="C63" s="265"/>
+      <c r="D63" s="265"/>
+      <c r="E63" s="265"/>
+      <c r="F63" s="265"/>
+      <c r="G63" s="265"/>
+      <c r="H63" s="265"/>
+      <c r="I63" s="265"/>
+      <c r="J63" s="266"/>
       <c r="K63" s="93"/>
       <c r="L63" s="90"/>
       <c r="M63" s="90"/>
       <c r="N63" s="90"/>
     </row>
     <row r="64" spans="1:84" customHeight="1" ht="27.75">
-      <c r="A64" s="321" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="322"/>
-      <c r="C64" s="322"/>
-      <c r="D64" s="322"/>
-      <c r="E64" s="322"/>
-      <c r="F64" s="322"/>
-      <c r="G64" s="322"/>
-      <c r="H64" s="322"/>
-      <c r="I64" s="322"/>
-      <c r="J64" s="323"/>
+      <c r="A64" s="255" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="256"/>
+      <c r="C64" s="256"/>
+      <c r="D64" s="256"/>
+      <c r="E64" s="256"/>
+      <c r="F64" s="256"/>
+      <c r="G64" s="256"/>
+      <c r="H64" s="256"/>
+      <c r="I64" s="256"/>
+      <c r="J64" s="257"/>
       <c r="K64" s="94">
         <v>1</v>
       </c>
@@ -7382,18 +5995,18 @@
       <c r="T64" s="120"/>
     </row>
     <row r="65" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A65" s="330" t="s">
-        <v>166</v>
-      </c>
-      <c r="B65" s="331"/>
-      <c r="C65" s="331"/>
-      <c r="D65" s="331"/>
-      <c r="E65" s="331"/>
-      <c r="F65" s="331"/>
-      <c r="G65" s="331"/>
-      <c r="H65" s="331"/>
-      <c r="I65" s="331"/>
-      <c r="J65" s="332"/>
+      <c r="A65" s="264" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="265"/>
+      <c r="C65" s="265"/>
+      <c r="D65" s="265"/>
+      <c r="E65" s="265"/>
+      <c r="F65" s="265"/>
+      <c r="G65" s="265"/>
+      <c r="H65" s="265"/>
+      <c r="I65" s="265"/>
+      <c r="J65" s="266"/>
       <c r="K65" s="90"/>
       <c r="L65" s="90"/>
       <c r="M65" s="90"/>
@@ -7406,18 +6019,18 @@
       <c r="T65" s="120"/>
     </row>
     <row r="66" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A66" s="293" t="s">
-        <v>167</v>
-      </c>
-      <c r="B66" s="294"/>
-      <c r="C66" s="294"/>
-      <c r="D66" s="294"/>
-      <c r="E66" s="294"/>
-      <c r="F66" s="294"/>
-      <c r="G66" s="294"/>
-      <c r="H66" s="294"/>
-      <c r="I66" s="294"/>
-      <c r="J66" s="295"/>
+      <c r="A66" s="227" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" s="228"/>
+      <c r="C66" s="228"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="228"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="229"/>
       <c r="K66" s="90"/>
       <c r="L66" s="90"/>
       <c r="M66" s="90"/>
@@ -7430,18 +6043,18 @@
       <c r="T66" s="120"/>
     </row>
     <row r="67" spans="1:84" customHeight="1" ht="15">
-      <c r="A67" s="321" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67" s="322"/>
-      <c r="C67" s="322"/>
-      <c r="D67" s="322"/>
-      <c r="E67" s="322"/>
-      <c r="F67" s="322"/>
-      <c r="G67" s="322"/>
-      <c r="H67" s="322"/>
-      <c r="I67" s="322"/>
-      <c r="J67" s="323"/>
+      <c r="A67" s="255" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="256"/>
+      <c r="C67" s="256"/>
+      <c r="D67" s="256"/>
+      <c r="E67" s="256"/>
+      <c r="F67" s="256"/>
+      <c r="G67" s="256"/>
+      <c r="H67" s="256"/>
+      <c r="I67" s="256"/>
+      <c r="J67" s="257"/>
       <c r="K67" s="88">
         <v>1</v>
       </c>
@@ -7462,18 +6075,18 @@
       <c r="T67" s="120"/>
     </row>
     <row r="68" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A68" s="293" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="294"/>
-      <c r="C68" s="294"/>
-      <c r="D68" s="294"/>
-      <c r="E68" s="294"/>
-      <c r="F68" s="294"/>
-      <c r="G68" s="294"/>
-      <c r="H68" s="294"/>
-      <c r="I68" s="294"/>
-      <c r="J68" s="295"/>
+      <c r="A68" s="227" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" s="228"/>
+      <c r="C68" s="228"/>
+      <c r="D68" s="228"/>
+      <c r="E68" s="228"/>
+      <c r="F68" s="228"/>
+      <c r="G68" s="228"/>
+      <c r="H68" s="228"/>
+      <c r="I68" s="228"/>
+      <c r="J68" s="229"/>
       <c r="K68" s="90"/>
       <c r="L68" s="90"/>
       <c r="M68" s="90"/>
@@ -7486,18 +6099,18 @@
       <c r="T68" s="120"/>
     </row>
     <row r="69" spans="1:84" customHeight="1" ht="26.25">
-      <c r="A69" s="324" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="325"/>
-      <c r="C69" s="325"/>
-      <c r="D69" s="325"/>
-      <c r="E69" s="325"/>
-      <c r="F69" s="325"/>
-      <c r="G69" s="325"/>
-      <c r="H69" s="325"/>
-      <c r="I69" s="325"/>
-      <c r="J69" s="326"/>
+      <c r="A69" s="258" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="259"/>
+      <c r="C69" s="259"/>
+      <c r="D69" s="259"/>
+      <c r="E69" s="259"/>
+      <c r="F69" s="259"/>
+      <c r="G69" s="259"/>
+      <c r="H69" s="259"/>
+      <c r="I69" s="259"/>
+      <c r="J69" s="260"/>
       <c r="K69" s="91"/>
       <c r="L69" s="91"/>
       <c r="M69" s="91"/>
@@ -7510,22 +6123,22 @@
       <c r="T69" s="120"/>
     </row>
     <row r="70" spans="1:84" customHeight="1" ht="15">
-      <c r="A70" s="327" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70" s="328"/>
-      <c r="C70" s="328"/>
-      <c r="D70" s="328"/>
-      <c r="E70" s="328"/>
-      <c r="F70" s="328"/>
-      <c r="G70" s="328"/>
-      <c r="H70" s="328"/>
-      <c r="I70" s="328"/>
-      <c r="J70" s="328"/>
-      <c r="K70" s="328"/>
-      <c r="L70" s="328"/>
-      <c r="M70" s="328"/>
-      <c r="N70" s="329"/>
+      <c r="A70" s="261" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="262"/>
+      <c r="C70" s="262"/>
+      <c r="D70" s="262"/>
+      <c r="E70" s="262"/>
+      <c r="F70" s="262"/>
+      <c r="G70" s="262"/>
+      <c r="H70" s="262"/>
+      <c r="I70" s="262"/>
+      <c r="J70" s="262"/>
+      <c r="K70" s="262"/>
+      <c r="L70" s="262"/>
+      <c r="M70" s="262"/>
+      <c r="N70" s="263"/>
       <c r="O70" s="120"/>
       <c r="P70" s="120"/>
       <c r="Q70" s="120"/>
@@ -7556,24 +6169,24 @@
       <c r="T71" s="120"/>
     </row>
     <row r="72" spans="1:84" customHeight="1" ht="25.5">
-      <c r="A72" s="293" t="s">
-        <v>172</v>
-      </c>
-      <c r="B72" s="294"/>
-      <c r="C72" s="294"/>
-      <c r="D72" s="294"/>
-      <c r="E72" s="294"/>
-      <c r="F72" s="294"/>
-      <c r="G72" s="294"/>
-      <c r="H72" s="294"/>
-      <c r="I72" s="294"/>
-      <c r="J72" s="295"/>
+      <c r="A72" s="227" t="s">
+        <v>144</v>
+      </c>
+      <c r="B72" s="228"/>
+      <c r="C72" s="228"/>
+      <c r="D72" s="228"/>
+      <c r="E72" s="228"/>
+      <c r="F72" s="228"/>
+      <c r="G72" s="228"/>
+      <c r="H72" s="228"/>
+      <c r="I72" s="228"/>
+      <c r="J72" s="229"/>
       <c r="K72" s="101" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="L72" s="102"/>
       <c r="M72" s="101" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="N72" s="103"/>
       <c r="O72" s="120"/>
@@ -7584,24 +6197,24 @@
       <c r="T72" s="120"/>
     </row>
     <row r="73" spans="1:84" customHeight="1" ht="23.25">
-      <c r="A73" s="293" t="s">
-        <v>175</v>
-      </c>
-      <c r="B73" s="294"/>
-      <c r="C73" s="294"/>
-      <c r="D73" s="294"/>
-      <c r="E73" s="294"/>
-      <c r="F73" s="294"/>
-      <c r="G73" s="294"/>
-      <c r="H73" s="294"/>
-      <c r="I73" s="294"/>
-      <c r="J73" s="295"/>
+      <c r="A73" s="227" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="228"/>
+      <c r="C73" s="228"/>
+      <c r="D73" s="228"/>
+      <c r="E73" s="228"/>
+      <c r="F73" s="228"/>
+      <c r="G73" s="228"/>
+      <c r="H73" s="228"/>
+      <c r="I73" s="228"/>
+      <c r="J73" s="229"/>
       <c r="K73" s="101" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="L73" s="102"/>
       <c r="M73" s="101" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="N73" s="103"/>
       <c r="O73" s="120"/>
@@ -7634,18 +6247,18 @@
       <c r="T74" s="120"/>
     </row>
     <row r="75" spans="1:84" customHeight="1" ht="15">
-      <c r="A75" s="296" t="s">
-        <v>176</v>
-      </c>
-      <c r="B75" s="297"/>
-      <c r="C75" s="297"/>
-      <c r="D75" s="297"/>
-      <c r="E75" s="297"/>
-      <c r="F75" s="297"/>
-      <c r="G75" s="297"/>
-      <c r="H75" s="297"/>
-      <c r="I75" s="297"/>
-      <c r="J75" s="298"/>
+      <c r="A75" s="230" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="231"/>
+      <c r="C75" s="231"/>
+      <c r="D75" s="231"/>
+      <c r="E75" s="231"/>
+      <c r="F75" s="231"/>
+      <c r="G75" s="231"/>
+      <c r="H75" s="231"/>
+      <c r="I75" s="231"/>
+      <c r="J75" s="232"/>
       <c r="K75" s="88">
         <v>1</v>
       </c>
@@ -7730,18 +6343,18 @@
       <c r="CF75" s="120"/>
     </row>
     <row r="76" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A76" s="315" t="s">
-        <v>177</v>
-      </c>
-      <c r="B76" s="316"/>
-      <c r="C76" s="316"/>
-      <c r="D76" s="316"/>
-      <c r="E76" s="316"/>
-      <c r="F76" s="316"/>
-      <c r="G76" s="316"/>
-      <c r="H76" s="316"/>
-      <c r="I76" s="316"/>
-      <c r="J76" s="317"/>
+      <c r="A76" s="249" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="250"/>
+      <c r="C76" s="250"/>
+      <c r="D76" s="250"/>
+      <c r="E76" s="250"/>
+      <c r="F76" s="250"/>
+      <c r="G76" s="250"/>
+      <c r="H76" s="250"/>
+      <c r="I76" s="250"/>
+      <c r="J76" s="251"/>
       <c r="K76" s="109"/>
       <c r="L76" s="109"/>
       <c r="M76" s="109"/>
@@ -7818,18 +6431,18 @@
       <c r="CF76" s="120"/>
     </row>
     <row r="77" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A77" s="315" t="s">
-        <v>178</v>
-      </c>
-      <c r="B77" s="316"/>
-      <c r="C77" s="316"/>
-      <c r="D77" s="316"/>
-      <c r="E77" s="316"/>
-      <c r="F77" s="316"/>
-      <c r="G77" s="316"/>
-      <c r="H77" s="316"/>
-      <c r="I77" s="316"/>
-      <c r="J77" s="317"/>
+      <c r="A77" s="249" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" s="250"/>
+      <c r="C77" s="250"/>
+      <c r="D77" s="250"/>
+      <c r="E77" s="250"/>
+      <c r="F77" s="250"/>
+      <c r="G77" s="250"/>
+      <c r="H77" s="250"/>
+      <c r="I77" s="250"/>
+      <c r="J77" s="251"/>
       <c r="K77" s="109"/>
       <c r="L77" s="109"/>
       <c r="M77" s="109"/>
@@ -7906,18 +6519,18 @@
       <c r="CF77" s="120"/>
     </row>
     <row r="78" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A78" s="315" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="316"/>
-      <c r="C78" s="316"/>
-      <c r="D78" s="316"/>
-      <c r="E78" s="316"/>
-      <c r="F78" s="316"/>
-      <c r="G78" s="316"/>
-      <c r="H78" s="316"/>
-      <c r="I78" s="316"/>
-      <c r="J78" s="317"/>
+      <c r="A78" s="249" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="250"/>
+      <c r="C78" s="250"/>
+      <c r="D78" s="250"/>
+      <c r="E78" s="250"/>
+      <c r="F78" s="250"/>
+      <c r="G78" s="250"/>
+      <c r="H78" s="250"/>
+      <c r="I78" s="250"/>
+      <c r="J78" s="251"/>
       <c r="K78" s="109"/>
       <c r="L78" s="109"/>
       <c r="M78" s="109"/>
@@ -7994,18 +6607,18 @@
       <c r="CF78" s="120"/>
     </row>
     <row r="79" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A79" s="315" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="316"/>
-      <c r="C79" s="316"/>
-      <c r="D79" s="316"/>
-      <c r="E79" s="316"/>
-      <c r="F79" s="316"/>
-      <c r="G79" s="316"/>
-      <c r="H79" s="316"/>
-      <c r="I79" s="316"/>
-      <c r="J79" s="317"/>
+      <c r="A79" s="249" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="250"/>
+      <c r="C79" s="250"/>
+      <c r="D79" s="250"/>
+      <c r="E79" s="250"/>
+      <c r="F79" s="250"/>
+      <c r="G79" s="250"/>
+      <c r="H79" s="250"/>
+      <c r="I79" s="250"/>
+      <c r="J79" s="251"/>
       <c r="K79" s="109"/>
       <c r="L79" s="109"/>
       <c r="M79" s="109"/>
@@ -8082,18 +6695,18 @@
       <c r="CF79" s="120"/>
     </row>
     <row r="80" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A80" s="315" t="s">
-        <v>181</v>
-      </c>
-      <c r="B80" s="316"/>
-      <c r="C80" s="316"/>
-      <c r="D80" s="316"/>
-      <c r="E80" s="316"/>
-      <c r="F80" s="316"/>
-      <c r="G80" s="316"/>
-      <c r="H80" s="316"/>
-      <c r="I80" s="316"/>
-      <c r="J80" s="317"/>
+      <c r="A80" s="249" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" s="250"/>
+      <c r="C80" s="250"/>
+      <c r="D80" s="250"/>
+      <c r="E80" s="250"/>
+      <c r="F80" s="250"/>
+      <c r="G80" s="250"/>
+      <c r="H80" s="250"/>
+      <c r="I80" s="250"/>
+      <c r="J80" s="251"/>
       <c r="K80" s="109"/>
       <c r="L80" s="109"/>
       <c r="M80" s="109"/>
@@ -8170,18 +6783,18 @@
       <c r="CF80" s="120"/>
     </row>
     <row r="81" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A81" s="306" t="s">
-        <v>182</v>
-      </c>
-      <c r="B81" s="307"/>
-      <c r="C81" s="307"/>
-      <c r="D81" s="307"/>
-      <c r="E81" s="307"/>
-      <c r="F81" s="307"/>
-      <c r="G81" s="307"/>
-      <c r="H81" s="307"/>
-      <c r="I81" s="307"/>
-      <c r="J81" s="308"/>
+      <c r="A81" s="240" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" s="241"/>
+      <c r="C81" s="241"/>
+      <c r="D81" s="241"/>
+      <c r="E81" s="241"/>
+      <c r="F81" s="241"/>
+      <c r="G81" s="241"/>
+      <c r="H81" s="241"/>
+      <c r="I81" s="241"/>
+      <c r="J81" s="242"/>
       <c r="K81" s="88">
         <v>1</v>
       </c>
@@ -8266,16 +6879,16 @@
       <c r="CF81" s="120"/>
     </row>
     <row r="82" spans="1:84" customHeight="1" ht="14.1">
-      <c r="A82" s="309"/>
-      <c r="B82" s="310"/>
-      <c r="C82" s="310"/>
-      <c r="D82" s="310"/>
-      <c r="E82" s="310"/>
-      <c r="F82" s="310"/>
-      <c r="G82" s="310"/>
-      <c r="H82" s="310"/>
-      <c r="I82" s="310"/>
-      <c r="J82" s="311"/>
+      <c r="A82" s="243"/>
+      <c r="B82" s="244"/>
+      <c r="C82" s="244"/>
+      <c r="D82" s="244"/>
+      <c r="E82" s="244"/>
+      <c r="F82" s="244"/>
+      <c r="G82" s="244"/>
+      <c r="H82" s="244"/>
+      <c r="I82" s="244"/>
+      <c r="J82" s="245"/>
       <c r="K82" s="110"/>
       <c r="L82" s="110"/>
       <c r="M82" s="110"/>
@@ -8352,22 +6965,22 @@
       <c r="CF82" s="120"/>
     </row>
     <row r="83" spans="1:84" customHeight="1" ht="15">
-      <c r="A83" s="312" t="s">
-        <v>183</v>
-      </c>
-      <c r="B83" s="313"/>
-      <c r="C83" s="313"/>
-      <c r="D83" s="313"/>
-      <c r="E83" s="313"/>
-      <c r="F83" s="313"/>
-      <c r="G83" s="313"/>
-      <c r="H83" s="313"/>
-      <c r="I83" s="313"/>
-      <c r="J83" s="313"/>
-      <c r="K83" s="313"/>
-      <c r="L83" s="313"/>
-      <c r="M83" s="313"/>
-      <c r="N83" s="314"/>
+      <c r="A83" s="246" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="247"/>
+      <c r="C83" s="247"/>
+      <c r="D83" s="247"/>
+      <c r="E83" s="247"/>
+      <c r="F83" s="247"/>
+      <c r="G83" s="247"/>
+      <c r="H83" s="247"/>
+      <c r="I83" s="247"/>
+      <c r="J83" s="247"/>
+      <c r="K83" s="247"/>
+      <c r="L83" s="247"/>
+      <c r="M83" s="247"/>
+      <c r="N83" s="248"/>
       <c r="O83" s="120"/>
       <c r="P83" s="120"/>
       <c r="Q83" s="120"/>
@@ -8440,20 +7053,20 @@
       <c r="CF83" s="120"/>
     </row>
     <row r="84" spans="1:84">
-      <c r="A84" s="284"/>
-      <c r="B84" s="285"/>
-      <c r="C84" s="285"/>
-      <c r="D84" s="285"/>
-      <c r="E84" s="285"/>
-      <c r="F84" s="285"/>
-      <c r="G84" s="285"/>
-      <c r="H84" s="285"/>
-      <c r="I84" s="285"/>
-      <c r="J84" s="285"/>
-      <c r="K84" s="285"/>
-      <c r="L84" s="285"/>
-      <c r="M84" s="285"/>
-      <c r="N84" s="286"/>
+      <c r="A84" s="218"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="219"/>
+      <c r="D84" s="219"/>
+      <c r="E84" s="219"/>
+      <c r="F84" s="219"/>
+      <c r="G84" s="219"/>
+      <c r="H84" s="219"/>
+      <c r="I84" s="219"/>
+      <c r="J84" s="219"/>
+      <c r="K84" s="219"/>
+      <c r="L84" s="219"/>
+      <c r="M84" s="219"/>
+      <c r="N84" s="220"/>
       <c r="O84" s="120"/>
       <c r="P84" s="120"/>
       <c r="Q84" s="120"/>
@@ -8526,20 +7139,20 @@
       <c r="CF84" s="120"/>
     </row>
     <row r="85" spans="1:84" customHeight="1" ht="16.5">
-      <c r="A85" s="287"/>
-      <c r="B85" s="288"/>
-      <c r="C85" s="288"/>
-      <c r="D85" s="288"/>
-      <c r="E85" s="288"/>
-      <c r="F85" s="288"/>
-      <c r="G85" s="288"/>
-      <c r="H85" s="288"/>
-      <c r="I85" s="288"/>
-      <c r="J85" s="288"/>
-      <c r="K85" s="288"/>
-      <c r="L85" s="288"/>
-      <c r="M85" s="288"/>
-      <c r="N85" s="289"/>
+      <c r="A85" s="221"/>
+      <c r="B85" s="222"/>
+      <c r="C85" s="222"/>
+      <c r="D85" s="222"/>
+      <c r="E85" s="222"/>
+      <c r="F85" s="222"/>
+      <c r="G85" s="222"/>
+      <c r="H85" s="222"/>
+      <c r="I85" s="222"/>
+      <c r="J85" s="222"/>
+      <c r="K85" s="222"/>
+      <c r="L85" s="222"/>
+      <c r="M85" s="222"/>
+      <c r="N85" s="223"/>
       <c r="O85" s="120"/>
       <c r="P85" s="120"/>
       <c r="Q85" s="120"/>
@@ -8548,20 +7161,20 @@
       <c r="T85" s="120"/>
     </row>
     <row r="86" spans="1:84" customHeight="1" ht="6.75">
-      <c r="A86" s="287"/>
-      <c r="B86" s="288"/>
-      <c r="C86" s="288"/>
-      <c r="D86" s="288"/>
-      <c r="E86" s="288"/>
-      <c r="F86" s="288"/>
-      <c r="G86" s="288"/>
-      <c r="H86" s="288"/>
-      <c r="I86" s="288"/>
-      <c r="J86" s="288"/>
-      <c r="K86" s="288"/>
-      <c r="L86" s="288"/>
-      <c r="M86" s="288"/>
-      <c r="N86" s="289"/>
+      <c r="A86" s="221"/>
+      <c r="B86" s="222"/>
+      <c r="C86" s="222"/>
+      <c r="D86" s="222"/>
+      <c r="E86" s="222"/>
+      <c r="F86" s="222"/>
+      <c r="G86" s="222"/>
+      <c r="H86" s="222"/>
+      <c r="I86" s="222"/>
+      <c r="J86" s="222"/>
+      <c r="K86" s="222"/>
+      <c r="L86" s="222"/>
+      <c r="M86" s="222"/>
+      <c r="N86" s="223"/>
       <c r="O86" s="120"/>
       <c r="P86" s="120"/>
       <c r="Q86" s="120"/>
@@ -8570,20 +7183,20 @@
       <c r="T86" s="120"/>
     </row>
     <row r="87" spans="1:84" customHeight="1" ht="15">
-      <c r="A87" s="287"/>
-      <c r="B87" s="288"/>
-      <c r="C87" s="288"/>
-      <c r="D87" s="288"/>
-      <c r="E87" s="288"/>
-      <c r="F87" s="288"/>
-      <c r="G87" s="288"/>
-      <c r="H87" s="288"/>
-      <c r="I87" s="288"/>
-      <c r="J87" s="288"/>
-      <c r="K87" s="288"/>
-      <c r="L87" s="288"/>
-      <c r="M87" s="288"/>
-      <c r="N87" s="289"/>
+      <c r="A87" s="221"/>
+      <c r="B87" s="222"/>
+      <c r="C87" s="222"/>
+      <c r="D87" s="222"/>
+      <c r="E87" s="222"/>
+      <c r="F87" s="222"/>
+      <c r="G87" s="222"/>
+      <c r="H87" s="222"/>
+      <c r="I87" s="222"/>
+      <c r="J87" s="222"/>
+      <c r="K87" s="222"/>
+      <c r="L87" s="222"/>
+      <c r="M87" s="222"/>
+      <c r="N87" s="223"/>
       <c r="O87" s="120"/>
       <c r="P87" s="120"/>
       <c r="Q87" s="120"/>
@@ -8592,20 +7205,20 @@
       <c r="T87" s="120"/>
     </row>
     <row r="88" spans="1:84">
-      <c r="A88" s="287"/>
-      <c r="B88" s="288"/>
-      <c r="C88" s="288"/>
-      <c r="D88" s="288"/>
-      <c r="E88" s="288"/>
-      <c r="F88" s="288"/>
-      <c r="G88" s="288"/>
-      <c r="H88" s="288"/>
-      <c r="I88" s="288"/>
-      <c r="J88" s="288"/>
-      <c r="K88" s="288"/>
-      <c r="L88" s="288"/>
-      <c r="M88" s="288"/>
-      <c r="N88" s="289"/>
+      <c r="A88" s="221"/>
+      <c r="B88" s="222"/>
+      <c r="C88" s="222"/>
+      <c r="D88" s="222"/>
+      <c r="E88" s="222"/>
+      <c r="F88" s="222"/>
+      <c r="G88" s="222"/>
+      <c r="H88" s="222"/>
+      <c r="I88" s="222"/>
+      <c r="J88" s="222"/>
+      <c r="K88" s="222"/>
+      <c r="L88" s="222"/>
+      <c r="M88" s="222"/>
+      <c r="N88" s="223"/>
       <c r="O88" s="120"/>
       <c r="P88" s="120"/>
       <c r="Q88" s="120"/>
@@ -8614,20 +7227,20 @@
       <c r="T88" s="120"/>
     </row>
     <row r="89" spans="1:84">
-      <c r="A89" s="290"/>
-      <c r="B89" s="291"/>
-      <c r="C89" s="291"/>
-      <c r="D89" s="291"/>
-      <c r="E89" s="291"/>
-      <c r="F89" s="291"/>
-      <c r="G89" s="291"/>
-      <c r="H89" s="291"/>
-      <c r="I89" s="291"/>
-      <c r="J89" s="291"/>
-      <c r="K89" s="291"/>
-      <c r="L89" s="291"/>
-      <c r="M89" s="291"/>
-      <c r="N89" s="292"/>
+      <c r="A89" s="224"/>
+      <c r="B89" s="225"/>
+      <c r="C89" s="225"/>
+      <c r="D89" s="225"/>
+      <c r="E89" s="225"/>
+      <c r="F89" s="225"/>
+      <c r="G89" s="225"/>
+      <c r="H89" s="225"/>
+      <c r="I89" s="225"/>
+      <c r="J89" s="225"/>
+      <c r="K89" s="225"/>
+      <c r="L89" s="225"/>
+      <c r="M89" s="225"/>
+      <c r="N89" s="226"/>
       <c r="O89" s="120"/>
       <c r="P89" s="120"/>
       <c r="Q89" s="120"/>
@@ -8636,22 +7249,22 @@
       <c r="T89" s="120"/>
     </row>
     <row r="90" spans="1:84">
-      <c r="A90" s="296" t="s">
-        <v>184</v>
-      </c>
-      <c r="B90" s="297"/>
-      <c r="C90" s="297"/>
-      <c r="D90" s="298"/>
-      <c r="E90" s="318"/>
-      <c r="F90" s="319"/>
-      <c r="G90" s="319"/>
-      <c r="H90" s="319"/>
-      <c r="I90" s="319"/>
-      <c r="J90" s="319"/>
-      <c r="K90" s="319"/>
-      <c r="L90" s="319"/>
-      <c r="M90" s="319"/>
-      <c r="N90" s="320"/>
+      <c r="A90" s="230" t="s">
+        <v>156</v>
+      </c>
+      <c r="B90" s="231"/>
+      <c r="C90" s="231"/>
+      <c r="D90" s="232"/>
+      <c r="E90" s="252"/>
+      <c r="F90" s="253"/>
+      <c r="G90" s="253"/>
+      <c r="H90" s="253"/>
+      <c r="I90" s="253"/>
+      <c r="J90" s="253"/>
+      <c r="K90" s="253"/>
+      <c r="L90" s="253"/>
+      <c r="M90" s="253"/>
+      <c r="N90" s="254"/>
       <c r="O90" s="120"/>
       <c r="P90" s="120"/>
       <c r="Q90" s="120"/>
@@ -8682,22 +7295,22 @@
       <c r="T91" s="120"/>
     </row>
     <row r="92" spans="1:84" customHeight="1" ht="15">
-      <c r="A92" s="305" t="s">
-        <v>185</v>
-      </c>
-      <c r="B92" s="305"/>
-      <c r="C92" s="305"/>
-      <c r="D92" s="305"/>
-      <c r="E92" s="305"/>
-      <c r="F92" s="305"/>
-      <c r="G92" s="305"/>
-      <c r="H92" s="305"/>
-      <c r="I92" s="305"/>
-      <c r="J92" s="305"/>
-      <c r="K92" s="305"/>
-      <c r="L92" s="305"/>
-      <c r="M92" s="305"/>
-      <c r="N92" s="305"/>
+      <c r="A92" s="239" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="239"/>
+      <c r="C92" s="239"/>
+      <c r="D92" s="239"/>
+      <c r="E92" s="239"/>
+      <c r="F92" s="239"/>
+      <c r="G92" s="239"/>
+      <c r="H92" s="239"/>
+      <c r="I92" s="239"/>
+      <c r="J92" s="239"/>
+      <c r="K92" s="239"/>
+      <c r="L92" s="239"/>
+      <c r="M92" s="239"/>
+      <c r="N92" s="239"/>
       <c r="O92" s="120"/>
       <c r="P92" s="120"/>
       <c r="Q92" s="120"/>

--- a/Listado_de_asistencia.xlsx
+++ b/Listado_de_asistencia.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>DOCUMENTO CONTROL DE FIRMAS</t>
   </si>
@@ -128,16 +128,16 @@
     </r>
   </si>
   <si>
-    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Formación Técnica Avanzada Agile &amp; DevOps Nº CONVOCATORIA: 18635</t>
-  </si>
-  <si>
-    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 11-12-2017 FECHA FIN: 12-12-2017</t>
+    <t>DENOMINACIÓN DE LA ACCIÓN FORMATIVA: Grandes cuentas BTL Nº CONVOCATORIA: 19480</t>
+  </si>
+  <si>
+    <t>Nº: 0 GRUPO: 0 FECHA DE INICIO: 11-12-2017 FECHA FIN: 21-12-2017</t>
   </si>
   <si>
     <t>FORMADOR/RESPONSABLE DE FORMACIÓN:</t>
   </si>
   <si>
-    <t>SESIÓN Nº: ___ de 2 FECHA: 11-12-2017 HORARIO: 10:00 - 02:00</t>
+    <t>SESIÓN Nº: ___ de 4 FECHA: 11-12-2017 HORARIO: 09:00 - 14:00</t>
   </si>
   <si>
     <t>Firmado:</t>
@@ -219,133 +219,88 @@
     <t xml:space="preserve">N.I.F. </t>
   </si>
   <si>
-    <t>11-12-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>12-12-2017 10:00 - 02:00</t>
-  </si>
-  <si>
-    <t>Fecha/Hora</t>
-  </si>
-  <si>
-    <t>ARIAS RODRIGUEZ, FERNANDO</t>
-  </si>
-  <si>
-    <t>028909454H</t>
-  </si>
-  <si>
-    <t>LOPEZ LUENGO, ANGEL</t>
-  </si>
-  <si>
-    <t>050722009V</t>
-  </si>
-  <si>
-    <t>TORESANO SALGADO, GUILLERMO</t>
-  </si>
-  <si>
-    <t>007046432Z</t>
-  </si>
-  <si>
-    <t>AGUILAR MARTIN, JUAN ANTONIO</t>
-  </si>
-  <si>
-    <t>001180189J</t>
-  </si>
-  <si>
-    <t>SANTOS GAITANO, MARIA ISABEL</t>
-  </si>
-  <si>
-    <t>033512865W</t>
-  </si>
-  <si>
-    <t>PASCUAL ALONSO, ANTONIO</t>
-  </si>
-  <si>
-    <t>052972615G</t>
-  </si>
-  <si>
-    <t>GARCIA CARMONA, JUAN MARIA</t>
-  </si>
-  <si>
-    <t>008932376G</t>
-  </si>
-  <si>
-    <t>COLLADO MARTIN, IVAN</t>
-  </si>
-  <si>
-    <t>000830001T</t>
-  </si>
-  <si>
-    <t>FARGES, PATRICK</t>
-  </si>
-  <si>
-    <t>0X8029788M</t>
-  </si>
-  <si>
-    <t>SANTOS ROGERO, MARIA LETICIA</t>
-  </si>
-  <si>
-    <t>047492765L</t>
-  </si>
-  <si>
-    <t>MARTIN AGUNDEZ, PABLO</t>
-  </si>
-  <si>
-    <t>049006609A</t>
-  </si>
-  <si>
-    <t>GARRIDO ANDRES, DAVID</t>
-  </si>
-  <si>
-    <t>047496550D</t>
-  </si>
-  <si>
-    <t>MARTIN MACAYO, DAVID</t>
-  </si>
-  <si>
-    <t>002638907W</t>
-  </si>
-  <si>
-    <t>PERALTA GARCIA, ROBERTO</t>
-  </si>
-  <si>
-    <t>002907293R</t>
-  </si>
-  <si>
-    <t>NIHARRA LOPEZ, CARLOS</t>
-  </si>
-  <si>
-    <t>000834213A</t>
-  </si>
-  <si>
-    <t>PULIDO HERNANDEZ, LAURA</t>
-  </si>
-  <si>
-    <t>053391742W</t>
-  </si>
-  <si>
-    <t>NUÑEZ CACHAZO, HECTOR</t>
-  </si>
-  <si>
-    <t>020267557A</t>
-  </si>
-  <si>
-    <t>MAROTO RODRIGUEZ, JAVIER</t>
-  </si>
-  <si>
-    <t>070249450K</t>
-  </si>
-  <si>
-    <t>QUINTIN, FREDERIC</t>
-  </si>
-  <si>
-    <t>0Y4353076H</t>
-  </si>
-  <si>
-    <t>CALLE HERNANDEZ, JAVIER</t>
-  </si>
-  <si>
-    <t>070866895P</t>
+    <t>11-12-2017 09:00 - 14:00</t>
+  </si>
+  <si>
+    <t>12-12-2017 09:00 - 14:00</t>
+  </si>
+  <si>
+    <t>20-12-2017 09:00 - 14:00</t>
+  </si>
+  <si>
+    <t>21-12-2017 09:00 - 14:00</t>
+  </si>
+  <si>
+    <t>SILVA CORCHERO, ANA</t>
+  </si>
+  <si>
+    <t>033524035V</t>
+  </si>
+  <si>
+    <t>GONZALEZ SANCHEZ, MONICA</t>
+  </si>
+  <si>
+    <t>033520082C</t>
+  </si>
+  <si>
+    <t>SAN QUINTIN PEREZ, OLGA CRISTINA</t>
+  </si>
+  <si>
+    <t>012751428K</t>
+  </si>
+  <si>
+    <t>MARGALEF GIL, SUSANNA</t>
+  </si>
+  <si>
+    <t>043519327S</t>
+  </si>
+  <si>
+    <t>GAMO FERNANDEZ, ANA</t>
+  </si>
+  <si>
+    <t>050213844Z</t>
+  </si>
+  <si>
+    <t>GONZALO SIMANCAS, ANGELA</t>
+  </si>
+  <si>
+    <t>050123692E</t>
+  </si>
+  <si>
+    <t>PALACIOS CRESPO, MARIA JESÚS</t>
+  </si>
+  <si>
+    <t>008853109H</t>
+  </si>
+  <si>
+    <t>DE CASTRO ESCACENA, CRISTINA</t>
+  </si>
+  <si>
+    <t>031732339K</t>
+  </si>
+  <si>
+    <t>PEREZ TORRALBA, NURIA</t>
+  </si>
+  <si>
+    <t>050195055Q</t>
+  </si>
+  <si>
+    <t>PODEROSO COBO, JUAN JOSE</t>
+  </si>
+  <si>
+    <t>020264333E</t>
+  </si>
+  <si>
+    <t>ALDEANO GARCIA, SARA</t>
+  </si>
+  <si>
+    <t>050864340R</t>
+  </si>
+  <si>
+    <t>GARCIA FERNANDEZ, JOSE</t>
+  </si>
+  <si>
+    <t>004191883H</t>
   </si>
   <si>
     <t>OBSERVACIONES GENERALES:</t>
@@ -3871,7 +3826,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="326" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I27" s="171"/>
       <c r="J27" s="171"/>
@@ -3879,13 +3834,13 @@
     </row>
     <row r="28" spans="1:17" customHeight="1" ht="35.25">
       <c r="B28" s="151">
-        <v>12093</v>
+        <v>12599</v>
       </c>
       <c r="C28" s="151" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28" s="135"/>
       <c r="F28" s="135"/>
@@ -3897,13 +3852,13 @@
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="35.25">
       <c r="B29" s="151">
-        <v>12385</v>
+        <v>13491</v>
       </c>
       <c r="C29" s="151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29" s="136"/>
       <c r="F29" s="136"/>
@@ -3915,13 +3870,13 @@
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="35.25">
       <c r="B30" s="151">
-        <v>273802</v>
+        <v>13621</v>
       </c>
       <c r="C30" s="151" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30" s="151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" s="136"/>
       <c r="F30" s="136"/>
@@ -3933,13 +3888,13 @@
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="35.25">
       <c r="B31" s="151">
-        <v>273086</v>
+        <v>221</v>
       </c>
       <c r="C31" s="151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="136"/>
       <c r="F31" s="136"/>
@@ -3951,13 +3906,13 @@
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="35.25">
       <c r="B32" s="151">
-        <v>500107</v>
+        <v>13499</v>
       </c>
       <c r="C32" s="151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E32" s="136"/>
       <c r="F32" s="136"/>
@@ -3969,13 +3924,13 @@
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="35.25">
       <c r="B33" s="151">
-        <v>500266</v>
+        <v>801796</v>
       </c>
       <c r="C33" s="151" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" s="151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" s="136"/>
       <c r="F33" s="136"/>
@@ -3987,13 +3942,13 @@
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="35.25">
       <c r="B34" s="151">
-        <v>500060</v>
+        <v>803901</v>
       </c>
       <c r="C34" s="151" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="151" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E34" s="136"/>
       <c r="F34" s="136"/>
@@ -4005,13 +3960,13 @@
     </row>
     <row r="35" spans="1:17" customHeight="1" ht="35.25">
       <c r="B35" s="151">
-        <v>500135</v>
+        <v>804708</v>
       </c>
       <c r="C35" s="151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" s="151" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E35" s="136"/>
       <c r="F35" s="136"/>
@@ -4023,13 +3978,13 @@
     </row>
     <row r="36" spans="1:17" customHeight="1" ht="35.25">
       <c r="B36" s="151">
-        <v>801255</v>
+        <v>801400</v>
       </c>
       <c r="C36" s="151" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="136"/>
       <c r="F36" s="136"/>
@@ -4041,13 +3996,13 @@
     </row>
     <row r="37" spans="1:17" customHeight="1" ht="35.25">
       <c r="B37" s="151">
-        <v>801081</v>
+        <v>900332</v>
       </c>
       <c r="C37" s="151" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="136"/>
       <c r="F37" s="136"/>
@@ -4059,13 +4014,13 @@
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="35.25">
       <c r="B38" s="151">
-        <v>802994</v>
+        <v>803621</v>
       </c>
       <c r="C38" s="151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D38" s="151" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="136"/>
       <c r="F38" s="136"/>
@@ -4077,13 +4032,13 @@
     </row>
     <row r="39" spans="1:17" customHeight="1" ht="35.25">
       <c r="B39" s="151">
-        <v>804239</v>
+        <v>900026</v>
       </c>
       <c r="C39" s="151" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D39" s="151" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E39" s="136"/>
       <c r="F39" s="136"/>
@@ -4094,15 +4049,9 @@
       <c r="K39" s="128"/>
     </row>
     <row r="40" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B40" s="151">
-        <v>803143</v>
-      </c>
-      <c r="C40" s="151" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="151" t="s">
-        <v>52</v>
-      </c>
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="136"/>
       <c r="F40" s="136"/>
       <c r="G40" s="136"/>
@@ -4112,15 +4061,9 @@
       <c r="K40" s="128"/>
     </row>
     <row r="41" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B41" s="151">
-        <v>803418</v>
-      </c>
-      <c r="C41" s="151" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="151" t="s">
-        <v>54</v>
-      </c>
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
       <c r="E41" s="136"/>
       <c r="F41" s="136"/>
       <c r="G41" s="136"/>
@@ -4130,15 +4073,9 @@
       <c r="K41" s="128"/>
     </row>
     <row r="42" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B42" s="151">
-        <v>804263</v>
-      </c>
-      <c r="C42" s="151" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="151" t="s">
-        <v>56</v>
-      </c>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
       <c r="E42" s="136"/>
       <c r="F42" s="136"/>
       <c r="G42" s="136"/>
@@ -4148,15 +4085,9 @@
       <c r="K42" s="128"/>
     </row>
     <row r="43" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B43" s="151">
-        <v>802295</v>
-      </c>
-      <c r="C43" s="151" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="151" t="s">
-        <v>58</v>
-      </c>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
       <c r="E43" s="136"/>
       <c r="F43" s="136"/>
       <c r="G43" s="136"/>
@@ -4166,15 +4097,9 @@
       <c r="K43" s="128"/>
     </row>
     <row r="44" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B44" s="151">
-        <v>806205</v>
-      </c>
-      <c r="C44" s="151" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="151" t="s">
-        <v>60</v>
-      </c>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
       <c r="E44" s="136"/>
       <c r="F44" s="136"/>
       <c r="G44" s="136"/>
@@ -4184,15 +4109,9 @@
       <c r="K44" s="128"/>
     </row>
     <row r="45" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B45" s="151">
-        <v>806405</v>
-      </c>
-      <c r="C45" s="151" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="151" t="s">
-        <v>62</v>
-      </c>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
       <c r="E45" s="136"/>
       <c r="F45" s="136"/>
       <c r="G45" s="136"/>
@@ -4202,15 +4121,9 @@
       <c r="K45" s="128"/>
     </row>
     <row r="46" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B46" s="151">
-        <v>806159</v>
-      </c>
-      <c r="C46" s="151" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="151" t="s">
-        <v>64</v>
-      </c>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
       <c r="E46" s="136"/>
       <c r="F46" s="136"/>
       <c r="G46" s="136"/>
@@ -4220,15 +4133,9 @@
       <c r="K46" s="128"/>
     </row>
     <row r="47" spans="1:17" customHeight="1" ht="35.25">
-      <c r="B47" s="151">
-        <v>806476</v>
-      </c>
-      <c r="C47" s="151" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="151" t="s">
-        <v>66</v>
-      </c>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
       <c r="E47" s="136"/>
       <c r="F47" s="136"/>
       <c r="G47" s="136"/>
@@ -4312,7 +4219,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="B54" s="156" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C54" s="157"/>
       <c r="D54" s="157"/>
@@ -4479,7 +4386,7 @@
     </row>
     <row r="2" spans="1:84" customHeight="1" ht="51">
       <c r="A2" s="323" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B2" s="324"/>
       <c r="C2" s="324"/>
@@ -4498,7 +4405,7 @@
     </row>
     <row r="3" spans="1:84" customHeight="1" ht="39.75">
       <c r="A3" s="314" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B3" s="315"/>
       <c r="C3" s="315"/>
@@ -4516,7 +4423,7 @@
     </row>
     <row r="4" spans="1:84" customHeight="1" ht="40.5">
       <c r="A4" s="317" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B4" s="318"/>
       <c r="C4" s="318"/>
@@ -4560,7 +4467,7 @@
     </row>
     <row r="6" spans="1:84" customHeight="1" ht="24.95">
       <c r="A6" s="296" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B6" s="297"/>
       <c r="C6" s="298"/>
@@ -4583,12 +4490,12 @@
     </row>
     <row r="7" spans="1:84">
       <c r="A7" s="302" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="B7" s="303"/>
       <c r="C7" s="13"/>
       <c r="D7" s="304" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E7" s="305"/>
       <c r="F7" s="210"/>
@@ -4608,17 +4515,17 @@
     </row>
     <row r="8" spans="1:84">
       <c r="A8" s="14" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B8" s="210"/>
       <c r="C8" s="212"/>
       <c r="D8" s="306" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E8" s="307"/>
       <c r="F8" s="13"/>
       <c r="G8" s="308" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H8" s="309"/>
       <c r="I8" s="309"/>
@@ -4635,7 +4542,7 @@
     </row>
     <row r="9" spans="1:84">
       <c r="A9" s="300" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B9" s="301"/>
       <c r="C9" s="210"/>
@@ -4658,7 +4565,7 @@
     </row>
     <row r="10" spans="1:84">
       <c r="A10" s="208" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B10" s="209"/>
       <c r="C10" s="210"/>
@@ -4726,7 +4633,7 @@
     </row>
     <row r="13" spans="1:84" customHeight="1" ht="21">
       <c r="A13" s="213" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B13" s="214"/>
       <c r="C13" s="214"/>
@@ -4772,16 +4679,16 @@
     </row>
     <row r="15" spans="1:84">
       <c r="A15" s="28" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="216" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D15" s="217"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
@@ -4802,12 +4709,12 @@
       <c r="A16" s="35"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
       <c r="F16" s="233" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G16" s="233"/>
       <c r="H16" s="233"/>
@@ -4828,12 +4735,12 @@
       <c r="A17" s="42"/>
       <c r="B17" s="32"/>
       <c r="C17" s="43" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="39"/>
       <c r="F17" s="233" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G17" s="233"/>
       <c r="H17" s="233"/>
@@ -4852,14 +4759,14 @@
     </row>
     <row r="18" spans="1:84" customHeight="1" ht="12.75">
       <c r="A18" s="235" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B18" s="236"/>
       <c r="C18" s="236"/>
       <c r="D18" s="283"/>
       <c r="E18" s="44"/>
       <c r="F18" s="285" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G18" s="285"/>
       <c r="H18" s="285"/>
@@ -4878,7 +4785,7 @@
     </row>
     <row r="19" spans="1:84" customHeight="1" ht="13.5">
       <c r="A19" s="237" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B19" s="233"/>
       <c r="C19" s="234"/>
@@ -4902,14 +4809,14 @@
     </row>
     <row r="20" spans="1:84" customHeight="1" ht="13.5">
       <c r="A20" s="237" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B20" s="233"/>
       <c r="C20" s="234"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
       <c r="F20" s="284" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G20" s="284"/>
       <c r="H20" s="284"/>
@@ -4928,7 +4835,7 @@
     </row>
     <row r="21" spans="1:84" customHeight="1" ht="12.75">
       <c r="A21" s="237" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B21" s="233"/>
       <c r="C21" s="41"/>
@@ -4952,7 +4859,7 @@
     </row>
     <row r="22" spans="1:84" customHeight="1" ht="12.75">
       <c r="A22" s="237" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B22" s="233"/>
       <c r="C22" s="234"/>
@@ -4976,14 +4883,14 @@
     </row>
     <row r="23" spans="1:84" customHeight="1" ht="12">
       <c r="A23" s="237" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B23" s="233"/>
       <c r="C23" s="234"/>
       <c r="D23" s="38"/>
       <c r="E23" s="39"/>
       <c r="F23" s="46" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -5002,14 +4909,14 @@
     </row>
     <row r="24" spans="1:84" customHeight="1" ht="12">
       <c r="A24" s="237" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B24" s="233"/>
       <c r="C24" s="234"/>
       <c r="D24" s="38"/>
       <c r="E24" s="39"/>
       <c r="F24" s="46" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
@@ -5028,14 +4935,14 @@
     </row>
     <row r="25" spans="1:84" customHeight="1" ht="12">
       <c r="A25" s="237" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B25" s="233"/>
       <c r="C25" s="234"/>
       <c r="D25" s="38"/>
       <c r="E25" s="39"/>
       <c r="F25" s="52" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G25" s="53"/>
       <c r="H25" s="53"/>
@@ -5054,7 +4961,7 @@
     </row>
     <row r="26" spans="1:84" customHeight="1" ht="12">
       <c r="A26" s="237" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B26" s="233"/>
       <c r="C26" s="234"/>
@@ -5078,14 +4985,14 @@
     </row>
     <row r="27" spans="1:84" customHeight="1" ht="12">
       <c r="A27" s="293" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B27" s="294"/>
       <c r="C27" s="295"/>
       <c r="D27" s="38"/>
       <c r="E27" s="60"/>
       <c r="F27" s="290" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G27" s="290"/>
       <c r="H27" s="290"/>
@@ -5104,7 +5011,7 @@
     </row>
     <row r="28" spans="1:84" customHeight="1" ht="12">
       <c r="A28" s="287" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B28" s="288"/>
       <c r="C28" s="289"/>
@@ -5133,7 +5040,7 @@
       <c r="D29" s="47"/>
       <c r="E29" s="63"/>
       <c r="F29" s="46" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
@@ -5157,7 +5064,7 @@
       <c r="D30" s="292"/>
       <c r="E30" s="30"/>
       <c r="F30" s="46" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
@@ -5176,14 +5083,14 @@
     </row>
     <row r="31" spans="1:84" customHeight="1" ht="12">
       <c r="A31" s="235" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B31" s="236"/>
       <c r="C31" s="236"/>
       <c r="D31" s="68"/>
       <c r="E31" s="32"/>
       <c r="F31" s="46" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
@@ -5207,7 +5114,7 @@
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
       <c r="F32" s="46" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
@@ -5226,14 +5133,14 @@
     </row>
     <row r="33" spans="1:84" customHeight="1" ht="12">
       <c r="A33" s="237" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B33" s="234"/>
       <c r="C33" s="238"/>
       <c r="D33" s="238"/>
       <c r="E33" s="39"/>
       <c r="F33" s="46" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
@@ -5274,7 +5181,7 @@
     </row>
     <row r="35" spans="1:84" customHeight="1" ht="12">
       <c r="A35" s="74" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B35" s="40"/>
       <c r="C35" s="75"/>
@@ -5298,7 +5205,7 @@
     </row>
     <row r="36" spans="1:84" customHeight="1" ht="12">
       <c r="A36" s="16" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B36" s="40"/>
       <c r="C36" s="77"/>
@@ -5322,7 +5229,7 @@
     </row>
     <row r="37" spans="1:84" customHeight="1" ht="12">
       <c r="A37" s="16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B37" s="40"/>
       <c r="C37" s="77"/>
@@ -5346,7 +5253,7 @@
     </row>
     <row r="38" spans="1:84" customHeight="1" ht="12">
       <c r="A38" s="16" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B38" s="40"/>
       <c r="C38" s="77"/>
@@ -5370,7 +5277,7 @@
     </row>
     <row r="39" spans="1:84" customHeight="1" ht="12">
       <c r="A39" s="16" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B39" s="40"/>
       <c r="C39" s="77"/>
@@ -5394,7 +5301,7 @@
     </row>
     <row r="40" spans="1:84" customHeight="1" ht="12">
       <c r="A40" s="16" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B40" s="40"/>
       <c r="C40" s="77"/>
@@ -5418,7 +5325,7 @@
     </row>
     <row r="41" spans="1:84" customHeight="1" ht="12">
       <c r="A41" s="15" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B41" s="40"/>
       <c r="C41" s="77"/>
@@ -5508,7 +5415,7 @@
     </row>
     <row r="45" spans="1:84" customHeight="1" ht="24.95">
       <c r="A45" s="280" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B45" s="281"/>
       <c r="C45" s="281"/>
@@ -5532,7 +5439,7 @@
     </row>
     <row r="46" spans="1:84">
       <c r="A46" s="194" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B46" s="195"/>
       <c r="C46" s="195"/>
@@ -5578,7 +5485,7 @@
     </row>
     <row r="48" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
       <c r="A48" s="205" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B48" s="206"/>
       <c r="C48" s="206"/>
@@ -5610,7 +5517,7 @@
     </row>
     <row r="49" spans="1:84" customHeight="1" ht="14.1" s="123" customFormat="1">
       <c r="A49" s="207" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B49" s="207"/>
       <c r="C49" s="207"/>
@@ -5634,7 +5541,7 @@
     </row>
     <row r="50" spans="1:84" customHeight="1" ht="14.1">
       <c r="A50" s="207" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B50" s="207"/>
       <c r="C50" s="207"/>
@@ -5658,7 +5565,7 @@
     </row>
     <row r="51" spans="1:84" customHeight="1" ht="15">
       <c r="A51" s="193" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B51" s="193"/>
       <c r="C51" s="193"/>
@@ -5690,7 +5597,7 @@
     </row>
     <row r="52" spans="1:84" customHeight="1" ht="14.1">
       <c r="A52" s="204" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B52" s="204"/>
       <c r="C52" s="204"/>
@@ -5708,7 +5615,7 @@
     </row>
     <row r="53" spans="1:84" customHeight="1" ht="14.1" s="120" customFormat="1">
       <c r="A53" s="204" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B53" s="204"/>
       <c r="C53" s="204"/>
@@ -5726,7 +5633,7 @@
     </row>
     <row r="54" spans="1:84" customHeight="1" ht="15">
       <c r="A54" s="193" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B54" s="193"/>
       <c r="C54" s="193"/>
@@ -5758,7 +5665,7 @@
     </row>
     <row r="55" spans="1:84" customHeight="1" ht="14.1">
       <c r="A55" s="204" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B55" s="204"/>
       <c r="C55" s="204"/>
@@ -5776,7 +5683,7 @@
     </row>
     <row r="56" spans="1:84" customHeight="1" ht="14.1">
       <c r="A56" s="267" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="B56" s="267"/>
       <c r="C56" s="267"/>
@@ -5794,7 +5701,7 @@
     </row>
     <row r="57" spans="1:84" customHeight="1" ht="14.1">
       <c r="A57" s="268" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B57" s="269"/>
       <c r="C57" s="269"/>
@@ -5802,13 +5709,13 @@
       <c r="E57" s="269"/>
       <c r="F57" s="270"/>
       <c r="G57" s="274" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H57" s="275"/>
       <c r="I57" s="275"/>
       <c r="J57" s="276"/>
       <c r="K57" s="201" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="L57" s="202"/>
       <c r="M57" s="202"/>
@@ -5860,7 +5767,7 @@
     </row>
     <row r="59" spans="1:84" customHeight="1" ht="14.1">
       <c r="A59" s="264" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B59" s="265"/>
       <c r="C59" s="265"/>
@@ -5878,7 +5785,7 @@
     </row>
     <row r="60" spans="1:84" customHeight="1" ht="14.1">
       <c r="A60" s="264" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B60" s="265"/>
       <c r="C60" s="265"/>
@@ -5896,7 +5803,7 @@
     </row>
     <row r="61" spans="1:84" customHeight="1" ht="14.1">
       <c r="A61" s="277" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B61" s="278"/>
       <c r="C61" s="278"/>
@@ -5928,7 +5835,7 @@
     </row>
     <row r="62" spans="1:84" customHeight="1" ht="14.1">
       <c r="A62" s="264" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B62" s="265"/>
       <c r="C62" s="265"/>
@@ -5946,7 +5853,7 @@
     </row>
     <row r="63" spans="1:84" customHeight="1" ht="14.1">
       <c r="A63" s="264" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B63" s="265"/>
       <c r="C63" s="265"/>
@@ -5964,7 +5871,7 @@
     </row>
     <row r="64" spans="1:84" customHeight="1" ht="27.75">
       <c r="A64" s="255" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B64" s="256"/>
       <c r="C64" s="256"/>
@@ -5996,7 +5903,7 @@
     </row>
     <row r="65" spans="1:84" customHeight="1" ht="14.1">
       <c r="A65" s="264" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B65" s="265"/>
       <c r="C65" s="265"/>
@@ -6020,7 +5927,7 @@
     </row>
     <row r="66" spans="1:84" customHeight="1" ht="25.5">
       <c r="A66" s="227" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B66" s="228"/>
       <c r="C66" s="228"/>
@@ -6044,7 +5951,7 @@
     </row>
     <row r="67" spans="1:84" customHeight="1" ht="15">
       <c r="A67" s="255" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B67" s="256"/>
       <c r="C67" s="256"/>
@@ -6076,7 +5983,7 @@
     </row>
     <row r="68" spans="1:84" customHeight="1" ht="14.1">
       <c r="A68" s="227" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B68" s="228"/>
       <c r="C68" s="228"/>
@@ -6100,7 +6007,7 @@
     </row>
     <row r="69" spans="1:84" customHeight="1" ht="26.25">
       <c r="A69" s="258" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B69" s="259"/>
       <c r="C69" s="259"/>
@@ -6124,7 +6031,7 @@
     </row>
     <row r="70" spans="1:84" customHeight="1" ht="15">
       <c r="A70" s="261" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B70" s="262"/>
       <c r="C70" s="262"/>
@@ -6170,7 +6077,7 @@
     </row>
     <row r="72" spans="1:84" customHeight="1" ht="25.5">
       <c r="A72" s="227" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B72" s="228"/>
       <c r="C72" s="228"/>
@@ -6182,11 +6089,11 @@
       <c r="I72" s="228"/>
       <c r="J72" s="229"/>
       <c r="K72" s="101" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L72" s="102"/>
       <c r="M72" s="101" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="N72" s="103"/>
       <c r="O72" s="120"/>
@@ -6198,7 +6105,7 @@
     </row>
     <row r="73" spans="1:84" customHeight="1" ht="23.25">
       <c r="A73" s="227" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B73" s="228"/>
       <c r="C73" s="228"/>
@@ -6210,11 +6117,11 @@
       <c r="I73" s="228"/>
       <c r="J73" s="229"/>
       <c r="K73" s="101" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L73" s="102"/>
       <c r="M73" s="101" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="N73" s="103"/>
       <c r="O73" s="120"/>
@@ -6248,7 +6155,7 @@
     </row>
     <row r="75" spans="1:84" customHeight="1" ht="15">
       <c r="A75" s="230" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B75" s="231"/>
       <c r="C75" s="231"/>
@@ -6344,7 +6251,7 @@
     </row>
     <row r="76" spans="1:84" customHeight="1" ht="14.1">
       <c r="A76" s="249" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B76" s="250"/>
       <c r="C76" s="250"/>
@@ -6432,7 +6339,7 @@
     </row>
     <row r="77" spans="1:84" customHeight="1" ht="14.1">
       <c r="A77" s="249" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B77" s="250"/>
       <c r="C77" s="250"/>
@@ -6520,7 +6427,7 @@
     </row>
     <row r="78" spans="1:84" customHeight="1" ht="14.1">
       <c r="A78" s="249" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B78" s="250"/>
       <c r="C78" s="250"/>
@@ -6608,7 +6515,7 @@
     </row>
     <row r="79" spans="1:84" customHeight="1" ht="14.1">
       <c r="A79" s="249" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B79" s="250"/>
       <c r="C79" s="250"/>
@@ -6696,7 +6603,7 @@
     </row>
     <row r="80" spans="1:84" customHeight="1" ht="14.1">
       <c r="A80" s="249" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B80" s="250"/>
       <c r="C80" s="250"/>
@@ -6784,7 +6691,7 @@
     </row>
     <row r="81" spans="1:84" customHeight="1" ht="14.1">
       <c r="A81" s="240" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B81" s="241"/>
       <c r="C81" s="241"/>
@@ -6966,7 +6873,7 @@
     </row>
     <row r="83" spans="1:84" customHeight="1" ht="15">
       <c r="A83" s="246" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B83" s="247"/>
       <c r="C83" s="247"/>
@@ -7250,7 +7157,7 @@
     </row>
     <row r="90" spans="1:84">
       <c r="A90" s="230" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B90" s="231"/>
       <c r="C90" s="231"/>
@@ -7296,7 +7203,7 @@
     </row>
     <row r="92" spans="1:84" customHeight="1" ht="15">
       <c r="A92" s="239" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B92" s="239"/>
       <c r="C92" s="239"/>
